--- a/7_figure/comp-coord.xlsx
+++ b/7_figure/comp-coord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Id Point</t>
   </si>
@@ -44,13 +44,19 @@
     <t>Restitution (Agisoft)</t>
   </si>
   <si>
-    <t>Erreur</t>
-  </si>
-  <si>
     <t>Forme sur nuage  (Agisoft)</t>
   </si>
   <si>
-    <t>Erreur [mm]</t>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Erreur pixel</t>
+  </si>
+  <si>
+    <t>Ecart [mm]</t>
+  </si>
+  <si>
+    <t>Modélisation (3DReshaper)</t>
   </si>
 </sst>
 </file>
@@ -60,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +74,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -85,18 +113,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,20 +248,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>231321</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>129268</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>537482</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>150880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPr id="2" name="Image 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -144,8 +274,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="993321" y="4558393"/>
-          <a:ext cx="9572625" cy="7000875"/>
+          <a:off x="2340429" y="4062934"/>
+          <a:ext cx="9586232" cy="7000875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -420,450 +550,821 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:M24"/>
+  <dimension ref="B6:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="N6" s="2"/>
+      <c r="O6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>626.05100000000004</v>
+      </c>
+      <c r="D8" s="6">
+        <v>427.8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>501.74900000000002</v>
+      </c>
+      <c r="F8" s="15">
+        <v>626.06252700000005</v>
+      </c>
+      <c r="G8" s="15">
+        <v>427.80042200000003</v>
+      </c>
+      <c r="H8" s="15">
+        <v>501.74468200000001</v>
+      </c>
+      <c r="I8" s="16">
+        <f>SQRT((C8-F8)^2+(D8-G8)^2+(E8-H8)^2)*1000</f>
+        <v>12.316449853758112</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="17">
+        <v>626.06100000000004</v>
+      </c>
+      <c r="L8" s="17">
+        <v>427.79669000000001</v>
+      </c>
+      <c r="M8" s="17">
+        <v>501.74699700000002</v>
+      </c>
+      <c r="N8" s="18">
+        <f>SQRT(($C8-K8)^2+($D8-L8)^2+($E8-M8)^2)*1000</f>
+        <v>10.722318266112959</v>
+      </c>
+      <c r="O8" s="15">
+        <v>626.05047000000002</v>
+      </c>
+      <c r="P8" s="15">
+        <v>427.80314700000002</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>501.75433399999997</v>
+      </c>
+      <c r="R8" s="16">
+        <f t="shared" ref="R8:R11" si="0">SQRT(($C8-O8)^2+($D8-P8)^2+($E8-Q8)^2)*1000</f>
+        <v>6.2157915826990688</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>624.14800000000002</v>
-      </c>
-      <c r="D8">
-        <v>433.75900000000001</v>
-      </c>
-      <c r="E8">
-        <v>510.44799999999998</v>
-      </c>
-      <c r="F8" s="3">
-        <v>624.12744899999996</v>
-      </c>
-      <c r="G8" s="3">
-        <v>433.71116899999998</v>
-      </c>
-      <c r="H8" s="3">
-        <v>510.43249400000002</v>
-      </c>
-      <c r="I8" s="4">
-        <f>SQRT((C8-F8)^2+(D8-G8)^2+(E8-H8)^2)*1000</f>
-        <v>54.319280168320411</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>624.81500000000005</v>
-      </c>
-      <c r="D9">
-        <v>433.89</v>
-      </c>
-      <c r="E9">
-        <v>510.387</v>
-      </c>
-      <c r="F9" s="3">
-        <v>624.79569400000003</v>
-      </c>
-      <c r="G9" s="3">
-        <v>433.88889399999999</v>
-      </c>
-      <c r="H9" s="3">
-        <v>510.405033</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" ref="I9:I11" si="0">SQRT((C9-F9)^2+(D9-G9)^2+(E9-H9)^2)*1000</f>
-        <v>26.441141446639307</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>624.13900000000001</v>
-      </c>
-      <c r="D10">
-        <v>433.72</v>
-      </c>
-      <c r="E10">
-        <v>509.54599999999999</v>
-      </c>
-      <c r="F10" s="3">
-        <v>624.12980000000005</v>
-      </c>
-      <c r="G10" s="3">
-        <v>433.70753000000002</v>
-      </c>
-      <c r="H10" s="3">
-        <v>509.55670500000002</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="C9" s="6">
+        <v>626.92700000000002</v>
+      </c>
+      <c r="D9" s="6">
+        <v>428.02199999999999</v>
+      </c>
+      <c r="E9" s="6">
+        <v>501.77</v>
+      </c>
+      <c r="F9" s="15">
+        <v>626.93221100000005</v>
+      </c>
+      <c r="G9" s="15">
+        <v>428.019654</v>
+      </c>
+      <c r="H9" s="15">
+        <v>501.765061</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" ref="I9:I19" si="1">SQRT((C9-F9)^2+(D9-G9)^2+(E9-H9)^2)*1000</f>
+        <v>7.5532746540863549</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.182</v>
+      </c>
+      <c r="K9" s="17">
+        <v>626.93337699999995</v>
+      </c>
+      <c r="L9" s="17">
+        <v>428.01799999999997</v>
+      </c>
+      <c r="M9" s="17">
+        <v>501.76668999999998</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" ref="N9:N19" si="2">SQRT(($C9-K9)^2+($D9-L9)^2+($E9-M9)^2)*1000</f>
+        <v>8.2232736181673314</v>
+      </c>
+      <c r="O9" s="15">
+        <v>626.92587200000003</v>
+      </c>
+      <c r="P9" s="15">
+        <v>428.01602700000001</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>501.76801999999998</v>
+      </c>
+      <c r="R9" s="16">
         <f t="shared" si="0"/>
-        <v>18.834487648995733</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>624.81700000000001</v>
-      </c>
-      <c r="D11">
-        <v>433.904</v>
-      </c>
-      <c r="E11">
-        <v>509.55200000000002</v>
-      </c>
-      <c r="F11" s="3">
-        <v>624.79975400000001</v>
-      </c>
-      <c r="G11" s="3">
-        <v>433.90644400000002</v>
-      </c>
-      <c r="H11" s="3">
-        <v>509.561758</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="0"/>
-        <v>19.965375428467937</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>626.05100000000004</v>
-      </c>
-      <c r="D12">
-        <v>427.8</v>
-      </c>
-      <c r="E12">
-        <v>501.74900000000002</v>
-      </c>
-      <c r="F12" s="3">
-        <v>626.06252700000005</v>
-      </c>
-      <c r="G12" s="3">
-        <v>427.80042200000003</v>
-      </c>
-      <c r="H12" s="3">
-        <v>501.74468200000001</v>
-      </c>
-      <c r="I12" s="4">
-        <f>SQRT((C12-F12)^2+(D12-G12)^2+(E12-H12)^2)*1000</f>
-        <v>12.316449853758112</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>626.92700000000002</v>
-      </c>
-      <c r="D13">
-        <v>428.02199999999999</v>
-      </c>
-      <c r="E13">
-        <v>501.77</v>
-      </c>
-      <c r="F13" s="3">
-        <v>626.93221100000005</v>
-      </c>
-      <c r="G13" s="3">
-        <v>428.019654</v>
-      </c>
-      <c r="H13" s="3">
-        <v>501.765061</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" ref="I13:I15" si="1">SQRT((C13-F13)^2+(D13-G13)^2+(E13-H13)^2)*1000</f>
-        <v>7.5532746540863549</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14">
+        <v>6.392926794497038</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="C10" s="6">
         <v>626.03599999999994</v>
       </c>
-      <c r="D14">
+      <c r="D10" s="6">
         <v>427.822</v>
       </c>
-      <c r="E14">
+      <c r="E10" s="6">
         <v>499.83</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F10" s="15">
         <v>626.04960800000003</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G10" s="15">
         <v>427.82876499999998</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H10" s="15">
         <v>499.82452899999998</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I10" s="16">
         <f t="shared" si="1"/>
         <v>16.151616946983687</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="J10" s="15">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="K10" s="17">
+        <v>626.04821000000004</v>
+      </c>
+      <c r="L10" s="17">
+        <v>427.82269000000002</v>
+      </c>
+      <c r="M10" s="17">
+        <v>499.83195999999998</v>
+      </c>
+      <c r="N10" s="18">
+        <f t="shared" si="2"/>
+        <v>12.385548029956054</v>
+      </c>
+      <c r="O10" s="15">
+        <v>626.04602699999998</v>
+      </c>
+      <c r="P10" s="15">
+        <v>427.81730199999998</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>499.83649100000002</v>
+      </c>
+      <c r="R10" s="16">
+        <f t="shared" si="0"/>
+        <v>12.835303424595075</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C11" s="6">
         <v>626.92700000000002</v>
       </c>
-      <c r="D15">
+      <c r="D11" s="6">
         <v>428.024</v>
       </c>
-      <c r="E15">
+      <c r="E11" s="6">
         <v>499.84100000000001</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F11" s="15">
         <v>626.93426399999998</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G11" s="15">
         <v>428.02282700000001</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H11" s="15">
         <v>499.83233899999999</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I11" s="16">
         <f t="shared" si="1"/>
         <v>11.364618163395027</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="J11" s="15">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="K11" s="17">
+        <v>626.93477600000006</v>
+      </c>
+      <c r="L11" s="17">
+        <v>428.02286500000002</v>
+      </c>
+      <c r="M11" s="17">
+        <v>499.83390000000003</v>
+      </c>
+      <c r="N11" s="18">
+        <f t="shared" si="2"/>
+        <v>10.590769613215583</v>
+      </c>
+      <c r="O11" s="15">
+        <v>626.92441799999995</v>
+      </c>
+      <c r="P11" s="15">
+        <v>428.030981</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>499.84141299999999</v>
+      </c>
+      <c r="R11" s="16">
+        <f t="shared" si="0"/>
+        <v>7.4546397632827741</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C12" s="6">
         <v>629.09100000000001</v>
       </c>
-      <c r="D16">
+      <c r="D12" s="6">
         <v>428.65699999999998</v>
       </c>
-      <c r="E16">
+      <c r="E12" s="6">
         <v>501.86</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="F12" s="15">
+        <v>629.09939999999995</v>
+      </c>
+      <c r="G12" s="15">
+        <v>428.65899999999999</v>
+      </c>
+      <c r="H12" s="15">
+        <v>501.8603</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="1"/>
+        <v>8.6400231480582281</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="K12" s="17">
+        <v>629.1</v>
+      </c>
+      <c r="L12" s="17">
+        <v>428.652851</v>
+      </c>
+      <c r="M12" s="17">
+        <v>501.86070000000001</v>
+      </c>
+      <c r="N12" s="18">
+        <f t="shared" si="2"/>
+        <v>9.9349987921550174</v>
+      </c>
+      <c r="O12" s="15">
+        <v>629.08939999999996</v>
+      </c>
+      <c r="P12" s="15">
+        <v>428.65727500000003</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>501.85871800000001</v>
+      </c>
+      <c r="R12" s="16">
+        <f t="shared" ref="R12:R15" si="3">SQRT(($C12-O12)^2+($D12-P12)^2+($E12-Q12)^2)*1000</f>
+        <v>2.0686104031941541</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
         <v>10</v>
       </c>
-      <c r="C17">
+      <c r="C13" s="6">
         <v>629.97</v>
       </c>
-      <c r="D17">
+      <c r="D13" s="6">
         <v>428.89100000000002</v>
       </c>
-      <c r="E17">
+      <c r="E13" s="6">
         <v>501.85</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="F13" s="15">
+        <v>629.97439999999995</v>
+      </c>
+      <c r="G13" s="15">
+        <v>428.88990000000001</v>
+      </c>
+      <c r="H13" s="15">
+        <v>501.85070000000002</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="1"/>
+        <v>4.589117562156698</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="K13" s="17">
+        <v>629.97429</v>
+      </c>
+      <c r="L13" s="17">
+        <v>428.89012000000002</v>
+      </c>
+      <c r="M13" s="17">
+        <v>501.850662</v>
+      </c>
+      <c r="N13" s="18">
+        <f t="shared" si="2"/>
+        <v>4.4290793625419944</v>
+      </c>
+      <c r="O13" s="15">
+        <v>629.97190000000001</v>
+      </c>
+      <c r="P13" s="15">
+        <v>428.889837</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>501.84818799999999</v>
+      </c>
+      <c r="R13" s="16">
+        <f t="shared" si="3"/>
+        <v>2.8715697797664488</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C14" s="6">
         <v>629.09</v>
       </c>
-      <c r="D18">
+      <c r="D14" s="6">
         <v>428.66899999999998</v>
       </c>
-      <c r="E18">
+      <c r="E14" s="6">
         <v>500.351</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="F14" s="15">
+        <v>629.09720000000004</v>
+      </c>
+      <c r="G14" s="15">
+        <v>428.66829999999999</v>
+      </c>
+      <c r="H14" s="15">
+        <v>500.34370000000001</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="1"/>
+        <v>10.277159140538977</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K14" s="17">
+        <v>629.09975889999998</v>
+      </c>
+      <c r="L14" s="17">
+        <v>428.6678</v>
+      </c>
+      <c r="M14" s="17">
+        <v>500.33929999999998</v>
+      </c>
+      <c r="N14" s="18">
+        <f t="shared" si="2"/>
+        <v>15.282870450588049</v>
+      </c>
+      <c r="O14" s="15">
+        <v>629.08604800000001</v>
+      </c>
+      <c r="P14" s="15">
+        <v>428.66262799999998</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>500.34768000000003</v>
+      </c>
+      <c r="R14" s="16">
+        <f t="shared" si="3"/>
+        <v>8.2001882905225187</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
         <v>12</v>
       </c>
-      <c r="C19">
+      <c r="C15" s="6">
         <v>629.96900000000005</v>
       </c>
-      <c r="D19">
+      <c r="D15" s="6">
         <v>428.89499999999998</v>
       </c>
-      <c r="E19">
+      <c r="E15" s="6">
         <v>500.33800000000002</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="F15" s="15">
+        <v>629.97460000000001</v>
+      </c>
+      <c r="G15" s="15">
+        <v>428.89710000000002</v>
+      </c>
+      <c r="H15" s="15">
+        <v>500.33670000000001</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="1"/>
+        <v>6.1204574992190937</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="K15" s="17">
+        <v>629.97613000000001</v>
+      </c>
+      <c r="L15" s="17">
+        <v>428.90170000000001</v>
+      </c>
+      <c r="M15" s="17">
+        <v>500.33482400000003</v>
+      </c>
+      <c r="N15" s="18">
+        <f t="shared" si="2"/>
+        <v>10.28658718913784</v>
+      </c>
+      <c r="O15" s="15">
+        <v>629.96902299999999</v>
+      </c>
+      <c r="P15" s="15">
+        <v>428.89531799999997</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>500.33657399999998</v>
+      </c>
+      <c r="R15" s="16">
+        <f t="shared" si="3"/>
+        <v>1.4612080618790346</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
         <v>13</v>
       </c>
-      <c r="C20">
+      <c r="C16" s="6">
         <v>633.84900000000005</v>
       </c>
-      <c r="D20">
+      <c r="D16" s="6">
         <v>429.87900000000002</v>
       </c>
-      <c r="E20">
+      <c r="E16" s="6">
         <v>504.17099999999999</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="F16" s="15">
+        <v>633.85419999999999</v>
+      </c>
+      <c r="G16" s="15">
+        <v>429.88440000000003</v>
+      </c>
+      <c r="H16" s="15">
+        <v>504.17489999999998</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="1"/>
+        <v>8.4504437752952519</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="K16" s="17">
+        <v>633.85569999999996</v>
+      </c>
+      <c r="L16" s="17">
+        <v>429.87022100000002</v>
+      </c>
+      <c r="M16" s="17">
+        <v>504.16896000000003</v>
+      </c>
+      <c r="N16" s="18">
+        <f t="shared" si="2"/>
+        <v>11.230424791552709</v>
+      </c>
+      <c r="O16" s="15">
+        <v>633.85612600000002</v>
+      </c>
+      <c r="P16" s="15">
+        <v>429.87927999999999</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>504.1721</v>
+      </c>
+      <c r="R16" s="16">
+        <f t="shared" ref="R16:R19" si="4">SQRT(($C16-O16)^2+($D16-P16)^2+($E16-Q16)^2)*1000</f>
+        <v>7.2158350867790784</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
         <v>14</v>
       </c>
-      <c r="C21">
+      <c r="C17" s="6">
         <v>634.70399999999995</v>
       </c>
-      <c r="D21">
+      <c r="D17" s="6">
         <v>430.10500000000002</v>
       </c>
-      <c r="E21">
+      <c r="E17" s="6">
         <v>504.16</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="F17" s="15">
+        <v>634.70519999999999</v>
+      </c>
+      <c r="G17" s="15">
+        <v>430.10230000000001</v>
+      </c>
+      <c r="H17" s="15">
+        <v>504.16269999999997</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="1"/>
+        <v>4.0024992192173876</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="K17" s="17">
+        <v>634.70415000000003</v>
+      </c>
+      <c r="L17" s="17">
+        <v>430.1026</v>
+      </c>
+      <c r="M17" s="17">
+        <v>504.16448800000001</v>
+      </c>
+      <c r="N17" s="18">
+        <f t="shared" si="2"/>
+        <v>5.0916248879860948</v>
+      </c>
+      <c r="O17" s="15">
+        <v>634.69924600000002</v>
+      </c>
+      <c r="P17" s="15">
+        <v>430.101</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>504.16352799999999</v>
+      </c>
+      <c r="R17" s="16">
+        <f t="shared" si="4"/>
+        <v>7.1447393233937273</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
         <v>15</v>
       </c>
-      <c r="C22">
+      <c r="C18" s="6">
         <v>633.85599999999999</v>
       </c>
-      <c r="D22">
+      <c r="D18" s="6">
         <v>429.88</v>
       </c>
-      <c r="E22">
+      <c r="E18" s="6">
         <v>503.02</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="F18" s="15">
+        <v>633.8569</v>
+      </c>
+      <c r="G18" s="15">
+        <v>429.87959999999998</v>
+      </c>
+      <c r="H18" s="15">
+        <v>503.01740000000001</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="1"/>
+        <v>2.7802877548683496</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="K18" s="17">
+        <v>633.85959700000001</v>
+      </c>
+      <c r="L18" s="17">
+        <v>429.87079999999997</v>
+      </c>
+      <c r="M18" s="17">
+        <v>503.018799</v>
+      </c>
+      <c r="N18" s="18">
+        <f t="shared" si="2"/>
+        <v>9.9509200579865666</v>
+      </c>
+      <c r="O18" s="15">
+        <v>633.85695999999996</v>
+      </c>
+      <c r="P18" s="15">
+        <v>429.879525</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>503.01</v>
+      </c>
+      <c r="R18" s="16">
+        <f>SQRT(($C18-O18)^2+($D18-P18)^2+($E18-Q18)^2)*1000</f>
+        <v>10.057197671307005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
         <v>16</v>
       </c>
-      <c r="C23">
+      <c r="C19" s="6">
         <v>634.69600000000003</v>
       </c>
-      <c r="D23">
+      <c r="D19" s="6">
         <v>430.1</v>
       </c>
-      <c r="E23">
+      <c r="E19" s="6">
         <v>503.02300000000002</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="1"/>
+      <c r="F19" s="15">
+        <v>634.69970000000001</v>
+      </c>
+      <c r="G19" s="15">
+        <v>430.101</v>
+      </c>
+      <c r="H19" s="15">
+        <v>503.02539999999999</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" si="1"/>
+        <v>4.5221676217989479</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="K19" s="17">
+        <v>634.70146999999997</v>
+      </c>
+      <c r="L19" s="17">
+        <v>430.09699000000001</v>
+      </c>
+      <c r="M19" s="17">
+        <v>503.02350000000001</v>
+      </c>
+      <c r="N19" s="18">
+        <f t="shared" si="2"/>
+        <v>6.2634654943967965</v>
+      </c>
+      <c r="O19" s="15">
+        <v>634.69645000000003</v>
+      </c>
+      <c r="P19" s="15">
+        <v>430.10059999999999</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>503.01731799999999</v>
+      </c>
+      <c r="R19" s="16">
+        <f>SQRT(($C19-O19)^2+($D19-P19)^2+($E19-Q19)^2)*1000</f>
+        <v>5.7312846727729561</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="19">
+        <f>AVERAGE(I8:I19)</f>
+        <v>8.0640096116146758</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="20">
+        <f>AVERAGE(N8:N19)</f>
+        <v>9.5326567128164168</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="19">
+        <f>AVERAGE(R8:R19)</f>
+        <v>6.470774571224073</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B8:N23">
     <sortCondition ref="B8"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="O20:Q20"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="O6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/7_figure/comp-coord.xlsx
+++ b/7_figure/comp-coord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>Id Point</t>
   </si>
@@ -58,6 +58,21 @@
   <si>
     <t>Modélisation (3DReshaper)</t>
   </si>
+  <si>
+    <t>Contour planaire (3DReshaper)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Forme sur photo(Agisoft)</t>
+  </si>
+  <si>
+    <t>Id Points</t>
+  </si>
+  <si>
+    <t>Comparaison des coordonnées restituées par rapport aux points levés au MS60</t>
+  </si>
 </sst>
 </file>
 
@@ -66,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +105,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +135,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -165,19 +202,289 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -187,25 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -226,6 +515,106 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -248,20 +637,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>8005</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>537482</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>150880</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>469446</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPr id="3" name="Image 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -274,8 +663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2340429" y="4062934"/>
-          <a:ext cx="9586232" cy="7000875"/>
+          <a:off x="762000" y="4435929"/>
+          <a:ext cx="9572625" cy="7000875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -550,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:R20"/>
+  <dimension ref="B3:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,793 +956,1349 @@
     <col min="18" max="18" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="Z4" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="42"/>
+    </row>
+    <row r="5" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="44"/>
+    </row>
+    <row r="6" spans="2:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="3" t="s">
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="46"/>
     </row>
-    <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="S7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH7" s="32" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6">
+    <row r="8" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
         <v>626.05100000000004</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>427.8</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>501.74900000000002</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="7">
         <v>626.06252700000005</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="7">
         <v>427.80042200000003</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="7">
         <v>501.74468200000001</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="8">
         <f>SQRT((C8-F8)^2+(D8-G8)^2+(E8-H8)^2)*1000</f>
         <v>12.316449853758112</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="7">
         <v>0.25</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="9">
         <v>626.06100000000004</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="9">
         <v>427.79669000000001</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="9">
         <v>501.74699700000002</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="10">
         <f>SQRT(($C8-K8)^2+($D8-L8)^2+($E8-M8)^2)*1000</f>
         <v>10.722318266112959</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="7">
         <v>626.05047000000002</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="7">
         <v>427.80314700000002</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="7">
         <v>501.75433399999997</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="8">
         <f t="shared" ref="R8:R11" si="0">SQRT(($C8-O8)^2+($D8-P8)^2+($E8-Q8)^2)*1000</f>
         <v>6.2157915826990688</v>
       </c>
+      <c r="S8" s="7">
+        <v>626.04434000000003</v>
+      </c>
+      <c r="T8" s="7">
+        <v>427.80079999999998</v>
+      </c>
+      <c r="U8" s="7">
+        <v>501.75607000000002</v>
+      </c>
+      <c r="V8" s="8">
+        <f t="shared" ref="V8:V17" si="1">SQRT(($C8-S8)^2+($D8-T8)^2+($E8-U8)^2)*1000</f>
+        <v>9.7457939645817468</v>
+      </c>
+      <c r="Z8" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="29">
+        <f>I8</f>
+        <v>12.316449853758112</v>
+      </c>
+      <c r="AC8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="29">
+        <f>N8</f>
+        <v>10.722318266112959</v>
+      </c>
+      <c r="AE8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="29">
+        <f>R8</f>
+        <v>6.2157915826990688</v>
+      </c>
+      <c r="AG8" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH8" s="29">
+        <f>V8</f>
+        <v>9.7457939645817468</v>
+      </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
         <v>626.92700000000002</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>428.02199999999999</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>501.77</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="7">
         <v>626.93221100000005</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="7">
         <v>428.019654</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="7">
         <v>501.765061</v>
       </c>
-      <c r="I9" s="16">
-        <f t="shared" ref="I9:I19" si="1">SQRT((C9-F9)^2+(D9-G9)^2+(E9-H9)^2)*1000</f>
+      <c r="I9" s="8">
+        <f t="shared" ref="I9:I19" si="2">SQRT((C9-F9)^2+(D9-G9)^2+(E9-H9)^2)*1000</f>
         <v>7.5532746540863549</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="7">
         <v>0.182</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="9">
         <v>626.93337699999995</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="9">
         <v>428.01799999999997</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="9">
         <v>501.76668999999998</v>
       </c>
-      <c r="N9" s="18">
-        <f t="shared" ref="N9:N19" si="2">SQRT(($C9-K9)^2+($D9-L9)^2+($E9-M9)^2)*1000</f>
+      <c r="N9" s="10">
+        <f t="shared" ref="N9:N19" si="3">SQRT(($C9-K9)^2+($D9-L9)^2+($E9-M9)^2)*1000</f>
         <v>8.2232736181673314</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="7">
         <v>626.92587200000003</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="7">
         <v>428.01602700000001</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="7">
         <v>501.76801999999998</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="8">
         <f t="shared" si="0"/>
         <v>6.392926794497038</v>
       </c>
+      <c r="S9" s="7">
+        <v>626.92535499999997</v>
+      </c>
+      <c r="T9" s="7">
+        <v>428.02100000000002</v>
+      </c>
+      <c r="U9" s="7">
+        <v>501.76931999999999</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0416721088637151</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="23">
+        <f t="shared" ref="AB9:AB19" si="4">I9</f>
+        <v>7.5532746540863549</v>
+      </c>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="23">
+        <f t="shared" ref="AD9:AD19" si="5">N9</f>
+        <v>8.2232736181673314</v>
+      </c>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="23">
+        <f t="shared" ref="AF9:AF19" si="6">R9</f>
+        <v>6.392926794497038</v>
+      </c>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="23">
+        <f t="shared" ref="AH9:AH19" si="7">V9</f>
+        <v>2.0416721088637151</v>
+      </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
         <v>626.03599999999994</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>427.822</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>499.83</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="7">
         <v>626.04960800000003</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="7">
         <v>427.82876499999998</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="7">
         <v>499.82452899999998</v>
       </c>
-      <c r="I10" s="16">
-        <f t="shared" si="1"/>
+      <c r="I10" s="8">
+        <f t="shared" si="2"/>
         <v>16.151616946983687</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="7">
         <v>0.80400000000000005</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="9">
         <v>626.04821000000004</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="9">
         <v>427.82269000000002</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="9">
         <v>499.83195999999998</v>
       </c>
-      <c r="N10" s="18">
-        <f t="shared" si="2"/>
+      <c r="N10" s="10">
+        <f t="shared" si="3"/>
         <v>12.385548029956054</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="7">
         <v>626.04602699999998</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="7">
         <v>427.81730199999998</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="7">
         <v>499.83649100000002</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="8">
         <f t="shared" si="0"/>
         <v>12.835303424595075</v>
       </c>
+      <c r="S10" s="7">
+        <v>626.0326</v>
+      </c>
+      <c r="T10" s="7">
+        <v>427.82389999999998</v>
+      </c>
+      <c r="U10" s="7">
+        <v>499.8329</v>
+      </c>
+      <c r="V10" s="8">
+        <f t="shared" si="1"/>
+        <v>4.8559242168291092</v>
+      </c>
+      <c r="Z10" s="21">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="23">
+        <f t="shared" si="4"/>
+        <v>16.151616946983687</v>
+      </c>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="23">
+        <f t="shared" si="5"/>
+        <v>12.385548029956054</v>
+      </c>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="23">
+        <f t="shared" si="6"/>
+        <v>12.835303424595075</v>
+      </c>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="23">
+        <f t="shared" si="7"/>
+        <v>4.8559242168291092</v>
+      </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
         <v>626.92700000000002</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>428.024</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>499.84100000000001</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="7">
         <v>626.93426399999998</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="7">
         <v>428.02282700000001</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="7">
         <v>499.83233899999999</v>
       </c>
-      <c r="I11" s="16">
-        <f t="shared" si="1"/>
+      <c r="I11" s="8">
+        <f t="shared" si="2"/>
         <v>11.364618163395027</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="7">
         <v>0.49399999999999999</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="9">
         <v>626.93477600000006</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="9">
         <v>428.02286500000002</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="9">
         <v>499.83390000000003</v>
       </c>
-      <c r="N11" s="18">
-        <f t="shared" si="2"/>
+      <c r="N11" s="10">
+        <f t="shared" si="3"/>
         <v>10.590769613215583</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="7">
         <v>626.92441799999995</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="7">
         <v>428.030981</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="7">
         <v>499.84141299999999</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="8">
         <f t="shared" si="0"/>
         <v>7.4546397632827741</v>
       </c>
+      <c r="S11" s="7">
+        <v>626.9289</v>
+      </c>
+      <c r="T11" s="7">
+        <v>428.02789999999999</v>
+      </c>
+      <c r="U11" s="7">
+        <v>499.84039999999999</v>
+      </c>
+      <c r="V11" s="8">
+        <f t="shared" si="1"/>
+        <v>4.3794976880734806</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="23">
+        <f t="shared" si="4"/>
+        <v>11.364618163395027</v>
+      </c>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="23">
+        <f t="shared" si="5"/>
+        <v>10.590769613215583</v>
+      </c>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="23">
+        <f t="shared" si="6"/>
+        <v>7.4546397632827741</v>
+      </c>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="23">
+        <f t="shared" si="7"/>
+        <v>4.3794976880734806</v>
+      </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>629.09100000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>428.65699999999998</v>
+      </c>
+      <c r="E12" s="4">
+        <v>501.86</v>
+      </c>
+      <c r="F12" s="7">
+        <v>629.09939999999995</v>
+      </c>
+      <c r="G12" s="7">
+        <v>428.65899999999999</v>
+      </c>
+      <c r="H12" s="7">
+        <v>501.8603</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="2"/>
+        <v>8.6400231480582281</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="K12" s="9">
+        <v>629.1</v>
+      </c>
+      <c r="L12" s="9">
+        <v>428.652851</v>
+      </c>
+      <c r="M12" s="9">
+        <v>501.86070000000001</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="3"/>
+        <v>9.9349987921550174</v>
+      </c>
+      <c r="O12" s="7">
+        <v>629.08939999999996</v>
+      </c>
+      <c r="P12" s="7">
+        <v>428.65727500000003</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>501.85871800000001</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" ref="R12:R15" si="8">SQRT(($C12-O12)^2+($D12-P12)^2+($E12-Q12)^2)*1000</f>
+        <v>2.0686104031941541</v>
+      </c>
+      <c r="S12" s="7">
+        <v>629.08399999999995</v>
+      </c>
+      <c r="T12" s="7">
+        <v>428.65598</v>
+      </c>
+      <c r="U12" s="7">
+        <v>501.86309999999997</v>
+      </c>
+      <c r="V12" s="8">
+        <f t="shared" si="1"/>
+        <v>7.7233671413825409</v>
+      </c>
+      <c r="Z12" s="21">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="23">
+        <f t="shared" si="4"/>
+        <v>8.6400231480582281</v>
+      </c>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="23">
+        <f t="shared" si="5"/>
+        <v>9.9349987921550174</v>
+      </c>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="23">
+        <f t="shared" si="6"/>
+        <v>2.0686104031941541</v>
+      </c>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="23">
+        <f t="shared" si="7"/>
+        <v>7.7233671413825409</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
+        <v>629.97</v>
+      </c>
+      <c r="D13" s="4">
+        <v>428.89100000000002</v>
+      </c>
+      <c r="E13" s="4">
+        <v>501.85</v>
+      </c>
+      <c r="F13" s="7">
+        <v>629.97439999999995</v>
+      </c>
+      <c r="G13" s="7">
+        <v>428.88990000000001</v>
+      </c>
+      <c r="H13" s="7">
+        <v>501.85070000000002</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="2"/>
+        <v>4.589117562156698</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="K13" s="9">
+        <v>629.97429</v>
+      </c>
+      <c r="L13" s="9">
+        <v>428.89012000000002</v>
+      </c>
+      <c r="M13" s="9">
+        <v>501.850662</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="3"/>
+        <v>4.4290793625419944</v>
+      </c>
+      <c r="O13" s="7">
+        <v>629.97190000000001</v>
+      </c>
+      <c r="P13" s="7">
+        <v>428.889837</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>501.84818799999999</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="8"/>
+        <v>2.8715697797664488</v>
+      </c>
+      <c r="S13" s="7">
+        <v>629.97776999999996</v>
+      </c>
+      <c r="T13" s="7">
+        <v>428.89147500000001</v>
+      </c>
+      <c r="U13" s="7">
+        <v>501.85250000000002</v>
+      </c>
+      <c r="V13" s="8">
+        <f t="shared" si="1"/>
+        <v>8.1760947278637115</v>
+      </c>
+      <c r="Z13" s="21">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="23">
+        <f t="shared" si="4"/>
+        <v>4.589117562156698</v>
+      </c>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="23">
+        <f t="shared" si="5"/>
+        <v>4.4290793625419944</v>
+      </c>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="23">
+        <f t="shared" si="6"/>
+        <v>2.8715697797664488</v>
+      </c>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="23">
+        <f t="shared" si="7"/>
+        <v>8.1760947278637115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4">
+        <v>629.09</v>
+      </c>
+      <c r="D14" s="4">
+        <v>428.66899999999998</v>
+      </c>
+      <c r="E14" s="4">
+        <v>500.351</v>
+      </c>
+      <c r="F14" s="7">
+        <v>629.09720000000004</v>
+      </c>
+      <c r="G14" s="7">
+        <v>428.66829999999999</v>
+      </c>
+      <c r="H14" s="7">
+        <v>500.34370000000001</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="2"/>
+        <v>10.277159140538977</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K14" s="9">
+        <v>629.09975889999998</v>
+      </c>
+      <c r="L14" s="9">
+        <v>428.6678</v>
+      </c>
+      <c r="M14" s="9">
+        <v>500.33929999999998</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="3"/>
+        <v>15.282870450588049</v>
+      </c>
+      <c r="O14" s="7">
+        <v>629.08604800000001</v>
+      </c>
+      <c r="P14" s="7">
+        <v>428.66262799999998</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>500.34768000000003</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="8"/>
+        <v>8.2001882905225187</v>
+      </c>
+      <c r="S14" s="7">
+        <v>629.07469000000003</v>
+      </c>
+      <c r="T14" s="7">
+        <v>428.65976999999998</v>
+      </c>
+      <c r="U14" s="7">
+        <v>500.33168000000001</v>
+      </c>
+      <c r="V14" s="8">
+        <f t="shared" si="1"/>
+        <v>26.322070587242361</v>
+      </c>
+      <c r="Z14" s="21">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="23">
+        <f t="shared" si="4"/>
+        <v>10.277159140538977</v>
+      </c>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="23">
+        <f t="shared" si="5"/>
+        <v>15.282870450588049</v>
+      </c>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="23">
+        <f t="shared" si="6"/>
+        <v>8.2001882905225187</v>
+      </c>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="23">
+        <f t="shared" si="7"/>
+        <v>26.322070587242361</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>629.96900000000005</v>
+      </c>
+      <c r="D15" s="4">
+        <v>428.89499999999998</v>
+      </c>
+      <c r="E15" s="4">
+        <v>500.33800000000002</v>
+      </c>
+      <c r="F15" s="7">
+        <v>629.97460000000001</v>
+      </c>
+      <c r="G15" s="7">
+        <v>428.89710000000002</v>
+      </c>
+      <c r="H15" s="7">
+        <v>500.33670000000001</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="2"/>
+        <v>6.1204574992190937</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="K15" s="9">
+        <v>629.97613000000001</v>
+      </c>
+      <c r="L15" s="9">
+        <v>428.90170000000001</v>
+      </c>
+      <c r="M15" s="9">
+        <v>500.33482400000003</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="3"/>
+        <v>10.28658718913784</v>
+      </c>
+      <c r="O15" s="7">
+        <v>629.96902299999999</v>
+      </c>
+      <c r="P15" s="7">
+        <v>428.89531799999997</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>500.33657399999998</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="8"/>
+        <v>1.4612080618790346</v>
+      </c>
+      <c r="S15" s="7">
+        <v>629.97199999999998</v>
+      </c>
+      <c r="T15" s="7">
+        <v>428.89620000000002</v>
+      </c>
+      <c r="U15" s="7">
+        <v>500.32990000000001</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" si="1"/>
+        <v>8.7206651122424201</v>
+      </c>
+      <c r="Z15" s="21">
+        <v>8</v>
+      </c>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="23">
+        <f t="shared" si="4"/>
+        <v>6.1204574992190937</v>
+      </c>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="23">
+        <f t="shared" si="5"/>
+        <v>10.28658718913784</v>
+      </c>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="23">
+        <f t="shared" si="6"/>
+        <v>1.4612080618790346</v>
+      </c>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="23">
+        <f t="shared" si="7"/>
+        <v>8.7206651122424201</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
-        <v>629.09100000000001</v>
-      </c>
-      <c r="D12" s="6">
-        <v>428.65699999999998</v>
-      </c>
-      <c r="E12" s="6">
-        <v>501.86</v>
-      </c>
-      <c r="F12" s="15">
-        <v>629.09939999999995</v>
-      </c>
-      <c r="G12" s="15">
-        <v>428.65899999999999</v>
-      </c>
-      <c r="H12" s="15">
-        <v>501.8603</v>
-      </c>
-      <c r="I12" s="16">
+      <c r="C16" s="4">
+        <v>633.84900000000005</v>
+      </c>
+      <c r="D16" s="4">
+        <v>429.87900000000002</v>
+      </c>
+      <c r="E16" s="4">
+        <v>504.17099999999999</v>
+      </c>
+      <c r="F16" s="7">
+        <v>633.85419999999999</v>
+      </c>
+      <c r="G16" s="7">
+        <v>429.88440000000003</v>
+      </c>
+      <c r="H16" s="7">
+        <v>504.17489999999998</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="2"/>
+        <v>8.4504437752952519</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="K16" s="9">
+        <v>633.85569999999996</v>
+      </c>
+      <c r="L16" s="9">
+        <v>429.87022100000002</v>
+      </c>
+      <c r="M16" s="9">
+        <v>504.16896000000003</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="3"/>
+        <v>11.230424791552709</v>
+      </c>
+      <c r="O16" s="7">
+        <v>633.85612600000002</v>
+      </c>
+      <c r="P16" s="7">
+        <v>429.87927999999999</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>504.1721</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" ref="R16:R17" si="9">SQRT(($C16-O16)^2+($D16-P16)^2+($E16-Q16)^2)*1000</f>
+        <v>7.2158350867790784</v>
+      </c>
+      <c r="S16" s="7">
+        <v>633.84979999999996</v>
+      </c>
+      <c r="T16" s="7">
+        <v>429.87765400000001</v>
+      </c>
+      <c r="U16" s="7">
+        <v>504.17618599999997</v>
+      </c>
+      <c r="V16" s="8">
         <f t="shared" si="1"/>
-        <v>8.6400231480582281</v>
-      </c>
-      <c r="J12" s="15">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="K12" s="17">
-        <v>629.1</v>
-      </c>
-      <c r="L12" s="17">
-        <v>428.652851</v>
-      </c>
-      <c r="M12" s="17">
-        <v>501.86070000000001</v>
-      </c>
-      <c r="N12" s="18">
+        <v>5.4172236431305274</v>
+      </c>
+      <c r="Z16" s="21">
+        <v>9</v>
+      </c>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="23">
+        <f t="shared" si="4"/>
+        <v>8.4504437752952519</v>
+      </c>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="23">
+        <f t="shared" si="5"/>
+        <v>11.230424791552709</v>
+      </c>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="23">
+        <f t="shared" si="6"/>
+        <v>7.2158350867790784</v>
+      </c>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="23">
+        <f t="shared" si="7"/>
+        <v>5.4172236431305274</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4">
+        <v>634.70399999999995</v>
+      </c>
+      <c r="D17" s="4">
+        <v>430.10500000000002</v>
+      </c>
+      <c r="E17" s="4">
+        <v>504.16</v>
+      </c>
+      <c r="F17" s="7">
+        <v>634.70519999999999</v>
+      </c>
+      <c r="G17" s="7">
+        <v>430.10230000000001</v>
+      </c>
+      <c r="H17" s="7">
+        <v>504.16269999999997</v>
+      </c>
+      <c r="I17" s="8">
         <f t="shared" si="2"/>
-        <v>9.9349987921550174</v>
-      </c>
-      <c r="O12" s="15">
-        <v>629.08939999999996</v>
-      </c>
-      <c r="P12" s="15">
-        <v>428.65727500000003</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>501.85871800000001</v>
-      </c>
-      <c r="R12" s="16">
-        <f t="shared" ref="R12:R15" si="3">SQRT(($C12-O12)^2+($D12-P12)^2+($E12-Q12)^2)*1000</f>
-        <v>2.0686104031941541</v>
+        <v>4.0024992192173876</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="K17" s="9">
+        <v>634.70415000000003</v>
+      </c>
+      <c r="L17" s="9">
+        <v>430.1026</v>
+      </c>
+      <c r="M17" s="9">
+        <v>504.16448800000001</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="3"/>
+        <v>5.0916248879860948</v>
+      </c>
+      <c r="O17" s="7">
+        <v>634.69924600000002</v>
+      </c>
+      <c r="P17" s="7">
+        <v>430.101</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>504.16352799999999</v>
+      </c>
+      <c r="R17" s="8">
+        <f t="shared" si="9"/>
+        <v>7.1447393233937273</v>
+      </c>
+      <c r="S17" s="7">
+        <v>634.69910000000004</v>
+      </c>
+      <c r="T17" s="7">
+        <v>430.10149999999999</v>
+      </c>
+      <c r="U17" s="7">
+        <v>504.16206799999998</v>
+      </c>
+      <c r="V17" s="8">
+        <f t="shared" si="1"/>
+        <v>6.3668378335798206</v>
+      </c>
+      <c r="Z17" s="21">
+        <v>10</v>
+      </c>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="23">
+        <f t="shared" si="4"/>
+        <v>4.0024992192173876</v>
+      </c>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="23">
+        <f t="shared" si="5"/>
+        <v>5.0916248879860948</v>
+      </c>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="23">
+        <f t="shared" si="6"/>
+        <v>7.1447393233937273</v>
+      </c>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="23">
+        <f t="shared" si="7"/>
+        <v>6.3668378335798206</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6">
-        <v>629.97</v>
-      </c>
-      <c r="D13" s="6">
-        <v>428.89100000000002</v>
-      </c>
-      <c r="E13" s="6">
-        <v>501.85</v>
-      </c>
-      <c r="F13" s="15">
-        <v>629.97439999999995</v>
-      </c>
-      <c r="G13" s="15">
-        <v>428.88990000000001</v>
-      </c>
-      <c r="H13" s="15">
-        <v>501.85070000000002</v>
-      </c>
-      <c r="I13" s="16">
-        <f t="shared" si="1"/>
-        <v>4.589117562156698</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="K13" s="17">
-        <v>629.97429</v>
-      </c>
-      <c r="L13" s="17">
-        <v>428.89012000000002</v>
-      </c>
-      <c r="M13" s="17">
-        <v>501.850662</v>
-      </c>
-      <c r="N13" s="18">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4">
+        <v>633.85599999999999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>429.88</v>
+      </c>
+      <c r="E18" s="4">
+        <v>503.02</v>
+      </c>
+      <c r="F18" s="7">
+        <v>633.8569</v>
+      </c>
+      <c r="G18" s="7">
+        <v>429.87959999999998</v>
+      </c>
+      <c r="H18" s="7">
+        <v>503.01740000000001</v>
+      </c>
+      <c r="I18" s="8">
         <f t="shared" si="2"/>
-        <v>4.4290793625419944</v>
-      </c>
-      <c r="O13" s="15">
-        <v>629.97190000000001</v>
-      </c>
-      <c r="P13" s="15">
-        <v>428.889837</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>501.84818799999999</v>
-      </c>
-      <c r="R13" s="16">
+        <v>2.7802877548683496</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="K18" s="9">
+        <v>633.85959700000001</v>
+      </c>
+      <c r="L18" s="9">
+        <v>429.87079999999997</v>
+      </c>
+      <c r="M18" s="9">
+        <v>503.018799</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="3"/>
-        <v>2.8715697797664488</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6">
-        <v>629.09</v>
-      </c>
-      <c r="D14" s="6">
-        <v>428.66899999999998</v>
-      </c>
-      <c r="E14" s="6">
-        <v>500.351</v>
-      </c>
-      <c r="F14" s="15">
-        <v>629.09720000000004</v>
-      </c>
-      <c r="G14" s="15">
-        <v>428.66829999999999</v>
-      </c>
-      <c r="H14" s="15">
-        <v>500.34370000000001</v>
-      </c>
-      <c r="I14" s="16">
-        <f t="shared" si="1"/>
-        <v>10.277159140538977</v>
-      </c>
-      <c r="J14" s="15">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="K14" s="17">
-        <v>629.09975889999998</v>
-      </c>
-      <c r="L14" s="17">
-        <v>428.6678</v>
-      </c>
-      <c r="M14" s="17">
-        <v>500.33929999999998</v>
-      </c>
-      <c r="N14" s="18">
-        <f t="shared" si="2"/>
-        <v>15.282870450588049</v>
-      </c>
-      <c r="O14" s="15">
-        <v>629.08604800000001</v>
-      </c>
-      <c r="P14" s="15">
-        <v>428.66262799999998</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>500.34768000000003</v>
-      </c>
-      <c r="R14" s="16">
-        <f t="shared" si="3"/>
-        <v>8.2001882905225187</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6">
-        <v>629.96900000000005</v>
-      </c>
-      <c r="D15" s="6">
-        <v>428.89499999999998</v>
-      </c>
-      <c r="E15" s="6">
-        <v>500.33800000000002</v>
-      </c>
-      <c r="F15" s="15">
-        <v>629.97460000000001</v>
-      </c>
-      <c r="G15" s="15">
-        <v>428.89710000000002</v>
-      </c>
-      <c r="H15" s="15">
-        <v>500.33670000000001</v>
-      </c>
-      <c r="I15" s="16">
-        <f t="shared" si="1"/>
-        <v>6.1204574992190937</v>
-      </c>
-      <c r="J15" s="15">
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="K15" s="17">
-        <v>629.97613000000001</v>
-      </c>
-      <c r="L15" s="17">
-        <v>428.90170000000001</v>
-      </c>
-      <c r="M15" s="17">
-        <v>500.33482400000003</v>
-      </c>
-      <c r="N15" s="18">
-        <f t="shared" si="2"/>
-        <v>10.28658718913784</v>
-      </c>
-      <c r="O15" s="15">
-        <v>629.96902299999999</v>
-      </c>
-      <c r="P15" s="15">
-        <v>428.89531799999997</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>500.33657399999998</v>
-      </c>
-      <c r="R15" s="16">
-        <f t="shared" si="3"/>
-        <v>1.4612080618790346</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6">
-        <v>633.84900000000005</v>
-      </c>
-      <c r="D16" s="6">
-        <v>429.87900000000002</v>
-      </c>
-      <c r="E16" s="6">
-        <v>504.17099999999999</v>
-      </c>
-      <c r="F16" s="15">
-        <v>633.85419999999999</v>
-      </c>
-      <c r="G16" s="15">
-        <v>429.88440000000003</v>
-      </c>
-      <c r="H16" s="15">
-        <v>504.17489999999998</v>
-      </c>
-      <c r="I16" s="16">
-        <f t="shared" si="1"/>
-        <v>8.4504437752952519</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="K16" s="17">
-        <v>633.85569999999996</v>
-      </c>
-      <c r="L16" s="17">
-        <v>429.87022100000002</v>
-      </c>
-      <c r="M16" s="17">
-        <v>504.16896000000003</v>
-      </c>
-      <c r="N16" s="18">
-        <f t="shared" si="2"/>
-        <v>11.230424791552709</v>
-      </c>
-      <c r="O16" s="15">
-        <v>633.85612600000002</v>
-      </c>
-      <c r="P16" s="15">
-        <v>429.87927999999999</v>
-      </c>
-      <c r="Q16" s="15">
-        <v>504.1721</v>
-      </c>
-      <c r="R16" s="16">
-        <f t="shared" ref="R16:R19" si="4">SQRT(($C16-O16)^2+($D16-P16)^2+($E16-Q16)^2)*1000</f>
-        <v>7.2158350867790784</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6">
-        <v>634.70399999999995</v>
-      </c>
-      <c r="D17" s="6">
-        <v>430.10500000000002</v>
-      </c>
-      <c r="E17" s="6">
-        <v>504.16</v>
-      </c>
-      <c r="F17" s="15">
-        <v>634.70519999999999</v>
-      </c>
-      <c r="G17" s="15">
-        <v>430.10230000000001</v>
-      </c>
-      <c r="H17" s="15">
-        <v>504.16269999999997</v>
-      </c>
-      <c r="I17" s="16">
-        <f t="shared" si="1"/>
-        <v>4.0024992192173876</v>
-      </c>
-      <c r="J17" s="15">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="K17" s="17">
-        <v>634.70415000000003</v>
-      </c>
-      <c r="L17" s="17">
-        <v>430.1026</v>
-      </c>
-      <c r="M17" s="17">
-        <v>504.16448800000001</v>
-      </c>
-      <c r="N17" s="18">
-        <f t="shared" si="2"/>
-        <v>5.0916248879860948</v>
-      </c>
-      <c r="O17" s="15">
-        <v>634.69924600000002</v>
-      </c>
-      <c r="P17" s="15">
-        <v>430.101</v>
-      </c>
-      <c r="Q17" s="15">
-        <v>504.16352799999999</v>
-      </c>
-      <c r="R17" s="16">
-        <f t="shared" si="4"/>
-        <v>7.1447393233937273</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6">
-        <v>633.85599999999999</v>
-      </c>
-      <c r="D18" s="6">
-        <v>429.88</v>
-      </c>
-      <c r="E18" s="6">
-        <v>503.02</v>
-      </c>
-      <c r="F18" s="15">
-        <v>633.8569</v>
-      </c>
-      <c r="G18" s="15">
-        <v>429.87959999999998</v>
-      </c>
-      <c r="H18" s="15">
-        <v>503.01740000000001</v>
-      </c>
-      <c r="I18" s="16">
-        <f t="shared" si="1"/>
-        <v>2.7802877548683496</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="K18" s="17">
-        <v>633.85959700000001</v>
-      </c>
-      <c r="L18" s="17">
-        <v>429.87079999999997</v>
-      </c>
-      <c r="M18" s="17">
-        <v>503.018799</v>
-      </c>
-      <c r="N18" s="18">
-        <f t="shared" si="2"/>
         <v>9.9509200579865666</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="7">
         <v>633.85695999999996</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="7">
         <v>429.879525</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="7">
         <v>503.01</v>
       </c>
-      <c r="R18" s="16">
+      <c r="R18" s="8">
         <f>SQRT(($C18-O18)^2+($D18-P18)^2+($E18-Q18)^2)*1000</f>
         <v>10.057197671307005</v>
       </c>
+      <c r="S18" s="7">
+        <v>633.85429999999997</v>
+      </c>
+      <c r="T18" s="7">
+        <v>429.87887499999999</v>
+      </c>
+      <c r="U18" s="7">
+        <v>503.01100000000002</v>
+      </c>
+      <c r="V18" s="8">
+        <f>SQRT(($C18-S18)^2+($D18-T18)^2+($E18-U18)^2)*1000</f>
+        <v>9.2279805482748003</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>11</v>
+      </c>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="23">
+        <f t="shared" si="4"/>
+        <v>2.7802877548683496</v>
+      </c>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="23">
+        <f t="shared" si="5"/>
+        <v>9.9509200579865666</v>
+      </c>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="23">
+        <f t="shared" si="6"/>
+        <v>10.057197671307005</v>
+      </c>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="23">
+        <f t="shared" si="7"/>
+        <v>9.2279805482748003</v>
+      </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6">
+    <row r="19" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4">
         <v>634.69600000000003</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>430.1</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>503.02300000000002</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="7">
         <v>634.69970000000001</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="7">
         <v>430.101</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="7">
         <v>503.02539999999999</v>
       </c>
-      <c r="I19" s="16">
-        <f t="shared" si="1"/>
+      <c r="I19" s="8">
+        <f t="shared" si="2"/>
         <v>4.5221676217989479</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="7">
         <v>0.31900000000000001</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="9">
         <v>634.70146999999997</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="9">
         <v>430.09699000000001</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="9">
         <v>503.02350000000001</v>
       </c>
-      <c r="N19" s="18">
-        <f t="shared" si="2"/>
+      <c r="N19" s="10">
+        <f t="shared" si="3"/>
         <v>6.2634654943967965</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="7">
         <v>634.69645000000003</v>
       </c>
-      <c r="P19" s="15">
+      <c r="P19" s="7">
         <v>430.10059999999999</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="7">
         <v>503.01731799999999</v>
       </c>
-      <c r="R19" s="16">
+      <c r="R19" s="8">
         <f>SQRT(($C19-O19)^2+($D19-P19)^2+($E19-Q19)^2)*1000</f>
         <v>5.7312846727729561</v>
       </c>
+      <c r="S19" s="7">
+        <v>634.69771900000001</v>
+      </c>
+      <c r="T19" s="7">
+        <v>430.101156</v>
+      </c>
+      <c r="U19" s="7">
+        <v>503.01690000000002</v>
+      </c>
+      <c r="V19" s="8">
+        <f>SQRT(($C19-S19)^2+($D19-T19)^2+($E19-U19)^2)*1000</f>
+        <v>6.4421500292937397</v>
+      </c>
+      <c r="Z19" s="22">
+        <v>12</v>
+      </c>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="24">
+        <f t="shared" si="4"/>
+        <v>4.5221676217989479</v>
+      </c>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="24">
+        <f t="shared" si="5"/>
+        <v>6.2634654943967965</v>
+      </c>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="24">
+        <f t="shared" si="6"/>
+        <v>5.7312846727729561</v>
+      </c>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="24">
+        <f t="shared" si="7"/>
+        <v>6.4421500292937397</v>
+      </c>
     </row>
-    <row r="20" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
+    <row r="20" spans="2:34" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="19">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="11">
         <f>AVERAGE(I8:I19)</f>
         <v>8.0640096116146758</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="20">
+      <c r="J20" s="7"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="12">
         <f>AVERAGE(N8:N19)</f>
         <v>9.5326567128164168</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="19">
+      <c r="O20" s="16"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="11">
         <f>AVERAGE(R8:R19)</f>
         <v>6.470774571224073</v>
+      </c>
+      <c r="S20" s="16"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="11">
+        <f>AVERAGE(V8:V19)</f>
+        <v>8.2849398001131647</v>
+      </c>
+      <c r="Z20" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="26">
+        <f>AVERAGE(AB8:AB19)</f>
+        <v>8.0640096116146758</v>
+      </c>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="26">
+        <f>AVERAGE(AD8:AD19)</f>
+        <v>9.5326567128164168</v>
+      </c>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="26">
+        <f>AVERAGE(AF8:AF19)</f>
+        <v>6.470774571224073</v>
+      </c>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="26">
+        <f>AVERAGE(AH8:AH19)</f>
+        <v>8.2849398001131647</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B8:N23">
     <sortCondition ref="B8"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="15">
+    <mergeCell ref="Z4:AH6"/>
+    <mergeCell ref="AA8:AA20"/>
+    <mergeCell ref="AC8:AC20"/>
+    <mergeCell ref="AE8:AE20"/>
+    <mergeCell ref="AG8:AG20"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="S20:U20"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="K20:M20"/>

--- a/7_figure/comp-coord.xlsx
+++ b/7_figure/comp-coord.xlsx
@@ -516,30 +516,6 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -556,27 +532,54 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -589,32 +592,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AH20"/>
+  <dimension ref="B2:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,72 +956,83 @@
     <col min="18" max="18" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="G2">
+        <v>-1.9E-2</v>
+      </c>
+    </row>
     <row r="3" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="Z4" s="40" t="s">
+      <c r="Z4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="42"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="26"/>
     </row>
     <row r="5" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="44"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="29"/>
     </row>
     <row r="6" spans="2:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="19" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20" t="s">
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20" t="s">
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="46"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="32"/>
     </row>
     <row r="7" spans="2:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1087,31 +1098,31 @@
       <c r="V7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z7" s="30" t="s">
+      <c r="Z7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="31" t="s">
+      <c r="AA7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AB7" s="32" t="s">
+      <c r="AB7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AC7" s="31" t="s">
+      <c r="AC7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AD7" s="32" t="s">
+      <c r="AD7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AE7" s="31" t="s">
+      <c r="AE7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AF7" s="32" t="s">
+      <c r="AF7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AG7" s="31" t="s">
+      <c r="AG7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AH7" s="32" t="s">
+      <c r="AH7" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1183,34 +1194,34 @@
         <f t="shared" ref="V8:V17" si="1">SQRT(($C8-S8)^2+($D8-T8)^2+($E8-U8)^2)*1000</f>
         <v>9.7457939645817468</v>
       </c>
-      <c r="Z8" s="28">
+      <c r="Z8" s="19">
         <v>1</v>
       </c>
       <c r="AA8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AB8" s="29">
+      <c r="AB8" s="20">
         <f>I8</f>
         <v>12.316449853758112</v>
       </c>
       <c r="AC8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="29">
+      <c r="AD8" s="20">
         <f>N8</f>
         <v>10.722318266112959</v>
       </c>
       <c r="AE8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="AF8" s="29">
+      <c r="AF8" s="20">
         <f>R8</f>
         <v>6.2157915826990688</v>
       </c>
-      <c r="AG8" s="35" t="s">
+      <c r="AG8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AH8" s="29">
+      <c r="AH8" s="20">
         <f>V8</f>
         <v>9.7457939645817468</v>
       </c>
@@ -1283,26 +1294,26 @@
         <f t="shared" si="1"/>
         <v>2.0416721088637151</v>
       </c>
-      <c r="Z9" s="21">
+      <c r="Z9" s="13">
         <v>2</v>
       </c>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="23">
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="15">
         <f t="shared" ref="AB9:AB19" si="4">I9</f>
         <v>7.5532746540863549</v>
       </c>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="23">
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="15">
         <f t="shared" ref="AD9:AD19" si="5">N9</f>
         <v>8.2232736181673314</v>
       </c>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="23">
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="15">
         <f t="shared" ref="AF9:AF19" si="6">R9</f>
         <v>6.392926794497038</v>
       </c>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="23">
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="15">
         <f t="shared" ref="AH9:AH19" si="7">V9</f>
         <v>2.0416721088637151</v>
       </c>
@@ -1375,26 +1386,26 @@
         <f t="shared" si="1"/>
         <v>4.8559242168291092</v>
       </c>
-      <c r="Z10" s="21">
+      <c r="Z10" s="13">
         <v>3</v>
       </c>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="23">
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="15">
         <f t="shared" si="4"/>
         <v>16.151616946983687</v>
       </c>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="23">
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="15">
         <f t="shared" si="5"/>
         <v>12.385548029956054</v>
       </c>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="23">
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="15">
         <f t="shared" si="6"/>
         <v>12.835303424595075</v>
       </c>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="23">
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="15">
         <f t="shared" si="7"/>
         <v>4.8559242168291092</v>
       </c>
@@ -1467,26 +1478,26 @@
         <f t="shared" si="1"/>
         <v>4.3794976880734806</v>
       </c>
-      <c r="Z11" s="21">
+      <c r="Z11" s="13">
         <v>4</v>
       </c>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="23">
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="15">
         <f t="shared" si="4"/>
         <v>11.364618163395027</v>
       </c>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="23">
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="15">
         <f t="shared" si="5"/>
         <v>10.590769613215583</v>
       </c>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="23">
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="15">
         <f t="shared" si="6"/>
         <v>7.4546397632827741</v>
       </c>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="23">
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="15">
         <f t="shared" si="7"/>
         <v>4.3794976880734806</v>
       </c>
@@ -1559,26 +1570,26 @@
         <f t="shared" si="1"/>
         <v>7.7233671413825409</v>
       </c>
-      <c r="Z12" s="21">
+      <c r="Z12" s="13">
         <v>5</v>
       </c>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="23">
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="15">
         <f t="shared" si="4"/>
         <v>8.6400231480582281</v>
       </c>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="23">
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="15">
         <f t="shared" si="5"/>
         <v>9.9349987921550174</v>
       </c>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="23">
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="15">
         <f t="shared" si="6"/>
         <v>2.0686104031941541</v>
       </c>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="23">
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="15">
         <f t="shared" si="7"/>
         <v>7.7233671413825409</v>
       </c>
@@ -1651,26 +1662,26 @@
         <f t="shared" si="1"/>
         <v>8.1760947278637115</v>
       </c>
-      <c r="Z13" s="21">
+      <c r="Z13" s="13">
         <v>6</v>
       </c>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="23">
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="15">
         <f t="shared" si="4"/>
         <v>4.589117562156698</v>
       </c>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="23">
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="15">
         <f t="shared" si="5"/>
         <v>4.4290793625419944</v>
       </c>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="23">
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="15">
         <f t="shared" si="6"/>
         <v>2.8715697797664488</v>
       </c>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="23">
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="15">
         <f t="shared" si="7"/>
         <v>8.1760947278637115</v>
       </c>
@@ -1740,29 +1751,29 @@
         <v>500.33168000000001</v>
       </c>
       <c r="V14" s="8">
-        <f t="shared" si="1"/>
+        <f>SQRT(($C14-S14)^2+($D14-T14)^2+($E14-U14)^2)*1000</f>
         <v>26.322070587242361</v>
       </c>
-      <c r="Z14" s="21">
+      <c r="Z14" s="13">
         <v>7</v>
       </c>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="23">
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="15">
         <f t="shared" si="4"/>
         <v>10.277159140538977</v>
       </c>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="23">
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="15">
         <f t="shared" si="5"/>
         <v>15.282870450588049</v>
       </c>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="23">
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="15">
         <f t="shared" si="6"/>
         <v>8.2001882905225187</v>
       </c>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="23">
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="15">
         <f t="shared" si="7"/>
         <v>26.322070587242361</v>
       </c>
@@ -1835,26 +1846,26 @@
         <f t="shared" si="1"/>
         <v>8.7206651122424201</v>
       </c>
-      <c r="Z15" s="21">
+      <c r="Z15" s="13">
         <v>8</v>
       </c>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="23">
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="15">
         <f t="shared" si="4"/>
         <v>6.1204574992190937</v>
       </c>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="23">
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="15">
         <f t="shared" si="5"/>
         <v>10.28658718913784</v>
       </c>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="23">
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="15">
         <f t="shared" si="6"/>
         <v>1.4612080618790346</v>
       </c>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="23">
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="15">
         <f t="shared" si="7"/>
         <v>8.7206651122424201</v>
       </c>
@@ -1927,26 +1938,26 @@
         <f t="shared" si="1"/>
         <v>5.4172236431305274</v>
       </c>
-      <c r="Z16" s="21">
+      <c r="Z16" s="13">
         <v>9</v>
       </c>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="23">
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="15">
         <f t="shared" si="4"/>
         <v>8.4504437752952519</v>
       </c>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="23">
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="15">
         <f t="shared" si="5"/>
         <v>11.230424791552709</v>
       </c>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="23">
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="15">
         <f t="shared" si="6"/>
         <v>7.2158350867790784</v>
       </c>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="23">
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="15">
         <f t="shared" si="7"/>
         <v>5.4172236431305274</v>
       </c>
@@ -2019,26 +2030,26 @@
         <f t="shared" si="1"/>
         <v>6.3668378335798206</v>
       </c>
-      <c r="Z17" s="21">
+      <c r="Z17" s="13">
         <v>10</v>
       </c>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="23">
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="15">
         <f t="shared" si="4"/>
         <v>4.0024992192173876</v>
       </c>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="23">
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="15">
         <f t="shared" si="5"/>
         <v>5.0916248879860948</v>
       </c>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="23">
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="15">
         <f t="shared" si="6"/>
         <v>7.1447393233937273</v>
       </c>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="23">
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="15">
         <f t="shared" si="7"/>
         <v>6.3668378335798206</v>
       </c>
@@ -2111,26 +2122,26 @@
         <f>SQRT(($C18-S18)^2+($D18-T18)^2+($E18-U18)^2)*1000</f>
         <v>9.2279805482748003</v>
       </c>
-      <c r="Z18" s="21">
+      <c r="Z18" s="13">
         <v>11</v>
       </c>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="23">
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="15">
         <f t="shared" si="4"/>
         <v>2.7802877548683496</v>
       </c>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="23">
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="15">
         <f t="shared" si="5"/>
         <v>9.9509200579865666</v>
       </c>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="23">
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="15">
         <f t="shared" si="6"/>
         <v>10.057197671307005</v>
       </c>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="23">
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="15">
         <f t="shared" si="7"/>
         <v>9.2279805482748003</v>
       </c>
@@ -2203,26 +2214,26 @@
         <f>SQRT(($C19-S19)^2+($D19-T19)^2+($E19-U19)^2)*1000</f>
         <v>6.4421500292937397</v>
       </c>
-      <c r="Z19" s="22">
+      <c r="Z19" s="14">
         <v>12</v>
       </c>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="24">
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="16">
         <f t="shared" si="4"/>
         <v>4.5221676217989479</v>
       </c>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="24">
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="16">
         <f t="shared" si="5"/>
         <v>6.2634654943967965</v>
       </c>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="24">
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="16">
         <f t="shared" si="6"/>
         <v>5.7312846727729561</v>
       </c>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="24">
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="16">
         <f t="shared" si="7"/>
         <v>6.4421500292937397</v>
       </c>
@@ -2231,58 +2242,58 @@
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="11">
         <f>AVERAGE(I8:I19)</f>
         <v>8.0640096116146758</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
       <c r="N20" s="12">
         <f>AVERAGE(N8:N19)</f>
         <v>9.5326567128164168</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="18"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="42"/>
       <c r="R20" s="11">
         <f>AVERAGE(R8:R19)</f>
         <v>6.470774571224073</v>
       </c>
-      <c r="S20" s="16"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="18"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="42"/>
       <c r="V20" s="11">
         <f>AVERAGE(V8:V19)</f>
         <v>8.2849398001131647</v>
       </c>
-      <c r="Z20" s="25" t="s">
+      <c r="Z20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="26">
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="18">
         <f>AVERAGE(AB8:AB19)</f>
         <v>8.0640096116146758</v>
       </c>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="26">
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="18">
         <f>AVERAGE(AD8:AD19)</f>
         <v>9.5326567128164168</v>
       </c>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="26">
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="18">
         <f>AVERAGE(AF8:AF19)</f>
         <v>6.470774571224073</v>
       </c>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="26">
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="18">
         <f>AVERAGE(AH8:AH19)</f>
         <v>8.2849398001131647</v>
       </c>
@@ -2292,11 +2303,6 @@
     <sortCondition ref="B8"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="Z4:AH6"/>
-    <mergeCell ref="AA8:AA20"/>
-    <mergeCell ref="AC8:AC20"/>
-    <mergeCell ref="AE8:AE20"/>
-    <mergeCell ref="AG8:AG20"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="S20:U20"/>
     <mergeCell ref="C20:E20"/>
@@ -2307,6 +2313,11 @@
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="O6:R6"/>
+    <mergeCell ref="Z4:AH6"/>
+    <mergeCell ref="AA8:AA20"/>
+    <mergeCell ref="AC8:AC20"/>
+    <mergeCell ref="AE8:AE20"/>
+    <mergeCell ref="AG8:AG20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/7_figure/comp-coord.xlsx
+++ b/7_figure/comp-coord.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Restitution 3D" sheetId="1" r:id="rId1"/>
+    <sheet name="plan facade" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>Id Point</t>
   </si>
@@ -72,6 +73,39 @@
   </si>
   <si>
     <t>Comparaison des coordonnées restituées par rapport aux points levés au MS60</t>
+  </si>
+  <si>
+    <t>VirtuSurv</t>
+  </si>
+  <si>
+    <t>Restitution de scanner (VirtuSurv)</t>
+  </si>
+  <si>
+    <t>contour planaire</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>orthophoto</t>
+  </si>
+  <si>
+    <t>transl</t>
+  </si>
+  <si>
+    <t>Comparaison de coordonnées dans un système d'un plan de façade par rapport au MS60</t>
+  </si>
+  <si>
+    <t>Plan depuis restitution de contours planaires</t>
+  </si>
+  <si>
+    <t>Plan digitalisé dans 3DReshaper</t>
+  </si>
+  <si>
+    <t>Orthophoto de Agisoft digitalisée</t>
+  </si>
+  <si>
+    <t>translation</t>
   </si>
 </sst>
 </file>
@@ -482,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -547,6 +581,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -583,37 +654,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -939,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AH20"/>
+  <dimension ref="B2:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +997,7 @@
     <col min="18" max="18" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:40" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>-1.4999999999999999E-2</v>
       </c>
@@ -967,74 +1008,86 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="Z4" s="24" t="s">
+    <row r="3" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="26"/>
-    </row>
-    <row r="5" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="29"/>
-    </row>
-    <row r="6" spans="2:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="39"/>
+    </row>
+    <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="42"/>
+    </row>
+    <row r="6" spans="2:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="39" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="46" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="39" t="s">
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39" t="s">
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="32"/>
-    </row>
-    <row r="7" spans="2:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="45"/>
+    </row>
+    <row r="7" spans="2:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1086,32 +1139,32 @@
       <c r="R7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z7" s="21" t="s">
+      <c r="W7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="21" t="s">
         <v>14</v>
-      </c>
-      <c r="AA7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD7" s="23" t="s">
-        <v>9</v>
       </c>
       <c r="AE7" s="22" t="s">
         <v>12</v>
@@ -1125,8 +1178,26 @@
       <c r="AH7" s="23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN7" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>1</v>
       </c>
@@ -1181,52 +1252,72 @@
         <f t="shared" ref="R8:R11" si="0">SQRT(($C8-O8)^2+($D8-P8)^2+($E8-Q8)^2)*1000</f>
         <v>6.2157915826990688</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="9">
         <v>626.04434000000003</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="9">
         <v>427.80079999999998</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="9">
         <v>501.75607000000002</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="10">
         <f t="shared" ref="V8:V17" si="1">SQRT(($C8-S8)^2+($D8-T8)^2+($E8-U8)^2)*1000</f>
         <v>9.7457939645817468</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="W8" s="24">
+        <v>626.05460000000005</v>
+      </c>
+      <c r="X8" s="7">
+        <v>427.80513999999999</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>501.74522000000002</v>
+      </c>
+      <c r="Z8" s="8">
+        <f t="shared" ref="Z8:Z13" si="2">SQRT(($C8-W8)^2+($D8-X8)^2+($E8-Y8)^2)*1000</f>
+        <v>7.3258446611918986</v>
+      </c>
+      <c r="AD8" s="19">
         <v>1</v>
       </c>
-      <c r="AA8" s="33" t="s">
+      <c r="AE8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="AF8" s="20">
         <f>I8</f>
         <v>12.316449853758112</v>
       </c>
-      <c r="AC8" s="33" t="s">
+      <c r="AG8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AH8" s="20">
         <f>N8</f>
         <v>10.722318266112959</v>
       </c>
-      <c r="AE8" s="33" t="s">
+      <c r="AI8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AF8" s="20">
+      <c r="AJ8" s="20">
         <f>R8</f>
         <v>6.2157915826990688</v>
       </c>
-      <c r="AG8" s="36" t="s">
+      <c r="AK8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AL8" s="20">
         <f>V8</f>
         <v>9.7457939645817468</v>
       </c>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AM8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN8" s="20">
+        <f>Z8</f>
+        <v>7.3258446611918986</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -1249,7 +1340,7 @@
         <v>501.765061</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" ref="I9:I19" si="2">SQRT((C9-F9)^2+(D9-G9)^2+(E9-H9)^2)*1000</f>
+        <f t="shared" ref="I9:I19" si="3">SQRT((C9-F9)^2+(D9-G9)^2+(E9-H9)^2)*1000</f>
         <v>7.5532746540863549</v>
       </c>
       <c r="J9" s="7">
@@ -1265,7 +1356,7 @@
         <v>501.76668999999998</v>
       </c>
       <c r="N9" s="10">
-        <f t="shared" ref="N9:N19" si="3">SQRT(($C9-K9)^2+($D9-L9)^2+($E9-M9)^2)*1000</f>
+        <f t="shared" ref="N9:N19" si="4">SQRT(($C9-K9)^2+($D9-L9)^2+($E9-M9)^2)*1000</f>
         <v>8.2232736181673314</v>
       </c>
       <c r="O9" s="7">
@@ -1281,44 +1372,62 @@
         <f t="shared" si="0"/>
         <v>6.392926794497038</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="9">
         <v>626.92535499999997</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="9">
         <v>428.02100000000002</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="9">
         <v>501.76931999999999</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="10">
         <f t="shared" si="1"/>
         <v>2.0416721088637151</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="W9" s="7">
+        <v>626.93131600000004</v>
+      </c>
+      <c r="X9" s="7">
+        <v>428.02042</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>501.75719880000003</v>
+      </c>
+      <c r="Z9" s="8">
+        <f t="shared" si="2"/>
+        <v>13.601285874467283</v>
+      </c>
+      <c r="AD9" s="13">
         <v>2</v>
       </c>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="15">
-        <f t="shared" ref="AB9:AB19" si="4">I9</f>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="15">
+        <f t="shared" ref="AF9:AF19" si="5">I9</f>
         <v>7.5532746540863549</v>
       </c>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="15">
-        <f t="shared" ref="AD9:AD19" si="5">N9</f>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="15">
+        <f t="shared" ref="AH9:AH19" si="6">N9</f>
         <v>8.2232736181673314</v>
       </c>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="15">
-        <f t="shared" ref="AF9:AF19" si="6">R9</f>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="15">
+        <f t="shared" ref="AJ9:AJ19" si="7">R9</f>
         <v>6.392926794497038</v>
       </c>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="15">
-        <f t="shared" ref="AH9:AH19" si="7">V9</f>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="15">
+        <f t="shared" ref="AL9:AL19" si="8">V9</f>
         <v>2.0416721088637151</v>
       </c>
-    </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="15">
+        <f t="shared" ref="AN9:AN19" si="9">Z9</f>
+        <v>13.601285874467283</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -1341,7 +1450,7 @@
         <v>499.82452899999998</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.151616946983687</v>
       </c>
       <c r="J10" s="7">
@@ -1357,7 +1466,7 @@
         <v>499.83195999999998</v>
       </c>
       <c r="N10" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.385548029956054</v>
       </c>
       <c r="O10" s="7">
@@ -1373,44 +1482,62 @@
         <f t="shared" si="0"/>
         <v>12.835303424595075</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="9">
         <v>626.0326</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="9">
         <v>427.82389999999998</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="9">
         <v>499.8329</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="10">
         <f t="shared" si="1"/>
         <v>4.8559242168291092</v>
       </c>
-      <c r="Z10" s="13">
+      <c r="W10" s="7">
+        <v>626.05251999999996</v>
+      </c>
+      <c r="X10" s="7">
+        <v>427.8254</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>499.82700999999997</v>
+      </c>
+      <c r="Z10" s="8">
+        <f t="shared" si="2"/>
+        <v>17.129229404749246</v>
+      </c>
+      <c r="AD10" s="13">
         <v>3</v>
       </c>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="15">
-        <f t="shared" si="4"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="15">
+        <f t="shared" si="5"/>
         <v>16.151616946983687</v>
       </c>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="15">
-        <f t="shared" si="5"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="15">
+        <f t="shared" si="6"/>
         <v>12.385548029956054</v>
       </c>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="15">
-        <f t="shared" si="6"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="15">
+        <f t="shared" si="7"/>
         <v>12.835303424595075</v>
       </c>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="15">
-        <f t="shared" si="7"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="15">
+        <f t="shared" si="8"/>
         <v>4.8559242168291092</v>
       </c>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="15">
+        <f t="shared" si="9"/>
+        <v>17.129229404749246</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -1433,7 +1560,7 @@
         <v>499.83233899999999</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.364618163395027</v>
       </c>
       <c r="J11" s="7">
@@ -1449,7 +1576,7 @@
         <v>499.83390000000003</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.590769613215583</v>
       </c>
       <c r="O11" s="7">
@@ -1465,44 +1592,62 @@
         <f t="shared" si="0"/>
         <v>7.4546397632827741</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="9">
         <v>626.9289</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="9">
         <v>428.02789999999999</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="9">
         <v>499.84039999999999</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="10">
         <f t="shared" si="1"/>
         <v>4.3794976880734806</v>
       </c>
-      <c r="Z11" s="13">
+      <c r="W11" s="7">
+        <v>626.93062999999995</v>
+      </c>
+      <c r="X11" s="7">
+        <v>428.024877</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>499.827</v>
+      </c>
+      <c r="Z11" s="8">
+        <f t="shared" si="2"/>
+        <v>14.489514450104156</v>
+      </c>
+      <c r="AD11" s="13">
         <v>4</v>
       </c>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="15">
-        <f t="shared" si="4"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="15">
+        <f t="shared" si="5"/>
         <v>11.364618163395027</v>
       </c>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="15">
-        <f t="shared" si="5"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="15">
+        <f t="shared" si="6"/>
         <v>10.590769613215583</v>
       </c>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="15">
-        <f t="shared" si="6"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="15">
+        <f t="shared" si="7"/>
         <v>7.4546397632827741</v>
       </c>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="15">
-        <f t="shared" si="7"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="15">
+        <f t="shared" si="8"/>
         <v>4.3794976880734806</v>
       </c>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="15">
+        <f t="shared" si="9"/>
+        <v>14.489514450104156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -1525,7 +1670,7 @@
         <v>501.8603</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6400231480582281</v>
       </c>
       <c r="J12" s="7">
@@ -1541,7 +1686,7 @@
         <v>501.86070000000001</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9349987921550174</v>
       </c>
       <c r="O12" s="7">
@@ -1554,47 +1699,65 @@
         <v>501.85871800000001</v>
       </c>
       <c r="R12" s="8">
-        <f t="shared" ref="R12:R15" si="8">SQRT(($C12-O12)^2+($D12-P12)^2+($E12-Q12)^2)*1000</f>
+        <f t="shared" ref="R12:R15" si="10">SQRT(($C12-O12)^2+($D12-P12)^2+($E12-Q12)^2)*1000</f>
         <v>2.0686104031941541</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="9">
         <v>629.08399999999995</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="9">
         <v>428.65598</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="9">
         <v>501.86309999999997</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="10">
         <f t="shared" si="1"/>
         <v>7.7233671413825409</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="W12" s="7">
+        <v>629.08825000000002</v>
+      </c>
+      <c r="X12" s="7">
+        <v>428.67101000000002</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>501.84202140000002</v>
+      </c>
+      <c r="Z12" s="8">
+        <f t="shared" si="2"/>
+        <v>22.958063027198957</v>
+      </c>
+      <c r="AD12" s="13">
         <v>5</v>
       </c>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="15">
-        <f t="shared" si="4"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="15">
+        <f t="shared" si="5"/>
         <v>8.6400231480582281</v>
       </c>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="15">
-        <f t="shared" si="5"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="15">
+        <f t="shared" si="6"/>
         <v>9.9349987921550174</v>
       </c>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="15">
-        <f t="shared" si="6"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="15">
+        <f t="shared" si="7"/>
         <v>2.0686104031941541</v>
       </c>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="15">
-        <f t="shared" si="7"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="15">
+        <f t="shared" si="8"/>
         <v>7.7233671413825409</v>
       </c>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="15">
+        <f t="shared" si="9"/>
+        <v>22.958063027198957</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>6</v>
       </c>
@@ -1617,7 +1780,7 @@
         <v>501.85070000000002</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.589117562156698</v>
       </c>
       <c r="J13" s="7">
@@ -1633,7 +1796,7 @@
         <v>501.850662</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4290793625419944</v>
       </c>
       <c r="O13" s="7">
@@ -1646,47 +1809,65 @@
         <v>501.84818799999999</v>
       </c>
       <c r="R13" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.8715697797664488</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="9">
         <v>629.97776999999996</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="9">
         <v>428.89147500000001</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="9">
         <v>501.85250000000002</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="10">
         <f t="shared" si="1"/>
         <v>8.1760947278637115</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="W13" s="7">
+        <v>629.97909000000004</v>
+      </c>
+      <c r="X13" s="7">
+        <v>428.89138200000002</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>501.84160000000003</v>
+      </c>
+      <c r="Z13" s="8">
+        <f t="shared" si="2"/>
+        <v>12.382811635496138</v>
+      </c>
+      <c r="AD13" s="13">
         <v>6</v>
       </c>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="15">
-        <f t="shared" si="4"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="15">
+        <f t="shared" si="5"/>
         <v>4.589117562156698</v>
       </c>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="15">
-        <f t="shared" si="5"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="15">
+        <f t="shared" si="6"/>
         <v>4.4290793625419944</v>
       </c>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="15">
-        <f t="shared" si="6"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="15">
+        <f t="shared" si="7"/>
         <v>2.8715697797664488</v>
       </c>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="15">
-        <f t="shared" si="7"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="15">
+        <f t="shared" si="8"/>
         <v>8.1760947278637115</v>
       </c>
-    </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="15">
+        <f t="shared" si="9"/>
+        <v>12.382811635496138</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>7</v>
       </c>
@@ -1709,7 +1890,7 @@
         <v>500.34370000000001</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.277159140538977</v>
       </c>
       <c r="J14" s="7">
@@ -1725,7 +1906,7 @@
         <v>500.33929999999998</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.282870450588049</v>
       </c>
       <c r="O14" s="7">
@@ -1738,47 +1919,65 @@
         <v>500.34768000000003</v>
       </c>
       <c r="R14" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.2001882905225187</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="9">
         <v>629.07469000000003</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="9">
         <v>428.65976999999998</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="9">
         <v>500.33168000000001</v>
       </c>
-      <c r="V14" s="8">
+      <c r="V14" s="10">
         <f>SQRT(($C14-S14)^2+($D14-T14)^2+($E14-U14)^2)*1000</f>
         <v>26.322070587242361</v>
       </c>
-      <c r="Z14" s="13">
+      <c r="W14" s="7">
+        <v>629.12275</v>
+      </c>
+      <c r="X14" s="7">
+        <v>428.67169999999999</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>500.33127999999999</v>
+      </c>
+      <c r="Z14" s="8">
+        <f>SQRT(($C14-W14)^2+($D14-X14)^2+($E14-Y14)^2)*1000</f>
+        <v>38.324025101729092</v>
+      </c>
+      <c r="AD14" s="13">
         <v>7</v>
       </c>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="15">
-        <f t="shared" si="4"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="15">
+        <f t="shared" si="5"/>
         <v>10.277159140538977</v>
       </c>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="15">
-        <f t="shared" si="5"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="15">
+        <f t="shared" si="6"/>
         <v>15.282870450588049</v>
       </c>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="15">
-        <f t="shared" si="6"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="15">
+        <f t="shared" si="7"/>
         <v>8.2001882905225187</v>
       </c>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="15">
-        <f t="shared" si="7"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="15">
+        <f t="shared" si="8"/>
         <v>26.322070587242361</v>
       </c>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="15">
+        <f t="shared" si="9"/>
+        <v>38.324025101729092</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>8</v>
       </c>
@@ -1801,7 +2000,7 @@
         <v>500.33670000000001</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1204574992190937</v>
       </c>
       <c r="J15" s="7">
@@ -1817,7 +2016,7 @@
         <v>500.33482400000003</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.28658718913784</v>
       </c>
       <c r="O15" s="7">
@@ -1830,47 +2029,65 @@
         <v>500.33657399999998</v>
       </c>
       <c r="R15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4612080618790346</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="9">
         <v>629.97199999999998</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="9">
         <v>428.89620000000002</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="9">
         <v>500.32990000000001</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V15" s="10">
         <f t="shared" si="1"/>
         <v>8.7206651122424201</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="W15" s="7">
+        <v>629.97040000000004</v>
+      </c>
+      <c r="X15" s="7">
+        <v>428.89220549999999</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>500.32994000000002</v>
+      </c>
+      <c r="Z15" s="8">
+        <f t="shared" ref="Z15:Z17" si="11">SQRT(($C15-W15)^2+($D15-X15)^2+($E15-Y15)^2)*1000</f>
+        <v>8.6448152235857023</v>
+      </c>
+      <c r="AD15" s="13">
         <v>8</v>
       </c>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="15">
-        <f t="shared" si="4"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="15">
+        <f t="shared" si="5"/>
         <v>6.1204574992190937</v>
       </c>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="15">
-        <f t="shared" si="5"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="15">
+        <f t="shared" si="6"/>
         <v>10.28658718913784</v>
       </c>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="15">
-        <f t="shared" si="6"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="15">
+        <f t="shared" si="7"/>
         <v>1.4612080618790346</v>
       </c>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="15">
-        <f t="shared" si="7"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="15">
+        <f t="shared" si="8"/>
         <v>8.7206651122424201</v>
       </c>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="15">
+        <f t="shared" si="9"/>
+        <v>8.6448152235857023</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>9</v>
       </c>
@@ -1893,7 +2110,7 @@
         <v>504.17489999999998</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.4504437752952519</v>
       </c>
       <c r="J16" s="7">
@@ -1909,7 +2126,7 @@
         <v>504.16896000000003</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.230424791552709</v>
       </c>
       <c r="O16" s="7">
@@ -1922,47 +2139,65 @@
         <v>504.1721</v>
       </c>
       <c r="R16" s="8">
-        <f t="shared" ref="R16:R17" si="9">SQRT(($C16-O16)^2+($D16-P16)^2+($E16-Q16)^2)*1000</f>
+        <f t="shared" ref="R16:R17" si="12">SQRT(($C16-O16)^2+($D16-P16)^2+($E16-Q16)^2)*1000</f>
         <v>7.2158350867790784</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="9">
         <v>633.84979999999996</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="9">
         <v>429.87765400000001</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="9">
         <v>504.17618599999997</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="10">
         <f t="shared" si="1"/>
         <v>5.4172236431305274</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="W16" s="7">
+        <v>633.85029999999995</v>
+      </c>
+      <c r="X16" s="7">
+        <v>429.90165000000002</v>
+      </c>
+      <c r="Y16" s="24">
+        <v>504.15892000000002</v>
+      </c>
+      <c r="Z16" s="8">
+        <f t="shared" si="11"/>
+        <v>25.702896723889626</v>
+      </c>
+      <c r="AD16" s="13">
         <v>9</v>
       </c>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="15">
-        <f t="shared" si="4"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="15">
+        <f t="shared" si="5"/>
         <v>8.4504437752952519</v>
       </c>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="15">
-        <f t="shared" si="5"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="15">
+        <f t="shared" si="6"/>
         <v>11.230424791552709</v>
       </c>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="15">
-        <f t="shared" si="6"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="15">
+        <f t="shared" si="7"/>
         <v>7.2158350867790784</v>
       </c>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="15">
-        <f t="shared" si="7"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="15">
+        <f t="shared" si="8"/>
         <v>5.4172236431305274</v>
       </c>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="15">
+        <f t="shared" si="9"/>
+        <v>25.702896723889626</v>
+      </c>
+    </row>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>10</v>
       </c>
@@ -1985,7 +2220,7 @@
         <v>504.16269999999997</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0024992192173876</v>
       </c>
       <c r="J17" s="7">
@@ -2001,7 +2236,7 @@
         <v>504.16448800000001</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0916248879860948</v>
       </c>
       <c r="O17" s="7">
@@ -2014,47 +2249,65 @@
         <v>504.16352799999999</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.1447393233937273</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="9">
         <v>634.69910000000004</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="9">
         <v>430.10149999999999</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="9">
         <v>504.16206799999998</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V17" s="10">
         <f t="shared" si="1"/>
         <v>6.3668378335798206</v>
       </c>
-      <c r="Z17" s="13">
+      <c r="W17" s="7">
+        <v>634.71515099999999</v>
+      </c>
+      <c r="X17" s="7">
+        <v>430.10570000000001</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>504.15269999999998</v>
+      </c>
+      <c r="Z17" s="8">
+        <f t="shared" si="11"/>
+        <v>13.346340359871515</v>
+      </c>
+      <c r="AD17" s="13">
         <v>10</v>
       </c>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="15">
-        <f t="shared" si="4"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="15">
+        <f t="shared" si="5"/>
         <v>4.0024992192173876</v>
       </c>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="15">
-        <f t="shared" si="5"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="15">
+        <f t="shared" si="6"/>
         <v>5.0916248879860948</v>
       </c>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="15">
-        <f t="shared" si="6"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="15">
+        <f t="shared" si="7"/>
         <v>7.1447393233937273</v>
       </c>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="15">
-        <f t="shared" si="7"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="15">
+        <f t="shared" si="8"/>
         <v>6.3668378335798206</v>
       </c>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="15">
+        <f t="shared" si="9"/>
+        <v>13.346340359871515</v>
+      </c>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>11</v>
       </c>
@@ -2077,7 +2330,7 @@
         <v>503.01740000000001</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7802877548683496</v>
       </c>
       <c r="J18" s="7">
@@ -2093,7 +2346,7 @@
         <v>503.018799</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9509200579865666</v>
       </c>
       <c r="O18" s="7">
@@ -2109,44 +2362,62 @@
         <f>SQRT(($C18-O18)^2+($D18-P18)^2+($E18-Q18)^2)*1000</f>
         <v>10.057197671307005</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="9">
         <v>633.85429999999997</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="9">
         <v>429.87887499999999</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="9">
         <v>503.01100000000002</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="10">
         <f>SQRT(($C18-S18)^2+($D18-T18)^2+($E18-U18)^2)*1000</f>
         <v>9.2279805482748003</v>
       </c>
-      <c r="Z18" s="13">
+      <c r="W18" s="7">
+        <v>633.86668999999995</v>
+      </c>
+      <c r="X18" s="7">
+        <v>429.90240740000002</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>503.01829140000001</v>
+      </c>
+      <c r="Z18" s="8">
+        <f>SQRT(($C18-W18)^2+($D18-X18)^2+($E18-Y18)^2)*1000</f>
+        <v>24.88547746618142</v>
+      </c>
+      <c r="AD18" s="13">
         <v>11</v>
       </c>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="15">
-        <f t="shared" si="4"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="15">
+        <f t="shared" si="5"/>
         <v>2.7802877548683496</v>
       </c>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="15">
-        <f t="shared" si="5"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="15">
+        <f t="shared" si="6"/>
         <v>9.9509200579865666</v>
       </c>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="15">
-        <f t="shared" si="6"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="15">
+        <f t="shared" si="7"/>
         <v>10.057197671307005</v>
       </c>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="15">
-        <f t="shared" si="7"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="15">
+        <f t="shared" si="8"/>
         <v>9.2279805482748003</v>
       </c>
-    </row>
-    <row r="19" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="15">
+        <f t="shared" si="9"/>
+        <v>24.88547746618142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>12</v>
       </c>
@@ -2169,7 +2440,7 @@
         <v>503.02539999999999</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5221676217989479</v>
       </c>
       <c r="J19" s="7">
@@ -2185,7 +2456,7 @@
         <v>503.02350000000001</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2634654943967965</v>
       </c>
       <c r="O19" s="7">
@@ -2201,108 +2472,146 @@
         <f>SQRT(($C19-O19)^2+($D19-P19)^2+($E19-Q19)^2)*1000</f>
         <v>5.7312846727729561</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="9">
         <v>634.69771900000001</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="9">
         <v>430.101156</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="9">
         <v>503.01690000000002</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V19" s="10">
         <f>SQRT(($C19-S19)^2+($D19-T19)^2+($E19-U19)^2)*1000</f>
         <v>6.4421500292937397</v>
       </c>
-      <c r="Z19" s="14">
+      <c r="W19" s="7">
+        <v>634.70941600000003</v>
+      </c>
+      <c r="X19" s="7">
+        <v>430.10294900000002</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>503.013058</v>
+      </c>
+      <c r="Z19" s="8">
+        <f>SQRT(($C19-W19)^2+($D19-X19)^2+($E19-Y19)^2)*1000</f>
+        <v>16.956680718839149</v>
+      </c>
+      <c r="AD19" s="14">
         <v>12</v>
       </c>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="16">
-        <f t="shared" si="4"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="16">
+        <f t="shared" si="5"/>
         <v>4.5221676217989479</v>
       </c>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="16">
-        <f t="shared" si="5"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="16">
+        <f t="shared" si="6"/>
         <v>6.2634654943967965</v>
       </c>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="16">
-        <f t="shared" si="6"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="16">
+        <f t="shared" si="7"/>
         <v>5.7312846727729561</v>
       </c>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="16">
-        <f t="shared" si="7"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="16">
+        <f t="shared" si="8"/>
         <v>6.4421500292937397</v>
       </c>
-    </row>
-    <row r="20" spans="2:34" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="16">
+        <f t="shared" si="9"/>
+        <v>16.956680718839149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="11">
         <f>AVERAGE(I8:I19)</f>
         <v>8.0640096116146758</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
       <c r="N20" s="12">
         <f>AVERAGE(N8:N19)</f>
         <v>9.5326567128164168</v>
       </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="42"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="32"/>
       <c r="R20" s="11">
         <f>AVERAGE(R8:R19)</f>
         <v>6.470774571224073</v>
       </c>
-      <c r="S20" s="40"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="11">
+      <c r="S20" s="27"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="12">
         <f>AVERAGE(V8:V19)</f>
         <v>8.2849398001131647</v>
       </c>
-      <c r="Z20" s="17" t="s">
+      <c r="W20" s="30"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="11">
+        <f>AVERAGE(Z8:Z19)</f>
+        <v>17.978915387275347</v>
+      </c>
+      <c r="AD20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="18">
-        <f>AVERAGE(AB8:AB19)</f>
-        <v>8.0640096116146758</v>
-      </c>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="18">
-        <f>AVERAGE(AD8:AD19)</f>
-        <v>9.5326567128164168</v>
-      </c>
-      <c r="AE20" s="35"/>
+      <c r="AE20" s="48"/>
       <c r="AF20" s="18">
         <f>AVERAGE(AF8:AF19)</f>
-        <v>6.470774571224073</v>
-      </c>
-      <c r="AG20" s="38"/>
+        <v>8.0640096116146758</v>
+      </c>
+      <c r="AG20" s="48"/>
       <c r="AH20" s="18">
         <f>AVERAGE(AH8:AH19)</f>
+        <v>9.5326567128164168</v>
+      </c>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="18">
+        <f>AVERAGE(AJ8:AJ19)</f>
+        <v>6.470774571224073</v>
+      </c>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="18">
+        <f>AVERAGE(AL8:AL19)</f>
         <v>8.2849398001131647</v>
+      </c>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="18">
+        <f>AVERAGE(AN8:AN19)</f>
+        <v>17.978915387275347</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B8:N23">
     <sortCondition ref="B8"/>
   </sortState>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="AM8:AM20"/>
+    <mergeCell ref="AD4:AN6"/>
+    <mergeCell ref="AE8:AE20"/>
+    <mergeCell ref="AG8:AG20"/>
+    <mergeCell ref="AI8:AI20"/>
+    <mergeCell ref="AK8:AK20"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="S20:U20"/>
     <mergeCell ref="C20:E20"/>
@@ -2313,14 +2622,1408 @@
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="O6:R6"/>
-    <mergeCell ref="Z4:AH6"/>
-    <mergeCell ref="AA8:AA20"/>
-    <mergeCell ref="AC8:AC20"/>
-    <mergeCell ref="AE8:AE20"/>
-    <mergeCell ref="AG8:AG20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:S47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="M4" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>625.84765900000002</v>
+      </c>
+      <c r="C5">
+        <v>426.913568</v>
+      </c>
+      <c r="D5">
+        <v>625.84720900000002</v>
+      </c>
+      <c r="E5">
+        <v>428.82570399999997</v>
+      </c>
+      <c r="F5">
+        <v>626.06519300000002</v>
+      </c>
+      <c r="G5">
+        <v>426.23431399999998</v>
+      </c>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+    </row>
+    <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>625.85343699999999</v>
+      </c>
+      <c r="C6">
+        <v>428.81864000000002</v>
+      </c>
+      <c r="D6">
+        <v>625.84772799999996</v>
+      </c>
+      <c r="E6">
+        <v>426.90441399999997</v>
+      </c>
+      <c r="F6">
+        <v>626.07144800000003</v>
+      </c>
+      <c r="G6">
+        <v>428.14597700000002</v>
+      </c>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+    </row>
+    <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>626.75712799999997</v>
+      </c>
+      <c r="C7">
+        <v>428.83963499999999</v>
+      </c>
+      <c r="D7">
+        <v>626.75533600000006</v>
+      </c>
+      <c r="E7">
+        <v>428.84244000000001</v>
+      </c>
+      <c r="F7">
+        <v>626.97567100000003</v>
+      </c>
+      <c r="G7">
+        <v>428.16523000000001</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>626.75761499999999</v>
+      </c>
+      <c r="C8">
+        <v>426.91063700000001</v>
+      </c>
+      <c r="D8">
+        <v>626.76047200000005</v>
+      </c>
+      <c r="E8">
+        <v>426.91004199999998</v>
+      </c>
+      <c r="F8">
+        <v>626.97770200000002</v>
+      </c>
+      <c r="G8">
+        <v>426.23797500000001</v>
+      </c>
+      <c r="M8" s="19">
+        <v>1</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="20">
+        <f>SQRT(($B36-D36)^2+($C36-E36)^2)*1000</f>
+        <v>10.498248484307</v>
+      </c>
+      <c r="P8" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="20">
+        <f>SQRT(($B36-F36)^2+($C36-G36)^2)*1000</f>
+        <v>3.4044954400089718</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="20">
+        <f>SQRT(($B36-H36)^2+($C36-I36)^2)*1000</f>
+        <v>138429.93952169275</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>629.01065500000004</v>
+      </c>
+      <c r="C9">
+        <v>428.92940900000002</v>
+      </c>
+      <c r="D9">
+        <v>629.00374799999997</v>
+      </c>
+      <c r="E9">
+        <v>428.93256700000001</v>
+      </c>
+      <c r="F9">
+        <v>629.23392799999999</v>
+      </c>
+      <c r="G9">
+        <v>426.735457</v>
+      </c>
+      <c r="M9" s="13">
+        <v>2</v>
+      </c>
+      <c r="N9" s="35"/>
+      <c r="O9" s="15">
+        <f t="shared" ref="O9:O19" si="0">SQRT(($B37-D37)^2+($C37-E37)^2)*1000</f>
+        <v>4.7318884606702278</v>
+      </c>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="15">
+        <f t="shared" ref="Q9:Q19" si="1">SQRT(($B37-F37)^2+($C37-G37)^2)*1000</f>
+        <v>2.3194347445537233</v>
+      </c>
+      <c r="R9" s="35"/>
+      <c r="S9" s="15">
+        <f t="shared" ref="S9:S19" si="2">SQRT(($B37-H37)^2+($C37-I37)^2)*1000</f>
+        <v>139072.00839968032</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>629.01261199999999</v>
+      </c>
+      <c r="C10">
+        <v>427.42038400000001</v>
+      </c>
+      <c r="D10">
+        <v>629.01235299999996</v>
+      </c>
+      <c r="E10">
+        <v>427.40945399999998</v>
+      </c>
+      <c r="F10">
+        <v>629.23647200000005</v>
+      </c>
+      <c r="G10">
+        <v>428.25942400000002</v>
+      </c>
+      <c r="M10" s="13">
+        <v>3</v>
+      </c>
+      <c r="N10" s="35"/>
+      <c r="O10" s="15">
+        <f t="shared" si="0"/>
+        <v>7.4215967779334457</v>
+      </c>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="15">
+        <f t="shared" si="1"/>
+        <v>5.7784964913816053</v>
+      </c>
+      <c r="R10" s="35"/>
+      <c r="S10" s="15">
+        <f t="shared" si="2"/>
+        <v>137057.17492987815</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>629.92018199999995</v>
+      </c>
+      <c r="C11">
+        <v>428.919377</v>
+      </c>
+      <c r="D11">
+        <v>629.92342399999995</v>
+      </c>
+      <c r="E11">
+        <v>427.39930199999998</v>
+      </c>
+      <c r="F11">
+        <v>630.14015700000004</v>
+      </c>
+      <c r="G11">
+        <v>428.25485800000001</v>
+      </c>
+      <c r="M11" s="13">
+        <v>4</v>
+      </c>
+      <c r="N11" s="35"/>
+      <c r="O11" s="15">
+        <f t="shared" si="0"/>
+        <v>3.5862501636508748</v>
+      </c>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="15">
+        <f t="shared" si="1"/>
+        <v>2.0195317199966012</v>
+      </c>
+      <c r="R11" s="35"/>
+      <c r="S11" s="15">
+        <f t="shared" si="2"/>
+        <v>137692.68449177477</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>629.92018800000005</v>
+      </c>
+      <c r="C12">
+        <v>427.40737100000001</v>
+      </c>
+      <c r="D12">
+        <v>629.92780200000004</v>
+      </c>
+      <c r="E12">
+        <v>428.92190399999998</v>
+      </c>
+      <c r="F12">
+        <v>630.14251300000001</v>
+      </c>
+      <c r="G12">
+        <v>426.73306500000001</v>
+      </c>
+      <c r="M12" s="13">
+        <v>5</v>
+      </c>
+      <c r="N12" s="35"/>
+      <c r="O12" s="15">
+        <f t="shared" si="0"/>
+        <v>8.0467925746322759</v>
+      </c>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="15">
+        <f t="shared" si="1"/>
+        <v>6.7245607689675992</v>
+      </c>
+      <c r="R12" s="35"/>
+      <c r="S12" s="15">
+        <f t="shared" si="2"/>
+        <v>140712.263991049</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>633.92301199999997</v>
+      </c>
+      <c r="C13">
+        <v>431.24033800000001</v>
+      </c>
+      <c r="D13">
+        <v>633.92346299999997</v>
+      </c>
+      <c r="E13">
+        <v>431.24552799999998</v>
+      </c>
+      <c r="F13">
+        <v>634.14947400000005</v>
+      </c>
+      <c r="G13">
+        <v>429.39926600000001</v>
+      </c>
+      <c r="M13" s="13">
+        <v>6</v>
+      </c>
+      <c r="N13" s="35"/>
+      <c r="O13" s="15">
+        <f t="shared" si="0"/>
+        <v>9.212471333510921</v>
+      </c>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="15">
+        <f t="shared" si="1"/>
+        <v>10.048059507630962</v>
+      </c>
+      <c r="R13" s="35"/>
+      <c r="S13" s="15">
+        <f t="shared" si="2"/>
+        <v>141346.33264146341</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>633.93004399999995</v>
+      </c>
+      <c r="C14">
+        <v>430.08934399999998</v>
+      </c>
+      <c r="D14">
+        <v>633.928135</v>
+      </c>
+      <c r="E14">
+        <v>430.080287</v>
+      </c>
+      <c r="F14">
+        <v>634.15077399999996</v>
+      </c>
+      <c r="G14">
+        <v>430.57313299999998</v>
+      </c>
+      <c r="M14" s="13">
+        <v>7</v>
+      </c>
+      <c r="N14" s="35"/>
+      <c r="O14" s="15">
+        <f t="shared" si="0"/>
+        <v>9.1770905375313809</v>
+      </c>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="15">
+        <f t="shared" si="1"/>
+        <v>10.40894637003726</v>
+      </c>
+      <c r="R14" s="35"/>
+      <c r="S14" s="15">
+        <f t="shared" si="2"/>
+        <v>139644.95906279262</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>634.79833499999995</v>
+      </c>
+      <c r="C15">
+        <v>430.09232200000002</v>
+      </c>
+      <c r="D15">
+        <v>634.80028400000003</v>
+      </c>
+      <c r="E15">
+        <v>430.08622400000002</v>
+      </c>
+      <c r="F15">
+        <v>635.02091199999995</v>
+      </c>
+      <c r="G15">
+        <v>429.41521899999998</v>
+      </c>
+      <c r="M15" s="13">
+        <v>8</v>
+      </c>
+      <c r="N15" s="35"/>
+      <c r="O15" s="15">
+        <f t="shared" si="0"/>
+        <v>7.3529851126477395</v>
+      </c>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="15">
+        <f t="shared" si="1"/>
+        <v>1.4825614213427625</v>
+      </c>
+      <c r="R15" s="35"/>
+      <c r="S15" s="15">
+        <f t="shared" si="2"/>
+        <v>140280.49016253525</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>634.80731300000002</v>
+      </c>
+      <c r="C16">
+        <v>431.229311</v>
+      </c>
+      <c r="D16">
+        <v>634.80179699999997</v>
+      </c>
+      <c r="E16">
+        <v>431.23138499999999</v>
+      </c>
+      <c r="F16">
+        <v>635.02424599999995</v>
+      </c>
+      <c r="G16">
+        <v>430.56208099999998</v>
+      </c>
+      <c r="M16" s="13">
+        <v>9</v>
+      </c>
+      <c r="N16" s="35"/>
+      <c r="O16" s="15">
+        <f t="shared" si="0"/>
+        <v>7.0168114128968693</v>
+      </c>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="15">
+        <f t="shared" si="1"/>
+        <v>10.063630435148001</v>
+      </c>
+      <c r="R16" s="35"/>
+      <c r="S16" s="15">
+        <f t="shared" si="2"/>
+        <v>145821.95092360405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M17" s="13">
+        <v>10</v>
+      </c>
+      <c r="N17" s="35"/>
+      <c r="O17" s="15">
+        <f t="shared" si="0"/>
+        <v>6.2833183567095876</v>
+      </c>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="15">
+        <f t="shared" si="1"/>
+        <v>8.2871469780187876</v>
+      </c>
+      <c r="R17" s="35"/>
+      <c r="S17" s="15">
+        <f t="shared" si="2"/>
+        <v>146445.50390578099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="49"/>
+      <c r="M18" s="13">
+        <v>11</v>
+      </c>
+      <c r="N18" s="35"/>
+      <c r="O18" s="15">
+        <f t="shared" si="0"/>
+        <v>7.4279606151748352</v>
+      </c>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="15">
+        <f t="shared" si="1"/>
+        <v>15.615454706761716</v>
+      </c>
+      <c r="R18" s="35"/>
+      <c r="S18" s="15">
+        <f t="shared" si="2"/>
+        <v>145021.52565424176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <f>B6</f>
+        <v>625.85343699999999</v>
+      </c>
+      <c r="C19">
+        <f>C6</f>
+        <v>428.81864000000002</v>
+      </c>
+      <c r="D19">
+        <f>D5</f>
+        <v>625.84720900000002</v>
+      </c>
+      <c r="E19">
+        <f>E5</f>
+        <v>428.82570399999997</v>
+      </c>
+      <c r="F19">
+        <f>F6</f>
+        <v>626.07144800000003</v>
+      </c>
+      <c r="G19">
+        <f>G6</f>
+        <v>428.14597700000002</v>
+      </c>
+      <c r="M19" s="14">
+        <v>12</v>
+      </c>
+      <c r="N19" s="35"/>
+      <c r="O19" s="16">
+        <f t="shared" si="0"/>
+        <v>5.0017536992883951</v>
+      </c>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="16">
+        <f t="shared" si="1"/>
+        <v>3.0953428245615253</v>
+      </c>
+      <c r="R19" s="35"/>
+      <c r="S19" s="16">
+        <f t="shared" si="2"/>
+        <v>145646.84919584444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <f>B7</f>
+        <v>626.75712799999997</v>
+      </c>
+      <c r="C20">
+        <f>C7</f>
+        <v>428.83963499999999</v>
+      </c>
+      <c r="D20">
+        <f>D7</f>
+        <v>626.75533600000006</v>
+      </c>
+      <c r="E20">
+        <f>E7</f>
+        <v>428.84244000000001</v>
+      </c>
+      <c r="F20">
+        <f>F7</f>
+        <v>626.97567100000003</v>
+      </c>
+      <c r="G20">
+        <f>G7</f>
+        <v>428.16523000000001</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="36"/>
+      <c r="O20" s="18">
+        <f>AVERAGE(O8:O19)</f>
+        <v>7.1464306274127951</v>
+      </c>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="18">
+        <f>AVERAGE(Q8:Q19)</f>
+        <v>6.6039717840341261</v>
+      </c>
+      <c r="R20" s="36"/>
+      <c r="S20" s="18">
+        <f>AVERAGE(S8:S19)</f>
+        <v>141430.97357336144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <f>B5</f>
+        <v>625.84765900000002</v>
+      </c>
+      <c r="C21">
+        <f>C5</f>
+        <v>426.913568</v>
+      </c>
+      <c r="D21">
+        <f>D6</f>
+        <v>625.84772799999996</v>
+      </c>
+      <c r="E21">
+        <f>E6</f>
+        <v>426.90441399999997</v>
+      </c>
+      <c r="F21">
+        <f>F5</f>
+        <v>626.06519300000002</v>
+      </c>
+      <c r="G21">
+        <f>G5</f>
+        <v>426.23431399999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:G22" si="3">B8</f>
+        <v>626.75761499999999</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>426.91063700000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>626.76047200000005</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>426.91004199999998</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>626.97770200000002</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>426.23797500000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <f>B9</f>
+        <v>629.01065500000004</v>
+      </c>
+      <c r="C23">
+        <f>C9</f>
+        <v>428.92940900000002</v>
+      </c>
+      <c r="D23">
+        <f>D9</f>
+        <v>629.00374799999997</v>
+      </c>
+      <c r="E23">
+        <f>E9</f>
+        <v>428.93256700000001</v>
+      </c>
+      <c r="F23">
+        <f>F10</f>
+        <v>629.23647200000005</v>
+      </c>
+      <c r="G23">
+        <f>G10</f>
+        <v>428.25942400000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <f>B11</f>
+        <v>629.92018199999995</v>
+      </c>
+      <c r="C24">
+        <f>C11</f>
+        <v>428.919377</v>
+      </c>
+      <c r="D24">
+        <f>D12</f>
+        <v>629.92780200000004</v>
+      </c>
+      <c r="E24">
+        <f>E12</f>
+        <v>428.92190399999998</v>
+      </c>
+      <c r="F24">
+        <f>F11</f>
+        <v>630.14015700000004</v>
+      </c>
+      <c r="G24">
+        <f>G11</f>
+        <v>428.25485800000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <f>B10</f>
+        <v>629.01261199999999</v>
+      </c>
+      <c r="C25">
+        <f>C10</f>
+        <v>427.42038400000001</v>
+      </c>
+      <c r="D25">
+        <f>D10</f>
+        <v>629.01235299999996</v>
+      </c>
+      <c r="E25">
+        <f>E10</f>
+        <v>427.40945399999998</v>
+      </c>
+      <c r="F25">
+        <f>F9</f>
+        <v>629.23392799999999</v>
+      </c>
+      <c r="G25">
+        <f>G9</f>
+        <v>426.735457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <f>B12</f>
+        <v>629.92018800000005</v>
+      </c>
+      <c r="C26">
+        <f>C12</f>
+        <v>427.40737100000001</v>
+      </c>
+      <c r="D26">
+        <f>D11</f>
+        <v>629.92342399999995</v>
+      </c>
+      <c r="E26">
+        <f>E11</f>
+        <v>427.39930199999998</v>
+      </c>
+      <c r="F26">
+        <f>F12</f>
+        <v>630.14251300000001</v>
+      </c>
+      <c r="G26">
+        <f>G12</f>
+        <v>426.73306500000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <f>B13</f>
+        <v>633.92301199999997</v>
+      </c>
+      <c r="C27">
+        <f>C13</f>
+        <v>431.24033800000001</v>
+      </c>
+      <c r="D27">
+        <f>D13</f>
+        <v>633.92346299999997</v>
+      </c>
+      <c r="E27">
+        <f>E13</f>
+        <v>431.24552799999998</v>
+      </c>
+      <c r="F27">
+        <f>F14</f>
+        <v>634.15077399999996</v>
+      </c>
+      <c r="G27">
+        <f>G14</f>
+        <v>430.57313299999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:G28" si="4">B16</f>
+        <v>634.80731300000002</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>431.229311</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>634.80179699999997</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>431.23138499999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>635.02424599999995</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>430.56208099999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:E30" si="5">B14</f>
+        <v>633.93004399999995</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="5"/>
+        <v>430.08934399999998</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>633.928135</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>430.080287</v>
+      </c>
+      <c r="F29">
+        <f>F13</f>
+        <v>634.14947400000005</v>
+      </c>
+      <c r="G29">
+        <f>G13</f>
+        <v>429.39926600000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="5"/>
+        <v>634.79833499999995</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="5"/>
+        <v>430.09232200000002</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>634.80028400000003</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>430.08622400000002</v>
+      </c>
+      <c r="F30">
+        <f>F15</f>
+        <v>635.02091199999995</v>
+      </c>
+      <c r="G30">
+        <f>G15</f>
+        <v>429.41521899999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:G31" si="6">AVERAGE(B19:B30)</f>
+        <v>630.04484833333333</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>428.90086133333335</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="6"/>
+        <v>630.04431258333341</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>428.89910424999988</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>630.26570749999996</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>428.22633324999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:G32" si="7">B31-100</f>
+        <v>530.04484833333333</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="7"/>
+        <v>328.90086133333335</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>530.04431258333341</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="7"/>
+        <v>328.89910424999988</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>530.26570749999996</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="7"/>
+        <v>328.22633324999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="25">
+        <f>B19-B36</f>
+        <v>530.04484833333333</v>
+      </c>
+      <c r="C34" s="25">
+        <f t="shared" ref="C34:G34" si="8">C19-C36</f>
+        <v>328.90086133333335</v>
+      </c>
+      <c r="D34" s="25">
+        <f t="shared" si="8"/>
+        <v>530.04431258333341</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="8"/>
+        <v>328.89910424999988</v>
+      </c>
+      <c r="F34" s="25">
+        <f t="shared" si="8"/>
+        <v>530.26570749999996</v>
+      </c>
+      <c r="G34" s="25">
+        <f t="shared" si="8"/>
+        <v>328.22633324999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <f>B32</f>
+        <v>530.04484833333333</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:G35" si="9">C32</f>
+        <v>328.90086133333335</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="9"/>
+        <v>530.04431258333341</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="9"/>
+        <v>328.89910424999988</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="9"/>
+        <v>530.26570749999996</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>328.22633324999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="25">
+        <f t="shared" ref="B36:B47" si="10">B19-B$35</f>
+        <v>95.808588666666651</v>
+      </c>
+      <c r="C36" s="25">
+        <f t="shared" ref="C36:G36" si="11">C19-C$35</f>
+        <v>99.917778666666663</v>
+      </c>
+      <c r="D36" s="25">
+        <f t="shared" si="11"/>
+        <v>95.802896416666613</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="11"/>
+        <v>99.926599750000094</v>
+      </c>
+      <c r="F36" s="25">
+        <f t="shared" si="11"/>
+        <v>95.80574050000007</v>
+      </c>
+      <c r="G36" s="25">
+        <f t="shared" si="11"/>
+        <v>99.919643750000034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="25">
+        <f t="shared" si="10"/>
+        <v>96.712279666666632</v>
+      </c>
+      <c r="C37" s="25">
+        <f t="shared" ref="C37:G47" si="12">C20-C$35</f>
+        <v>99.938773666666634</v>
+      </c>
+      <c r="D37" s="25">
+        <f t="shared" si="12"/>
+        <v>96.711023416666649</v>
+      </c>
+      <c r="E37" s="25">
+        <f t="shared" si="12"/>
+        <v>99.943335750000131</v>
+      </c>
+      <c r="F37" s="25">
+        <f t="shared" si="12"/>
+        <v>96.709963500000072</v>
+      </c>
+      <c r="G37" s="25">
+        <f t="shared" si="12"/>
+        <v>99.938896750000026</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="25">
+        <f t="shared" si="10"/>
+        <v>95.802810666666687</v>
+      </c>
+      <c r="C38" s="25">
+        <f t="shared" si="12"/>
+        <v>98.012706666666645</v>
+      </c>
+      <c r="D38" s="25">
+        <f t="shared" si="12"/>
+        <v>95.803415416666553</v>
+      </c>
+      <c r="E38" s="25">
+        <f t="shared" si="12"/>
+        <v>98.005309750000094</v>
+      </c>
+      <c r="F38" s="25">
+        <f t="shared" si="12"/>
+        <v>95.79948550000006</v>
+      </c>
+      <c r="G38" s="25">
+        <f t="shared" si="12"/>
+        <v>98.007980750000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" s="25">
+        <f t="shared" si="10"/>
+        <v>96.712766666666653</v>
+      </c>
+      <c r="C39" s="25">
+        <f t="shared" si="12"/>
+        <v>98.009775666666656</v>
+      </c>
+      <c r="D39" s="25">
+        <f t="shared" si="12"/>
+        <v>96.716159416666642</v>
+      </c>
+      <c r="E39" s="25">
+        <f t="shared" si="12"/>
+        <v>98.010937750000096</v>
+      </c>
+      <c r="F39" s="25">
+        <f t="shared" si="12"/>
+        <v>96.71199450000006</v>
+      </c>
+      <c r="G39" s="25">
+        <f t="shared" si="12"/>
+        <v>98.011641750000024</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" s="25">
+        <f t="shared" si="10"/>
+        <v>98.965806666666708</v>
+      </c>
+      <c r="C40" s="25">
+        <f t="shared" si="12"/>
+        <v>100.02854766666667</v>
+      </c>
+      <c r="D40" s="25">
+        <f t="shared" si="12"/>
+        <v>98.959435416666565</v>
+      </c>
+      <c r="E40" s="25">
+        <f t="shared" si="12"/>
+        <v>100.03346275000013</v>
+      </c>
+      <c r="F40" s="25">
+        <f t="shared" si="12"/>
+        <v>98.970764500000087</v>
+      </c>
+      <c r="G40" s="25">
+        <f t="shared" si="12"/>
+        <v>100.03309075000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" s="25">
+        <f t="shared" si="10"/>
+        <v>99.87533366666662</v>
+      </c>
+      <c r="C41" s="25">
+        <f t="shared" si="12"/>
+        <v>100.01851566666664</v>
+      </c>
+      <c r="D41" s="25">
+        <f t="shared" si="12"/>
+        <v>99.883489416666634</v>
+      </c>
+      <c r="E41" s="25">
+        <f t="shared" si="12"/>
+        <v>100.0227997500001</v>
+      </c>
+      <c r="F41" s="25">
+        <f t="shared" si="12"/>
+        <v>99.874449500000082</v>
+      </c>
+      <c r="G41" s="25">
+        <f t="shared" si="12"/>
+        <v>100.02852475000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" s="25">
+        <f t="shared" si="10"/>
+        <v>98.967763666666656</v>
+      </c>
+      <c r="C42" s="25">
+        <f t="shared" si="12"/>
+        <v>98.51952266666666</v>
+      </c>
+      <c r="D42" s="25">
+        <f t="shared" si="12"/>
+        <v>98.968040416666554</v>
+      </c>
+      <c r="E42" s="25">
+        <f t="shared" si="12"/>
+        <v>98.510349750000103</v>
+      </c>
+      <c r="F42" s="25">
+        <f t="shared" si="12"/>
+        <v>98.968220500000029</v>
+      </c>
+      <c r="G42" s="25">
+        <f t="shared" si="12"/>
+        <v>98.509123750000015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43" s="25">
+        <f t="shared" si="10"/>
+        <v>99.875339666666719</v>
+      </c>
+      <c r="C43" s="25">
+        <f t="shared" si="12"/>
+        <v>98.506509666666659</v>
+      </c>
+      <c r="D43" s="25">
+        <f t="shared" si="12"/>
+        <v>99.879111416666547</v>
+      </c>
+      <c r="E43" s="25">
+        <f t="shared" si="12"/>
+        <v>98.500197750000098</v>
+      </c>
+      <c r="F43" s="25">
+        <f t="shared" si="12"/>
+        <v>99.876805500000046</v>
+      </c>
+      <c r="G43" s="25">
+        <f t="shared" si="12"/>
+        <v>98.506731750000029</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" s="25">
+        <f t="shared" si="10"/>
+        <v>103.87816366666664</v>
+      </c>
+      <c r="C44" s="25">
+        <f t="shared" si="12"/>
+        <v>102.33947666666666</v>
+      </c>
+      <c r="D44" s="25">
+        <f t="shared" si="12"/>
+        <v>103.87915041666656</v>
+      </c>
+      <c r="E44" s="25">
+        <f t="shared" si="12"/>
+        <v>102.3464237500001</v>
+      </c>
+      <c r="F44" s="25">
+        <f t="shared" si="12"/>
+        <v>103.88506649999999</v>
+      </c>
+      <c r="G44" s="25">
+        <f t="shared" si="12"/>
+        <v>102.34679975</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45" s="25">
+        <f t="shared" si="10"/>
+        <v>104.76246466666669</v>
+      </c>
+      <c r="C45" s="25">
+        <f t="shared" si="12"/>
+        <v>102.32844966666664</v>
+      </c>
+      <c r="D45" s="25">
+        <f t="shared" si="12"/>
+        <v>104.75748441666656</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="12"/>
+        <v>102.33228075000011</v>
+      </c>
+      <c r="F45" s="25">
+        <f t="shared" si="12"/>
+        <v>104.75853849999999</v>
+      </c>
+      <c r="G45" s="25">
+        <f t="shared" si="12"/>
+        <v>102.33574775</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46" s="25">
+        <f t="shared" si="10"/>
+        <v>103.88519566666662</v>
+      </c>
+      <c r="C46" s="25">
+        <f t="shared" si="12"/>
+        <v>101.18848266666663</v>
+      </c>
+      <c r="D46" s="25">
+        <f t="shared" si="12"/>
+        <v>103.88382241666659</v>
+      </c>
+      <c r="E46" s="25">
+        <f t="shared" si="12"/>
+        <v>101.18118275000012</v>
+      </c>
+      <c r="F46" s="25">
+        <f t="shared" si="12"/>
+        <v>103.88376650000009</v>
+      </c>
+      <c r="G46" s="25">
+        <f t="shared" si="12"/>
+        <v>101.17293275000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47" s="25">
+        <f t="shared" si="10"/>
+        <v>104.75348666666662</v>
+      </c>
+      <c r="C47" s="25">
+        <f t="shared" si="12"/>
+        <v>101.19146066666667</v>
+      </c>
+      <c r="D47" s="25">
+        <f t="shared" si="12"/>
+        <v>104.75597141666663</v>
+      </c>
+      <c r="E47" s="25">
+        <f t="shared" si="12"/>
+        <v>101.18711975000014</v>
+      </c>
+      <c r="F47" s="25">
+        <f t="shared" si="12"/>
+        <v>104.75520449999999</v>
+      </c>
+      <c r="G47" s="25">
+        <f t="shared" si="12"/>
+        <v>101.18888575</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="F5:G16">
+    <sortCondition ref="F5"/>
+  </sortState>
+  <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M4:S6"/>
+    <mergeCell ref="N8:N20"/>
+    <mergeCell ref="P8:P20"/>
+    <mergeCell ref="R8:R20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7_figure/comp-coord.xlsx
+++ b/7_figure/comp-coord.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Restitution 3D" sheetId="1" r:id="rId1"/>
@@ -585,6 +585,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -596,63 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,82 +1010,82 @@
     </row>
     <row r="3" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD4" s="37" t="s">
+      <c r="AD4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="39"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="35"/>
     </row>
     <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="42"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="38"/>
     </row>
     <row r="6" spans="2:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="33" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="26" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="33" t="s">
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="26" t="s">
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="33" t="s">
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="45"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="41"/>
     </row>
     <row r="7" spans="2:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1281,35 +1281,35 @@
       <c r="AD8" s="19">
         <v>1</v>
       </c>
-      <c r="AE8" s="46" t="s">
+      <c r="AE8" s="42" t="s">
         <v>5</v>
       </c>
       <c r="AF8" s="20">
         <f>I8</f>
         <v>12.316449853758112</v>
       </c>
-      <c r="AG8" s="46" t="s">
+      <c r="AG8" s="42" t="s">
         <v>13</v>
       </c>
       <c r="AH8" s="20">
         <f>N8</f>
         <v>10.722318266112959</v>
       </c>
-      <c r="AI8" s="46" t="s">
+      <c r="AI8" s="42" t="s">
         <v>10</v>
       </c>
       <c r="AJ8" s="20">
         <f>R8</f>
         <v>6.2157915826990688</v>
       </c>
-      <c r="AK8" s="34" t="s">
+      <c r="AK8" s="30" t="s">
         <v>11</v>
       </c>
       <c r="AL8" s="20">
         <f>V8</f>
         <v>9.7457939645817468</v>
       </c>
-      <c r="AM8" s="34" t="s">
+      <c r="AM8" s="30" t="s">
         <v>17</v>
       </c>
       <c r="AN8" s="20">
@@ -1401,27 +1401,27 @@
       <c r="AD9" s="13">
         <v>2</v>
       </c>
-      <c r="AE9" s="47"/>
+      <c r="AE9" s="43"/>
       <c r="AF9" s="15">
         <f t="shared" ref="AF9:AF19" si="5">I9</f>
         <v>7.5532746540863549</v>
       </c>
-      <c r="AG9" s="47"/>
+      <c r="AG9" s="43"/>
       <c r="AH9" s="15">
         <f t="shared" ref="AH9:AH19" si="6">N9</f>
         <v>8.2232736181673314</v>
       </c>
-      <c r="AI9" s="47"/>
+      <c r="AI9" s="43"/>
       <c r="AJ9" s="15">
         <f t="shared" ref="AJ9:AJ19" si="7">R9</f>
         <v>6.392926794497038</v>
       </c>
-      <c r="AK9" s="35"/>
+      <c r="AK9" s="31"/>
       <c r="AL9" s="15">
         <f t="shared" ref="AL9:AL19" si="8">V9</f>
         <v>2.0416721088637151</v>
       </c>
-      <c r="AM9" s="35"/>
+      <c r="AM9" s="31"/>
       <c r="AN9" s="15">
         <f t="shared" ref="AN9:AN19" si="9">Z9</f>
         <v>13.601285874467283</v>
@@ -1511,27 +1511,27 @@
       <c r="AD10" s="13">
         <v>3</v>
       </c>
-      <c r="AE10" s="47"/>
+      <c r="AE10" s="43"/>
       <c r="AF10" s="15">
         <f t="shared" si="5"/>
         <v>16.151616946983687</v>
       </c>
-      <c r="AG10" s="47"/>
+      <c r="AG10" s="43"/>
       <c r="AH10" s="15">
         <f t="shared" si="6"/>
         <v>12.385548029956054</v>
       </c>
-      <c r="AI10" s="47"/>
+      <c r="AI10" s="43"/>
       <c r="AJ10" s="15">
         <f t="shared" si="7"/>
         <v>12.835303424595075</v>
       </c>
-      <c r="AK10" s="35"/>
+      <c r="AK10" s="31"/>
       <c r="AL10" s="15">
         <f t="shared" si="8"/>
         <v>4.8559242168291092</v>
       </c>
-      <c r="AM10" s="35"/>
+      <c r="AM10" s="31"/>
       <c r="AN10" s="15">
         <f t="shared" si="9"/>
         <v>17.129229404749246</v>
@@ -1621,27 +1621,27 @@
       <c r="AD11" s="13">
         <v>4</v>
       </c>
-      <c r="AE11" s="47"/>
+      <c r="AE11" s="43"/>
       <c r="AF11" s="15">
         <f t="shared" si="5"/>
         <v>11.364618163395027</v>
       </c>
-      <c r="AG11" s="47"/>
+      <c r="AG11" s="43"/>
       <c r="AH11" s="15">
         <f t="shared" si="6"/>
         <v>10.590769613215583</v>
       </c>
-      <c r="AI11" s="47"/>
+      <c r="AI11" s="43"/>
       <c r="AJ11" s="15">
         <f t="shared" si="7"/>
         <v>7.4546397632827741</v>
       </c>
-      <c r="AK11" s="35"/>
+      <c r="AK11" s="31"/>
       <c r="AL11" s="15">
         <f t="shared" si="8"/>
         <v>4.3794976880734806</v>
       </c>
-      <c r="AM11" s="35"/>
+      <c r="AM11" s="31"/>
       <c r="AN11" s="15">
         <f t="shared" si="9"/>
         <v>14.489514450104156</v>
@@ -1731,27 +1731,27 @@
       <c r="AD12" s="13">
         <v>5</v>
       </c>
-      <c r="AE12" s="47"/>
+      <c r="AE12" s="43"/>
       <c r="AF12" s="15">
         <f t="shared" si="5"/>
         <v>8.6400231480582281</v>
       </c>
-      <c r="AG12" s="47"/>
+      <c r="AG12" s="43"/>
       <c r="AH12" s="15">
         <f t="shared" si="6"/>
         <v>9.9349987921550174</v>
       </c>
-      <c r="AI12" s="47"/>
+      <c r="AI12" s="43"/>
       <c r="AJ12" s="15">
         <f t="shared" si="7"/>
         <v>2.0686104031941541</v>
       </c>
-      <c r="AK12" s="35"/>
+      <c r="AK12" s="31"/>
       <c r="AL12" s="15">
         <f t="shared" si="8"/>
         <v>7.7233671413825409</v>
       </c>
-      <c r="AM12" s="35"/>
+      <c r="AM12" s="31"/>
       <c r="AN12" s="15">
         <f t="shared" si="9"/>
         <v>22.958063027198957</v>
@@ -1841,27 +1841,27 @@
       <c r="AD13" s="13">
         <v>6</v>
       </c>
-      <c r="AE13" s="47"/>
+      <c r="AE13" s="43"/>
       <c r="AF13" s="15">
         <f t="shared" si="5"/>
         <v>4.589117562156698</v>
       </c>
-      <c r="AG13" s="47"/>
+      <c r="AG13" s="43"/>
       <c r="AH13" s="15">
         <f t="shared" si="6"/>
         <v>4.4290793625419944</v>
       </c>
-      <c r="AI13" s="47"/>
+      <c r="AI13" s="43"/>
       <c r="AJ13" s="15">
         <f t="shared" si="7"/>
         <v>2.8715697797664488</v>
       </c>
-      <c r="AK13" s="35"/>
+      <c r="AK13" s="31"/>
       <c r="AL13" s="15">
         <f t="shared" si="8"/>
         <v>8.1760947278637115</v>
       </c>
-      <c r="AM13" s="35"/>
+      <c r="AM13" s="31"/>
       <c r="AN13" s="15">
         <f t="shared" si="9"/>
         <v>12.382811635496138</v>
@@ -1951,27 +1951,27 @@
       <c r="AD14" s="13">
         <v>7</v>
       </c>
-      <c r="AE14" s="47"/>
+      <c r="AE14" s="43"/>
       <c r="AF14" s="15">
         <f t="shared" si="5"/>
         <v>10.277159140538977</v>
       </c>
-      <c r="AG14" s="47"/>
+      <c r="AG14" s="43"/>
       <c r="AH14" s="15">
         <f t="shared" si="6"/>
         <v>15.282870450588049</v>
       </c>
-      <c r="AI14" s="47"/>
+      <c r="AI14" s="43"/>
       <c r="AJ14" s="15">
         <f t="shared" si="7"/>
         <v>8.2001882905225187</v>
       </c>
-      <c r="AK14" s="35"/>
+      <c r="AK14" s="31"/>
       <c r="AL14" s="15">
         <f t="shared" si="8"/>
         <v>26.322070587242361</v>
       </c>
-      <c r="AM14" s="35"/>
+      <c r="AM14" s="31"/>
       <c r="AN14" s="15">
         <f t="shared" si="9"/>
         <v>38.324025101729092</v>
@@ -2061,27 +2061,27 @@
       <c r="AD15" s="13">
         <v>8</v>
       </c>
-      <c r="AE15" s="47"/>
+      <c r="AE15" s="43"/>
       <c r="AF15" s="15">
         <f t="shared" si="5"/>
         <v>6.1204574992190937</v>
       </c>
-      <c r="AG15" s="47"/>
+      <c r="AG15" s="43"/>
       <c r="AH15" s="15">
         <f t="shared" si="6"/>
         <v>10.28658718913784</v>
       </c>
-      <c r="AI15" s="47"/>
+      <c r="AI15" s="43"/>
       <c r="AJ15" s="15">
         <f t="shared" si="7"/>
         <v>1.4612080618790346</v>
       </c>
-      <c r="AK15" s="35"/>
+      <c r="AK15" s="31"/>
       <c r="AL15" s="15">
         <f t="shared" si="8"/>
         <v>8.7206651122424201</v>
       </c>
-      <c r="AM15" s="35"/>
+      <c r="AM15" s="31"/>
       <c r="AN15" s="15">
         <f t="shared" si="9"/>
         <v>8.6448152235857023</v>
@@ -2171,27 +2171,27 @@
       <c r="AD16" s="13">
         <v>9</v>
       </c>
-      <c r="AE16" s="47"/>
+      <c r="AE16" s="43"/>
       <c r="AF16" s="15">
         <f t="shared" si="5"/>
         <v>8.4504437752952519</v>
       </c>
-      <c r="AG16" s="47"/>
+      <c r="AG16" s="43"/>
       <c r="AH16" s="15">
         <f t="shared" si="6"/>
         <v>11.230424791552709</v>
       </c>
-      <c r="AI16" s="47"/>
+      <c r="AI16" s="43"/>
       <c r="AJ16" s="15">
         <f t="shared" si="7"/>
         <v>7.2158350867790784</v>
       </c>
-      <c r="AK16" s="35"/>
+      <c r="AK16" s="31"/>
       <c r="AL16" s="15">
         <f t="shared" si="8"/>
         <v>5.4172236431305274</v>
       </c>
-      <c r="AM16" s="35"/>
+      <c r="AM16" s="31"/>
       <c r="AN16" s="15">
         <f t="shared" si="9"/>
         <v>25.702896723889626</v>
@@ -2281,27 +2281,27 @@
       <c r="AD17" s="13">
         <v>10</v>
       </c>
-      <c r="AE17" s="47"/>
+      <c r="AE17" s="43"/>
       <c r="AF17" s="15">
         <f t="shared" si="5"/>
         <v>4.0024992192173876</v>
       </c>
-      <c r="AG17" s="47"/>
+      <c r="AG17" s="43"/>
       <c r="AH17" s="15">
         <f t="shared" si="6"/>
         <v>5.0916248879860948</v>
       </c>
-      <c r="AI17" s="47"/>
+      <c r="AI17" s="43"/>
       <c r="AJ17" s="15">
         <f t="shared" si="7"/>
         <v>7.1447393233937273</v>
       </c>
-      <c r="AK17" s="35"/>
+      <c r="AK17" s="31"/>
       <c r="AL17" s="15">
         <f t="shared" si="8"/>
         <v>6.3668378335798206</v>
       </c>
-      <c r="AM17" s="35"/>
+      <c r="AM17" s="31"/>
       <c r="AN17" s="15">
         <f t="shared" si="9"/>
         <v>13.346340359871515</v>
@@ -2391,27 +2391,27 @@
       <c r="AD18" s="13">
         <v>11</v>
       </c>
-      <c r="AE18" s="47"/>
+      <c r="AE18" s="43"/>
       <c r="AF18" s="15">
         <f t="shared" si="5"/>
         <v>2.7802877548683496</v>
       </c>
-      <c r="AG18" s="47"/>
+      <c r="AG18" s="43"/>
       <c r="AH18" s="15">
         <f t="shared" si="6"/>
         <v>9.9509200579865666</v>
       </c>
-      <c r="AI18" s="47"/>
+      <c r="AI18" s="43"/>
       <c r="AJ18" s="15">
         <f t="shared" si="7"/>
         <v>10.057197671307005</v>
       </c>
-      <c r="AK18" s="35"/>
+      <c r="AK18" s="31"/>
       <c r="AL18" s="15">
         <f t="shared" si="8"/>
         <v>9.2279805482748003</v>
       </c>
-      <c r="AM18" s="35"/>
+      <c r="AM18" s="31"/>
       <c r="AN18" s="15">
         <f t="shared" si="9"/>
         <v>24.88547746618142</v>
@@ -2501,27 +2501,27 @@
       <c r="AD19" s="14">
         <v>12</v>
       </c>
-      <c r="AE19" s="47"/>
+      <c r="AE19" s="43"/>
       <c r="AF19" s="16">
         <f t="shared" si="5"/>
         <v>4.5221676217989479</v>
       </c>
-      <c r="AG19" s="47"/>
+      <c r="AG19" s="43"/>
       <c r="AH19" s="16">
         <f t="shared" si="6"/>
         <v>6.2634654943967965</v>
       </c>
-      <c r="AI19" s="47"/>
+      <c r="AI19" s="43"/>
       <c r="AJ19" s="16">
         <f t="shared" si="7"/>
         <v>5.7312846727729561</v>
       </c>
-      <c r="AK19" s="35"/>
+      <c r="AK19" s="31"/>
       <c r="AL19" s="16">
         <f t="shared" si="8"/>
         <v>6.4421500292937397</v>
       </c>
-      <c r="AM19" s="35"/>
+      <c r="AM19" s="31"/>
       <c r="AN19" s="16">
         <f t="shared" si="9"/>
         <v>16.956680718839149</v>
@@ -2531,41 +2531,41 @@
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="11">
         <f>AVERAGE(I8:I19)</f>
         <v>8.0640096116146758</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="48"/>
       <c r="N20" s="12">
         <f>AVERAGE(N8:N19)</f>
         <v>9.5326567128164168</v>
       </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="32"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="29"/>
       <c r="R20" s="11">
         <f>AVERAGE(R8:R19)</f>
         <v>6.470774571224073</v>
       </c>
-      <c r="S20" s="27"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="29"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="48"/>
       <c r="V20" s="12">
         <f>AVERAGE(V8:V19)</f>
         <v>8.2849398001131647</v>
       </c>
-      <c r="W20" s="30"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="32"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="29"/>
       <c r="Z20" s="11">
         <f>AVERAGE(Z8:Z19)</f>
         <v>17.978915387275347</v>
@@ -2573,27 +2573,27 @@
       <c r="AD20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE20" s="48"/>
+      <c r="AE20" s="44"/>
       <c r="AF20" s="18">
         <f>AVERAGE(AF8:AF19)</f>
         <v>8.0640096116146758</v>
       </c>
-      <c r="AG20" s="48"/>
+      <c r="AG20" s="44"/>
       <c r="AH20" s="18">
         <f>AVERAGE(AH8:AH19)</f>
         <v>9.5326567128164168</v>
       </c>
-      <c r="AI20" s="48"/>
+      <c r="AI20" s="44"/>
       <c r="AJ20" s="18">
         <f>AVERAGE(AJ8:AJ19)</f>
         <v>6.470774571224073</v>
       </c>
-      <c r="AK20" s="36"/>
+      <c r="AK20" s="32"/>
       <c r="AL20" s="18">
         <f>AVERAGE(AL8:AL19)</f>
         <v>8.2849398001131647</v>
       </c>
-      <c r="AM20" s="36"/>
+      <c r="AM20" s="32"/>
       <c r="AN20" s="18">
         <f>AVERAGE(AN8:AN19)</f>
         <v>17.978915387275347</v>
@@ -2604,14 +2604,6 @@
     <sortCondition ref="B8"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="AM8:AM20"/>
-    <mergeCell ref="AD4:AN6"/>
-    <mergeCell ref="AE8:AE20"/>
-    <mergeCell ref="AG8:AG20"/>
-    <mergeCell ref="AI8:AI20"/>
-    <mergeCell ref="AK8:AK20"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="S20:U20"/>
     <mergeCell ref="C20:E20"/>
@@ -2622,6 +2614,14 @@
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="O6:R6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="AM8:AM20"/>
+    <mergeCell ref="AD4:AN6"/>
+    <mergeCell ref="AE8:AE20"/>
+    <mergeCell ref="AG8:AG20"/>
+    <mergeCell ref="AI8:AI20"/>
+    <mergeCell ref="AK8:AK20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2633,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,15 +2653,15 @@
         <v>19</v>
       </c>
       <c r="G4" s="49"/>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -2682,13 +2682,13 @@
       <c r="G5">
         <v>426.23431399999998</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
     </row>
     <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6">
@@ -2709,13 +2709,13 @@
       <c r="G6">
         <v>428.14597700000002</v>
       </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -2780,26 +2780,26 @@
       <c r="M8" s="19">
         <v>1</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="30" t="s">
         <v>23</v>
       </c>
       <c r="O8" s="20">
         <f>SQRT(($B36-D36)^2+($C36-E36)^2)*1000</f>
         <v>10.498248484307</v>
       </c>
-      <c r="P8" s="46" t="s">
+      <c r="P8" s="42" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="20">
         <f>SQRT(($B36-F36)^2+($C36-G36)^2)*1000</f>
         <v>3.4044954400089718</v>
       </c>
-      <c r="R8" s="34" t="s">
+      <c r="R8" s="30" t="s">
         <v>25</v>
       </c>
       <c r="S8" s="20">
         <f>SQRT(($B36-H36)^2+($C36-I36)^2)*1000</f>
-        <v>138429.93952169275</v>
+        <v>2.5869024162442535</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
@@ -2824,20 +2824,20 @@
       <c r="M9" s="13">
         <v>2</v>
       </c>
-      <c r="N9" s="35"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="15">
         <f t="shared" ref="O9:O19" si="0">SQRT(($B37-D37)^2+($C37-E37)^2)*1000</f>
         <v>4.7318884606702278</v>
       </c>
-      <c r="P9" s="47"/>
+      <c r="P9" s="43"/>
       <c r="Q9" s="15">
         <f t="shared" ref="Q9:Q19" si="1">SQRT(($B37-F37)^2+($C37-G37)^2)*1000</f>
         <v>2.3194347445537233</v>
       </c>
-      <c r="R9" s="35"/>
+      <c r="R9" s="31"/>
       <c r="S9" s="15">
         <f t="shared" ref="S9:S19" si="2">SQRT(($B37-H37)^2+($C37-I37)^2)*1000</f>
-        <v>139072.00839968032</v>
+        <v>2.495176168321751</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
@@ -2862,20 +2862,20 @@
       <c r="M10" s="13">
         <v>3</v>
       </c>
-      <c r="N10" s="35"/>
+      <c r="N10" s="31"/>
       <c r="O10" s="15">
         <f t="shared" si="0"/>
         <v>7.4215967779334457</v>
       </c>
-      <c r="P10" s="47"/>
+      <c r="P10" s="43"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
         <v>5.7784964913816053</v>
       </c>
-      <c r="R10" s="35"/>
+      <c r="R10" s="31"/>
       <c r="S10" s="15">
         <f t="shared" si="2"/>
-        <v>137057.17492987815</v>
+        <v>5.6784069459892166</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
@@ -2900,20 +2900,20 @@
       <c r="M11" s="13">
         <v>4</v>
       </c>
-      <c r="N11" s="35"/>
+      <c r="N11" s="31"/>
       <c r="O11" s="15">
         <f t="shared" si="0"/>
         <v>3.5862501636508748</v>
       </c>
-      <c r="P11" s="47"/>
+      <c r="P11" s="43"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
         <v>2.0195317199966012</v>
       </c>
-      <c r="R11" s="35"/>
+      <c r="R11" s="31"/>
       <c r="S11" s="15">
         <f t="shared" si="2"/>
-        <v>137692.68449177477</v>
+        <v>5.868727895450518</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -2938,20 +2938,20 @@
       <c r="M12" s="13">
         <v>5</v>
       </c>
-      <c r="N12" s="35"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="15">
         <f t="shared" si="0"/>
         <v>8.0467925746322759</v>
       </c>
-      <c r="P12" s="47"/>
+      <c r="P12" s="43"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
         <v>6.7245607689675992</v>
       </c>
-      <c r="R12" s="35"/>
+      <c r="R12" s="31"/>
       <c r="S12" s="15">
         <f t="shared" si="2"/>
-        <v>140712.263991049</v>
+        <v>2.4369476353910886</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -2976,20 +2976,20 @@
       <c r="M13" s="13">
         <v>6</v>
       </c>
-      <c r="N13" s="35"/>
+      <c r="N13" s="31"/>
       <c r="O13" s="15">
         <f t="shared" si="0"/>
         <v>9.212471333510921</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="43"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
         <v>10.048059507630962</v>
       </c>
-      <c r="R13" s="35"/>
+      <c r="R13" s="31"/>
       <c r="S13" s="15">
         <f t="shared" si="2"/>
-        <v>141346.33264146341</v>
+        <v>2.8408114059972918</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -3014,20 +3014,20 @@
       <c r="M14" s="13">
         <v>7</v>
       </c>
-      <c r="N14" s="35"/>
+      <c r="N14" s="31"/>
       <c r="O14" s="15">
         <f t="shared" si="0"/>
         <v>9.1770905375313809</v>
       </c>
-      <c r="P14" s="47"/>
+      <c r="P14" s="43"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
         <v>10.40894637003726</v>
       </c>
-      <c r="R14" s="35"/>
+      <c r="R14" s="31"/>
       <c r="S14" s="15">
         <f t="shared" si="2"/>
-        <v>139644.95906279262</v>
+        <v>7.9818093882837635</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
@@ -3052,20 +3052,20 @@
       <c r="M15" s="13">
         <v>8</v>
       </c>
-      <c r="N15" s="35"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="15">
         <f t="shared" si="0"/>
         <v>7.3529851126477395</v>
       </c>
-      <c r="P15" s="47"/>
+      <c r="P15" s="43"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
         <v>1.4825614213427625</v>
       </c>
-      <c r="R15" s="35"/>
+      <c r="R15" s="31"/>
       <c r="S15" s="15">
         <f t="shared" si="2"/>
-        <v>140280.49016253525</v>
+        <v>1.7489418070677214</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
@@ -3090,40 +3090,40 @@
       <c r="M16" s="13">
         <v>9</v>
       </c>
-      <c r="N16" s="35"/>
+      <c r="N16" s="31"/>
       <c r="O16" s="15">
         <f t="shared" si="0"/>
         <v>7.0168114128968693</v>
       </c>
-      <c r="P16" s="47"/>
+      <c r="P16" s="43"/>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
         <v>10.063630435148001</v>
       </c>
-      <c r="R16" s="35"/>
+      <c r="R16" s="31"/>
       <c r="S16" s="15">
         <f t="shared" si="2"/>
-        <v>145821.95092360405</v>
+        <v>3.9814333823499592</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M17" s="13">
         <v>10</v>
       </c>
-      <c r="N17" s="35"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="15">
         <f t="shared" si="0"/>
         <v>6.2833183567095876</v>
       </c>
-      <c r="P17" s="47"/>
+      <c r="P17" s="43"/>
       <c r="Q17" s="15">
         <f t="shared" si="1"/>
         <v>8.2871469780187876</v>
       </c>
-      <c r="R17" s="35"/>
+      <c r="R17" s="31"/>
       <c r="S17" s="15">
         <f t="shared" si="2"/>
-        <v>146445.50390578099</v>
+        <v>8.3228768530904098</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -3146,20 +3146,20 @@
       <c r="M18" s="13">
         <v>11</v>
       </c>
-      <c r="N18" s="35"/>
+      <c r="N18" s="31"/>
       <c r="O18" s="15">
         <f t="shared" si="0"/>
         <v>7.4279606151748352</v>
       </c>
-      <c r="P18" s="47"/>
+      <c r="P18" s="43"/>
       <c r="Q18" s="15">
         <f t="shared" si="1"/>
         <v>15.615454706761716</v>
       </c>
-      <c r="R18" s="35"/>
+      <c r="R18" s="31"/>
       <c r="S18" s="15">
         <f t="shared" si="2"/>
-        <v>145021.52565424176</v>
+        <v>1.4009162873900554</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3190,23 +3190,29 @@
         <f>G6</f>
         <v>428.14597700000002</v>
       </c>
+      <c r="H19">
+        <v>8.6123999999999992</v>
+      </c>
+      <c r="I19">
+        <v>15.8805</v>
+      </c>
       <c r="M19" s="14">
         <v>12</v>
       </c>
-      <c r="N19" s="35"/>
+      <c r="N19" s="31"/>
       <c r="O19" s="16">
         <f t="shared" si="0"/>
         <v>5.0017536992883951</v>
       </c>
-      <c r="P19" s="47"/>
+      <c r="P19" s="43"/>
       <c r="Q19" s="16">
         <f t="shared" si="1"/>
         <v>3.0953428245615253</v>
       </c>
-      <c r="R19" s="35"/>
+      <c r="R19" s="31"/>
       <c r="S19" s="16">
         <f t="shared" si="2"/>
-        <v>145646.84919584444</v>
+        <v>2.0201086054186828</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3237,23 +3243,29 @@
         <f>G7</f>
         <v>428.16523000000001</v>
       </c>
+      <c r="H20">
+        <v>9.5115999999999996</v>
+      </c>
+      <c r="I20">
+        <v>15.900499999999999</v>
+      </c>
       <c r="M20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="36"/>
+      <c r="N20" s="32"/>
       <c r="O20" s="18">
         <f>AVERAGE(O8:O19)</f>
         <v>7.1464306274127951</v>
       </c>
-      <c r="P20" s="48"/>
+      <c r="P20" s="44"/>
       <c r="Q20" s="18">
         <f>AVERAGE(Q8:Q19)</f>
         <v>6.6039717840341261</v>
       </c>
-      <c r="R20" s="36"/>
+      <c r="R20" s="32"/>
       <c r="S20" s="18">
         <f>AVERAGE(S8:S19)</f>
-        <v>141430.97357336144</v>
+        <v>3.9469215659162269</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -3284,6 +3296,12 @@
         <f>G5</f>
         <v>426.23431399999998</v>
       </c>
+      <c r="H21">
+        <v>8.6102000000000007</v>
+      </c>
+      <c r="I21">
+        <v>13.9732</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -3313,6 +3331,12 @@
         <f t="shared" si="3"/>
         <v>426.23797500000001</v>
       </c>
+      <c r="H22">
+        <v>9.5122999999999998</v>
+      </c>
+      <c r="I22">
+        <v>13.9655</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -3342,6 +3366,12 @@
         <f>G10</f>
         <v>428.25942400000002</v>
       </c>
+      <c r="H23">
+        <v>11.769399999999999</v>
+      </c>
+      <c r="I23">
+        <v>15.991300000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -3371,6 +3401,12 @@
         <f>G11</f>
         <v>428.25485800000001</v>
       </c>
+      <c r="H24">
+        <v>12.676</v>
+      </c>
+      <c r="I24">
+        <v>15.9823</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -3400,6 +3436,12 @@
         <f>G9</f>
         <v>426.735457</v>
       </c>
+      <c r="H25">
+        <v>11.769399999999999</v>
+      </c>
+      <c r="I25">
+        <v>14.4727</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -3429,6 +3471,12 @@
         <f>G12</f>
         <v>426.73306500000001</v>
       </c>
+      <c r="H26">
+        <v>12.676</v>
+      </c>
+      <c r="I26">
+        <v>14.4663</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -3458,6 +3506,12 @@
         <f>G14</f>
         <v>430.57313299999998</v>
       </c>
+      <c r="H27">
+        <v>16.683800000000002</v>
+      </c>
+      <c r="I27">
+        <v>18.301500000000001</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -3487,6 +3541,12 @@
         <f t="shared" si="4"/>
         <v>430.56208099999998</v>
       </c>
+      <c r="H28">
+        <v>17.559699999999999</v>
+      </c>
+      <c r="I28">
+        <v>18.296600000000002</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -3516,6 +3576,12 @@
         <f>G13</f>
         <v>429.39926600000001</v>
       </c>
+      <c r="H29">
+        <v>16.685700000000001</v>
+      </c>
+      <c r="I29">
+        <v>17.149000000000001</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -3545,6 +3611,12 @@
         <f>G15</f>
         <v>429.41521899999998</v>
       </c>
+      <c r="H30">
+        <v>17.554500000000001</v>
+      </c>
+      <c r="I30">
+        <v>17.154499999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3574,63 +3646,87 @@
         <f t="shared" si="6"/>
         <v>428.22633324999998</v>
       </c>
+      <c r="H31">
+        <f t="shared" ref="H31:I31" si="7">AVERAGE(H19:H30)</f>
+        <v>12.801749999999998</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>15.961158333333335</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:G32" si="7">B31-100</f>
+        <f t="shared" ref="B32:G32" si="8">B31-100</f>
         <v>530.04484833333333</v>
       </c>
       <c r="C32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>328.90086133333335</v>
       </c>
       <c r="D32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>530.04431258333341</v>
       </c>
       <c r="E32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>328.89910424999988</v>
       </c>
       <c r="F32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>530.26570749999996</v>
       </c>
       <c r="G32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>328.22633324999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" ref="H32:I32" si="9">H31-100</f>
+        <v>-87.198250000000002</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="9"/>
+        <v>-84.03884166666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" s="25">
         <f>B19-B36</f>
         <v>530.04484833333333</v>
       </c>
       <c r="C34" s="25">
-        <f t="shared" ref="C34:G34" si="8">C19-C36</f>
+        <f t="shared" ref="C34:G34" si="10">C19-C36</f>
         <v>328.90086133333335</v>
       </c>
       <c r="D34" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>530.04431258333341</v>
       </c>
       <c r="E34" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>328.89910424999988</v>
       </c>
       <c r="F34" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>530.26570749999996</v>
       </c>
       <c r="G34" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>328.22633324999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="25">
+        <f t="shared" ref="H34:I34" si="11">H19-H36</f>
+        <v>-87.198250000000002</v>
+      </c>
+      <c r="I34" s="25">
+        <f t="shared" si="11"/>
+        <v>-84.03884166666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -3639,372 +3735,476 @@
         <v>530.04484833333333</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:G35" si="9">C32</f>
+        <f t="shared" ref="C35:G35" si="12">C32</f>
         <v>328.90086133333335</v>
       </c>
       <c r="D35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>530.04431258333341</v>
       </c>
       <c r="E35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>328.89910424999988</v>
       </c>
       <c r="F35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>530.26570749999996</v>
       </c>
       <c r="G35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>328.22633324999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" ref="H35:I35" si="13">H32</f>
+        <v>-87.198250000000002</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="13"/>
+        <v>-84.03884166666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" s="25">
-        <f t="shared" ref="B36:B47" si="10">B19-B$35</f>
+        <f t="shared" ref="B36:B47" si="14">B19-B$35</f>
         <v>95.808588666666651</v>
       </c>
       <c r="C36" s="25">
-        <f t="shared" ref="C36:G36" si="11">C19-C$35</f>
+        <f t="shared" ref="C36:G36" si="15">C19-C$35</f>
         <v>99.917778666666663</v>
       </c>
       <c r="D36" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>95.802896416666613</v>
       </c>
       <c r="E36" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>99.926599750000094</v>
       </c>
       <c r="F36" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>95.80574050000007</v>
       </c>
       <c r="G36" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>99.919643750000034</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="25">
+        <f t="shared" ref="H36:I36" si="16">H19-H$35</f>
+        <v>95.810649999999995</v>
+      </c>
+      <c r="I36" s="25">
+        <f t="shared" si="16"/>
+        <v>99.919341666666668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>96.712279666666632</v>
       </c>
       <c r="C37" s="25">
-        <f t="shared" ref="C37:G47" si="12">C20-C$35</f>
+        <f t="shared" ref="C37:G47" si="17">C20-C$35</f>
         <v>99.938773666666634</v>
       </c>
       <c r="D37" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>96.711023416666649</v>
       </c>
       <c r="E37" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>99.943335750000131</v>
       </c>
       <c r="F37" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>96.709963500000072</v>
       </c>
       <c r="G37" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>99.938896750000026</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="25">
+        <f t="shared" ref="H37:I37" si="18">H20-H$35</f>
+        <v>96.709850000000003</v>
+      </c>
+      <c r="I37" s="25">
+        <f t="shared" si="18"/>
+        <v>99.939341666666664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
       <c r="B38" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>95.802810666666687</v>
       </c>
       <c r="C38" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.012706666666645</v>
       </c>
       <c r="D38" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>95.803415416666553</v>
       </c>
       <c r="E38" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.005309750000094</v>
       </c>
       <c r="F38" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>95.79948550000006</v>
       </c>
       <c r="G38" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.007980750000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="25">
+        <f t="shared" ref="H38:I38" si="19">H21-H$35</f>
+        <v>95.808450000000008</v>
+      </c>
+      <c r="I38" s="25">
+        <f t="shared" si="19"/>
+        <v>98.012041666666676</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
       <c r="B39" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>96.712766666666653</v>
       </c>
       <c r="C39" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.009775666666656</v>
       </c>
       <c r="D39" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>96.716159416666642</v>
       </c>
       <c r="E39" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.010937750000096</v>
       </c>
       <c r="F39" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>96.71199450000006</v>
       </c>
       <c r="G39" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.011641750000024</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="25">
+        <f t="shared" ref="H39:I39" si="20">H22-H$35</f>
+        <v>96.710549999999998</v>
+      </c>
+      <c r="I39" s="25">
+        <f t="shared" si="20"/>
+        <v>98.004341666666676</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
       <c r="B40" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>98.965806666666708</v>
       </c>
       <c r="C40" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>100.02854766666667</v>
       </c>
       <c r="D40" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.959435416666565</v>
       </c>
       <c r="E40" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>100.03346275000013</v>
       </c>
       <c r="F40" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.970764500000087</v>
       </c>
       <c r="G40" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>100.03309075000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="25">
+        <f t="shared" ref="H40:I40" si="21">H23-H$35</f>
+        <v>98.967650000000006</v>
+      </c>
+      <c r="I40" s="25">
+        <f t="shared" si="21"/>
+        <v>100.03014166666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
       <c r="B41" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>99.87533366666662</v>
       </c>
       <c r="C41" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>100.01851566666664</v>
       </c>
       <c r="D41" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>99.883489416666634</v>
       </c>
       <c r="E41" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>100.0227997500001</v>
       </c>
       <c r="F41" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>99.874449500000082</v>
       </c>
       <c r="G41" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>100.02852475000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="25">
+        <f t="shared" ref="H41:I41" si="22">H24-H$35</f>
+        <v>99.874250000000004</v>
+      </c>
+      <c r="I41" s="25">
+        <f t="shared" si="22"/>
+        <v>100.02114166666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7</v>
       </c>
       <c r="B42" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>98.967763666666656</v>
       </c>
       <c r="C42" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.51952266666666</v>
       </c>
       <c r="D42" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.968040416666554</v>
       </c>
       <c r="E42" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.510349750000103</v>
       </c>
       <c r="F42" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.968220500000029</v>
       </c>
       <c r="G42" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.509123750000015</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="25">
+        <f t="shared" ref="H42:I42" si="23">H25-H$35</f>
+        <v>98.967650000000006</v>
+      </c>
+      <c r="I42" s="25">
+        <f t="shared" si="23"/>
+        <v>98.511541666666673</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8</v>
       </c>
       <c r="B43" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>99.875339666666719</v>
       </c>
       <c r="C43" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.506509666666659</v>
       </c>
       <c r="D43" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>99.879111416666547</v>
       </c>
       <c r="E43" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.500197750000098</v>
       </c>
       <c r="F43" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>99.876805500000046</v>
       </c>
       <c r="G43" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.506731750000029</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="25">
+        <f t="shared" ref="H43:I43" si="24">H26-H$35</f>
+        <v>99.874250000000004</v>
+      </c>
+      <c r="I43" s="25">
+        <f t="shared" si="24"/>
+        <v>98.505141666666674</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
       <c r="B44" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>103.87816366666664</v>
       </c>
       <c r="C44" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>102.33947666666666</v>
       </c>
       <c r="D44" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>103.87915041666656</v>
       </c>
       <c r="E44" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>102.3464237500001</v>
       </c>
       <c r="F44" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>103.88506649999999</v>
       </c>
       <c r="G44" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>102.34679975</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="25">
+        <f t="shared" ref="H44:I44" si="25">H27-H$35</f>
+        <v>103.88205000000001</v>
+      </c>
+      <c r="I44" s="25">
+        <f t="shared" si="25"/>
+        <v>102.34034166666667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
       <c r="B45" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>104.76246466666669</v>
       </c>
       <c r="C45" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>102.32844966666664</v>
       </c>
       <c r="D45" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>104.75748441666656</v>
       </c>
       <c r="E45" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>102.33228075000011</v>
       </c>
       <c r="F45" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>104.75853849999999</v>
       </c>
       <c r="G45" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>102.33574775</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="25">
+        <f t="shared" ref="H45:I45" si="26">H28-H$35</f>
+        <v>104.75794999999999</v>
+      </c>
+      <c r="I45" s="25">
+        <f t="shared" si="26"/>
+        <v>102.33544166666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11</v>
       </c>
       <c r="B46" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>103.88519566666662</v>
       </c>
       <c r="C46" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>101.18848266666663</v>
       </c>
       <c r="D46" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>103.88382241666659</v>
       </c>
       <c r="E46" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>101.18118275000012</v>
       </c>
       <c r="F46" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>103.88376650000009</v>
       </c>
       <c r="G46" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>101.17293275000003</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="25">
+        <f t="shared" ref="H46:I46" si="27">H29-H$35</f>
+        <v>103.88395</v>
+      </c>
+      <c r="I46" s="25">
+        <f t="shared" si="27"/>
+        <v>101.18784166666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
       <c r="B47" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>104.75348666666662</v>
       </c>
       <c r="C47" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>101.19146066666667</v>
       </c>
       <c r="D47" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>104.75597141666663</v>
       </c>
       <c r="E47" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>101.18711975000014</v>
       </c>
       <c r="F47" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>104.75520449999999</v>
       </c>
       <c r="G47" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>101.18888575</v>
+      </c>
+      <c r="H47" s="25">
+        <f t="shared" ref="H47:I47" si="28">H30-H$35</f>
+        <v>104.75275000000001</v>
+      </c>
+      <c r="I47" s="25">
+        <f t="shared" si="28"/>
+        <v>101.19334166666667</v>
       </c>
     </row>
   </sheetData>
@@ -4012,17 +4212,17 @@
     <sortCondition ref="F5"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M4:S6"/>
+    <mergeCell ref="N8:N20"/>
+    <mergeCell ref="P8:P20"/>
+    <mergeCell ref="R8:R20"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M4:S6"/>
-    <mergeCell ref="N8:N20"/>
-    <mergeCell ref="P8:P20"/>
-    <mergeCell ref="R8:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/7_figure/comp-coord.xlsx
+++ b/7_figure/comp-coord.xlsx
@@ -585,18 +585,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -641,18 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,82 +1010,82 @@
     </row>
     <row r="3" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD4" s="33" t="s">
+      <c r="AD4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="35"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="39"/>
     </row>
     <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="38"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="42"/>
     </row>
     <row r="6" spans="2:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="26" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="45" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="26" t="s">
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="45" t="s">
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="26" t="s">
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="41"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="45"/>
     </row>
     <row r="7" spans="2:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1281,35 +1281,35 @@
       <c r="AD8" s="19">
         <v>1</v>
       </c>
-      <c r="AE8" s="42" t="s">
+      <c r="AE8" s="46" t="s">
         <v>5</v>
       </c>
       <c r="AF8" s="20">
         <f>I8</f>
         <v>12.316449853758112</v>
       </c>
-      <c r="AG8" s="42" t="s">
+      <c r="AG8" s="46" t="s">
         <v>13</v>
       </c>
       <c r="AH8" s="20">
         <f>N8</f>
         <v>10.722318266112959</v>
       </c>
-      <c r="AI8" s="42" t="s">
+      <c r="AI8" s="46" t="s">
         <v>10</v>
       </c>
       <c r="AJ8" s="20">
         <f>R8</f>
         <v>6.2157915826990688</v>
       </c>
-      <c r="AK8" s="30" t="s">
+      <c r="AK8" s="34" t="s">
         <v>11</v>
       </c>
       <c r="AL8" s="20">
         <f>V8</f>
         <v>9.7457939645817468</v>
       </c>
-      <c r="AM8" s="30" t="s">
+      <c r="AM8" s="34" t="s">
         <v>17</v>
       </c>
       <c r="AN8" s="20">
@@ -1401,27 +1401,27 @@
       <c r="AD9" s="13">
         <v>2</v>
       </c>
-      <c r="AE9" s="43"/>
+      <c r="AE9" s="47"/>
       <c r="AF9" s="15">
         <f t="shared" ref="AF9:AF19" si="5">I9</f>
         <v>7.5532746540863549</v>
       </c>
-      <c r="AG9" s="43"/>
+      <c r="AG9" s="47"/>
       <c r="AH9" s="15">
         <f t="shared" ref="AH9:AH19" si="6">N9</f>
         <v>8.2232736181673314</v>
       </c>
-      <c r="AI9" s="43"/>
+      <c r="AI9" s="47"/>
       <c r="AJ9" s="15">
         <f t="shared" ref="AJ9:AJ19" si="7">R9</f>
         <v>6.392926794497038</v>
       </c>
-      <c r="AK9" s="31"/>
+      <c r="AK9" s="35"/>
       <c r="AL9" s="15">
         <f t="shared" ref="AL9:AL19" si="8">V9</f>
         <v>2.0416721088637151</v>
       </c>
-      <c r="AM9" s="31"/>
+      <c r="AM9" s="35"/>
       <c r="AN9" s="15">
         <f t="shared" ref="AN9:AN19" si="9">Z9</f>
         <v>13.601285874467283</v>
@@ -1511,27 +1511,27 @@
       <c r="AD10" s="13">
         <v>3</v>
       </c>
-      <c r="AE10" s="43"/>
+      <c r="AE10" s="47"/>
       <c r="AF10" s="15">
         <f t="shared" si="5"/>
         <v>16.151616946983687</v>
       </c>
-      <c r="AG10" s="43"/>
+      <c r="AG10" s="47"/>
       <c r="AH10" s="15">
         <f t="shared" si="6"/>
         <v>12.385548029956054</v>
       </c>
-      <c r="AI10" s="43"/>
+      <c r="AI10" s="47"/>
       <c r="AJ10" s="15">
         <f t="shared" si="7"/>
         <v>12.835303424595075</v>
       </c>
-      <c r="AK10" s="31"/>
+      <c r="AK10" s="35"/>
       <c r="AL10" s="15">
         <f t="shared" si="8"/>
         <v>4.8559242168291092</v>
       </c>
-      <c r="AM10" s="31"/>
+      <c r="AM10" s="35"/>
       <c r="AN10" s="15">
         <f t="shared" si="9"/>
         <v>17.129229404749246</v>
@@ -1621,27 +1621,27 @@
       <c r="AD11" s="13">
         <v>4</v>
       </c>
-      <c r="AE11" s="43"/>
+      <c r="AE11" s="47"/>
       <c r="AF11" s="15">
         <f t="shared" si="5"/>
         <v>11.364618163395027</v>
       </c>
-      <c r="AG11" s="43"/>
+      <c r="AG11" s="47"/>
       <c r="AH11" s="15">
         <f t="shared" si="6"/>
         <v>10.590769613215583</v>
       </c>
-      <c r="AI11" s="43"/>
+      <c r="AI11" s="47"/>
       <c r="AJ11" s="15">
         <f t="shared" si="7"/>
         <v>7.4546397632827741</v>
       </c>
-      <c r="AK11" s="31"/>
+      <c r="AK11" s="35"/>
       <c r="AL11" s="15">
         <f t="shared" si="8"/>
         <v>4.3794976880734806</v>
       </c>
-      <c r="AM11" s="31"/>
+      <c r="AM11" s="35"/>
       <c r="AN11" s="15">
         <f t="shared" si="9"/>
         <v>14.489514450104156</v>
@@ -1731,27 +1731,27 @@
       <c r="AD12" s="13">
         <v>5</v>
       </c>
-      <c r="AE12" s="43"/>
+      <c r="AE12" s="47"/>
       <c r="AF12" s="15">
         <f t="shared" si="5"/>
         <v>8.6400231480582281</v>
       </c>
-      <c r="AG12" s="43"/>
+      <c r="AG12" s="47"/>
       <c r="AH12" s="15">
         <f t="shared" si="6"/>
         <v>9.9349987921550174</v>
       </c>
-      <c r="AI12" s="43"/>
+      <c r="AI12" s="47"/>
       <c r="AJ12" s="15">
         <f t="shared" si="7"/>
         <v>2.0686104031941541</v>
       </c>
-      <c r="AK12" s="31"/>
+      <c r="AK12" s="35"/>
       <c r="AL12" s="15">
         <f t="shared" si="8"/>
         <v>7.7233671413825409</v>
       </c>
-      <c r="AM12" s="31"/>
+      <c r="AM12" s="35"/>
       <c r="AN12" s="15">
         <f t="shared" si="9"/>
         <v>22.958063027198957</v>
@@ -1841,27 +1841,27 @@
       <c r="AD13" s="13">
         <v>6</v>
       </c>
-      <c r="AE13" s="43"/>
+      <c r="AE13" s="47"/>
       <c r="AF13" s="15">
         <f t="shared" si="5"/>
         <v>4.589117562156698</v>
       </c>
-      <c r="AG13" s="43"/>
+      <c r="AG13" s="47"/>
       <c r="AH13" s="15">
         <f t="shared" si="6"/>
         <v>4.4290793625419944</v>
       </c>
-      <c r="AI13" s="43"/>
+      <c r="AI13" s="47"/>
       <c r="AJ13" s="15">
         <f t="shared" si="7"/>
         <v>2.8715697797664488</v>
       </c>
-      <c r="AK13" s="31"/>
+      <c r="AK13" s="35"/>
       <c r="AL13" s="15">
         <f t="shared" si="8"/>
         <v>8.1760947278637115</v>
       </c>
-      <c r="AM13" s="31"/>
+      <c r="AM13" s="35"/>
       <c r="AN13" s="15">
         <f t="shared" si="9"/>
         <v>12.382811635496138</v>
@@ -1951,27 +1951,27 @@
       <c r="AD14" s="13">
         <v>7</v>
       </c>
-      <c r="AE14" s="43"/>
+      <c r="AE14" s="47"/>
       <c r="AF14" s="15">
         <f t="shared" si="5"/>
         <v>10.277159140538977</v>
       </c>
-      <c r="AG14" s="43"/>
+      <c r="AG14" s="47"/>
       <c r="AH14" s="15">
         <f t="shared" si="6"/>
         <v>15.282870450588049</v>
       </c>
-      <c r="AI14" s="43"/>
+      <c r="AI14" s="47"/>
       <c r="AJ14" s="15">
         <f t="shared" si="7"/>
         <v>8.2001882905225187</v>
       </c>
-      <c r="AK14" s="31"/>
+      <c r="AK14" s="35"/>
       <c r="AL14" s="15">
         <f t="shared" si="8"/>
         <v>26.322070587242361</v>
       </c>
-      <c r="AM14" s="31"/>
+      <c r="AM14" s="35"/>
       <c r="AN14" s="15">
         <f t="shared" si="9"/>
         <v>38.324025101729092</v>
@@ -2061,27 +2061,27 @@
       <c r="AD15" s="13">
         <v>8</v>
       </c>
-      <c r="AE15" s="43"/>
+      <c r="AE15" s="47"/>
       <c r="AF15" s="15">
         <f t="shared" si="5"/>
         <v>6.1204574992190937</v>
       </c>
-      <c r="AG15" s="43"/>
+      <c r="AG15" s="47"/>
       <c r="AH15" s="15">
         <f t="shared" si="6"/>
         <v>10.28658718913784</v>
       </c>
-      <c r="AI15" s="43"/>
+      <c r="AI15" s="47"/>
       <c r="AJ15" s="15">
         <f t="shared" si="7"/>
         <v>1.4612080618790346</v>
       </c>
-      <c r="AK15" s="31"/>
+      <c r="AK15" s="35"/>
       <c r="AL15" s="15">
         <f t="shared" si="8"/>
         <v>8.7206651122424201</v>
       </c>
-      <c r="AM15" s="31"/>
+      <c r="AM15" s="35"/>
       <c r="AN15" s="15">
         <f t="shared" si="9"/>
         <v>8.6448152235857023</v>
@@ -2171,27 +2171,27 @@
       <c r="AD16" s="13">
         <v>9</v>
       </c>
-      <c r="AE16" s="43"/>
+      <c r="AE16" s="47"/>
       <c r="AF16" s="15">
         <f t="shared" si="5"/>
         <v>8.4504437752952519</v>
       </c>
-      <c r="AG16" s="43"/>
+      <c r="AG16" s="47"/>
       <c r="AH16" s="15">
         <f t="shared" si="6"/>
         <v>11.230424791552709</v>
       </c>
-      <c r="AI16" s="43"/>
+      <c r="AI16" s="47"/>
       <c r="AJ16" s="15">
         <f t="shared" si="7"/>
         <v>7.2158350867790784</v>
       </c>
-      <c r="AK16" s="31"/>
+      <c r="AK16" s="35"/>
       <c r="AL16" s="15">
         <f t="shared" si="8"/>
         <v>5.4172236431305274</v>
       </c>
-      <c r="AM16" s="31"/>
+      <c r="AM16" s="35"/>
       <c r="AN16" s="15">
         <f t="shared" si="9"/>
         <v>25.702896723889626</v>
@@ -2281,27 +2281,27 @@
       <c r="AD17" s="13">
         <v>10</v>
       </c>
-      <c r="AE17" s="43"/>
+      <c r="AE17" s="47"/>
       <c r="AF17" s="15">
         <f t="shared" si="5"/>
         <v>4.0024992192173876</v>
       </c>
-      <c r="AG17" s="43"/>
+      <c r="AG17" s="47"/>
       <c r="AH17" s="15">
         <f t="shared" si="6"/>
         <v>5.0916248879860948</v>
       </c>
-      <c r="AI17" s="43"/>
+      <c r="AI17" s="47"/>
       <c r="AJ17" s="15">
         <f t="shared" si="7"/>
         <v>7.1447393233937273</v>
       </c>
-      <c r="AK17" s="31"/>
+      <c r="AK17" s="35"/>
       <c r="AL17" s="15">
         <f t="shared" si="8"/>
         <v>6.3668378335798206</v>
       </c>
-      <c r="AM17" s="31"/>
+      <c r="AM17" s="35"/>
       <c r="AN17" s="15">
         <f t="shared" si="9"/>
         <v>13.346340359871515</v>
@@ -2391,27 +2391,27 @@
       <c r="AD18" s="13">
         <v>11</v>
       </c>
-      <c r="AE18" s="43"/>
+      <c r="AE18" s="47"/>
       <c r="AF18" s="15">
         <f t="shared" si="5"/>
         <v>2.7802877548683496</v>
       </c>
-      <c r="AG18" s="43"/>
+      <c r="AG18" s="47"/>
       <c r="AH18" s="15">
         <f t="shared" si="6"/>
         <v>9.9509200579865666</v>
       </c>
-      <c r="AI18" s="43"/>
+      <c r="AI18" s="47"/>
       <c r="AJ18" s="15">
         <f t="shared" si="7"/>
         <v>10.057197671307005</v>
       </c>
-      <c r="AK18" s="31"/>
+      <c r="AK18" s="35"/>
       <c r="AL18" s="15">
         <f t="shared" si="8"/>
         <v>9.2279805482748003</v>
       </c>
-      <c r="AM18" s="31"/>
+      <c r="AM18" s="35"/>
       <c r="AN18" s="15">
         <f t="shared" si="9"/>
         <v>24.88547746618142</v>
@@ -2501,27 +2501,27 @@
       <c r="AD19" s="14">
         <v>12</v>
       </c>
-      <c r="AE19" s="43"/>
+      <c r="AE19" s="47"/>
       <c r="AF19" s="16">
         <f t="shared" si="5"/>
         <v>4.5221676217989479</v>
       </c>
-      <c r="AG19" s="43"/>
+      <c r="AG19" s="47"/>
       <c r="AH19" s="16">
         <f t="shared" si="6"/>
         <v>6.2634654943967965</v>
       </c>
-      <c r="AI19" s="43"/>
+      <c r="AI19" s="47"/>
       <c r="AJ19" s="16">
         <f t="shared" si="7"/>
         <v>5.7312846727729561</v>
       </c>
-      <c r="AK19" s="31"/>
+      <c r="AK19" s="35"/>
       <c r="AL19" s="16">
         <f t="shared" si="8"/>
         <v>6.4421500292937397</v>
       </c>
-      <c r="AM19" s="31"/>
+      <c r="AM19" s="35"/>
       <c r="AN19" s="16">
         <f t="shared" si="9"/>
         <v>16.956680718839149</v>
@@ -2531,41 +2531,41 @@
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="11">
         <f>AVERAGE(I8:I19)</f>
         <v>8.0640096116146758</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="48"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
       <c r="N20" s="12">
         <f>AVERAGE(N8:N19)</f>
         <v>9.5326567128164168</v>
       </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="32"/>
       <c r="R20" s="11">
         <f>AVERAGE(R8:R19)</f>
         <v>6.470774571224073</v>
       </c>
-      <c r="S20" s="46"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="48"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="29"/>
       <c r="V20" s="12">
         <f>AVERAGE(V8:V19)</f>
         <v>8.2849398001131647</v>
       </c>
-      <c r="W20" s="27"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="29"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="32"/>
       <c r="Z20" s="11">
         <f>AVERAGE(Z8:Z19)</f>
         <v>17.978915387275347</v>
@@ -2573,27 +2573,27 @@
       <c r="AD20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE20" s="44"/>
+      <c r="AE20" s="48"/>
       <c r="AF20" s="18">
         <f>AVERAGE(AF8:AF19)</f>
         <v>8.0640096116146758</v>
       </c>
-      <c r="AG20" s="44"/>
+      <c r="AG20" s="48"/>
       <c r="AH20" s="18">
         <f>AVERAGE(AH8:AH19)</f>
         <v>9.5326567128164168</v>
       </c>
-      <c r="AI20" s="44"/>
+      <c r="AI20" s="48"/>
       <c r="AJ20" s="18">
         <f>AVERAGE(AJ8:AJ19)</f>
         <v>6.470774571224073</v>
       </c>
-      <c r="AK20" s="32"/>
+      <c r="AK20" s="36"/>
       <c r="AL20" s="18">
         <f>AVERAGE(AL8:AL19)</f>
         <v>8.2849398001131647</v>
       </c>
-      <c r="AM20" s="32"/>
+      <c r="AM20" s="36"/>
       <c r="AN20" s="18">
         <f>AVERAGE(AN8:AN19)</f>
         <v>17.978915387275347</v>
@@ -2604,6 +2604,14 @@
     <sortCondition ref="B8"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="AM8:AM20"/>
+    <mergeCell ref="AD4:AN6"/>
+    <mergeCell ref="AE8:AE20"/>
+    <mergeCell ref="AG8:AG20"/>
+    <mergeCell ref="AI8:AI20"/>
+    <mergeCell ref="AK8:AK20"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="S20:U20"/>
     <mergeCell ref="C20:E20"/>
@@ -2614,14 +2622,6 @@
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="O6:R6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="AM8:AM20"/>
-    <mergeCell ref="AD4:AN6"/>
-    <mergeCell ref="AE8:AE20"/>
-    <mergeCell ref="AG8:AG20"/>
-    <mergeCell ref="AI8:AI20"/>
-    <mergeCell ref="AK8:AK20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2633,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,15 +2653,15 @@
         <v>19</v>
       </c>
       <c r="G4" s="49"/>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -2682,13 +2682,13 @@
       <c r="G5">
         <v>426.23431399999998</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
     </row>
     <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6">
@@ -2709,13 +2709,13 @@
       <c r="G6">
         <v>428.14597700000002</v>
       </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -2780,21 +2780,21 @@
       <c r="M8" s="19">
         <v>1</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="34" t="s">
         <v>23</v>
       </c>
       <c r="O8" s="20">
         <f>SQRT(($B36-D36)^2+($C36-E36)^2)*1000</f>
         <v>10.498248484307</v>
       </c>
-      <c r="P8" s="42" t="s">
+      <c r="P8" s="46" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="20">
         <f>SQRT(($B36-F36)^2+($C36-G36)^2)*1000</f>
         <v>3.4044954400089718</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="34" t="s">
         <v>25</v>
       </c>
       <c r="S8" s="20">
@@ -2824,17 +2824,17 @@
       <c r="M9" s="13">
         <v>2</v>
       </c>
-      <c r="N9" s="31"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="15">
         <f t="shared" ref="O9:O19" si="0">SQRT(($B37-D37)^2+($C37-E37)^2)*1000</f>
         <v>4.7318884606702278</v>
       </c>
-      <c r="P9" s="43"/>
+      <c r="P9" s="47"/>
       <c r="Q9" s="15">
         <f t="shared" ref="Q9:Q19" si="1">SQRT(($B37-F37)^2+($C37-G37)^2)*1000</f>
         <v>2.3194347445537233</v>
       </c>
-      <c r="R9" s="31"/>
+      <c r="R9" s="35"/>
       <c r="S9" s="15">
         <f t="shared" ref="S9:S19" si="2">SQRT(($B37-H37)^2+($C37-I37)^2)*1000</f>
         <v>2.495176168321751</v>
@@ -2862,17 +2862,17 @@
       <c r="M10" s="13">
         <v>3</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="15">
         <f t="shared" si="0"/>
         <v>7.4215967779334457</v>
       </c>
-      <c r="P10" s="43"/>
+      <c r="P10" s="47"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
         <v>5.7784964913816053</v>
       </c>
-      <c r="R10" s="31"/>
+      <c r="R10" s="35"/>
       <c r="S10" s="15">
         <f t="shared" si="2"/>
         <v>5.6784069459892166</v>
@@ -2900,17 +2900,17 @@
       <c r="M11" s="13">
         <v>4</v>
       </c>
-      <c r="N11" s="31"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="15">
         <f t="shared" si="0"/>
         <v>3.5862501636508748</v>
       </c>
-      <c r="P11" s="43"/>
+      <c r="P11" s="47"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
         <v>2.0195317199966012</v>
       </c>
-      <c r="R11" s="31"/>
+      <c r="R11" s="35"/>
       <c r="S11" s="15">
         <f t="shared" si="2"/>
         <v>5.868727895450518</v>
@@ -2938,17 +2938,17 @@
       <c r="M12" s="13">
         <v>5</v>
       </c>
-      <c r="N12" s="31"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="15">
         <f t="shared" si="0"/>
         <v>8.0467925746322759</v>
       </c>
-      <c r="P12" s="43"/>
+      <c r="P12" s="47"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
         <v>6.7245607689675992</v>
       </c>
-      <c r="R12" s="31"/>
+      <c r="R12" s="35"/>
       <c r="S12" s="15">
         <f t="shared" si="2"/>
         <v>2.4369476353910886</v>
@@ -2976,17 +2976,17 @@
       <c r="M13" s="13">
         <v>6</v>
       </c>
-      <c r="N13" s="31"/>
+      <c r="N13" s="35"/>
       <c r="O13" s="15">
         <f t="shared" si="0"/>
         <v>9.212471333510921</v>
       </c>
-      <c r="P13" s="43"/>
+      <c r="P13" s="47"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
         <v>10.048059507630962</v>
       </c>
-      <c r="R13" s="31"/>
+      <c r="R13" s="35"/>
       <c r="S13" s="15">
         <f t="shared" si="2"/>
         <v>2.8408114059972918</v>
@@ -3014,17 +3014,17 @@
       <c r="M14" s="13">
         <v>7</v>
       </c>
-      <c r="N14" s="31"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="15">
         <f t="shared" si="0"/>
         <v>9.1770905375313809</v>
       </c>
-      <c r="P14" s="43"/>
+      <c r="P14" s="47"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
         <v>10.40894637003726</v>
       </c>
-      <c r="R14" s="31"/>
+      <c r="R14" s="35"/>
       <c r="S14" s="15">
         <f t="shared" si="2"/>
         <v>7.9818093882837635</v>
@@ -3052,17 +3052,17 @@
       <c r="M15" s="13">
         <v>8</v>
       </c>
-      <c r="N15" s="31"/>
+      <c r="N15" s="35"/>
       <c r="O15" s="15">
         <f t="shared" si="0"/>
         <v>7.3529851126477395</v>
       </c>
-      <c r="P15" s="43"/>
+      <c r="P15" s="47"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
         <v>1.4825614213427625</v>
       </c>
-      <c r="R15" s="31"/>
+      <c r="R15" s="35"/>
       <c r="S15" s="15">
         <f t="shared" si="2"/>
         <v>1.7489418070677214</v>
@@ -3090,17 +3090,17 @@
       <c r="M16" s="13">
         <v>9</v>
       </c>
-      <c r="N16" s="31"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="15">
         <f t="shared" si="0"/>
         <v>7.0168114128968693</v>
       </c>
-      <c r="P16" s="43"/>
+      <c r="P16" s="47"/>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
         <v>10.063630435148001</v>
       </c>
-      <c r="R16" s="31"/>
+      <c r="R16" s="35"/>
       <c r="S16" s="15">
         <f t="shared" si="2"/>
         <v>3.9814333823499592</v>
@@ -3110,17 +3110,17 @@
       <c r="M17" s="13">
         <v>10</v>
       </c>
-      <c r="N17" s="31"/>
+      <c r="N17" s="35"/>
       <c r="O17" s="15">
         <f t="shared" si="0"/>
         <v>6.2833183567095876</v>
       </c>
-      <c r="P17" s="43"/>
+      <c r="P17" s="47"/>
       <c r="Q17" s="15">
         <f t="shared" si="1"/>
         <v>8.2871469780187876</v>
       </c>
-      <c r="R17" s="31"/>
+      <c r="R17" s="35"/>
       <c r="S17" s="15">
         <f t="shared" si="2"/>
         <v>8.3228768530904098</v>
@@ -3146,17 +3146,17 @@
       <c r="M18" s="13">
         <v>11</v>
       </c>
-      <c r="N18" s="31"/>
+      <c r="N18" s="35"/>
       <c r="O18" s="15">
         <f t="shared" si="0"/>
         <v>7.4279606151748352</v>
       </c>
-      <c r="P18" s="43"/>
+      <c r="P18" s="47"/>
       <c r="Q18" s="15">
         <f t="shared" si="1"/>
         <v>15.615454706761716</v>
       </c>
-      <c r="R18" s="31"/>
+      <c r="R18" s="35"/>
       <c r="S18" s="15">
         <f t="shared" si="2"/>
         <v>1.4009162873900554</v>
@@ -3199,17 +3199,17 @@
       <c r="M19" s="14">
         <v>12</v>
       </c>
-      <c r="N19" s="31"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="16">
         <f t="shared" si="0"/>
         <v>5.0017536992883951</v>
       </c>
-      <c r="P19" s="43"/>
+      <c r="P19" s="47"/>
       <c r="Q19" s="16">
         <f t="shared" si="1"/>
         <v>3.0953428245615253</v>
       </c>
-      <c r="R19" s="31"/>
+      <c r="R19" s="35"/>
       <c r="S19" s="16">
         <f t="shared" si="2"/>
         <v>2.0201086054186828</v>
@@ -3252,17 +3252,17 @@
       <c r="M20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="32"/>
+      <c r="N20" s="36"/>
       <c r="O20" s="18">
         <f>AVERAGE(O8:O19)</f>
         <v>7.1464306274127951</v>
       </c>
-      <c r="P20" s="44"/>
+      <c r="P20" s="48"/>
       <c r="Q20" s="18">
         <f>AVERAGE(Q8:Q19)</f>
         <v>6.6039717840341261</v>
       </c>
-      <c r="R20" s="32"/>
+      <c r="R20" s="36"/>
       <c r="S20" s="18">
         <f>AVERAGE(S8:S19)</f>
         <v>3.9469215659162269</v>
@@ -4212,17 +4212,17 @@
     <sortCondition ref="F5"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M4:S6"/>
-    <mergeCell ref="N8:N20"/>
-    <mergeCell ref="P8:P20"/>
-    <mergeCell ref="R8:R20"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M4:S6"/>
+    <mergeCell ref="N8:N20"/>
+    <mergeCell ref="P8:P20"/>
+    <mergeCell ref="R8:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/7_figure/comp-coord.xlsx
+++ b/7_figure/comp-coord.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Restitution 3D" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>Id Point</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>MS60</t>
-  </si>
-  <si>
-    <t>Restitution (Agisoft)</t>
   </si>
   <si>
     <t>Forme sur nuage  (Agisoft)</t>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Forme sur photo(Agisoft)</t>
   </si>
   <si>
     <t>Id Points</t>
@@ -107,6 +101,57 @@
   <si>
     <t>translation</t>
   </si>
+  <si>
+    <t>Restitution Canon EOS (Agisoft)</t>
+  </si>
+  <si>
+    <t>Restitution sur les photos de la Ladybug (Agisoft)</t>
+  </si>
+  <si>
+    <t>Restitution sur les photos du Canon EOS 5DS R (Agisoft)</t>
+  </si>
+  <si>
+    <t>Restitution Ladybug (Agisoft)</t>
+  </si>
+  <si>
+    <t>Modélisation</t>
+  </si>
+  <si>
+    <t>Type de restitution</t>
+  </si>
+  <si>
+    <t>Restitution sur les photos</t>
+  </si>
+  <si>
+    <t>Contour planaire</t>
+  </si>
+  <si>
+    <t>Restitution de scanner</t>
+  </si>
+  <si>
+    <t>40s</t>
+  </si>
+  <si>
+    <t>2min 40s</t>
+  </si>
+  <si>
+    <t>5min</t>
+  </si>
+  <si>
+    <t>2min 30s</t>
+  </si>
+  <si>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>Durées approximatives</t>
+  </si>
+  <si>
+    <t>Forme sur une photo</t>
+  </si>
+  <si>
+    <t>Forme sur photo (Agisoft)</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +200,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -516,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -585,6 +636,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,6 +663,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -655,6 +718,13 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -684,9 +754,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>469446</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -980,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AN20"/>
+  <dimension ref="B3:AX33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM23" sqref="AM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,103 +1061,108 @@
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.7109375" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" customWidth="1"/>
+    <col min="49" max="49" width="25.28515625" customWidth="1"/>
+    <col min="50" max="50" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="E2">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="F2">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="G2">
-        <v>-1.9E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD4" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="39"/>
-    </row>
-    <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="42"/>
-    </row>
-    <row r="6" spans="2:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:46" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="43"/>
+    </row>
+    <row r="5" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="46"/>
+    </row>
+    <row r="6" spans="2:46" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="33" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="33" t="s">
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="45"/>
-    </row>
-    <row r="7" spans="2:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="49"/>
+    </row>
+    <row r="7" spans="2:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1110,94 +1185,112 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="2" t="s">
+      <c r="R7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" s="3" t="s">
+      <c r="V7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="2" t="s">
+      <c r="Z7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE7" s="22" t="s">
+      <c r="AD7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AF7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH7" s="23" t="s">
-        <v>9</v>
-      </c>
       <c r="AI7" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK7" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL7" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM7" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN7" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="AO7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT7" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>1</v>
       </c>
@@ -1226,98 +1319,118 @@
       <c r="J8" s="7">
         <v>0.25</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
+        <v>626.06624899999997</v>
+      </c>
+      <c r="L8" s="7">
+        <v>427.78753399999999</v>
+      </c>
+      <c r="M8" s="7">
+        <v>501.75928499999998</v>
+      </c>
+      <c r="N8" s="26">
+        <f>SQRT(($C8-K8)^2+($D8-L8)^2+($E8-M8)^2)*1000</f>
+        <v>22.219684561154992</v>
+      </c>
+      <c r="O8" s="9">
         <v>626.06100000000004</v>
       </c>
-      <c r="L8" s="9">
+      <c r="P8" s="9">
         <v>427.79669000000001</v>
       </c>
-      <c r="M8" s="9">
+      <c r="Q8" s="9">
         <v>501.74699700000002</v>
       </c>
-      <c r="N8" s="10">
-        <f>SQRT(($C8-K8)^2+($D8-L8)^2+($E8-M8)^2)*1000</f>
+      <c r="R8" s="10">
+        <f>SQRT(($C8-O8)^2+($D8-P8)^2+($E8-Q8)^2)*1000</f>
         <v>10.722318266112959</v>
       </c>
-      <c r="O8" s="7">
+      <c r="S8" s="7">
         <v>626.05047000000002</v>
       </c>
-      <c r="P8" s="7">
+      <c r="T8" s="7">
         <v>427.80314700000002</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="U8" s="7">
         <v>501.75433399999997</v>
       </c>
-      <c r="R8" s="8">
-        <f t="shared" ref="R8:R11" si="0">SQRT(($C8-O8)^2+($D8-P8)^2+($E8-Q8)^2)*1000</f>
+      <c r="V8" s="8">
+        <f t="shared" ref="V8:V11" si="0">SQRT(($C8-S8)^2+($D8-T8)^2+($E8-U8)^2)*1000</f>
         <v>6.2157915826990688</v>
       </c>
-      <c r="S8" s="9">
+      <c r="W8" s="9">
         <v>626.04434000000003</v>
       </c>
-      <c r="T8" s="9">
+      <c r="X8" s="9">
         <v>427.80079999999998</v>
       </c>
-      <c r="U8" s="9">
+      <c r="Y8" s="9">
         <v>501.75607000000002</v>
       </c>
-      <c r="V8" s="10">
-        <f t="shared" ref="V8:V17" si="1">SQRT(($C8-S8)^2+($D8-T8)^2+($E8-U8)^2)*1000</f>
+      <c r="Z8" s="10">
+        <f t="shared" ref="Z8:Z17" si="1">SQRT(($C8-W8)^2+($D8-X8)^2+($E8-Y8)^2)*1000</f>
         <v>9.7457939645817468</v>
       </c>
-      <c r="W8" s="24">
+      <c r="AA8" s="24">
         <v>626.05460000000005</v>
       </c>
-      <c r="X8" s="7">
+      <c r="AB8" s="7">
         <v>427.80513999999999</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="AC8" s="7">
         <v>501.74522000000002</v>
       </c>
-      <c r="Z8" s="8">
-        <f t="shared" ref="Z8:Z13" si="2">SQRT(($C8-W8)^2+($D8-X8)^2+($E8-Y8)^2)*1000</f>
+      <c r="AD8" s="8">
+        <f t="shared" ref="AD8:AD13" si="2">SQRT(($C8-AA8)^2+($D8-AB8)^2+($E8-AC8)^2)*1000</f>
         <v>7.3258446611918986</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AH8" s="19">
         <v>1</v>
       </c>
-      <c r="AE8" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF8" s="20">
+      <c r="AI8" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ8" s="20">
         <f>I8</f>
         <v>12.316449853758112</v>
       </c>
-      <c r="AG8" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH8" s="20">
+      <c r="AK8" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL8" s="20">
         <f>N8</f>
+        <v>22.219684561154992</v>
+      </c>
+      <c r="AM8" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN8" s="20">
+        <f>R8</f>
         <v>10.722318266112959</v>
       </c>
-      <c r="AI8" s="46" t="s">
+      <c r="AO8" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP8" s="20">
+        <f>V8</f>
+        <v>6.2157915826990688</v>
+      </c>
+      <c r="AQ8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="AJ8" s="20">
-        <f>R8</f>
-        <v>6.2157915826990688</v>
-      </c>
-      <c r="AK8" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL8" s="20">
-        <f>V8</f>
+      <c r="AR8" s="20">
+        <f>Z8</f>
         <v>9.7457939645817468</v>
       </c>
-      <c r="AM8" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN8" s="20">
-        <f>Z8</f>
+      <c r="AS8" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT8" s="20">
+        <f>AD8</f>
         <v>7.3258446611918986</v>
       </c>
     </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -1346,88 +1459,106 @@
       <c r="J9" s="7">
         <v>0.182</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="7">
+        <v>626.93557199999998</v>
+      </c>
+      <c r="L9" s="7">
+        <v>428.00778300000002</v>
+      </c>
+      <c r="M9" s="7">
+        <v>501.77569999999997</v>
+      </c>
+      <c r="N9" s="26">
+        <f t="shared" ref="N9:N19" si="4">SQRT(($C9-K9)^2+($D9-L9)^2+($E9-M9)^2)*1000</f>
+        <v>17.552557448942494</v>
+      </c>
+      <c r="O9" s="9">
         <v>626.93337699999995</v>
       </c>
-      <c r="L9" s="9">
+      <c r="P9" s="9">
         <v>428.01799999999997</v>
       </c>
-      <c r="M9" s="9">
+      <c r="Q9" s="9">
         <v>501.76668999999998</v>
       </c>
-      <c r="N9" s="10">
-        <f t="shared" ref="N9:N19" si="4">SQRT(($C9-K9)^2+($D9-L9)^2+($E9-M9)^2)*1000</f>
+      <c r="R9" s="10">
+        <f t="shared" ref="R9:R19" si="5">SQRT(($C9-O9)^2+($D9-P9)^2+($E9-Q9)^2)*1000</f>
         <v>8.2232736181673314</v>
       </c>
-      <c r="O9" s="7">
+      <c r="S9" s="7">
         <v>626.92587200000003</v>
       </c>
-      <c r="P9" s="7">
+      <c r="T9" s="7">
         <v>428.01602700000001</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="U9" s="7">
         <v>501.76801999999998</v>
       </c>
-      <c r="R9" s="8">
+      <c r="V9" s="8">
         <f t="shared" si="0"/>
         <v>6.392926794497038</v>
       </c>
-      <c r="S9" s="9">
+      <c r="W9" s="9">
         <v>626.92535499999997</v>
       </c>
-      <c r="T9" s="9">
+      <c r="X9" s="9">
         <v>428.02100000000002</v>
       </c>
-      <c r="U9" s="9">
+      <c r="Y9" s="9">
         <v>501.76931999999999</v>
       </c>
-      <c r="V9" s="10">
+      <c r="Z9" s="10">
         <f t="shared" si="1"/>
         <v>2.0416721088637151</v>
       </c>
-      <c r="W9" s="7">
+      <c r="AA9" s="7">
         <v>626.93131600000004</v>
       </c>
-      <c r="X9" s="7">
+      <c r="AB9" s="7">
         <v>428.02042</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="AC9" s="7">
         <v>501.75719880000003</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="AD9" s="8">
         <f t="shared" si="2"/>
         <v>13.601285874467283</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AH9" s="13">
         <v>2</v>
       </c>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="15">
-        <f t="shared" ref="AF9:AF19" si="5">I9</f>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="15">
+        <f t="shared" ref="AJ9:AJ19" si="6">I9</f>
         <v>7.5532746540863549</v>
       </c>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="15">
-        <f t="shared" ref="AH9:AH19" si="6">N9</f>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="15">
+        <f t="shared" ref="AL9:AL19" si="7">N9</f>
+        <v>17.552557448942494</v>
+      </c>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="15">
+        <f t="shared" ref="AN9:AN19" si="8">R9</f>
         <v>8.2232736181673314</v>
       </c>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="15">
-        <f t="shared" ref="AJ9:AJ19" si="7">R9</f>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="15">
+        <f t="shared" ref="AP9:AP19" si="9">V9</f>
         <v>6.392926794497038</v>
       </c>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="15">
-        <f t="shared" ref="AL9:AL19" si="8">V9</f>
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="15">
+        <f t="shared" ref="AR9:AR19" si="10">Z9</f>
         <v>2.0416721088637151</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="15">
-        <f t="shared" ref="AN9:AN19" si="9">Z9</f>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="15">
+        <f t="shared" ref="AT9:AT19" si="11">AD9</f>
         <v>13.601285874467283</v>
       </c>
     </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -1456,88 +1587,106 @@
       <c r="J10" s="7">
         <v>0.80400000000000005</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
+        <v>626.04478900000004</v>
+      </c>
+      <c r="L10" s="7">
+        <v>427.83371</v>
+      </c>
+      <c r="M10" s="7">
+        <v>499.84338000000002</v>
+      </c>
+      <c r="N10" s="26">
+        <f t="shared" si="4"/>
+        <v>19.83418818612358</v>
+      </c>
+      <c r="O10" s="9">
         <v>626.04821000000004</v>
       </c>
-      <c r="L10" s="9">
+      <c r="P10" s="9">
         <v>427.82269000000002</v>
       </c>
-      <c r="M10" s="9">
+      <c r="Q10" s="9">
         <v>499.83195999999998</v>
       </c>
-      <c r="N10" s="10">
-        <f t="shared" si="4"/>
+      <c r="R10" s="10">
+        <f t="shared" si="5"/>
         <v>12.385548029956054</v>
       </c>
-      <c r="O10" s="7">
+      <c r="S10" s="7">
         <v>626.04602699999998</v>
       </c>
-      <c r="P10" s="7">
+      <c r="T10" s="7">
         <v>427.81730199999998</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="U10" s="7">
         <v>499.83649100000002</v>
       </c>
-      <c r="R10" s="8">
+      <c r="V10" s="8">
         <f t="shared" si="0"/>
         <v>12.835303424595075</v>
       </c>
-      <c r="S10" s="9">
+      <c r="W10" s="9">
         <v>626.0326</v>
       </c>
-      <c r="T10" s="9">
+      <c r="X10" s="9">
         <v>427.82389999999998</v>
       </c>
-      <c r="U10" s="9">
+      <c r="Y10" s="9">
         <v>499.8329</v>
       </c>
-      <c r="V10" s="10">
+      <c r="Z10" s="10">
         <f t="shared" si="1"/>
         <v>4.8559242168291092</v>
       </c>
-      <c r="W10" s="7">
+      <c r="AA10" s="7">
         <v>626.05251999999996</v>
       </c>
-      <c r="X10" s="7">
+      <c r="AB10" s="7">
         <v>427.8254</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="AC10" s="7">
         <v>499.82700999999997</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="AD10" s="8">
         <f t="shared" si="2"/>
         <v>17.129229404749246</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AH10" s="13">
         <v>3</v>
       </c>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="15">
-        <f t="shared" si="5"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="15">
+        <f t="shared" si="6"/>
         <v>16.151616946983687</v>
       </c>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="15">
-        <f t="shared" si="6"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="15">
+        <f t="shared" si="7"/>
+        <v>19.83418818612358</v>
+      </c>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="15">
+        <f t="shared" si="8"/>
         <v>12.385548029956054</v>
       </c>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="15">
-        <f t="shared" si="7"/>
+      <c r="AO10" s="51"/>
+      <c r="AP10" s="15">
+        <f t="shared" si="9"/>
         <v>12.835303424595075</v>
       </c>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="15">
-        <f t="shared" si="8"/>
+      <c r="AQ10" s="39"/>
+      <c r="AR10" s="15">
+        <f t="shared" si="10"/>
         <v>4.8559242168291092</v>
       </c>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="15">
-        <f t="shared" si="9"/>
+      <c r="AS10" s="39"/>
+      <c r="AT10" s="15">
+        <f t="shared" si="11"/>
         <v>17.129229404749246</v>
       </c>
     </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -1566,88 +1715,106 @@
       <c r="J11" s="7">
         <v>0.49399999999999999</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
+        <v>626.924396</v>
+      </c>
+      <c r="L11" s="7">
+        <v>428.02465599999999</v>
+      </c>
+      <c r="M11" s="7">
+        <v>499.87097599999998</v>
+      </c>
+      <c r="N11" s="26">
+        <f t="shared" si="4"/>
+        <v>30.096041733069814</v>
+      </c>
+      <c r="O11" s="9">
         <v>626.93477600000006</v>
       </c>
-      <c r="L11" s="9">
+      <c r="P11" s="9">
         <v>428.02286500000002</v>
       </c>
-      <c r="M11" s="9">
+      <c r="Q11" s="9">
         <v>499.83390000000003</v>
       </c>
-      <c r="N11" s="10">
-        <f t="shared" si="4"/>
+      <c r="R11" s="10">
+        <f t="shared" si="5"/>
         <v>10.590769613215583</v>
       </c>
-      <c r="O11" s="7">
+      <c r="S11" s="7">
         <v>626.92441799999995</v>
       </c>
-      <c r="P11" s="7">
+      <c r="T11" s="7">
         <v>428.030981</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="U11" s="7">
         <v>499.84141299999999</v>
       </c>
-      <c r="R11" s="8">
+      <c r="V11" s="8">
         <f t="shared" si="0"/>
         <v>7.4546397632827741</v>
       </c>
-      <c r="S11" s="9">
+      <c r="W11" s="9">
         <v>626.9289</v>
       </c>
-      <c r="T11" s="9">
+      <c r="X11" s="9">
         <v>428.02789999999999</v>
       </c>
-      <c r="U11" s="9">
+      <c r="Y11" s="9">
         <v>499.84039999999999</v>
       </c>
-      <c r="V11" s="10">
+      <c r="Z11" s="10">
         <f t="shared" si="1"/>
         <v>4.3794976880734806</v>
       </c>
-      <c r="W11" s="7">
+      <c r="AA11" s="7">
         <v>626.93062999999995</v>
       </c>
-      <c r="X11" s="7">
+      <c r="AB11" s="7">
         <v>428.024877</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="AC11" s="7">
         <v>499.827</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="AD11" s="8">
         <f t="shared" si="2"/>
         <v>14.489514450104156</v>
       </c>
-      <c r="AD11" s="13">
+      <c r="AH11" s="13">
         <v>4</v>
       </c>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="15">
-        <f t="shared" si="5"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="15">
+        <f t="shared" si="6"/>
         <v>11.364618163395027</v>
       </c>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="15">
-        <f t="shared" si="6"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="15">
+        <f t="shared" si="7"/>
+        <v>30.096041733069814</v>
+      </c>
+      <c r="AM11" s="51"/>
+      <c r="AN11" s="15">
+        <f t="shared" si="8"/>
         <v>10.590769613215583</v>
       </c>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="15">
-        <f t="shared" si="7"/>
+      <c r="AO11" s="51"/>
+      <c r="AP11" s="15">
+        <f t="shared" si="9"/>
         <v>7.4546397632827741</v>
       </c>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="15">
-        <f t="shared" si="8"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="15">
+        <f t="shared" si="10"/>
         <v>4.3794976880734806</v>
       </c>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="15">
-        <f t="shared" si="9"/>
+      <c r="AS11" s="39"/>
+      <c r="AT11" s="15">
+        <f t="shared" si="11"/>
         <v>14.489514450104156</v>
       </c>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -1676,88 +1843,106 @@
       <c r="J12" s="7">
         <v>0.76900000000000002</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="7">
+        <v>629.09727199999998</v>
+      </c>
+      <c r="L12" s="7">
+        <v>428.63007199999998</v>
+      </c>
+      <c r="M12" s="7">
+        <v>501.867189</v>
+      </c>
+      <c r="N12" s="26">
+        <f t="shared" si="4"/>
+        <v>28.568109650434234</v>
+      </c>
+      <c r="O12" s="9">
         <v>629.1</v>
       </c>
-      <c r="L12" s="9">
+      <c r="P12" s="9">
         <v>428.652851</v>
       </c>
-      <c r="M12" s="9">
+      <c r="Q12" s="9">
         <v>501.86070000000001</v>
       </c>
-      <c r="N12" s="10">
-        <f t="shared" si="4"/>
+      <c r="R12" s="10">
+        <f t="shared" si="5"/>
         <v>9.9349987921550174</v>
       </c>
-      <c r="O12" s="7">
+      <c r="S12" s="7">
         <v>629.08939999999996</v>
       </c>
-      <c r="P12" s="7">
+      <c r="T12" s="7">
         <v>428.65727500000003</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="U12" s="7">
         <v>501.85871800000001</v>
       </c>
-      <c r="R12" s="8">
-        <f t="shared" ref="R12:R15" si="10">SQRT(($C12-O12)^2+($D12-P12)^2+($E12-Q12)^2)*1000</f>
+      <c r="V12" s="8">
+        <f t="shared" ref="V12:V15" si="12">SQRT(($C12-S12)^2+($D12-T12)^2+($E12-U12)^2)*1000</f>
         <v>2.0686104031941541</v>
       </c>
-      <c r="S12" s="9">
+      <c r="W12" s="9">
         <v>629.08399999999995</v>
       </c>
-      <c r="T12" s="9">
+      <c r="X12" s="9">
         <v>428.65598</v>
       </c>
-      <c r="U12" s="9">
+      <c r="Y12" s="9">
         <v>501.86309999999997</v>
       </c>
-      <c r="V12" s="10">
+      <c r="Z12" s="10">
         <f t="shared" si="1"/>
         <v>7.7233671413825409</v>
       </c>
-      <c r="W12" s="7">
+      <c r="AA12" s="7">
         <v>629.08825000000002</v>
       </c>
-      <c r="X12" s="7">
+      <c r="AB12" s="7">
         <v>428.67101000000002</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="AC12" s="7">
         <v>501.84202140000002</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="AD12" s="8">
         <f t="shared" si="2"/>
         <v>22.958063027198957</v>
       </c>
-      <c r="AD12" s="13">
+      <c r="AH12" s="13">
         <v>5</v>
       </c>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="15">
-        <f t="shared" si="5"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="15">
+        <f t="shared" si="6"/>
         <v>8.6400231480582281</v>
       </c>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="15">
-        <f t="shared" si="6"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="15">
+        <f t="shared" si="7"/>
+        <v>28.568109650434234</v>
+      </c>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="15">
+        <f t="shared" si="8"/>
         <v>9.9349987921550174</v>
       </c>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="15">
-        <f t="shared" si="7"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="15">
+        <f t="shared" si="9"/>
         <v>2.0686104031941541</v>
       </c>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="15">
-        <f t="shared" si="8"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="15">
+        <f t="shared" si="10"/>
         <v>7.7233671413825409</v>
       </c>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="15">
-        <f t="shared" si="9"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="15">
+        <f t="shared" si="11"/>
         <v>22.958063027198957</v>
       </c>
     </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>6</v>
       </c>
@@ -1786,88 +1971,106 @@
       <c r="J13" s="7">
         <v>0.54300000000000004</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="7">
+        <v>629.96597399999996</v>
+      </c>
+      <c r="L13" s="7">
+        <v>428.86633399999999</v>
+      </c>
+      <c r="M13" s="7">
+        <v>501.85258599999997</v>
+      </c>
+      <c r="N13" s="26">
+        <f t="shared" si="4"/>
+        <v>25.125835866723072</v>
+      </c>
+      <c r="O13" s="9">
         <v>629.97429</v>
       </c>
-      <c r="L13" s="9">
+      <c r="P13" s="9">
         <v>428.89012000000002</v>
       </c>
-      <c r="M13" s="9">
+      <c r="Q13" s="9">
         <v>501.850662</v>
       </c>
-      <c r="N13" s="10">
-        <f t="shared" si="4"/>
+      <c r="R13" s="10">
+        <f t="shared" si="5"/>
         <v>4.4290793625419944</v>
       </c>
-      <c r="O13" s="7">
+      <c r="S13" s="7">
         <v>629.97190000000001</v>
       </c>
-      <c r="P13" s="7">
+      <c r="T13" s="7">
         <v>428.889837</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="U13" s="7">
         <v>501.84818799999999</v>
       </c>
-      <c r="R13" s="8">
-        <f t="shared" si="10"/>
+      <c r="V13" s="8">
+        <f t="shared" si="12"/>
         <v>2.8715697797664488</v>
       </c>
-      <c r="S13" s="9">
+      <c r="W13" s="9">
         <v>629.97776999999996</v>
       </c>
-      <c r="T13" s="9">
+      <c r="X13" s="9">
         <v>428.89147500000001</v>
       </c>
-      <c r="U13" s="9">
+      <c r="Y13" s="9">
         <v>501.85250000000002</v>
       </c>
-      <c r="V13" s="10">
+      <c r="Z13" s="10">
         <f t="shared" si="1"/>
         <v>8.1760947278637115</v>
       </c>
-      <c r="W13" s="7">
+      <c r="AA13" s="7">
         <v>629.97909000000004</v>
       </c>
-      <c r="X13" s="7">
+      <c r="AB13" s="7">
         <v>428.89138200000002</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="AC13" s="7">
         <v>501.84160000000003</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="AD13" s="8">
         <f t="shared" si="2"/>
         <v>12.382811635496138</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AH13" s="13">
         <v>6</v>
       </c>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="15">
-        <f t="shared" si="5"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="15">
+        <f t="shared" si="6"/>
         <v>4.589117562156698</v>
       </c>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="15">
-        <f t="shared" si="6"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="15">
+        <f t="shared" si="7"/>
+        <v>25.125835866723072</v>
+      </c>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="15">
+        <f t="shared" si="8"/>
         <v>4.4290793625419944</v>
       </c>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="15">
-        <f t="shared" si="7"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="15">
+        <f t="shared" si="9"/>
         <v>2.8715697797664488</v>
       </c>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="15">
-        <f t="shared" si="8"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="15">
+        <f t="shared" si="10"/>
         <v>8.1760947278637115</v>
       </c>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="15">
-        <f t="shared" si="9"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="15">
+        <f t="shared" si="11"/>
         <v>12.382811635496138</v>
       </c>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>7</v>
       </c>
@@ -1896,88 +2099,106 @@
       <c r="J14" s="7">
         <v>0.90900000000000003</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
+        <v>629.09111199999995</v>
+      </c>
+      <c r="L14" s="7">
+        <v>428.64998600000001</v>
+      </c>
+      <c r="M14" s="7">
+        <v>500.35679499999998</v>
+      </c>
+      <c r="N14" s="26">
+        <f t="shared" si="4"/>
+        <v>19.908560093548459</v>
+      </c>
+      <c r="O14" s="9">
         <v>629.09975889999998</v>
       </c>
-      <c r="L14" s="9">
+      <c r="P14" s="9">
         <v>428.6678</v>
       </c>
-      <c r="M14" s="9">
+      <c r="Q14" s="9">
         <v>500.33929999999998</v>
       </c>
-      <c r="N14" s="10">
-        <f t="shared" si="4"/>
+      <c r="R14" s="10">
+        <f t="shared" si="5"/>
         <v>15.282870450588049</v>
       </c>
-      <c r="O14" s="7">
+      <c r="S14" s="7">
         <v>629.08604800000001</v>
       </c>
-      <c r="P14" s="7">
+      <c r="T14" s="7">
         <v>428.66262799999998</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="U14" s="7">
         <v>500.34768000000003</v>
       </c>
-      <c r="R14" s="8">
+      <c r="V14" s="8">
+        <f t="shared" si="12"/>
+        <v>8.2001882905225187</v>
+      </c>
+      <c r="W14" s="9">
+        <v>629.07469000000003</v>
+      </c>
+      <c r="X14" s="9">
+        <v>428.65976999999998</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>500.33168000000001</v>
+      </c>
+      <c r="Z14" s="10">
+        <f>SQRT(($C14-W14)^2+($D14-X14)^2+($E14-Y14)^2)*1000</f>
+        <v>26.322070587242361</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>629.12275</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>428.67169999999999</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>500.33127999999999</v>
+      </c>
+      <c r="AD14" s="8">
+        <f>SQRT(($C14-AA14)^2+($D14-AB14)^2+($E14-AC14)^2)*1000</f>
+        <v>38.324025101729092</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>7</v>
+      </c>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="15">
+        <f t="shared" si="6"/>
+        <v>10.277159140538977</v>
+      </c>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="15">
+        <f t="shared" si="7"/>
+        <v>19.908560093548459</v>
+      </c>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="15">
+        <f t="shared" si="8"/>
+        <v>15.282870450588049</v>
+      </c>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="15">
+        <f t="shared" si="9"/>
+        <v>8.2001882905225187</v>
+      </c>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="15">
         <f t="shared" si="10"/>
-        <v>8.2001882905225187</v>
-      </c>
-      <c r="S14" s="9">
-        <v>629.07469000000003</v>
-      </c>
-      <c r="T14" s="9">
-        <v>428.65976999999998</v>
-      </c>
-      <c r="U14" s="9">
-        <v>500.33168000000001</v>
-      </c>
-      <c r="V14" s="10">
-        <f>SQRT(($C14-S14)^2+($D14-T14)^2+($E14-U14)^2)*1000</f>
         <v>26.322070587242361</v>
       </c>
-      <c r="W14" s="7">
-        <v>629.12275</v>
-      </c>
-      <c r="X14" s="7">
-        <v>428.67169999999999</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>500.33127999999999</v>
-      </c>
-      <c r="Z14" s="8">
-        <f>SQRT(($C14-W14)^2+($D14-X14)^2+($E14-Y14)^2)*1000</f>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="15">
+        <f t="shared" si="11"/>
         <v>38.324025101729092</v>
       </c>
-      <c r="AD14" s="13">
-        <v>7</v>
-      </c>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="15">
-        <f t="shared" si="5"/>
-        <v>10.277159140538977</v>
-      </c>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="15">
-        <f t="shared" si="6"/>
-        <v>15.282870450588049</v>
-      </c>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="15">
-        <f t="shared" si="7"/>
-        <v>8.2001882905225187</v>
-      </c>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="15">
-        <f t="shared" si="8"/>
-        <v>26.322070587242361</v>
-      </c>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="15">
-        <f t="shared" si="9"/>
-        <v>38.324025101729092</v>
-      </c>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>8</v>
       </c>
@@ -2006,88 +2227,106 @@
       <c r="J15" s="7">
         <v>1.1220000000000001</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
+        <v>629.94714599999998</v>
+      </c>
+      <c r="L15" s="7">
+        <v>428.90324600000002</v>
+      </c>
+      <c r="M15" s="7">
+        <v>500.37288999999998</v>
+      </c>
+      <c r="N15" s="26">
+        <f t="shared" si="4"/>
+        <v>41.986973360809607</v>
+      </c>
+      <c r="O15" s="9">
         <v>629.97613000000001</v>
       </c>
-      <c r="L15" s="9">
+      <c r="P15" s="9">
         <v>428.90170000000001</v>
       </c>
-      <c r="M15" s="9">
+      <c r="Q15" s="9">
         <v>500.33482400000003</v>
       </c>
-      <c r="N15" s="10">
-        <f t="shared" si="4"/>
+      <c r="R15" s="10">
+        <f t="shared" si="5"/>
         <v>10.28658718913784</v>
       </c>
-      <c r="O15" s="7">
+      <c r="S15" s="7">
         <v>629.96902299999999</v>
       </c>
-      <c r="P15" s="7">
+      <c r="T15" s="7">
         <v>428.89531799999997</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="U15" s="7">
         <v>500.33657399999998</v>
       </c>
-      <c r="R15" s="8">
-        <f t="shared" si="10"/>
+      <c r="V15" s="8">
+        <f t="shared" si="12"/>
         <v>1.4612080618790346</v>
       </c>
-      <c r="S15" s="9">
+      <c r="W15" s="9">
         <v>629.97199999999998</v>
       </c>
-      <c r="T15" s="9">
+      <c r="X15" s="9">
         <v>428.89620000000002</v>
       </c>
-      <c r="U15" s="9">
+      <c r="Y15" s="9">
         <v>500.32990000000001</v>
       </c>
-      <c r="V15" s="10">
+      <c r="Z15" s="10">
         <f t="shared" si="1"/>
         <v>8.7206651122424201</v>
       </c>
-      <c r="W15" s="7">
+      <c r="AA15" s="7">
         <v>629.97040000000004</v>
       </c>
-      <c r="X15" s="7">
+      <c r="AB15" s="7">
         <v>428.89220549999999</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="AC15" s="7">
         <v>500.32994000000002</v>
       </c>
-      <c r="Z15" s="8">
-        <f t="shared" ref="Z15:Z17" si="11">SQRT(($C15-W15)^2+($D15-X15)^2+($E15-Y15)^2)*1000</f>
+      <c r="AD15" s="8">
+        <f t="shared" ref="AD15:AD17" si="13">SQRT(($C15-AA15)^2+($D15-AB15)^2+($E15-AC15)^2)*1000</f>
         <v>8.6448152235857023</v>
       </c>
-      <c r="AD15" s="13">
+      <c r="AH15" s="13">
         <v>8</v>
       </c>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="15">
-        <f t="shared" si="5"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="15">
+        <f t="shared" si="6"/>
         <v>6.1204574992190937</v>
       </c>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="15">
-        <f t="shared" si="6"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="15">
+        <f t="shared" si="7"/>
+        <v>41.986973360809607</v>
+      </c>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="15">
+        <f t="shared" si="8"/>
         <v>10.28658718913784</v>
       </c>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="15">
-        <f t="shared" si="7"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="15">
+        <f t="shared" si="9"/>
         <v>1.4612080618790346</v>
       </c>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="15">
-        <f t="shared" si="8"/>
+      <c r="AQ15" s="39"/>
+      <c r="AR15" s="15">
+        <f t="shared" si="10"/>
         <v>8.7206651122424201</v>
       </c>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="15">
-        <f t="shared" si="9"/>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="15">
+        <f t="shared" si="11"/>
         <v>8.6448152235857023</v>
       </c>
     </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>9</v>
       </c>
@@ -2116,88 +2355,106 @@
       <c r="J16" s="7">
         <v>0.68400000000000005</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
+        <v>633.84717499999999</v>
+      </c>
+      <c r="L16" s="7">
+        <v>429.87082900000001</v>
+      </c>
+      <c r="M16" s="7">
+        <v>504.16949899999997</v>
+      </c>
+      <c r="N16" s="26">
+        <f t="shared" si="4"/>
+        <v>8.505813717706447</v>
+      </c>
+      <c r="O16" s="9">
         <v>633.85569999999996</v>
       </c>
-      <c r="L16" s="9">
+      <c r="P16" s="9">
         <v>429.87022100000002</v>
       </c>
-      <c r="M16" s="9">
+      <c r="Q16" s="9">
         <v>504.16896000000003</v>
       </c>
-      <c r="N16" s="10">
-        <f t="shared" si="4"/>
+      <c r="R16" s="10">
+        <f t="shared" si="5"/>
         <v>11.230424791552709</v>
       </c>
-      <c r="O16" s="7">
-        <v>633.85612600000002</v>
-      </c>
-      <c r="P16" s="7">
-        <v>429.87927999999999</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>504.1721</v>
-      </c>
-      <c r="R16" s="8">
-        <f t="shared" ref="R16:R17" si="12">SQRT(($C16-O16)^2+($D16-P16)^2+($E16-Q16)^2)*1000</f>
-        <v>7.2158350867790784</v>
-      </c>
-      <c r="S16" s="9">
+      <c r="S16" s="7">
+        <v>633.853433</v>
+      </c>
+      <c r="T16" s="7">
+        <v>429.87856699999998</v>
+      </c>
+      <c r="U16" s="7">
+        <v>504.17316699999998</v>
+      </c>
+      <c r="V16" s="8">
+        <f t="shared" ref="V16:V17" si="14">SQRT(($C16-S16)^2+($D16-T16)^2+($E16-U16)^2)*1000</f>
+        <v>4.9532683149133669</v>
+      </c>
+      <c r="W16" s="9">
         <v>633.84979999999996</v>
       </c>
-      <c r="T16" s="9">
+      <c r="X16" s="9">
         <v>429.87765400000001</v>
       </c>
-      <c r="U16" s="9">
+      <c r="Y16" s="9">
         <v>504.17618599999997</v>
       </c>
-      <c r="V16" s="10">
+      <c r="Z16" s="10">
         <f t="shared" si="1"/>
         <v>5.4172236431305274</v>
       </c>
-      <c r="W16" s="7">
+      <c r="AA16" s="7">
         <v>633.85029999999995</v>
       </c>
-      <c r="X16" s="7">
+      <c r="AB16" s="7">
         <v>429.90165000000002</v>
       </c>
-      <c r="Y16" s="24">
+      <c r="AC16" s="24">
         <v>504.15892000000002</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="AD16" s="8">
+        <f t="shared" si="13"/>
+        <v>25.702896723889626</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>9</v>
+      </c>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="15">
+        <f t="shared" si="6"/>
+        <v>8.4504437752952519</v>
+      </c>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="15">
+        <f t="shared" si="7"/>
+        <v>8.505813717706447</v>
+      </c>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="15">
+        <f t="shared" si="8"/>
+        <v>11.230424791552709</v>
+      </c>
+      <c r="AO16" s="51"/>
+      <c r="AP16" s="15">
+        <f t="shared" si="9"/>
+        <v>4.9532683149133669</v>
+      </c>
+      <c r="AQ16" s="39"/>
+      <c r="AR16" s="15">
+        <f t="shared" si="10"/>
+        <v>5.4172236431305274</v>
+      </c>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="15">
         <f t="shared" si="11"/>
         <v>25.702896723889626</v>
       </c>
-      <c r="AD16" s="13">
-        <v>9</v>
-      </c>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="15">
-        <f t="shared" si="5"/>
-        <v>8.4504437752952519</v>
-      </c>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="15">
-        <f t="shared" si="6"/>
-        <v>11.230424791552709</v>
-      </c>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="15">
-        <f t="shared" si="7"/>
-        <v>7.2158350867790784</v>
-      </c>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="15">
-        <f t="shared" si="8"/>
-        <v>5.4172236431305274</v>
-      </c>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="15">
-        <f t="shared" si="9"/>
-        <v>25.702896723889626</v>
-      </c>
-    </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>10</v>
       </c>
@@ -2226,88 +2483,106 @@
       <c r="J17" s="7">
         <v>0.33700000000000002</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
+        <v>634.69927700000005</v>
+      </c>
+      <c r="L17" s="7">
+        <v>430.09482100000002</v>
+      </c>
+      <c r="M17" s="7">
+        <v>504.15605399999998</v>
+      </c>
+      <c r="N17" s="26">
+        <f t="shared" si="4"/>
+        <v>11.894943715682208</v>
+      </c>
+      <c r="O17" s="9">
         <v>634.70415000000003</v>
       </c>
-      <c r="L17" s="9">
+      <c r="P17" s="9">
         <v>430.1026</v>
       </c>
-      <c r="M17" s="9">
+      <c r="Q17" s="9">
         <v>504.16448800000001</v>
       </c>
-      <c r="N17" s="10">
-        <f t="shared" si="4"/>
+      <c r="R17" s="10">
+        <f t="shared" si="5"/>
         <v>5.0916248879860948</v>
       </c>
-      <c r="O17" s="7">
-        <v>634.69924600000002</v>
-      </c>
-      <c r="P17" s="7">
-        <v>430.101</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>504.16352799999999</v>
-      </c>
-      <c r="R17" s="8">
-        <f t="shared" si="12"/>
-        <v>7.1447393233937273</v>
-      </c>
-      <c r="S17" s="9">
+      <c r="S17" s="7">
+        <v>634.69972900000005</v>
+      </c>
+      <c r="T17" s="7">
+        <v>430.10150299999998</v>
+      </c>
+      <c r="U17" s="7">
+        <v>504.16352699999999</v>
+      </c>
+      <c r="V17" s="8">
+        <f t="shared" si="14"/>
+        <v>6.5505861569160908</v>
+      </c>
+      <c r="W17" s="9">
         <v>634.69910000000004</v>
       </c>
-      <c r="T17" s="9">
+      <c r="X17" s="9">
         <v>430.10149999999999</v>
       </c>
-      <c r="U17" s="9">
+      <c r="Y17" s="9">
         <v>504.16206799999998</v>
       </c>
-      <c r="V17" s="10">
+      <c r="Z17" s="10">
         <f t="shared" si="1"/>
         <v>6.3668378335798206</v>
       </c>
-      <c r="W17" s="7">
+      <c r="AA17" s="7">
         <v>634.71515099999999</v>
       </c>
-      <c r="X17" s="7">
+      <c r="AB17" s="7">
         <v>430.10570000000001</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="AC17" s="7">
         <v>504.15269999999998</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="AD17" s="8">
+        <f t="shared" si="13"/>
+        <v>13.346340359871515</v>
+      </c>
+      <c r="AH17" s="13">
+        <v>10</v>
+      </c>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="15">
+        <f t="shared" si="6"/>
+        <v>4.0024992192173876</v>
+      </c>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="15">
+        <f t="shared" si="7"/>
+        <v>11.894943715682208</v>
+      </c>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="15">
+        <f t="shared" si="8"/>
+        <v>5.0916248879860948</v>
+      </c>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="15">
+        <f t="shared" si="9"/>
+        <v>6.5505861569160908</v>
+      </c>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="15">
+        <f t="shared" si="10"/>
+        <v>6.3668378335798206</v>
+      </c>
+      <c r="AS17" s="39"/>
+      <c r="AT17" s="15">
         <f t="shared" si="11"/>
         <v>13.346340359871515</v>
       </c>
-      <c r="AD17" s="13">
-        <v>10</v>
-      </c>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="15">
-        <f t="shared" si="5"/>
-        <v>4.0024992192173876</v>
-      </c>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="15">
-        <f t="shared" si="6"/>
-        <v>5.0916248879860948</v>
-      </c>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="15">
-        <f t="shared" si="7"/>
-        <v>7.1447393233937273</v>
-      </c>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="15">
-        <f t="shared" si="8"/>
-        <v>6.3668378335798206</v>
-      </c>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="15">
-        <f t="shared" si="9"/>
-        <v>13.346340359871515</v>
-      </c>
-    </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>11</v>
       </c>
@@ -2336,88 +2611,106 @@
       <c r="J18" s="7">
         <v>0.42699999999999999</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="7">
+        <v>633.84902999999997</v>
+      </c>
+      <c r="L18" s="7">
+        <v>429.87464699999998</v>
+      </c>
+      <c r="M18" s="7">
+        <v>503.01790299999999</v>
+      </c>
+      <c r="N18" s="26">
+        <f t="shared" si="4"/>
+        <v>9.0350936907398189</v>
+      </c>
+      <c r="O18" s="9">
         <v>633.85959700000001</v>
       </c>
-      <c r="L18" s="9">
+      <c r="P18" s="9">
         <v>429.87079999999997</v>
       </c>
-      <c r="M18" s="9">
+      <c r="Q18" s="9">
         <v>503.018799</v>
       </c>
-      <c r="N18" s="10">
-        <f t="shared" si="4"/>
+      <c r="R18" s="10">
+        <f t="shared" si="5"/>
         <v>9.9509200579865666</v>
       </c>
-      <c r="O18" s="7">
-        <v>633.85695999999996</v>
-      </c>
-      <c r="P18" s="7">
-        <v>429.879525</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>503.01</v>
-      </c>
-      <c r="R18" s="8">
-        <f>SQRT(($C18-O18)^2+($D18-P18)^2+($E18-Q18)^2)*1000</f>
-        <v>10.057197671307005</v>
-      </c>
-      <c r="S18" s="9">
+      <c r="S18" s="7">
+        <v>633.85336400000006</v>
+      </c>
+      <c r="T18" s="7">
+        <v>429.87858799999998</v>
+      </c>
+      <c r="U18" s="7">
+        <v>503.01317499999999</v>
+      </c>
+      <c r="V18" s="8">
+        <f>SQRT(($C18-S18)^2+($D18-T18)^2+($E18-U18)^2)*1000</f>
+        <v>7.4513666531458416</v>
+      </c>
+      <c r="W18" s="9">
         <v>633.85429999999997</v>
       </c>
-      <c r="T18" s="9">
+      <c r="X18" s="9">
         <v>429.87887499999999</v>
       </c>
-      <c r="U18" s="9">
+      <c r="Y18" s="9">
         <v>503.01100000000002</v>
       </c>
-      <c r="V18" s="10">
-        <f>SQRT(($C18-S18)^2+($D18-T18)^2+($E18-U18)^2)*1000</f>
+      <c r="Z18" s="10">
+        <f>SQRT(($C18-W18)^2+($D18-X18)^2+($E18-Y18)^2)*1000</f>
         <v>9.2279805482748003</v>
       </c>
-      <c r="W18" s="7">
+      <c r="AA18" s="7">
         <v>633.86668999999995</v>
       </c>
-      <c r="X18" s="7">
+      <c r="AB18" s="7">
         <v>429.90240740000002</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="AC18" s="7">
         <v>503.01829140000001</v>
       </c>
-      <c r="Z18" s="8">
-        <f>SQRT(($C18-W18)^2+($D18-X18)^2+($E18-Y18)^2)*1000</f>
+      <c r="AD18" s="8">
+        <f>SQRT(($C18-AA18)^2+($D18-AB18)^2+($E18-AC18)^2)*1000</f>
         <v>24.88547746618142</v>
       </c>
-      <c r="AD18" s="13">
+      <c r="AH18" s="13">
         <v>11</v>
       </c>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="15">
-        <f t="shared" si="5"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="15">
+        <f t="shared" si="6"/>
         <v>2.7802877548683496</v>
       </c>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="15">
-        <f t="shared" si="6"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="15">
+        <f t="shared" si="7"/>
+        <v>9.0350936907398189</v>
+      </c>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="15">
+        <f t="shared" si="8"/>
         <v>9.9509200579865666</v>
       </c>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="15">
-        <f t="shared" si="7"/>
-        <v>10.057197671307005</v>
-      </c>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="15">
-        <f t="shared" si="8"/>
+      <c r="AO18" s="51"/>
+      <c r="AP18" s="15">
+        <f t="shared" si="9"/>
+        <v>7.4513666531458416</v>
+      </c>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="15">
+        <f t="shared" si="10"/>
         <v>9.2279805482748003</v>
       </c>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="15">
-        <f t="shared" si="9"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="15">
+        <f t="shared" si="11"/>
         <v>24.88547746618142</v>
       </c>
     </row>
-    <row r="19" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>12</v>
       </c>
@@ -2446,182 +2739,263 @@
       <c r="J19" s="7">
         <v>0.31900000000000001</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="7">
+        <v>634.69013299999995</v>
+      </c>
+      <c r="L19" s="7">
+        <v>430.08881200000002</v>
+      </c>
+      <c r="M19" s="7">
+        <v>503.01370200000002</v>
+      </c>
+      <c r="N19" s="26">
+        <f t="shared" si="4"/>
+        <v>15.685848303520482</v>
+      </c>
+      <c r="O19" s="9">
         <v>634.70146999999997</v>
       </c>
-      <c r="L19" s="9">
+      <c r="P19" s="9">
         <v>430.09699000000001</v>
       </c>
-      <c r="M19" s="9">
+      <c r="Q19" s="9">
         <v>503.02350000000001</v>
       </c>
-      <c r="N19" s="10">
-        <f t="shared" si="4"/>
+      <c r="R19" s="10">
+        <f t="shared" si="5"/>
         <v>6.2634654943967965</v>
       </c>
-      <c r="O19" s="7">
-        <v>634.69645000000003</v>
-      </c>
-      <c r="P19" s="7">
-        <v>430.10059999999999</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>503.01731799999999</v>
-      </c>
-      <c r="R19" s="8">
-        <f>SQRT(($C19-O19)^2+($D19-P19)^2+($E19-Q19)^2)*1000</f>
-        <v>5.7312846727729561</v>
-      </c>
-      <c r="S19" s="9">
+      <c r="S19" s="7">
+        <v>634.69702900000004</v>
+      </c>
+      <c r="T19" s="7">
+        <v>430.10082999999997</v>
+      </c>
+      <c r="U19" s="7">
+        <v>503.01317499999999</v>
+      </c>
+      <c r="V19" s="8">
+        <f>SQRT(($C19-S19)^2+($D19-T19)^2+($E19-U19)^2)*1000</f>
+        <v>9.9135445729888882</v>
+      </c>
+      <c r="W19" s="9">
         <v>634.69771900000001</v>
       </c>
-      <c r="T19" s="9">
+      <c r="X19" s="9">
         <v>430.101156</v>
       </c>
-      <c r="U19" s="9">
+      <c r="Y19" s="9">
         <v>503.01690000000002</v>
       </c>
-      <c r="V19" s="10">
-        <f>SQRT(($C19-S19)^2+($D19-T19)^2+($E19-U19)^2)*1000</f>
+      <c r="Z19" s="10">
+        <f>SQRT(($C19-W19)^2+($D19-X19)^2+($E19-Y19)^2)*1000</f>
         <v>6.4421500292937397</v>
       </c>
-      <c r="W19" s="7">
+      <c r="AA19" s="7">
         <v>634.70941600000003</v>
       </c>
-      <c r="X19" s="7">
+      <c r="AB19" s="7">
         <v>430.10294900000002</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="AC19" s="7">
         <v>503.013058</v>
       </c>
-      <c r="Z19" s="8">
-        <f>SQRT(($C19-W19)^2+($D19-X19)^2+($E19-Y19)^2)*1000</f>
+      <c r="AD19" s="8">
+        <f>SQRT(($C19-AA19)^2+($D19-AB19)^2+($E19-AC19)^2)*1000</f>
         <v>16.956680718839149</v>
       </c>
-      <c r="AD19" s="14">
+      <c r="AH19" s="14">
         <v>12</v>
       </c>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="16">
-        <f t="shared" si="5"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="16">
+        <f t="shared" si="6"/>
         <v>4.5221676217989479</v>
       </c>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="16">
-        <f t="shared" si="6"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="16">
+        <f t="shared" si="7"/>
+        <v>15.685848303520482</v>
+      </c>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="16">
+        <f t="shared" si="8"/>
         <v>6.2634654943967965</v>
       </c>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="16">
-        <f t="shared" si="7"/>
-        <v>5.7312846727729561</v>
-      </c>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="16">
-        <f t="shared" si="8"/>
+      <c r="AO19" s="51"/>
+      <c r="AP19" s="16">
+        <f t="shared" si="9"/>
+        <v>9.9135445729888882</v>
+      </c>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="16">
+        <f t="shared" si="10"/>
         <v>6.4421500292937397</v>
       </c>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="16">
-        <f t="shared" si="9"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="16">
+        <f t="shared" si="11"/>
         <v>16.956680718839149</v>
       </c>
     </row>
-    <row r="20" spans="2:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:50" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="11">
         <f>AVERAGE(I8:I19)</f>
         <v>8.0640096116146758</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="12">
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="11">
         <f>AVERAGE(N8:N19)</f>
+        <v>20.867804194037934</v>
+      </c>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="12">
+        <f>AVERAGE(R8:R19)</f>
         <v>9.5326567128164168</v>
       </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="11">
-        <f>AVERAGE(R8:R19)</f>
-        <v>6.470774571224073</v>
-      </c>
-      <c r="S20" s="27"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="12">
+      <c r="S20" s="31"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="11">
         <f>AVERAGE(V8:V19)</f>
+        <v>6.3640836498666902</v>
+      </c>
+      <c r="W20" s="28"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="12">
+        <f>AVERAGE(Z8:Z19)</f>
         <v>8.2849398001131647</v>
       </c>
-      <c r="W20" s="30"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="11">
-        <f>AVERAGE(Z8:Z19)</f>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="11">
+        <f>AVERAGE(AD8:AD19)</f>
         <v>17.978915387275347</v>
       </c>
-      <c r="AD20" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="18">
-        <f>AVERAGE(AF8:AF19)</f>
-        <v>8.0640096116146758</v>
-      </c>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="18">
-        <f>AVERAGE(AH8:AH19)</f>
-        <v>9.5326567128164168</v>
-      </c>
-      <c r="AI20" s="48"/>
+      <c r="AH20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI20" s="40"/>
       <c r="AJ20" s="18">
         <f>AVERAGE(AJ8:AJ19)</f>
-        <v>6.470774571224073</v>
-      </c>
-      <c r="AK20" s="36"/>
+        <v>8.0640096116146758</v>
+      </c>
+      <c r="AK20" s="40"/>
       <c r="AL20" s="18">
         <f>AVERAGE(AL8:AL19)</f>
-        <v>8.2849398001131647</v>
-      </c>
-      <c r="AM20" s="36"/>
+        <v>20.867804194037934</v>
+      </c>
+      <c r="AM20" s="52"/>
       <c r="AN20" s="18">
         <f>AVERAGE(AN8:AN19)</f>
+        <v>9.5326567128164168</v>
+      </c>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="18">
+        <f>AVERAGE(AP8:AP19)</f>
+        <v>6.3640836498666902</v>
+      </c>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="18">
+        <f>AVERAGE(AR8:AR19)</f>
+        <v>8.2849398001131647</v>
+      </c>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="18">
+        <f>AVERAGE(AT8:AT19)</f>
         <v>17.978915387275347</v>
+      </c>
+    </row>
+    <row r="28" spans="2:50" ht="30" x14ac:dyDescent="0.25">
+      <c r="AW28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX28" s="55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AW29" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX29" s="56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AW30" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX30" s="56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AW31" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX31" s="56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AW32" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX32" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="49:50" x14ac:dyDescent="0.25">
+      <c r="AW33" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX33" s="56" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B8:N23">
     <sortCondition ref="B8"/>
   </sortState>
-  <mergeCells count="18">
+  <mergeCells count="21">
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AS8:AS20"/>
+    <mergeCell ref="AH4:AT6"/>
+    <mergeCell ref="AI8:AI20"/>
+    <mergeCell ref="AM8:AM20"/>
+    <mergeCell ref="AO8:AO20"/>
+    <mergeCell ref="AQ8:AQ20"/>
+    <mergeCell ref="AK8:AK20"/>
     <mergeCell ref="W6:Z6"/>
     <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="AM8:AM20"/>
-    <mergeCell ref="AD4:AN6"/>
-    <mergeCell ref="AE8:AE20"/>
-    <mergeCell ref="AG8:AG20"/>
-    <mergeCell ref="AI8:AI20"/>
-    <mergeCell ref="AK8:AK20"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="S20:U20"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="S6:V6"/>
     <mergeCell ref="K20:M20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="C6:E6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="O6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2633,35 +3007,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="49"/>
-      <c r="M4" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="53"/>
+      <c r="M4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -2682,13 +3056,13 @@
       <c r="G5">
         <v>426.23431399999998</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
     </row>
     <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6">
@@ -2709,13 +3083,13 @@
       <c r="G6">
         <v>428.14597700000002</v>
       </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -2737,25 +3111,25 @@
         <v>428.16523000000001</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S7" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2780,22 +3154,22 @@
       <c r="M8" s="19">
         <v>1</v>
       </c>
-      <c r="N8" s="34" t="s">
-        <v>23</v>
+      <c r="N8" s="38" t="s">
+        <v>21</v>
       </c>
       <c r="O8" s="20">
         <f>SQRT(($B36-D36)^2+($C36-E36)^2)*1000</f>
         <v>10.498248484307</v>
       </c>
-      <c r="P8" s="46" t="s">
-        <v>24</v>
+      <c r="P8" s="50" t="s">
+        <v>22</v>
       </c>
       <c r="Q8" s="20">
         <f>SQRT(($B36-F36)^2+($C36-G36)^2)*1000</f>
         <v>3.4044954400089718</v>
       </c>
-      <c r="R8" s="34" t="s">
-        <v>25</v>
+      <c r="R8" s="38" t="s">
+        <v>23</v>
       </c>
       <c r="S8" s="20">
         <f>SQRT(($B36-H36)^2+($C36-I36)^2)*1000</f>
@@ -2824,17 +3198,17 @@
       <c r="M9" s="13">
         <v>2</v>
       </c>
-      <c r="N9" s="35"/>
+      <c r="N9" s="39"/>
       <c r="O9" s="15">
         <f t="shared" ref="O9:O19" si="0">SQRT(($B37-D37)^2+($C37-E37)^2)*1000</f>
         <v>4.7318884606702278</v>
       </c>
-      <c r="P9" s="47"/>
+      <c r="P9" s="51"/>
       <c r="Q9" s="15">
         <f t="shared" ref="Q9:Q19" si="1">SQRT(($B37-F37)^2+($C37-G37)^2)*1000</f>
         <v>2.3194347445537233</v>
       </c>
-      <c r="R9" s="35"/>
+      <c r="R9" s="39"/>
       <c r="S9" s="15">
         <f t="shared" ref="S9:S19" si="2">SQRT(($B37-H37)^2+($C37-I37)^2)*1000</f>
         <v>2.495176168321751</v>
@@ -2862,17 +3236,17 @@
       <c r="M10" s="13">
         <v>3</v>
       </c>
-      <c r="N10" s="35"/>
+      <c r="N10" s="39"/>
       <c r="O10" s="15">
         <f t="shared" si="0"/>
         <v>7.4215967779334457</v>
       </c>
-      <c r="P10" s="47"/>
+      <c r="P10" s="51"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
         <v>5.7784964913816053</v>
       </c>
-      <c r="R10" s="35"/>
+      <c r="R10" s="39"/>
       <c r="S10" s="15">
         <f t="shared" si="2"/>
         <v>5.6784069459892166</v>
@@ -2900,17 +3274,17 @@
       <c r="M11" s="13">
         <v>4</v>
       </c>
-      <c r="N11" s="35"/>
+      <c r="N11" s="39"/>
       <c r="O11" s="15">
         <f t="shared" si="0"/>
         <v>3.5862501636508748</v>
       </c>
-      <c r="P11" s="47"/>
+      <c r="P11" s="51"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
         <v>2.0195317199966012</v>
       </c>
-      <c r="R11" s="35"/>
+      <c r="R11" s="39"/>
       <c r="S11" s="15">
         <f t="shared" si="2"/>
         <v>5.868727895450518</v>
@@ -2938,17 +3312,17 @@
       <c r="M12" s="13">
         <v>5</v>
       </c>
-      <c r="N12" s="35"/>
+      <c r="N12" s="39"/>
       <c r="O12" s="15">
         <f t="shared" si="0"/>
         <v>8.0467925746322759</v>
       </c>
-      <c r="P12" s="47"/>
+      <c r="P12" s="51"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
         <v>6.7245607689675992</v>
       </c>
-      <c r="R12" s="35"/>
+      <c r="R12" s="39"/>
       <c r="S12" s="15">
         <f t="shared" si="2"/>
         <v>2.4369476353910886</v>
@@ -2976,17 +3350,17 @@
       <c r="M13" s="13">
         <v>6</v>
       </c>
-      <c r="N13" s="35"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="15">
         <f t="shared" si="0"/>
         <v>9.212471333510921</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="51"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
         <v>10.048059507630962</v>
       </c>
-      <c r="R13" s="35"/>
+      <c r="R13" s="39"/>
       <c r="S13" s="15">
         <f t="shared" si="2"/>
         <v>2.8408114059972918</v>
@@ -3014,17 +3388,17 @@
       <c r="M14" s="13">
         <v>7</v>
       </c>
-      <c r="N14" s="35"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="15">
         <f t="shared" si="0"/>
         <v>9.1770905375313809</v>
       </c>
-      <c r="P14" s="47"/>
+      <c r="P14" s="51"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
         <v>10.40894637003726</v>
       </c>
-      <c r="R14" s="35"/>
+      <c r="R14" s="39"/>
       <c r="S14" s="15">
         <f t="shared" si="2"/>
         <v>7.9818093882837635</v>
@@ -3052,17 +3426,17 @@
       <c r="M15" s="13">
         <v>8</v>
       </c>
-      <c r="N15" s="35"/>
+      <c r="N15" s="39"/>
       <c r="O15" s="15">
         <f t="shared" si="0"/>
         <v>7.3529851126477395</v>
       </c>
-      <c r="P15" s="47"/>
+      <c r="P15" s="51"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
         <v>1.4825614213427625</v>
       </c>
-      <c r="R15" s="35"/>
+      <c r="R15" s="39"/>
       <c r="S15" s="15">
         <f t="shared" si="2"/>
         <v>1.7489418070677214</v>
@@ -3090,17 +3464,17 @@
       <c r="M16" s="13">
         <v>9</v>
       </c>
-      <c r="N16" s="35"/>
+      <c r="N16" s="39"/>
       <c r="O16" s="15">
         <f t="shared" si="0"/>
         <v>7.0168114128968693</v>
       </c>
-      <c r="P16" s="47"/>
+      <c r="P16" s="51"/>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
         <v>10.063630435148001</v>
       </c>
-      <c r="R16" s="35"/>
+      <c r="R16" s="39"/>
       <c r="S16" s="15">
         <f t="shared" si="2"/>
         <v>3.9814333823499592</v>
@@ -3110,53 +3484,53 @@
       <c r="M17" s="13">
         <v>10</v>
       </c>
-      <c r="N17" s="35"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="15">
         <f t="shared" si="0"/>
         <v>6.2833183567095876</v>
       </c>
-      <c r="P17" s="47"/>
+      <c r="P17" s="51"/>
       <c r="Q17" s="15">
         <f t="shared" si="1"/>
         <v>8.2871469780187876</v>
       </c>
-      <c r="R17" s="35"/>
+      <c r="R17" s="39"/>
       <c r="S17" s="15">
         <f t="shared" si="2"/>
         <v>8.3228768530904098</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="49"/>
+      <c r="I18" s="53"/>
       <c r="M18" s="13">
         <v>11</v>
       </c>
-      <c r="N18" s="35"/>
+      <c r="N18" s="39"/>
       <c r="O18" s="15">
         <f t="shared" si="0"/>
         <v>7.4279606151748352</v>
       </c>
-      <c r="P18" s="47"/>
+      <c r="P18" s="51"/>
       <c r="Q18" s="15">
         <f t="shared" si="1"/>
         <v>15.615454706761716</v>
       </c>
-      <c r="R18" s="35"/>
+      <c r="R18" s="39"/>
       <c r="S18" s="15">
         <f t="shared" si="2"/>
         <v>1.4009162873900554</v>
@@ -3199,17 +3573,17 @@
       <c r="M19" s="14">
         <v>12</v>
       </c>
-      <c r="N19" s="35"/>
+      <c r="N19" s="39"/>
       <c r="O19" s="16">
         <f t="shared" si="0"/>
         <v>5.0017536992883951</v>
       </c>
-      <c r="P19" s="47"/>
+      <c r="P19" s="51"/>
       <c r="Q19" s="16">
         <f t="shared" si="1"/>
         <v>3.0953428245615253</v>
       </c>
-      <c r="R19" s="35"/>
+      <c r="R19" s="39"/>
       <c r="S19" s="16">
         <f t="shared" si="2"/>
         <v>2.0201086054186828</v>
@@ -3250,19 +3624,19 @@
         <v>15.900499999999999</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" s="36"/>
+        <v>6</v>
+      </c>
+      <c r="N20" s="40"/>
       <c r="O20" s="18">
         <f>AVERAGE(O8:O19)</f>
         <v>7.1464306274127951</v>
       </c>
-      <c r="P20" s="48"/>
+      <c r="P20" s="52"/>
       <c r="Q20" s="18">
         <f>AVERAGE(Q8:Q19)</f>
         <v>6.6039717840341261</v>
       </c>
-      <c r="R20" s="36"/>
+      <c r="R20" s="40"/>
       <c r="S20" s="18">
         <f>AVERAGE(S8:S19)</f>
         <v>3.9469215659162269</v>
@@ -3620,7 +3994,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <f t="shared" ref="B31:G31" si="6">AVERAGE(B19:B30)</f>
@@ -3657,7 +4031,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32">
         <f t="shared" ref="B32:G32" si="8">B31-100</f>
@@ -3728,7 +4102,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <f>B32</f>

--- a/7_figure/comp-coord.xlsx
+++ b/7_figure/comp-coord.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
   <si>
     <t>Id Point</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>VirtuSurv</t>
-  </si>
-  <si>
-    <t>Restitution de scanner (VirtuSurv)</t>
   </si>
   <si>
     <t>contour planaire</t>
@@ -152,6 +149,33 @@
   <si>
     <t>Forme sur photo (Agisoft)</t>
   </si>
+  <si>
+    <t>Modélisation  P40 (3DReshaper)</t>
+  </si>
+  <si>
+    <t>Contour planaire P40 (3DReshaper)</t>
+  </si>
+  <si>
+    <t>Modélisation FARO (3DReshaper)</t>
+  </si>
+  <si>
+    <t>Contour planaire Faro (3DReshaper)</t>
+  </si>
+  <si>
+    <t>FaroVirtuSurv</t>
+  </si>
+  <si>
+    <t>Restitution de scanner P40 (VirtuSurv)</t>
+  </si>
+  <si>
+    <t>Modélisation  Faro (3DReshaper)</t>
+  </si>
+  <si>
+    <t>Restitution de scanner Faro (VirtuSurv)</t>
+  </si>
+  <si>
+    <t>Comparaison des coordonnées restituées par rapport aux points levés au MS60 pour les scans</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +230,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -567,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -639,16 +671,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -658,18 +688,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -717,14 +735,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -757,7 +798,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>38966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1050,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AX33"/>
+  <dimension ref="B3:BJ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM23" sqref="AM23"/>
+    <sheetView tabSelected="1" topLeftCell="AD4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AZ26" sqref="AZ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,102 +1108,121 @@
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.7109375" customWidth="1"/>
     <col min="22" max="22" width="7.7109375" customWidth="1"/>
-    <col min="49" max="49" width="25.28515625" customWidth="1"/>
-    <col min="50" max="50" width="18.42578125" customWidth="1"/>
+    <col min="34" max="34" width="7.7109375" customWidth="1"/>
+    <col min="61" max="61" width="25.28515625" customWidth="1"/>
+    <col min="62" max="62" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:46" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AH4" s="41" t="s">
+    <row r="3" spans="2:58" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:58" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AT4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="43"/>
-    </row>
-    <row r="5" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="46"/>
-    </row>
-    <row r="6" spans="2:46" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="39"/>
+    </row>
+    <row r="5" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="42"/>
+    </row>
+    <row r="6" spans="2:58" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="27" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="34" t="s">
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="27" t="s">
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="34" t="s">
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="49"/>
-    </row>
-    <row r="7" spans="2:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AT6" s="43"/>
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="44"/>
+      <c r="AY6" s="44"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="44"/>
+      <c r="BC6" s="44"/>
+      <c r="BD6" s="44"/>
+      <c r="BE6" s="44"/>
+      <c r="BF6" s="45"/>
+    </row>
+    <row r="7" spans="2:58" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1250,47 +1310,83 @@
       <c r="AD7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AH7" s="21" t="s">
+      <c r="AE7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AI7" s="22" t="s">
+      <c r="AU7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AJ7" s="23" t="s">
+      <c r="AV7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AK7" s="22" t="s">
+      <c r="AW7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AL7" s="23" t="s">
+      <c r="AX7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AM7" s="22" t="s">
+      <c r="AY7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AN7" s="23" t="s">
+      <c r="AZ7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AO7" s="22" t="s">
+      <c r="BA7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AP7" s="23" t="s">
+      <c r="BB7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AQ7" s="22" t="s">
+      <c r="BC7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AR7" s="23" t="s">
+      <c r="BD7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AS7" s="22" t="s">
+      <c r="BE7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AT7" s="23" t="s">
+      <c r="BF7" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>1</v>
       </c>
@@ -1384,53 +1480,92 @@
         <f t="shared" ref="AD8:AD13" si="2">SQRT(($C8-AA8)^2+($D8-AB8)^2+($E8-AC8)^2)*1000</f>
         <v>7.3258446611918986</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="AE8" s="7">
+        <v>626.05313100000001</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>427.79934300000002</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>501.75599999999997</v>
+      </c>
+      <c r="AH8" s="8">
+        <f t="shared" ref="AH8:AH17" si="3">SQRT(($C8-AE8)^2+($D8-AF8)^2+($E8-AG8)^2)*1000</f>
+        <v>7.3466189501772234</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>626.04630299999997</v>
+      </c>
+      <c r="AJ8" s="9">
+        <v>427.79716000000002</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>501.76528999999999</v>
+      </c>
+      <c r="AL8" s="10">
+        <f t="shared" ref="AL8:AL17" si="4">SQRT(($C8-AI8)^2+($D8-AJ8)^2+($E8-AK8)^2)*1000</f>
+        <v>17.189866462532407</v>
+      </c>
+      <c r="AM8" s="24">
+        <v>626.05314999999996</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>427.79669999999999</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>501.73970000000003</v>
+      </c>
+      <c r="AP8" s="8">
+        <f t="shared" ref="AP8:AP13" si="5">SQRT(($C8-AM8)^2+($D8-AN8)^2+($E8-AO8)^2)*1000</f>
+        <v>10.099628706032824</v>
+      </c>
+      <c r="AT8" s="19">
         <v>1</v>
       </c>
-      <c r="AI8" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ8" s="20">
+      <c r="AU8" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV8" s="20">
         <f>I8</f>
         <v>12.316449853758112</v>
       </c>
-      <c r="AK8" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL8" s="20">
+      <c r="AW8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX8" s="20">
         <f>N8</f>
         <v>22.219684561154992</v>
       </c>
-      <c r="AM8" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN8" s="20">
+      <c r="AY8" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ8" s="20">
         <f>R8</f>
         <v>10.722318266112959</v>
       </c>
-      <c r="AO8" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP8" s="20">
+      <c r="BA8" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB8" s="20">
         <f>V8</f>
         <v>6.2157915826990688</v>
       </c>
-      <c r="AQ8" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR8" s="20">
+      <c r="BC8" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD8" s="20">
         <f>Z8</f>
         <v>9.7457939645817468</v>
       </c>
-      <c r="AS8" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT8" s="20">
+      <c r="BE8" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF8" s="20">
         <f>AD8</f>
         <v>7.3258446611918986</v>
       </c>
     </row>
-    <row r="9" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -1453,7 +1588,7 @@
         <v>501.765061</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" ref="I9:I19" si="3">SQRT((C9-F9)^2+(D9-G9)^2+(E9-H9)^2)*1000</f>
+        <f t="shared" ref="I9:I19" si="6">SQRT((C9-F9)^2+(D9-G9)^2+(E9-H9)^2)*1000</f>
         <v>7.5532746540863549</v>
       </c>
       <c r="J9" s="7">
@@ -1469,7 +1604,7 @@
         <v>501.77569999999997</v>
       </c>
       <c r="N9" s="26">
-        <f t="shared" ref="N9:N19" si="4">SQRT(($C9-K9)^2+($D9-L9)^2+($E9-M9)^2)*1000</f>
+        <f t="shared" ref="N9:N19" si="7">SQRT(($C9-K9)^2+($D9-L9)^2+($E9-M9)^2)*1000</f>
         <v>17.552557448942494</v>
       </c>
       <c r="O9" s="9">
@@ -1482,7 +1617,7 @@
         <v>501.76668999999998</v>
       </c>
       <c r="R9" s="10">
-        <f t="shared" ref="R9:R19" si="5">SQRT(($C9-O9)^2+($D9-P9)^2+($E9-Q9)^2)*1000</f>
+        <f t="shared" ref="R9:R19" si="8">SQRT(($C9-O9)^2+($D9-P9)^2+($E9-Q9)^2)*1000</f>
         <v>8.2232736181673314</v>
       </c>
       <c r="S9" s="7">
@@ -1524,41 +1659,80 @@
         <f t="shared" si="2"/>
         <v>13.601285874467283</v>
       </c>
-      <c r="AH9" s="13">
+      <c r="AE9" s="7">
+        <v>626.92742999999996</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>428.018866</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>501.78028</v>
+      </c>
+      <c r="AH9" s="8">
+        <f t="shared" si="3"/>
+        <v>10.755708065968818</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>626.92881299999999</v>
+      </c>
+      <c r="AJ9" s="9">
+        <v>428.02152999999998</v>
+      </c>
+      <c r="AK9" s="9">
+        <v>501.78445399999998</v>
+      </c>
+      <c r="AL9" s="10">
+        <f t="shared" si="4"/>
+        <v>14.57484082245554</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>626.93456389999994</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>428.02024</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>501.75959</v>
+      </c>
+      <c r="AP9" s="8">
+        <f t="shared" si="5"/>
+        <v>12.987620382824526</v>
+      </c>
+      <c r="AT9" s="13">
         <v>2</v>
       </c>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="15">
-        <f t="shared" ref="AJ9:AJ19" si="6">I9</f>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="15">
+        <f t="shared" ref="AV9:AV19" si="9">I9</f>
         <v>7.5532746540863549</v>
       </c>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="15">
-        <f t="shared" ref="AL9:AL19" si="7">N9</f>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="15">
+        <f t="shared" ref="AX9:AX19" si="10">N9</f>
         <v>17.552557448942494</v>
       </c>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="15">
-        <f t="shared" ref="AN9:AN19" si="8">R9</f>
+      <c r="AY9" s="47"/>
+      <c r="AZ9" s="15">
+        <f t="shared" ref="AZ9:AZ19" si="11">R9</f>
         <v>8.2232736181673314</v>
       </c>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="15">
-        <f t="shared" ref="AP9:AP19" si="9">V9</f>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="15">
+        <f t="shared" ref="BB9:BB19" si="12">V9</f>
         <v>6.392926794497038</v>
       </c>
-      <c r="AQ9" s="39"/>
-      <c r="AR9" s="15">
-        <f t="shared" ref="AR9:AR19" si="10">Z9</f>
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="15">
+        <f t="shared" ref="BD9:BD19" si="13">Z9</f>
         <v>2.0416721088637151</v>
       </c>
-      <c r="AS9" s="39"/>
-      <c r="AT9" s="15">
-        <f t="shared" ref="AT9:AT19" si="11">AD9</f>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="15">
+        <f t="shared" ref="BF9:BF19" si="14">AD9</f>
         <v>13.601285874467283</v>
       </c>
     </row>
-    <row r="10" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -1581,7 +1755,7 @@
         <v>499.82452899999998</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.151616946983687</v>
       </c>
       <c r="J10" s="7">
@@ -1597,7 +1771,7 @@
         <v>499.84338000000002</v>
       </c>
       <c r="N10" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19.83418818612358</v>
       </c>
       <c r="O10" s="9">
@@ -1610,7 +1784,7 @@
         <v>499.83195999999998</v>
       </c>
       <c r="R10" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12.385548029956054</v>
       </c>
       <c r="S10" s="7">
@@ -1652,41 +1826,80 @@
         <f t="shared" si="2"/>
         <v>17.129229404749246</v>
       </c>
-      <c r="AH10" s="13">
+      <c r="AE10" s="7">
+        <v>626.045704</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>427.823036</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>499.83800000000002</v>
+      </c>
+      <c r="AH10" s="8">
+        <f t="shared" si="3"/>
+        <v>12.619069379383665</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>626.03128900000002</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>427.81797999999998</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>499.84391499999998</v>
+      </c>
+      <c r="AL10" s="10">
+        <f t="shared" si="4"/>
+        <v>15.230927286264009</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>626.04390000000001</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>427.82772</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>499.83424000000002</v>
+      </c>
+      <c r="AP10" s="8">
+        <f t="shared" si="5"/>
+        <v>10.635130464704577</v>
+      </c>
+      <c r="AT10" s="13">
         <v>3</v>
       </c>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="15">
-        <f t="shared" si="6"/>
+      <c r="AU10" s="35"/>
+      <c r="AV10" s="15">
+        <f t="shared" si="9"/>
         <v>16.151616946983687</v>
       </c>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="15">
-        <f t="shared" si="7"/>
+      <c r="AW10" s="35"/>
+      <c r="AX10" s="15">
+        <f t="shared" si="10"/>
         <v>19.83418818612358</v>
       </c>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="15">
-        <f t="shared" si="8"/>
+      <c r="AY10" s="47"/>
+      <c r="AZ10" s="15">
+        <f t="shared" si="11"/>
         <v>12.385548029956054</v>
       </c>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="15">
-        <f t="shared" si="9"/>
+      <c r="BA10" s="35"/>
+      <c r="BB10" s="15">
+        <f t="shared" si="12"/>
         <v>12.835303424595075</v>
       </c>
-      <c r="AQ10" s="39"/>
-      <c r="AR10" s="15">
-        <f t="shared" si="10"/>
+      <c r="BC10" s="35"/>
+      <c r="BD10" s="15">
+        <f t="shared" si="13"/>
         <v>4.8559242168291092</v>
       </c>
-      <c r="AS10" s="39"/>
-      <c r="AT10" s="15">
-        <f t="shared" si="11"/>
+      <c r="BE10" s="35"/>
+      <c r="BF10" s="15">
+        <f t="shared" si="14"/>
         <v>17.129229404749246</v>
       </c>
     </row>
-    <row r="11" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -1709,7 +1922,7 @@
         <v>499.83233899999999</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.364618163395027</v>
       </c>
       <c r="J11" s="7">
@@ -1725,7 +1938,7 @@
         <v>499.87097599999998</v>
       </c>
       <c r="N11" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30.096041733069814</v>
       </c>
       <c r="O11" s="9">
@@ -1738,7 +1951,7 @@
         <v>499.83390000000003</v>
       </c>
       <c r="R11" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10.590769613215583</v>
       </c>
       <c r="S11" s="7">
@@ -1780,41 +1993,80 @@
         <f t="shared" si="2"/>
         <v>14.489514450104156</v>
       </c>
-      <c r="AH11" s="13">
+      <c r="AE11" s="7">
+        <v>626.92529999999999</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>428.02621399999998</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>499.84698800000001</v>
+      </c>
+      <c r="AH11" s="8">
+        <f t="shared" si="3"/>
+        <v>6.6066587621910369</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>626.92773999999997</v>
+      </c>
+      <c r="AJ11" s="9">
+        <v>428.02671299999997</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>499.84242</v>
+      </c>
+      <c r="AL11" s="10">
+        <f t="shared" si="4"/>
+        <v>3.1502966526600589</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>626.93515000000002</v>
+      </c>
+      <c r="AN11">
+        <v>428.02573000000001</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>499.83749999999998</v>
+      </c>
+      <c r="AP11" s="8">
+        <f t="shared" si="5"/>
+        <v>9.0368910583373143</v>
+      </c>
+      <c r="AT11" s="13">
         <v>4</v>
       </c>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="15">
-        <f t="shared" si="6"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="15">
+        <f t="shared" si="9"/>
         <v>11.364618163395027</v>
       </c>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="15">
-        <f t="shared" si="7"/>
+      <c r="AW11" s="35"/>
+      <c r="AX11" s="15">
+        <f t="shared" si="10"/>
         <v>30.096041733069814</v>
       </c>
-      <c r="AM11" s="51"/>
-      <c r="AN11" s="15">
-        <f t="shared" si="8"/>
+      <c r="AY11" s="47"/>
+      <c r="AZ11" s="15">
+        <f t="shared" si="11"/>
         <v>10.590769613215583</v>
       </c>
-      <c r="AO11" s="51"/>
-      <c r="AP11" s="15">
-        <f t="shared" si="9"/>
+      <c r="BA11" s="35"/>
+      <c r="BB11" s="15">
+        <f t="shared" si="12"/>
         <v>7.4546397632827741</v>
       </c>
-      <c r="AQ11" s="39"/>
-      <c r="AR11" s="15">
-        <f t="shared" si="10"/>
+      <c r="BC11" s="35"/>
+      <c r="BD11" s="15">
+        <f t="shared" si="13"/>
         <v>4.3794976880734806</v>
       </c>
-      <c r="AS11" s="39"/>
-      <c r="AT11" s="15">
-        <f t="shared" si="11"/>
+      <c r="BE11" s="35"/>
+      <c r="BF11" s="15">
+        <f t="shared" si="14"/>
         <v>14.489514450104156</v>
       </c>
     </row>
-    <row r="12" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -1837,7 +2089,7 @@
         <v>501.8603</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.6400231480582281</v>
       </c>
       <c r="J12" s="7">
@@ -1853,7 +2105,7 @@
         <v>501.867189</v>
       </c>
       <c r="N12" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>28.568109650434234</v>
       </c>
       <c r="O12" s="9">
@@ -1866,7 +2118,7 @@
         <v>501.86070000000001</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.9349987921550174</v>
       </c>
       <c r="S12" s="7">
@@ -1879,7 +2131,7 @@
         <v>501.85871800000001</v>
       </c>
       <c r="V12" s="8">
-        <f t="shared" ref="V12:V15" si="12">SQRT(($C12-S12)^2+($D12-T12)^2+($E12-U12)^2)*1000</f>
+        <f t="shared" ref="V12:V15" si="15">SQRT(($C12-S12)^2+($D12-T12)^2+($E12-U12)^2)*1000</f>
         <v>2.0686104031941541</v>
       </c>
       <c r="W12" s="9">
@@ -1908,41 +2160,80 @@
         <f t="shared" si="2"/>
         <v>22.958063027198957</v>
       </c>
-      <c r="AH12" s="13">
+      <c r="AE12" s="7">
+        <v>629.09379999999999</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>428.65730000000002</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>501.86754300000001</v>
+      </c>
+      <c r="AH12" s="8">
+        <f t="shared" si="3"/>
+        <v>8.0515122182035626</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>629.08753899999999</v>
+      </c>
+      <c r="AJ12" s="9">
+        <v>428.65980999999999</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>501.87130000000002</v>
+      </c>
+      <c r="AL12" s="10">
+        <f t="shared" si="4"/>
+        <v>12.147617914648828</v>
+      </c>
+      <c r="AM12" s="7">
+        <v>629.09034999999994</v>
+      </c>
+      <c r="AN12" s="7">
+        <v>428.67863999999997</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>501.84704299999999</v>
+      </c>
+      <c r="AP12" s="8">
+        <f t="shared" si="5"/>
+        <v>25.230853116777951</v>
+      </c>
+      <c r="AT12" s="13">
         <v>5</v>
       </c>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="15">
-        <f t="shared" si="6"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="15">
+        <f t="shared" si="9"/>
         <v>8.6400231480582281</v>
       </c>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="15">
-        <f t="shared" si="7"/>
+      <c r="AW12" s="35"/>
+      <c r="AX12" s="15">
+        <f t="shared" si="10"/>
         <v>28.568109650434234</v>
       </c>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="15">
-        <f t="shared" si="8"/>
+      <c r="AY12" s="47"/>
+      <c r="AZ12" s="15">
+        <f t="shared" si="11"/>
         <v>9.9349987921550174</v>
       </c>
-      <c r="AO12" s="51"/>
-      <c r="AP12" s="15">
-        <f t="shared" si="9"/>
+      <c r="BA12" s="35"/>
+      <c r="BB12" s="15">
+        <f t="shared" si="12"/>
         <v>2.0686104031941541</v>
       </c>
-      <c r="AQ12" s="39"/>
-      <c r="AR12" s="15">
-        <f t="shared" si="10"/>
+      <c r="BC12" s="35"/>
+      <c r="BD12" s="15">
+        <f t="shared" si="13"/>
         <v>7.7233671413825409</v>
       </c>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="15">
-        <f t="shared" si="11"/>
+      <c r="BE12" s="35"/>
+      <c r="BF12" s="15">
+        <f t="shared" si="14"/>
         <v>22.958063027198957</v>
       </c>
     </row>
-    <row r="13" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>6</v>
       </c>
@@ -1965,7 +2256,7 @@
         <v>501.85070000000002</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.589117562156698</v>
       </c>
       <c r="J13" s="7">
@@ -1981,7 +2272,7 @@
         <v>501.85258599999997</v>
       </c>
       <c r="N13" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25.125835866723072</v>
       </c>
       <c r="O13" s="9">
@@ -1994,7 +2285,7 @@
         <v>501.850662</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.4290793625419944</v>
       </c>
       <c r="S13" s="7">
@@ -2007,7 +2298,7 @@
         <v>501.84818799999999</v>
       </c>
       <c r="V13" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.8715697797664488</v>
       </c>
       <c r="W13" s="9">
@@ -2036,41 +2327,80 @@
         <f t="shared" si="2"/>
         <v>12.382811635496138</v>
       </c>
-      <c r="AH13" s="13">
+      <c r="AE13" s="7">
+        <v>629.97074999999995</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>428.88931200000002</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>501.85661399999998</v>
+      </c>
+      <c r="AH13" s="8">
+        <f t="shared" si="3"/>
+        <v>6.8670838060501369</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>629.97082999999998</v>
+      </c>
+      <c r="AJ13" s="9">
+        <v>428.89226000000002</v>
+      </c>
+      <c r="AK13" s="9">
+        <v>501.85980000000001</v>
+      </c>
+      <c r="AL13" s="10">
+        <f t="shared" si="4"/>
+        <v>9.9154677146171526</v>
+      </c>
+      <c r="AM13" s="7">
+        <v>629.97230000000002</v>
+      </c>
+      <c r="AN13" s="7">
+        <v>428.89299999999997</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>501.84996000000001</v>
+      </c>
+      <c r="AP13" s="8">
+        <f t="shared" si="5"/>
+        <v>3.0482125909737401</v>
+      </c>
+      <c r="AT13" s="13">
         <v>6</v>
       </c>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="15">
-        <f t="shared" si="6"/>
+      <c r="AU13" s="35"/>
+      <c r="AV13" s="15">
+        <f t="shared" si="9"/>
         <v>4.589117562156698</v>
       </c>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="15">
-        <f t="shared" si="7"/>
+      <c r="AW13" s="35"/>
+      <c r="AX13" s="15">
+        <f t="shared" si="10"/>
         <v>25.125835866723072</v>
       </c>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="15">
-        <f t="shared" si="8"/>
+      <c r="AY13" s="47"/>
+      <c r="AZ13" s="15">
+        <f t="shared" si="11"/>
         <v>4.4290793625419944</v>
       </c>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="15">
-        <f t="shared" si="9"/>
+      <c r="BA13" s="35"/>
+      <c r="BB13" s="15">
+        <f t="shared" si="12"/>
         <v>2.8715697797664488</v>
       </c>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="15">
-        <f t="shared" si="10"/>
+      <c r="BC13" s="35"/>
+      <c r="BD13" s="15">
+        <f t="shared" si="13"/>
         <v>8.1760947278637115</v>
       </c>
-      <c r="AS13" s="39"/>
-      <c r="AT13" s="15">
-        <f t="shared" si="11"/>
+      <c r="BE13" s="35"/>
+      <c r="BF13" s="15">
+        <f t="shared" si="14"/>
         <v>12.382811635496138</v>
       </c>
     </row>
-    <row r="14" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>7</v>
       </c>
@@ -2093,7 +2423,7 @@
         <v>500.34370000000001</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10.277159140538977</v>
       </c>
       <c r="J14" s="7">
@@ -2109,7 +2439,7 @@
         <v>500.35679499999998</v>
       </c>
       <c r="N14" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19.908560093548459</v>
       </c>
       <c r="O14" s="9">
@@ -2122,7 +2452,7 @@
         <v>500.33929999999998</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15.282870450588049</v>
       </c>
       <c r="S14" s="7">
@@ -2135,19 +2465,19 @@
         <v>500.34768000000003</v>
       </c>
       <c r="V14" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8.2001882905225187</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="57">
         <v>629.07469000000003</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="57">
         <v>428.65976999999998</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="57">
         <v>500.33168000000001</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="Z14" s="58">
         <f>SQRT(($C14-W14)^2+($D14-X14)^2+($E14-Y14)^2)*1000</f>
         <v>26.322070587242361</v>
       </c>
@@ -2164,41 +2494,80 @@
         <f>SQRT(($C14-AA14)^2+($D14-AB14)^2+($E14-AC14)^2)*1000</f>
         <v>38.324025101729092</v>
       </c>
-      <c r="AH14" s="13">
+      <c r="AE14" s="7">
+        <v>629.09091000000001</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>428.66386</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>500.35211800000002</v>
+      </c>
+      <c r="AH14" s="8">
+        <f t="shared" si="3"/>
+        <v>5.3383165885722823</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>629.08416099999999</v>
+      </c>
+      <c r="AJ14" s="9">
+        <v>428.67023999999998</v>
+      </c>
+      <c r="AK14" s="9">
+        <v>500.346653</v>
+      </c>
+      <c r="AL14" s="10">
+        <f>SQRT(($C14-AI14)^2+($D14-AJ14)^2+($E14-AK14)^2)*1000</f>
+        <v>7.3843029461409806</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>629.09425999999996</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>428.66617000000002</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>500.32159999999999</v>
+      </c>
+      <c r="AP14" s="8">
+        <f>SQRT(($C14-AM14)^2+($D14-AN14)^2+($E14-AO14)^2)*1000</f>
+        <v>29.841523084449886</v>
+      </c>
+      <c r="AT14" s="13">
         <v>7</v>
       </c>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="15">
-        <f t="shared" si="6"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="15">
+        <f t="shared" si="9"/>
         <v>10.277159140538977</v>
       </c>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="15">
-        <f t="shared" si="7"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="15">
+        <f t="shared" si="10"/>
         <v>19.908560093548459</v>
       </c>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="15">
-        <f t="shared" si="8"/>
+      <c r="AY14" s="47"/>
+      <c r="AZ14" s="15">
+        <f t="shared" si="11"/>
         <v>15.282870450588049</v>
       </c>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="15">
-        <f t="shared" si="9"/>
+      <c r="BA14" s="35"/>
+      <c r="BB14" s="15">
+        <f t="shared" si="12"/>
         <v>8.2001882905225187</v>
       </c>
-      <c r="AQ14" s="39"/>
-      <c r="AR14" s="15">
-        <f t="shared" si="10"/>
+      <c r="BC14" s="35"/>
+      <c r="BD14" s="59">
+        <f t="shared" si="13"/>
         <v>26.322070587242361</v>
       </c>
-      <c r="AS14" s="39"/>
-      <c r="AT14" s="15">
-        <f t="shared" si="11"/>
+      <c r="BE14" s="35"/>
+      <c r="BF14" s="15">
+        <f t="shared" si="14"/>
         <v>38.324025101729092</v>
       </c>
     </row>
-    <row r="15" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>8</v>
       </c>
@@ -2221,7 +2590,7 @@
         <v>500.33670000000001</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.1204574992190937</v>
       </c>
       <c r="J15" s="7">
@@ -2237,7 +2606,7 @@
         <v>500.37288999999998</v>
       </c>
       <c r="N15" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>41.986973360809607</v>
       </c>
       <c r="O15" s="9">
@@ -2250,7 +2619,7 @@
         <v>500.33482400000003</v>
       </c>
       <c r="R15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10.28658718913784</v>
       </c>
       <c r="S15" s="7">
@@ -2263,7 +2632,7 @@
         <v>500.33657399999998</v>
       </c>
       <c r="V15" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4612080618790346</v>
       </c>
       <c r="W15" s="9">
@@ -2289,44 +2658,83 @@
         <v>500.32994000000002</v>
       </c>
       <c r="AD15" s="8">
-        <f t="shared" ref="AD15:AD17" si="13">SQRT(($C15-AA15)^2+($D15-AB15)^2+($E15-AC15)^2)*1000</f>
+        <f t="shared" ref="AD15:AD17" si="16">SQRT(($C15-AA15)^2+($D15-AB15)^2+($E15-AC15)^2)*1000</f>
         <v>8.6448152235857023</v>
       </c>
-      <c r="AH15" s="13">
+      <c r="AE15" s="7">
+        <v>629.96661900000004</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>428.8931</v>
+      </c>
+      <c r="AG15" s="7">
+        <v>500.34059000000002</v>
+      </c>
+      <c r="AH15" s="8">
+        <f t="shared" si="3"/>
+        <v>3.9984073079128772</v>
+      </c>
+      <c r="AI15" s="9">
+        <v>629.96614999999997</v>
+      </c>
+      <c r="AJ15" s="9">
+        <v>428.90235799999999</v>
+      </c>
+      <c r="AK15" s="9">
+        <v>500.33339999999998</v>
+      </c>
+      <c r="AL15" s="10">
+        <f t="shared" ref="AL15:AL24" si="17">SQRT(($C15-AI15)^2+($D15-AJ15)^2+($E15-AK15)^2)*1000</f>
+        <v>9.1336008233868924</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>629.97801900000002</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>428.8922</v>
+      </c>
+      <c r="AO15" s="7">
+        <v>500.32578000000001</v>
+      </c>
+      <c r="AP15" s="8">
+        <f t="shared" ref="AP15:AP17" si="18">SQRT(($C15-AM15)^2+($D15-AN15)^2+($E15-AO15)^2)*1000</f>
+        <v>15.443793607776866</v>
+      </c>
+      <c r="AT15" s="13">
         <v>8</v>
       </c>
-      <c r="AI15" s="39"/>
-      <c r="AJ15" s="15">
-        <f t="shared" si="6"/>
+      <c r="AU15" s="35"/>
+      <c r="AV15" s="15">
+        <f t="shared" si="9"/>
         <v>6.1204574992190937</v>
       </c>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="15">
-        <f t="shared" si="7"/>
+      <c r="AW15" s="35"/>
+      <c r="AX15" s="15">
+        <f t="shared" si="10"/>
         <v>41.986973360809607</v>
       </c>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="15">
-        <f t="shared" si="8"/>
+      <c r="AY15" s="47"/>
+      <c r="AZ15" s="15">
+        <f t="shared" si="11"/>
         <v>10.28658718913784</v>
       </c>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="15">
-        <f t="shared" si="9"/>
+      <c r="BA15" s="35"/>
+      <c r="BB15" s="15">
+        <f t="shared" si="12"/>
         <v>1.4612080618790346</v>
       </c>
-      <c r="AQ15" s="39"/>
-      <c r="AR15" s="15">
-        <f t="shared" si="10"/>
+      <c r="BC15" s="35"/>
+      <c r="BD15" s="15">
+        <f t="shared" si="13"/>
         <v>8.7206651122424201</v>
       </c>
-      <c r="AS15" s="39"/>
-      <c r="AT15" s="15">
-        <f t="shared" si="11"/>
+      <c r="BE15" s="35"/>
+      <c r="BF15" s="15">
+        <f t="shared" si="14"/>
         <v>8.6448152235857023</v>
       </c>
     </row>
-    <row r="16" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>9</v>
       </c>
@@ -2349,7 +2757,7 @@
         <v>504.17489999999998</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.4504437752952519</v>
       </c>
       <c r="J16" s="7">
@@ -2365,7 +2773,7 @@
         <v>504.16949899999997</v>
       </c>
       <c r="N16" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.505813717706447</v>
       </c>
       <c r="O16" s="9">
@@ -2378,7 +2786,7 @@
         <v>504.16896000000003</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11.230424791552709</v>
       </c>
       <c r="S16" s="7">
@@ -2391,7 +2799,7 @@
         <v>504.17316699999998</v>
       </c>
       <c r="V16" s="8">
-        <f t="shared" ref="V16:V17" si="14">SQRT(($C16-S16)^2+($D16-T16)^2+($E16-U16)^2)*1000</f>
+        <f t="shared" ref="V16:V17" si="19">SQRT(($C16-S16)^2+($D16-T16)^2+($E16-U16)^2)*1000</f>
         <v>4.9532683149133669</v>
       </c>
       <c r="W16" s="9">
@@ -2417,44 +2825,83 @@
         <v>504.15892000000002</v>
       </c>
       <c r="AD16" s="8">
+        <f t="shared" si="16"/>
+        <v>25.702896723889626</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>633.85830599999997</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>429.87921999999998</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>504.180542</v>
+      </c>
+      <c r="AH16" s="8">
+        <f t="shared" si="3"/>
+        <v>13.330408845896887</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>633.86312999999996</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>429.88057400000002</v>
+      </c>
+      <c r="AK16" s="9">
+        <v>504.18349999999998</v>
+      </c>
+      <c r="AL16" s="10">
+        <f t="shared" si="17"/>
+        <v>18.931042654781713</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>633.85332000000005</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>429.87718799999999</v>
+      </c>
+      <c r="AO16" s="24">
+        <v>504.16176999999999</v>
+      </c>
+      <c r="AP16" s="8">
+        <f t="shared" si="18"/>
+        <v>10.350779874009948</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>9</v>
+      </c>
+      <c r="AU16" s="35"/>
+      <c r="AV16" s="15">
+        <f t="shared" si="9"/>
+        <v>8.4504437752952519</v>
+      </c>
+      <c r="AW16" s="35"/>
+      <c r="AX16" s="15">
+        <f t="shared" si="10"/>
+        <v>8.505813717706447</v>
+      </c>
+      <c r="AY16" s="47"/>
+      <c r="AZ16" s="15">
+        <f t="shared" si="11"/>
+        <v>11.230424791552709</v>
+      </c>
+      <c r="BA16" s="35"/>
+      <c r="BB16" s="15">
+        <f t="shared" si="12"/>
+        <v>4.9532683149133669</v>
+      </c>
+      <c r="BC16" s="35"/>
+      <c r="BD16" s="15">
         <f t="shared" si="13"/>
+        <v>5.4172236431305274</v>
+      </c>
+      <c r="BE16" s="35"/>
+      <c r="BF16" s="15">
+        <f t="shared" si="14"/>
         <v>25.702896723889626</v>
       </c>
-      <c r="AH16" s="13">
-        <v>9</v>
-      </c>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="15">
-        <f t="shared" si="6"/>
-        <v>8.4504437752952519</v>
-      </c>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="15">
-        <f t="shared" si="7"/>
-        <v>8.505813717706447</v>
-      </c>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="15">
-        <f t="shared" si="8"/>
-        <v>11.230424791552709</v>
-      </c>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="15">
-        <f t="shared" si="9"/>
-        <v>4.9532683149133669</v>
-      </c>
-      <c r="AQ16" s="39"/>
-      <c r="AR16" s="15">
-        <f t="shared" si="10"/>
-        <v>5.4172236431305274</v>
-      </c>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="15">
-        <f t="shared" si="11"/>
-        <v>25.702896723889626</v>
-      </c>
-    </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>10</v>
       </c>
@@ -2477,7 +2924,7 @@
         <v>504.16269999999997</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.0024992192173876</v>
       </c>
       <c r="J17" s="7">
@@ -2493,7 +2940,7 @@
         <v>504.15605399999998</v>
       </c>
       <c r="N17" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11.894943715682208</v>
       </c>
       <c r="O17" s="9">
@@ -2506,7 +2953,7 @@
         <v>504.16448800000001</v>
       </c>
       <c r="R17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.0916248879860948</v>
       </c>
       <c r="S17" s="7">
@@ -2519,7 +2966,7 @@
         <v>504.16352699999999</v>
       </c>
       <c r="V17" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6.5505861569160908</v>
       </c>
       <c r="W17" s="9">
@@ -2545,44 +2992,83 @@
         <v>504.15269999999998</v>
       </c>
       <c r="AD17" s="8">
+        <f t="shared" si="16"/>
+        <v>13.346340359871515</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>634.69953999999996</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>430.10093999999998</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>504.16833800000001</v>
+      </c>
+      <c r="AH17" s="8">
+        <f t="shared" si="3"/>
+        <v>10.290648376071282</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>634.70552999999995</v>
+      </c>
+      <c r="AJ17" s="9">
+        <v>430.10261000000003</v>
+      </c>
+      <c r="AK17" s="9">
+        <v>504.17169999999999</v>
+      </c>
+      <c r="AL17" s="10">
+        <f t="shared" si="17"/>
+        <v>12.039227549933516</v>
+      </c>
+      <c r="AM17" s="7">
+        <v>634.71085500000004</v>
+      </c>
+      <c r="AN17" s="7">
+        <v>430.10120000000001</v>
+      </c>
+      <c r="AO17" s="7">
+        <v>504.14715999999999</v>
+      </c>
+      <c r="AP17" s="8">
+        <f t="shared" si="18"/>
+        <v>15.043158744170237</v>
+      </c>
+      <c r="AT17" s="13">
+        <v>10</v>
+      </c>
+      <c r="AU17" s="35"/>
+      <c r="AV17" s="15">
+        <f t="shared" si="9"/>
+        <v>4.0024992192173876</v>
+      </c>
+      <c r="AW17" s="35"/>
+      <c r="AX17" s="15">
+        <f t="shared" si="10"/>
+        <v>11.894943715682208</v>
+      </c>
+      <c r="AY17" s="47"/>
+      <c r="AZ17" s="15">
+        <f t="shared" si="11"/>
+        <v>5.0916248879860948</v>
+      </c>
+      <c r="BA17" s="35"/>
+      <c r="BB17" s="15">
+        <f t="shared" si="12"/>
+        <v>6.5505861569160908</v>
+      </c>
+      <c r="BC17" s="35"/>
+      <c r="BD17" s="15">
         <f t="shared" si="13"/>
+        <v>6.3668378335798206</v>
+      </c>
+      <c r="BE17" s="35"/>
+      <c r="BF17" s="15">
+        <f t="shared" si="14"/>
         <v>13.346340359871515</v>
       </c>
-      <c r="AH17" s="13">
-        <v>10</v>
-      </c>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="15">
-        <f t="shared" si="6"/>
-        <v>4.0024992192173876</v>
-      </c>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="15">
-        <f t="shared" si="7"/>
-        <v>11.894943715682208</v>
-      </c>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="15">
-        <f t="shared" si="8"/>
-        <v>5.0916248879860948</v>
-      </c>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="15">
-        <f t="shared" si="9"/>
-        <v>6.5505861569160908</v>
-      </c>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="15">
-        <f t="shared" si="10"/>
-        <v>6.3668378335798206</v>
-      </c>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="15">
-        <f t="shared" si="11"/>
-        <v>13.346340359871515</v>
-      </c>
-    </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>11</v>
       </c>
@@ -2605,7 +3091,7 @@
         <v>503.01740000000001</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.7802877548683496</v>
       </c>
       <c r="J18" s="7">
@@ -2621,7 +3107,7 @@
         <v>503.01790299999999</v>
       </c>
       <c r="N18" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.0350936907398189</v>
       </c>
       <c r="O18" s="9">
@@ -2634,7 +3120,7 @@
         <v>503.018799</v>
       </c>
       <c r="R18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.9509200579865666</v>
       </c>
       <c r="S18" s="7">
@@ -2676,41 +3162,80 @@
         <f>SQRT(($C18-AA18)^2+($D18-AB18)^2+($E18-AC18)^2)*1000</f>
         <v>24.88547746618142</v>
       </c>
-      <c r="AH18" s="13">
+      <c r="AE18" s="7">
+        <v>633.86156900000003</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>429.879842</v>
+      </c>
+      <c r="AG18" s="7">
+        <v>503.01388700000001</v>
+      </c>
+      <c r="AH18" s="8">
+        <f>SQRT(($C18-AE18)^2+($D18-AF18)^2+($E18-AG18)^2)*1000</f>
+        <v>8.2708822987666561</v>
+      </c>
+      <c r="AI18" s="9">
+        <v>633.84776999999997</v>
+      </c>
+      <c r="AJ18" s="9">
+        <v>429.87628000000001</v>
+      </c>
+      <c r="AK18" s="9">
+        <v>503.01195000000001</v>
+      </c>
+      <c r="AL18" s="10">
+        <f>SQRT(($C18-AI18)^2+($D18-AJ18)^2+($E18-AK18)^2)*1000</f>
+        <v>12.098504039749232</v>
+      </c>
+      <c r="AM18" s="7">
+        <v>633.85667000000001</v>
+      </c>
+      <c r="AN18" s="7">
+        <v>429.87759999999997</v>
+      </c>
+      <c r="AO18" s="7">
+        <v>503.00685499999997</v>
+      </c>
+      <c r="AP18" s="8">
+        <f>SQRT(($C18-AM18)^2+($D18-AN18)^2+($E18-AO18)^2)*1000</f>
+        <v>13.379085357391013</v>
+      </c>
+      <c r="AT18" s="13">
         <v>11</v>
       </c>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="15">
-        <f t="shared" si="6"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="15">
+        <f t="shared" si="9"/>
         <v>2.7802877548683496</v>
       </c>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="15">
-        <f t="shared" si="7"/>
+      <c r="AW18" s="35"/>
+      <c r="AX18" s="15">
+        <f t="shared" si="10"/>
         <v>9.0350936907398189</v>
       </c>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="15">
-        <f t="shared" si="8"/>
+      <c r="AY18" s="47"/>
+      <c r="AZ18" s="15">
+        <f t="shared" si="11"/>
         <v>9.9509200579865666</v>
       </c>
-      <c r="AO18" s="51"/>
-      <c r="AP18" s="15">
-        <f t="shared" si="9"/>
+      <c r="BA18" s="35"/>
+      <c r="BB18" s="15">
+        <f t="shared" si="12"/>
         <v>7.4513666531458416</v>
       </c>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="15">
-        <f t="shared" si="10"/>
+      <c r="BC18" s="35"/>
+      <c r="BD18" s="15">
+        <f t="shared" si="13"/>
         <v>9.2279805482748003</v>
       </c>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="15">
-        <f t="shared" si="11"/>
+      <c r="BE18" s="35"/>
+      <c r="BF18" s="15">
+        <f t="shared" si="14"/>
         <v>24.88547746618142</v>
       </c>
     </row>
-    <row r="19" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>12</v>
       </c>
@@ -2733,7 +3258,7 @@
         <v>503.02539999999999</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.5221676217989479</v>
       </c>
       <c r="J19" s="7">
@@ -2749,7 +3274,7 @@
         <v>503.01370200000002</v>
       </c>
       <c r="N19" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.685848303520482</v>
       </c>
       <c r="O19" s="9">
@@ -2762,7 +3287,7 @@
         <v>503.02350000000001</v>
       </c>
       <c r="R19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.2634654943967965</v>
       </c>
       <c r="S19" s="7">
@@ -2804,47 +3329,86 @@
         <f>SQRT(($C19-AA19)^2+($D19-AB19)^2+($E19-AC19)^2)*1000</f>
         <v>16.956680718839149</v>
       </c>
-      <c r="AH19" s="14">
+      <c r="AE19" s="7">
+        <v>634.69658000000004</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>430.09992699999998</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>503.02121099999999</v>
+      </c>
+      <c r="AH19" s="8">
+        <f>SQRT(($C19-AE19)^2+($D19-AF19)^2+($E19-AG19)^2)*1000</f>
+        <v>1.8820866080315783</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>634.69572000000005</v>
+      </c>
+      <c r="AJ19" s="9">
+        <v>430.09978000000001</v>
+      </c>
+      <c r="AK19" s="9">
+        <v>503.01831499999997</v>
+      </c>
+      <c r="AL19" s="10">
+        <f>SQRT(($C19-AI19)^2+($D19-AJ19)^2+($E19-AK19)^2)*1000</f>
+        <v>4.6985130627121876</v>
+      </c>
+      <c r="AM19" s="7">
+        <v>634.70231000000001</v>
+      </c>
+      <c r="AN19" s="7">
+        <v>430.09800000000001</v>
+      </c>
+      <c r="AO19" s="7">
+        <v>503.01875000000001</v>
+      </c>
+      <c r="AP19" s="8">
+        <f>SQRT(($C19-AM19)^2+($D19-AN19)^2+($E19-AO19)^2)*1000</f>
+        <v>7.8662951889666726</v>
+      </c>
+      <c r="AT19" s="14">
         <v>12</v>
       </c>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="16">
-        <f t="shared" si="6"/>
+      <c r="AU19" s="35"/>
+      <c r="AV19" s="16">
+        <f t="shared" si="9"/>
         <v>4.5221676217989479</v>
       </c>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="16">
-        <f t="shared" si="7"/>
+      <c r="AW19" s="35"/>
+      <c r="AX19" s="16">
+        <f t="shared" si="10"/>
         <v>15.685848303520482</v>
       </c>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="16">
-        <f t="shared" si="8"/>
+      <c r="AY19" s="47"/>
+      <c r="AZ19" s="16">
+        <f t="shared" si="11"/>
         <v>6.2634654943967965</v>
       </c>
-      <c r="AO19" s="51"/>
-      <c r="AP19" s="16">
-        <f t="shared" si="9"/>
+      <c r="BA19" s="35"/>
+      <c r="BB19" s="16">
+        <f t="shared" si="12"/>
         <v>9.9135445729888882</v>
       </c>
-      <c r="AQ19" s="39"/>
-      <c r="AR19" s="16">
-        <f t="shared" si="10"/>
+      <c r="BC19" s="35"/>
+      <c r="BD19" s="16">
+        <f t="shared" si="13"/>
         <v>6.4421500292937397</v>
       </c>
-      <c r="AS19" s="39"/>
-      <c r="AT19" s="16">
-        <f t="shared" si="11"/>
+      <c r="BE19" s="35"/>
+      <c r="BF19" s="16">
+        <f t="shared" si="14"/>
         <v>16.956680718839149</v>
       </c>
     </row>
-    <row r="20" spans="2:50" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:62" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="31"/>
       <c r="G20" s="32"/>
       <c r="H20" s="33"/>
@@ -2860,9 +3424,9 @@
         <f>AVERAGE(N8:N19)</f>
         <v>20.867804194037934</v>
       </c>
-      <c r="O20" s="28"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="30"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="52"/>
       <c r="R20" s="12">
         <f>AVERAGE(R8:R19)</f>
         <v>9.5326567128164168</v>
@@ -2874,12 +3438,12 @@
         <f>AVERAGE(V8:V19)</f>
         <v>6.3640836498666902</v>
       </c>
-      <c r="W20" s="28"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="30"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="52"/>
       <c r="Z20" s="12">
-        <f>AVERAGE(Z8:Z19)</f>
-        <v>8.2849398001131647</v>
+        <f>AVERAGE(Z8:Z13,Z15:Z19)</f>
+        <v>6.645200637646874</v>
       </c>
       <c r="AA20" s="31"/>
       <c r="AB20" s="32"/>
@@ -2888,102 +3452,677 @@
         <f>AVERAGE(AD8:AD19)</f>
         <v>17.978915387275347</v>
       </c>
-      <c r="AH20" s="17" t="s">
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="11">
+        <f>AVERAGE(AH8:AH19)</f>
+        <v>7.9464501006021679</v>
+      </c>
+      <c r="AI20" s="50"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="12">
+        <f>AVERAGE(AL8:AL19)</f>
+        <v>11.37451732749021</v>
+      </c>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="33"/>
+      <c r="AP20" s="11">
+        <f>AVERAGE(AP8:AP19)</f>
+        <v>13.580247681367959</v>
+      </c>
+      <c r="AT20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="18">
-        <f>AVERAGE(AJ8:AJ19)</f>
+      <c r="AU20" s="36"/>
+      <c r="AV20" s="18">
+        <f>AVERAGE(AV8:AV19)</f>
         <v>8.0640096116146758</v>
       </c>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="18">
-        <f>AVERAGE(AL8:AL19)</f>
+      <c r="AW20" s="36"/>
+      <c r="AX20" s="18">
+        <f>AVERAGE(AX8:AX19)</f>
         <v>20.867804194037934</v>
       </c>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="18">
-        <f>AVERAGE(AN8:AN19)</f>
+      <c r="AY20" s="48"/>
+      <c r="AZ20" s="18">
+        <f>AVERAGE(AZ8:AZ19)</f>
         <v>9.5326567128164168</v>
       </c>
-      <c r="AO20" s="52"/>
-      <c r="AP20" s="18">
-        <f>AVERAGE(AP8:AP19)</f>
+      <c r="BA20" s="36"/>
+      <c r="BB20" s="18">
+        <f>AVERAGE(BB8:BB19)</f>
         <v>6.3640836498666902</v>
       </c>
-      <c r="AQ20" s="40"/>
-      <c r="AR20" s="18">
-        <f>AVERAGE(AR8:AR19)</f>
-        <v>8.2849398001131647</v>
-      </c>
-      <c r="AS20" s="40"/>
-      <c r="AT20" s="18">
-        <f>AVERAGE(AT8:AT19)</f>
+      <c r="BC20" s="36"/>
+      <c r="BD20" s="18">
+        <f>AVERAGE(BD8:BD13,BD15:BD19)</f>
+        <v>6.645200637646874</v>
+      </c>
+      <c r="BE20" s="36"/>
+      <c r="BF20" s="18">
+        <f>AVERAGE(BF8:BF19)</f>
         <v>17.978915387275347</v>
       </c>
     </row>
-    <row r="28" spans="2:50" ht="30" x14ac:dyDescent="0.25">
-      <c r="AW28" s="1" t="s">
+    <row r="28" spans="2:62" ht="30" x14ac:dyDescent="0.25">
+      <c r="BI28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ28" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BI29" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AX28" s="55" t="s">
+      <c r="BJ29" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BI30" s="27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="AW29" s="54" t="s">
+      <c r="BJ30" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BI31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ31" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BI32" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AX29" s="56" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="AW30" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX30" s="56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="AW31" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX31" s="56" t="s">
+      <c r="BJ32" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="AW32" s="54" t="s">
+    <row r="33" spans="46:62" x14ac:dyDescent="0.25">
+      <c r="BI33" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AX32" s="56" t="s">
+      <c r="BJ33" s="29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW33" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX33" s="56" t="s">
-        <v>38</v>
+    <row r="36" spans="46:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="46:62" x14ac:dyDescent="0.25">
+      <c r="AT37" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU37" s="38"/>
+      <c r="AV37" s="38"/>
+      <c r="AW37" s="38"/>
+      <c r="AX37" s="38"/>
+      <c r="AY37" s="38"/>
+      <c r="AZ37" s="38"/>
+      <c r="BA37" s="38"/>
+      <c r="BB37" s="38"/>
+      <c r="BC37" s="38"/>
+      <c r="BD37" s="38"/>
+      <c r="BE37" s="38"/>
+      <c r="BF37" s="39"/>
+    </row>
+    <row r="38" spans="46:62" x14ac:dyDescent="0.25">
+      <c r="AT38" s="40"/>
+      <c r="AU38" s="41"/>
+      <c r="AV38" s="41"/>
+      <c r="AW38" s="41"/>
+      <c r="AX38" s="41"/>
+      <c r="AY38" s="41"/>
+      <c r="AZ38" s="41"/>
+      <c r="BA38" s="41"/>
+      <c r="BB38" s="41"/>
+      <c r="BC38" s="41"/>
+      <c r="BD38" s="41"/>
+      <c r="BE38" s="41"/>
+      <c r="BF38" s="42"/>
+    </row>
+    <row r="39" spans="46:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AT39" s="43"/>
+      <c r="AU39" s="44"/>
+      <c r="AV39" s="44"/>
+      <c r="AW39" s="44"/>
+      <c r="AX39" s="44"/>
+      <c r="AY39" s="44"/>
+      <c r="AZ39" s="44"/>
+      <c r="BA39" s="44"/>
+      <c r="BB39" s="44"/>
+      <c r="BC39" s="44"/>
+      <c r="BD39" s="44"/>
+      <c r="BE39" s="44"/>
+      <c r="BF39" s="45"/>
+    </row>
+    <row r="40" spans="46:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AT40" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU40" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV40" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW40" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX40" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY40" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ40" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA40" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB40" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC40" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD40" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE40" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF40" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="46:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AT41" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV41" s="20">
+        <f>V8</f>
+        <v>6.2157915826990688</v>
+      </c>
+      <c r="AW41" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX41" s="20">
+        <f>Z8</f>
+        <v>9.7457939645817468</v>
+      </c>
+      <c r="AY41" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ41" s="20">
+        <f>AD8</f>
+        <v>7.3258446611918986</v>
+      </c>
+      <c r="BA41" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB41" s="20">
+        <f>AH8</f>
+        <v>7.3466189501772234</v>
+      </c>
+      <c r="BC41" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD41" s="20">
+        <f>AL8</f>
+        <v>17.189866462532407</v>
+      </c>
+      <c r="BE41" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF41" s="20">
+        <f>AP8</f>
+        <v>10.099628706032824</v>
+      </c>
+    </row>
+    <row r="42" spans="46:62" x14ac:dyDescent="0.25">
+      <c r="AT42" s="13">
+        <v>2</v>
+      </c>
+      <c r="AU42" s="35"/>
+      <c r="AV42" s="15">
+        <f t="shared" ref="AV42:AV52" si="20">V9</f>
+        <v>6.392926794497038</v>
+      </c>
+      <c r="AW42" s="35"/>
+      <c r="AX42" s="15">
+        <f t="shared" ref="AX42:AX52" si="21">Z9</f>
+        <v>2.0416721088637151</v>
+      </c>
+      <c r="AY42" s="35"/>
+      <c r="AZ42" s="15">
+        <f t="shared" ref="AZ42:AZ52" si="22">AD9</f>
+        <v>13.601285874467283</v>
+      </c>
+      <c r="BA42" s="35"/>
+      <c r="BB42" s="15">
+        <f t="shared" ref="BB42:BB52" si="23">AH9</f>
+        <v>10.755708065968818</v>
+      </c>
+      <c r="BC42" s="35"/>
+      <c r="BD42" s="15">
+        <f t="shared" ref="BD42:BD52" si="24">AL9</f>
+        <v>14.57484082245554</v>
+      </c>
+      <c r="BE42" s="35"/>
+      <c r="BF42" s="15">
+        <f t="shared" ref="BF42:BF52" si="25">AP9</f>
+        <v>12.987620382824526</v>
+      </c>
+    </row>
+    <row r="43" spans="46:62" x14ac:dyDescent="0.25">
+      <c r="AT43" s="13">
+        <v>3</v>
+      </c>
+      <c r="AU43" s="35"/>
+      <c r="AV43" s="15">
+        <f t="shared" si="20"/>
+        <v>12.835303424595075</v>
+      </c>
+      <c r="AW43" s="35"/>
+      <c r="AX43" s="15">
+        <f t="shared" si="21"/>
+        <v>4.8559242168291092</v>
+      </c>
+      <c r="AY43" s="35"/>
+      <c r="AZ43" s="15">
+        <f t="shared" si="22"/>
+        <v>17.129229404749246</v>
+      </c>
+      <c r="BA43" s="35"/>
+      <c r="BB43" s="15">
+        <f t="shared" si="23"/>
+        <v>12.619069379383665</v>
+      </c>
+      <c r="BC43" s="35"/>
+      <c r="BD43" s="15">
+        <f t="shared" si="24"/>
+        <v>15.230927286264009</v>
+      </c>
+      <c r="BE43" s="35"/>
+      <c r="BF43" s="15">
+        <f t="shared" si="25"/>
+        <v>10.635130464704577</v>
+      </c>
+    </row>
+    <row r="44" spans="46:62" x14ac:dyDescent="0.25">
+      <c r="AT44" s="13">
+        <v>4</v>
+      </c>
+      <c r="AU44" s="35"/>
+      <c r="AV44" s="15">
+        <f t="shared" si="20"/>
+        <v>7.4546397632827741</v>
+      </c>
+      <c r="AW44" s="35"/>
+      <c r="AX44" s="15">
+        <f t="shared" si="21"/>
+        <v>4.3794976880734806</v>
+      </c>
+      <c r="AY44" s="35"/>
+      <c r="AZ44" s="15">
+        <f t="shared" si="22"/>
+        <v>14.489514450104156</v>
+      </c>
+      <c r="BA44" s="35"/>
+      <c r="BB44" s="15">
+        <f t="shared" si="23"/>
+        <v>6.6066587621910369</v>
+      </c>
+      <c r="BC44" s="35"/>
+      <c r="BD44" s="15">
+        <f t="shared" si="24"/>
+        <v>3.1502966526600589</v>
+      </c>
+      <c r="BE44" s="35"/>
+      <c r="BF44" s="15">
+        <f t="shared" si="25"/>
+        <v>9.0368910583373143</v>
+      </c>
+    </row>
+    <row r="45" spans="46:62" x14ac:dyDescent="0.25">
+      <c r="AT45" s="13">
+        <v>5</v>
+      </c>
+      <c r="AU45" s="35"/>
+      <c r="AV45" s="15">
+        <f t="shared" si="20"/>
+        <v>2.0686104031941541</v>
+      </c>
+      <c r="AW45" s="35"/>
+      <c r="AX45" s="15">
+        <f t="shared" si="21"/>
+        <v>7.7233671413825409</v>
+      </c>
+      <c r="AY45" s="35"/>
+      <c r="AZ45" s="15">
+        <f t="shared" si="22"/>
+        <v>22.958063027198957</v>
+      </c>
+      <c r="BA45" s="35"/>
+      <c r="BB45" s="15">
+        <f t="shared" si="23"/>
+        <v>8.0515122182035626</v>
+      </c>
+      <c r="BC45" s="35"/>
+      <c r="BD45" s="15">
+        <f t="shared" si="24"/>
+        <v>12.147617914648828</v>
+      </c>
+      <c r="BE45" s="35"/>
+      <c r="BF45" s="15">
+        <f t="shared" si="25"/>
+        <v>25.230853116777951</v>
+      </c>
+    </row>
+    <row r="46" spans="46:62" x14ac:dyDescent="0.25">
+      <c r="AT46" s="13">
+        <v>6</v>
+      </c>
+      <c r="AU46" s="35"/>
+      <c r="AV46" s="15">
+        <f t="shared" si="20"/>
+        <v>2.8715697797664488</v>
+      </c>
+      <c r="AW46" s="35"/>
+      <c r="AX46" s="15">
+        <f t="shared" si="21"/>
+        <v>8.1760947278637115</v>
+      </c>
+      <c r="AY46" s="35"/>
+      <c r="AZ46" s="15">
+        <f t="shared" si="22"/>
+        <v>12.382811635496138</v>
+      </c>
+      <c r="BA46" s="35"/>
+      <c r="BB46" s="15">
+        <f t="shared" si="23"/>
+        <v>6.8670838060501369</v>
+      </c>
+      <c r="BC46" s="35"/>
+      <c r="BD46" s="15">
+        <f t="shared" si="24"/>
+        <v>9.9154677146171526</v>
+      </c>
+      <c r="BE46" s="35"/>
+      <c r="BF46" s="15">
+        <f t="shared" si="25"/>
+        <v>3.0482125909737401</v>
+      </c>
+    </row>
+    <row r="47" spans="46:62" x14ac:dyDescent="0.25">
+      <c r="AT47" s="13">
+        <v>7</v>
+      </c>
+      <c r="AU47" s="35"/>
+      <c r="AV47" s="15">
+        <f t="shared" si="20"/>
+        <v>8.2001882905225187</v>
+      </c>
+      <c r="AW47" s="35"/>
+      <c r="AX47" s="59">
+        <f t="shared" si="21"/>
+        <v>26.322070587242361</v>
+      </c>
+      <c r="AY47" s="35"/>
+      <c r="AZ47" s="15">
+        <f t="shared" si="22"/>
+        <v>38.324025101729092</v>
+      </c>
+      <c r="BA47" s="35"/>
+      <c r="BB47" s="15">
+        <f t="shared" si="23"/>
+        <v>5.3383165885722823</v>
+      </c>
+      <c r="BC47" s="35"/>
+      <c r="BD47" s="15">
+        <f t="shared" si="24"/>
+        <v>7.3843029461409806</v>
+      </c>
+      <c r="BE47" s="35"/>
+      <c r="BF47" s="15">
+        <f t="shared" si="25"/>
+        <v>29.841523084449886</v>
+      </c>
+    </row>
+    <row r="48" spans="46:62" x14ac:dyDescent="0.25">
+      <c r="AT48" s="13">
+        <v>8</v>
+      </c>
+      <c r="AU48" s="35"/>
+      <c r="AV48" s="15">
+        <f t="shared" si="20"/>
+        <v>1.4612080618790346</v>
+      </c>
+      <c r="AW48" s="35"/>
+      <c r="AX48" s="15">
+        <f t="shared" si="21"/>
+        <v>8.7206651122424201</v>
+      </c>
+      <c r="AY48" s="35"/>
+      <c r="AZ48" s="15">
+        <f t="shared" si="22"/>
+        <v>8.6448152235857023</v>
+      </c>
+      <c r="BA48" s="35"/>
+      <c r="BB48" s="15">
+        <f t="shared" si="23"/>
+        <v>3.9984073079128772</v>
+      </c>
+      <c r="BC48" s="35"/>
+      <c r="BD48" s="15">
+        <f t="shared" si="24"/>
+        <v>9.1336008233868924</v>
+      </c>
+      <c r="BE48" s="35"/>
+      <c r="BF48" s="15">
+        <f t="shared" si="25"/>
+        <v>15.443793607776866</v>
+      </c>
+    </row>
+    <row r="49" spans="46:58" x14ac:dyDescent="0.25">
+      <c r="AT49" s="13">
+        <v>9</v>
+      </c>
+      <c r="AU49" s="35"/>
+      <c r="AV49" s="15">
+        <f t="shared" si="20"/>
+        <v>4.9532683149133669</v>
+      </c>
+      <c r="AW49" s="35"/>
+      <c r="AX49" s="15">
+        <f t="shared" si="21"/>
+        <v>5.4172236431305274</v>
+      </c>
+      <c r="AY49" s="35"/>
+      <c r="AZ49" s="15">
+        <f t="shared" si="22"/>
+        <v>25.702896723889626</v>
+      </c>
+      <c r="BA49" s="35"/>
+      <c r="BB49" s="15">
+        <f t="shared" si="23"/>
+        <v>13.330408845896887</v>
+      </c>
+      <c r="BC49" s="35"/>
+      <c r="BD49" s="15">
+        <f t="shared" si="24"/>
+        <v>18.931042654781713</v>
+      </c>
+      <c r="BE49" s="35"/>
+      <c r="BF49" s="15">
+        <f t="shared" si="25"/>
+        <v>10.350779874009948</v>
+      </c>
+    </row>
+    <row r="50" spans="46:58" x14ac:dyDescent="0.25">
+      <c r="AT50" s="13">
+        <v>10</v>
+      </c>
+      <c r="AU50" s="35"/>
+      <c r="AV50" s="15">
+        <f t="shared" si="20"/>
+        <v>6.5505861569160908</v>
+      </c>
+      <c r="AW50" s="35"/>
+      <c r="AX50" s="15">
+        <f t="shared" si="21"/>
+        <v>6.3668378335798206</v>
+      </c>
+      <c r="AY50" s="35"/>
+      <c r="AZ50" s="15">
+        <f t="shared" si="22"/>
+        <v>13.346340359871515</v>
+      </c>
+      <c r="BA50" s="35"/>
+      <c r="BB50" s="15">
+        <f t="shared" si="23"/>
+        <v>10.290648376071282</v>
+      </c>
+      <c r="BC50" s="35"/>
+      <c r="BD50" s="15">
+        <f t="shared" si="24"/>
+        <v>12.039227549933516</v>
+      </c>
+      <c r="BE50" s="35"/>
+      <c r="BF50" s="15">
+        <f t="shared" si="25"/>
+        <v>15.043158744170237</v>
+      </c>
+    </row>
+    <row r="51" spans="46:58" x14ac:dyDescent="0.25">
+      <c r="AT51" s="13">
+        <v>11</v>
+      </c>
+      <c r="AU51" s="35"/>
+      <c r="AV51" s="15">
+        <f t="shared" si="20"/>
+        <v>7.4513666531458416</v>
+      </c>
+      <c r="AW51" s="35"/>
+      <c r="AX51" s="15">
+        <f t="shared" si="21"/>
+        <v>9.2279805482748003</v>
+      </c>
+      <c r="AY51" s="35"/>
+      <c r="AZ51" s="15">
+        <f t="shared" si="22"/>
+        <v>24.88547746618142</v>
+      </c>
+      <c r="BA51" s="35"/>
+      <c r="BB51" s="15">
+        <f t="shared" si="23"/>
+        <v>8.2708822987666561</v>
+      </c>
+      <c r="BC51" s="35"/>
+      <c r="BD51" s="15">
+        <f t="shared" si="24"/>
+        <v>12.098504039749232</v>
+      </c>
+      <c r="BE51" s="35"/>
+      <c r="BF51" s="15">
+        <f t="shared" si="25"/>
+        <v>13.379085357391013</v>
+      </c>
+    </row>
+    <row r="52" spans="46:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AT52" s="14">
+        <v>12</v>
+      </c>
+      <c r="AU52" s="35"/>
+      <c r="AV52" s="16">
+        <f t="shared" si="20"/>
+        <v>9.9135445729888882</v>
+      </c>
+      <c r="AW52" s="35"/>
+      <c r="AX52" s="16">
+        <f t="shared" si="21"/>
+        <v>6.4421500292937397</v>
+      </c>
+      <c r="AY52" s="35"/>
+      <c r="AZ52" s="16">
+        <f t="shared" si="22"/>
+        <v>16.956680718839149</v>
+      </c>
+      <c r="BA52" s="35"/>
+      <c r="BB52" s="16">
+        <f t="shared" si="23"/>
+        <v>1.8820866080315783</v>
+      </c>
+      <c r="BC52" s="35"/>
+      <c r="BD52" s="16">
+        <f t="shared" si="24"/>
+        <v>4.6985130627121876</v>
+      </c>
+      <c r="BE52" s="35"/>
+      <c r="BF52" s="16">
+        <f t="shared" si="25"/>
+        <v>7.8662951889666726</v>
+      </c>
+    </row>
+    <row r="53" spans="46:58" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AT53" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU53" s="36"/>
+      <c r="AV53" s="18">
+        <f>AVERAGE(AV41:AV52)</f>
+        <v>6.3640836498666902</v>
+      </c>
+      <c r="AW53" s="36"/>
+      <c r="AX53" s="18">
+        <f>AVERAGE(AX41:AX46,AX48:AX52)</f>
+        <v>6.645200637646874</v>
+      </c>
+      <c r="AY53" s="36"/>
+      <c r="AZ53" s="18">
+        <f>AVERAGE(AZ41:AZ52)</f>
+        <v>17.978915387275347</v>
+      </c>
+      <c r="BA53" s="36"/>
+      <c r="BB53" s="18">
+        <f>AVERAGE(BB41:BB52)</f>
+        <v>7.9464501006021679</v>
+      </c>
+      <c r="BC53" s="36"/>
+      <c r="BD53" s="18">
+        <f>AVERAGE(BD41:BD52)</f>
+        <v>11.37451732749021</v>
+      </c>
+      <c r="BE53" s="36"/>
+      <c r="BF53" s="18">
+        <f>AVERAGE(BF41:BF52)</f>
+        <v>13.580247681367959</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B8:N23">
     <sortCondition ref="B8"/>
   </sortState>
-  <mergeCells count="21">
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AS8:AS20"/>
-    <mergeCell ref="AH4:AT6"/>
-    <mergeCell ref="AI8:AI20"/>
-    <mergeCell ref="AM8:AM20"/>
-    <mergeCell ref="AO8:AO20"/>
-    <mergeCell ref="AQ8:AQ20"/>
-    <mergeCell ref="AK8:AK20"/>
+  <mergeCells count="34">
+    <mergeCell ref="BE41:BE53"/>
+    <mergeCell ref="AU41:AU53"/>
+    <mergeCell ref="AW41:AW53"/>
+    <mergeCell ref="AY41:AY53"/>
+    <mergeCell ref="BA41:BA53"/>
+    <mergeCell ref="BC41:BC53"/>
+    <mergeCell ref="AT37:BF39"/>
     <mergeCell ref="W6:Z6"/>
     <mergeCell ref="W20:Y20"/>
     <mergeCell ref="C20:E20"/>
@@ -2996,6 +4135,21 @@
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="K6:N6"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="BE8:BE20"/>
+    <mergeCell ref="AT4:BF6"/>
+    <mergeCell ref="AU8:AU20"/>
+    <mergeCell ref="AY8:AY20"/>
+    <mergeCell ref="BA8:BA20"/>
+    <mergeCell ref="BC8:BC20"/>
+    <mergeCell ref="AW8:AW20"/>
+    <mergeCell ref="AE6:AH6"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AM6:AP6"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AI20:AK20"/>
+    <mergeCell ref="AM20:AO20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3015,27 +4169,27 @@
   <sheetData>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="53"/>
-      <c r="M4" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
+      <c r="G4" s="56"/>
+      <c r="M4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -3056,13 +4210,13 @@
       <c r="G5">
         <v>426.23431399999998</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
     </row>
     <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6">
@@ -3083,13 +4237,13 @@
       <c r="G6">
         <v>428.14597700000002</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -3154,22 +4308,22 @@
       <c r="M8" s="19">
         <v>1</v>
       </c>
-      <c r="N8" s="38" t="s">
-        <v>21</v>
+      <c r="N8" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="O8" s="20">
         <f>SQRT(($B36-D36)^2+($C36-E36)^2)*1000</f>
         <v>10.498248484307</v>
       </c>
-      <c r="P8" s="50" t="s">
-        <v>22</v>
+      <c r="P8" s="46" t="s">
+        <v>21</v>
       </c>
       <c r="Q8" s="20">
         <f>SQRT(($B36-F36)^2+($C36-G36)^2)*1000</f>
         <v>3.4044954400089718</v>
       </c>
-      <c r="R8" s="38" t="s">
-        <v>23</v>
+      <c r="R8" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="S8" s="20">
         <f>SQRT(($B36-H36)^2+($C36-I36)^2)*1000</f>
@@ -3198,17 +4352,17 @@
       <c r="M9" s="13">
         <v>2</v>
       </c>
-      <c r="N9" s="39"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="15">
         <f t="shared" ref="O9:O19" si="0">SQRT(($B37-D37)^2+($C37-E37)^2)*1000</f>
         <v>4.7318884606702278</v>
       </c>
-      <c r="P9" s="51"/>
+      <c r="P9" s="47"/>
       <c r="Q9" s="15">
         <f t="shared" ref="Q9:Q19" si="1">SQRT(($B37-F37)^2+($C37-G37)^2)*1000</f>
         <v>2.3194347445537233</v>
       </c>
-      <c r="R9" s="39"/>
+      <c r="R9" s="35"/>
       <c r="S9" s="15">
         <f t="shared" ref="S9:S19" si="2">SQRT(($B37-H37)^2+($C37-I37)^2)*1000</f>
         <v>2.495176168321751</v>
@@ -3236,17 +4390,17 @@
       <c r="M10" s="13">
         <v>3</v>
       </c>
-      <c r="N10" s="39"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="15">
         <f t="shared" si="0"/>
         <v>7.4215967779334457</v>
       </c>
-      <c r="P10" s="51"/>
+      <c r="P10" s="47"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
         <v>5.7784964913816053</v>
       </c>
-      <c r="R10" s="39"/>
+      <c r="R10" s="35"/>
       <c r="S10" s="15">
         <f t="shared" si="2"/>
         <v>5.6784069459892166</v>
@@ -3274,17 +4428,17 @@
       <c r="M11" s="13">
         <v>4</v>
       </c>
-      <c r="N11" s="39"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="15">
         <f t="shared" si="0"/>
         <v>3.5862501636508748</v>
       </c>
-      <c r="P11" s="51"/>
+      <c r="P11" s="47"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
         <v>2.0195317199966012</v>
       </c>
-      <c r="R11" s="39"/>
+      <c r="R11" s="35"/>
       <c r="S11" s="15">
         <f t="shared" si="2"/>
         <v>5.868727895450518</v>
@@ -3312,17 +4466,17 @@
       <c r="M12" s="13">
         <v>5</v>
       </c>
-      <c r="N12" s="39"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="15">
         <f t="shared" si="0"/>
         <v>8.0467925746322759</v>
       </c>
-      <c r="P12" s="51"/>
+      <c r="P12" s="47"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
         <v>6.7245607689675992</v>
       </c>
-      <c r="R12" s="39"/>
+      <c r="R12" s="35"/>
       <c r="S12" s="15">
         <f t="shared" si="2"/>
         <v>2.4369476353910886</v>
@@ -3350,17 +4504,17 @@
       <c r="M13" s="13">
         <v>6</v>
       </c>
-      <c r="N13" s="39"/>
+      <c r="N13" s="35"/>
       <c r="O13" s="15">
         <f t="shared" si="0"/>
         <v>9.212471333510921</v>
       </c>
-      <c r="P13" s="51"/>
+      <c r="P13" s="47"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
         <v>10.048059507630962</v>
       </c>
-      <c r="R13" s="39"/>
+      <c r="R13" s="35"/>
       <c r="S13" s="15">
         <f t="shared" si="2"/>
         <v>2.8408114059972918</v>
@@ -3388,17 +4542,17 @@
       <c r="M14" s="13">
         <v>7</v>
       </c>
-      <c r="N14" s="39"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="15">
         <f t="shared" si="0"/>
         <v>9.1770905375313809</v>
       </c>
-      <c r="P14" s="51"/>
+      <c r="P14" s="47"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
         <v>10.40894637003726</v>
       </c>
-      <c r="R14" s="39"/>
+      <c r="R14" s="35"/>
       <c r="S14" s="15">
         <f t="shared" si="2"/>
         <v>7.9818093882837635</v>
@@ -3426,17 +4580,17 @@
       <c r="M15" s="13">
         <v>8</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="35"/>
       <c r="O15" s="15">
         <f t="shared" si="0"/>
         <v>7.3529851126477395</v>
       </c>
-      <c r="P15" s="51"/>
+      <c r="P15" s="47"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
         <v>1.4825614213427625</v>
       </c>
-      <c r="R15" s="39"/>
+      <c r="R15" s="35"/>
       <c r="S15" s="15">
         <f t="shared" si="2"/>
         <v>1.7489418070677214</v>
@@ -3464,17 +4618,17 @@
       <c r="M16" s="13">
         <v>9</v>
       </c>
-      <c r="N16" s="39"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="15">
         <f t="shared" si="0"/>
         <v>7.0168114128968693</v>
       </c>
-      <c r="P16" s="51"/>
+      <c r="P16" s="47"/>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
         <v>10.063630435148001</v>
       </c>
-      <c r="R16" s="39"/>
+      <c r="R16" s="35"/>
       <c r="S16" s="15">
         <f t="shared" si="2"/>
         <v>3.9814333823499592</v>
@@ -3484,53 +4638,53 @@
       <c r="M17" s="13">
         <v>10</v>
       </c>
-      <c r="N17" s="39"/>
+      <c r="N17" s="35"/>
       <c r="O17" s="15">
         <f t="shared" si="0"/>
         <v>6.2833183567095876</v>
       </c>
-      <c r="P17" s="51"/>
+      <c r="P17" s="47"/>
       <c r="Q17" s="15">
         <f t="shared" si="1"/>
         <v>8.2871469780187876</v>
       </c>
-      <c r="R17" s="39"/>
+      <c r="R17" s="35"/>
       <c r="S17" s="15">
         <f t="shared" si="2"/>
         <v>8.3228768530904098</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53" t="s">
+      <c r="G18" s="56"/>
+      <c r="H18" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="53"/>
+      <c r="I18" s="56"/>
       <c r="M18" s="13">
         <v>11</v>
       </c>
-      <c r="N18" s="39"/>
+      <c r="N18" s="35"/>
       <c r="O18" s="15">
         <f t="shared" si="0"/>
         <v>7.4279606151748352</v>
       </c>
-      <c r="P18" s="51"/>
+      <c r="P18" s="47"/>
       <c r="Q18" s="15">
         <f t="shared" si="1"/>
         <v>15.615454706761716</v>
       </c>
-      <c r="R18" s="39"/>
+      <c r="R18" s="35"/>
       <c r="S18" s="15">
         <f t="shared" si="2"/>
         <v>1.4009162873900554</v>
@@ -3573,17 +4727,17 @@
       <c r="M19" s="14">
         <v>12</v>
       </c>
-      <c r="N19" s="39"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="16">
         <f t="shared" si="0"/>
         <v>5.0017536992883951</v>
       </c>
-      <c r="P19" s="51"/>
+      <c r="P19" s="47"/>
       <c r="Q19" s="16">
         <f t="shared" si="1"/>
         <v>3.0953428245615253</v>
       </c>
-      <c r="R19" s="39"/>
+      <c r="R19" s="35"/>
       <c r="S19" s="16">
         <f t="shared" si="2"/>
         <v>2.0201086054186828</v>
@@ -3626,17 +4780,17 @@
       <c r="M20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="N20" s="40"/>
+      <c r="N20" s="36"/>
       <c r="O20" s="18">
         <f>AVERAGE(O8:O19)</f>
         <v>7.1464306274127951</v>
       </c>
-      <c r="P20" s="52"/>
+      <c r="P20" s="48"/>
       <c r="Q20" s="18">
         <f>AVERAGE(Q8:Q19)</f>
         <v>6.6039717840341261</v>
       </c>
-      <c r="R20" s="40"/>
+      <c r="R20" s="36"/>
       <c r="S20" s="18">
         <f>AVERAGE(S8:S19)</f>
         <v>3.9469215659162269</v>
@@ -4031,7 +5185,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <f t="shared" ref="B32:G32" si="8">B31-100</f>
@@ -4102,7 +5256,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35">
         <f>B32</f>
@@ -4586,17 +5740,17 @@
     <sortCondition ref="F5"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M4:S6"/>
+    <mergeCell ref="N8:N20"/>
+    <mergeCell ref="P8:P20"/>
+    <mergeCell ref="R8:R20"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M4:S6"/>
-    <mergeCell ref="N8:N20"/>
-    <mergeCell ref="P8:P20"/>
-    <mergeCell ref="R8:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/7_figure/comp-coord.xlsx
+++ b/7_figure/comp-coord.xlsx
@@ -16,6 +16,7 @@
     <sheet name="plan facade" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="57">
   <si>
     <t>Id Point</t>
   </si>
@@ -176,6 +177,27 @@
   <si>
     <t>Comparaison des coordonnées restituées par rapport aux points levés au MS60 pour les scans</t>
   </si>
+  <si>
+    <t>Sur nuage (3DReshaper)</t>
+  </si>
+  <si>
+    <t>Sur nuage P40 (3DReshaper)</t>
+  </si>
+  <si>
+    <t>Sur nuage Faro (3DReshaper)</t>
+  </si>
+  <si>
+    <t>Sur nuage</t>
+  </si>
+  <si>
+    <t>Sur nuage photo (3DR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P40 VirtuSurv sans couleur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P40 VirtuSurv sans texturation (P40)</t>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -595,11 +617,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -678,6 +711,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,14 +735,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -727,6 +775,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -734,18 +791,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,15 +802,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1091,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:BJ53"/>
+  <dimension ref="B3:BZ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AZ26" sqref="AZ26"/>
+    <sheetView tabSelected="1" topLeftCell="BB25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BT57" sqref="BT57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,122 +1143,148 @@
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.7109375" customWidth="1"/>
-    <col min="34" max="34" width="7.7109375" customWidth="1"/>
-    <col min="61" max="61" width="25.28515625" customWidth="1"/>
-    <col min="62" max="62" width="18.42578125" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" customWidth="1"/>
+    <col min="42" max="42" width="7.7109375" customWidth="1"/>
+    <col min="77" max="77" width="25.28515625" customWidth="1"/>
+    <col min="78" max="78" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:58" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:58" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AT4" s="37" t="s">
+    <row r="3" spans="2:74" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:74" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BJ4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="39"/>
-    </row>
-    <row r="5" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="42"/>
-    </row>
-    <row r="6" spans="2:58" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BK4" s="43"/>
+      <c r="BL4" s="43"/>
+      <c r="BM4" s="43"/>
+      <c r="BN4" s="43"/>
+      <c r="BO4" s="43"/>
+      <c r="BP4" s="43"/>
+      <c r="BQ4" s="43"/>
+      <c r="BR4" s="43"/>
+      <c r="BS4" s="43"/>
+      <c r="BT4" s="43"/>
+      <c r="BU4" s="43"/>
+      <c r="BV4" s="44"/>
+    </row>
+    <row r="5" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="46"/>
+      <c r="BL5" s="46"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="46"/>
+      <c r="BO5" s="46"/>
+      <c r="BP5" s="46"/>
+      <c r="BQ5" s="46"/>
+      <c r="BR5" s="46"/>
+      <c r="BS5" s="46"/>
+      <c r="BT5" s="46"/>
+      <c r="BU5" s="46"/>
+      <c r="BV5" s="47"/>
+    </row>
+    <row r="6" spans="2:74" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="30" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="53" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="49" t="s">
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="30" t="s">
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="49" t="s">
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="30" t="s">
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30" t="s">
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="49" t="s">
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="30" t="s">
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AT6" s="43"/>
-      <c r="AU6" s="44"/>
-      <c r="AV6" s="44"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="44"/>
-      <c r="AY6" s="44"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="44"/>
-      <c r="BC6" s="44"/>
-      <c r="BD6" s="44"/>
-      <c r="BE6" s="44"/>
-      <c r="BF6" s="45"/>
-    </row>
-    <row r="7" spans="2:58" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD6" s="34"/>
+      <c r="BE6" s="34"/>
+      <c r="BF6" s="34"/>
+      <c r="BJ6" s="48"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
+      <c r="BQ6" s="49"/>
+      <c r="BR6" s="49"/>
+      <c r="BS6" s="49"/>
+      <c r="BT6" s="49"/>
+      <c r="BU6" s="49"/>
+      <c r="BV6" s="50"/>
+    </row>
+    <row r="7" spans="2:74" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1274,40 +1336,40 @@
       <c r="R7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="W7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AB7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AC7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AD7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE7" s="2" t="s">
@@ -1346,47 +1408,95 @@
       <c r="AP7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AT7" s="21" t="s">
+      <c r="AQ7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AU7" s="22" t="s">
+      <c r="BK7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AV7" s="23" t="s">
+      <c r="BL7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AW7" s="22" t="s">
+      <c r="BM7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AX7" s="23" t="s">
+      <c r="BN7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AY7" s="22" t="s">
+      <c r="BO7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AZ7" s="23" t="s">
+      <c r="BP7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BA7" s="22" t="s">
+      <c r="BQ7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BB7" s="23" t="s">
+      <c r="BR7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BC7" s="22" t="s">
+      <c r="BS7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BD7" s="23" t="s">
+      <c r="BT7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BE7" s="22" t="s">
+      <c r="BU7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BF7" s="23" t="s">
+      <c r="BV7" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>1</v>
       </c>
@@ -1441,131 +1551,183 @@
         <f>SQRT(($C8-O8)^2+($D8-P8)^2+($E8-Q8)^2)*1000</f>
         <v>10.722318266112959</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="9">
+        <v>626.06243900000004</v>
+      </c>
+      <c r="T8" s="9">
+        <v>427.80032</v>
+      </c>
+      <c r="U8" s="9">
+        <v>501.74633</v>
+      </c>
+      <c r="V8" s="10">
+        <f>SQRT(($C8-S8)^2+($D8-T8)^2+($E8-U8)^2)*1000</f>
+        <v>11.750830651490961</v>
+      </c>
+      <c r="W8" s="7">
         <v>626.05047000000002</v>
       </c>
-      <c r="T8" s="7">
+      <c r="X8" s="7">
         <v>427.80314700000002</v>
       </c>
-      <c r="U8" s="7">
+      <c r="Y8" s="7">
         <v>501.75433399999997</v>
       </c>
-      <c r="V8" s="8">
-        <f t="shared" ref="V8:V11" si="0">SQRT(($C8-S8)^2+($D8-T8)^2+($E8-U8)^2)*1000</f>
+      <c r="Z8" s="8">
+        <f t="shared" ref="Z8:Z19" si="0">SQRT(($C8-W8)^2+($D8-X8)^2+($E8-Y8)^2)*1000</f>
         <v>6.2157915826990688</v>
       </c>
-      <c r="W8" s="9">
+      <c r="AA8" s="9">
         <v>626.04434000000003</v>
       </c>
-      <c r="X8" s="9">
+      <c r="AB8" s="9">
         <v>427.80079999999998</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="AC8" s="9">
         <v>501.75607000000002</v>
       </c>
-      <c r="Z8" s="10">
-        <f t="shared" ref="Z8:Z17" si="1">SQRT(($C8-W8)^2+($D8-X8)^2+($E8-Y8)^2)*1000</f>
+      <c r="AD8" s="10">
+        <f t="shared" ref="AD8:AD17" si="1">SQRT(($C8-AA8)^2+($D8-AB8)^2+($E8-AC8)^2)*1000</f>
         <v>9.7457939645817468</v>
       </c>
-      <c r="AA8" s="24">
+      <c r="AE8" s="24">
         <v>626.05460000000005</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AF8" s="7">
         <v>427.80513999999999</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AG8" s="7">
         <v>501.74522000000002</v>
       </c>
-      <c r="AD8" s="8">
-        <f t="shared" ref="AD8:AD13" si="2">SQRT(($C8-AA8)^2+($D8-AB8)^2+($E8-AC8)^2)*1000</f>
+      <c r="AH8" s="8">
+        <f t="shared" ref="AH8:AH13" si="2">SQRT(($C8-AE8)^2+($D8-AF8)^2+($E8-AG8)^2)*1000</f>
         <v>7.3258446611918986</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AI8" s="9">
+        <v>626.04774199999997</v>
+      </c>
+      <c r="AJ8" s="9">
+        <v>427.80025000000001</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>501.74937999999997</v>
+      </c>
+      <c r="AL8" s="10">
+        <f t="shared" ref="AL8:AL17" si="3">SQRT(($C8-AI8)^2+($D8-AJ8)^2+($E8-AK8)^2)*1000</f>
+        <v>3.2895993677707787</v>
+      </c>
+      <c r="AM8" s="7">
         <v>626.05313100000001</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AN8" s="7">
         <v>427.79934300000002</v>
       </c>
-      <c r="AG8" s="7">
+      <c r="AO8" s="7">
         <v>501.75599999999997</v>
       </c>
-      <c r="AH8" s="8">
-        <f t="shared" ref="AH8:AH17" si="3">SQRT(($C8-AE8)^2+($D8-AF8)^2+($E8-AG8)^2)*1000</f>
+      <c r="AP8" s="8">
+        <f t="shared" ref="AP8:AP17" si="4">SQRT(($C8-AM8)^2+($D8-AN8)^2+($E8-AO8)^2)*1000</f>
         <v>7.3466189501772234</v>
       </c>
-      <c r="AI8" s="9">
+      <c r="AQ8" s="9">
         <v>626.04630299999997</v>
       </c>
-      <c r="AJ8" s="9">
+      <c r="AR8" s="9">
         <v>427.79716000000002</v>
       </c>
-      <c r="AK8" s="9">
+      <c r="AS8" s="9">
         <v>501.76528999999999</v>
       </c>
-      <c r="AL8" s="10">
-        <f t="shared" ref="AL8:AL17" si="4">SQRT(($C8-AI8)^2+($D8-AJ8)^2+($E8-AK8)^2)*1000</f>
+      <c r="AT8" s="10">
+        <f t="shared" ref="AT8:AT13" si="5">SQRT(($C8-AQ8)^2+($D8-AR8)^2+($E8-AS8)^2)*1000</f>
         <v>17.189866462532407</v>
       </c>
-      <c r="AM8" s="24">
+      <c r="AU8" s="24">
         <v>626.05314999999996</v>
       </c>
-      <c r="AN8" s="7">
+      <c r="AV8" s="7">
         <v>427.79669999999999</v>
       </c>
-      <c r="AO8" s="7">
+      <c r="AW8" s="7">
         <v>501.73970000000003</v>
       </c>
-      <c r="AP8" s="8">
-        <f t="shared" ref="AP8:AP13" si="5">SQRT(($C8-AM8)^2+($D8-AN8)^2+($E8-AO8)^2)*1000</f>
+      <c r="AX8" s="8">
+        <f t="shared" ref="AX8:AX13" si="6">SQRT(($C8-AU8)^2+($D8-AV8)^2+($E8-AW8)^2)*1000</f>
         <v>10.099628706032824</v>
       </c>
-      <c r="AT8" s="19">
+      <c r="AY8" s="9">
+        <v>626.04849999999999</v>
+      </c>
+      <c r="AZ8" s="9">
+        <v>427.79668800000002</v>
+      </c>
+      <c r="BA8" s="9">
+        <v>501.76058499999999</v>
+      </c>
+      <c r="BB8" s="10">
+        <f t="shared" ref="BB8:BB17" si="7">SQRT(($C8-AY8)^2+($D8-AZ8)^2+($E8-BA8)^2)*1000</f>
+        <v>12.305753491741021</v>
+      </c>
+      <c r="BC8" s="24">
+        <v>626.05077484000003</v>
+      </c>
+      <c r="BD8" s="7">
+        <v>427.79721499999999</v>
+      </c>
+      <c r="BE8" s="7">
+        <v>501.75298980000002</v>
+      </c>
+      <c r="BF8" s="8">
+        <f t="shared" ref="BF8:BF13" si="8">SQRT(($C8-BC8)^2+($D8-BD8)^2+($E8-BE8)^2)*1000</f>
+        <v>4.8708752874300325</v>
+      </c>
+      <c r="BJ8" s="19">
         <v>1</v>
       </c>
-      <c r="AU8" s="34" t="s">
+      <c r="BK8" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AV8" s="20">
+      <c r="BL8" s="20">
         <f>I8</f>
         <v>12.316449853758112</v>
       </c>
-      <c r="AW8" s="34" t="s">
+      <c r="BM8" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AX8" s="20">
+      <c r="BN8" s="20">
         <f>N8</f>
         <v>22.219684561154992</v>
       </c>
-      <c r="AY8" s="46" t="s">
+      <c r="BO8" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="AZ8" s="20">
+      <c r="BP8" s="20">
         <f>R8</f>
         <v>10.722318266112959</v>
       </c>
-      <c r="BA8" s="34" t="s">
+      <c r="BQ8" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="BB8" s="20">
-        <f>V8</f>
+      <c r="BR8" s="20">
+        <f>Z8</f>
         <v>6.2157915826990688</v>
       </c>
-      <c r="BC8" s="34" t="s">
+      <c r="BS8" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="BD8" s="20">
-        <f>Z8</f>
+      <c r="BT8" s="20">
+        <f>AD8</f>
         <v>9.7457939645817468</v>
       </c>
-      <c r="BE8" s="34" t="s">
+      <c r="BU8" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="BF8" s="20">
-        <f>AD8</f>
+      <c r="BV8" s="20">
+        <f>AH8</f>
         <v>7.3258446611918986</v>
       </c>
     </row>
-    <row r="9" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -1588,7 +1750,7 @@
         <v>501.765061</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" ref="I9:I19" si="6">SQRT((C9-F9)^2+(D9-G9)^2+(E9-H9)^2)*1000</f>
+        <f t="shared" ref="I9:I19" si="9">SQRT((C9-F9)^2+(D9-G9)^2+(E9-H9)^2)*1000</f>
         <v>7.5532746540863549</v>
       </c>
       <c r="J9" s="7">
@@ -1604,7 +1766,7 @@
         <v>501.77569999999997</v>
       </c>
       <c r="N9" s="26">
-        <f t="shared" ref="N9:N19" si="7">SQRT(($C9-K9)^2+($D9-L9)^2+($E9-M9)^2)*1000</f>
+        <f t="shared" ref="N9:N19" si="10">SQRT(($C9-K9)^2+($D9-L9)^2+($E9-M9)^2)*1000</f>
         <v>17.552557448942494</v>
       </c>
       <c r="O9" s="9">
@@ -1617,122 +1779,174 @@
         <v>501.76668999999998</v>
       </c>
       <c r="R9" s="10">
-        <f t="shared" ref="R9:R19" si="8">SQRT(($C9-O9)^2+($D9-P9)^2+($E9-Q9)^2)*1000</f>
+        <f t="shared" ref="R9:R19" si="11">SQRT(($C9-O9)^2+($D9-P9)^2+($E9-Q9)^2)*1000</f>
         <v>8.2232736181673314</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="9">
+        <v>626.93420400000002</v>
+      </c>
+      <c r="T9" s="9">
+        <v>428.02377300000001</v>
+      </c>
+      <c r="U9" s="9">
+        <v>501.76632699999999</v>
+      </c>
+      <c r="V9" s="10">
+        <f t="shared" ref="V9:V19" si="12">SQRT(($C9-S9)^2+($D9-T9)^2+($E9-U9)^2)*1000</f>
+        <v>8.2784101130600103</v>
+      </c>
+      <c r="W9" s="7">
         <v>626.92587200000003</v>
       </c>
-      <c r="T9" s="7">
+      <c r="X9" s="7">
         <v>428.01602700000001</v>
       </c>
-      <c r="U9" s="7">
+      <c r="Y9" s="7">
         <v>501.76801999999998</v>
       </c>
-      <c r="V9" s="8">
+      <c r="Z9" s="8">
         <f t="shared" si="0"/>
         <v>6.392926794497038</v>
       </c>
-      <c r="W9" s="9">
+      <c r="AA9" s="9">
         <v>626.92535499999997</v>
       </c>
-      <c r="X9" s="9">
+      <c r="AB9" s="9">
         <v>428.02100000000002</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="AC9" s="9">
         <v>501.76931999999999</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="AD9" s="10">
         <f t="shared" si="1"/>
         <v>2.0416721088637151</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AE9" s="7">
         <v>626.93131600000004</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AF9" s="7">
         <v>428.02042</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AG9" s="7">
         <v>501.75719880000003</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AH9" s="8">
         <f t="shared" si="2"/>
         <v>13.601285874467283</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AI9" s="9">
+        <v>626.92546000000004</v>
+      </c>
+      <c r="AJ9" s="9">
+        <v>428.02118999999999</v>
+      </c>
+      <c r="AK9" s="9">
+        <v>501.76793900000001</v>
+      </c>
+      <c r="AL9" s="10">
+        <f t="shared" si="3"/>
+        <v>2.697298833982829</v>
+      </c>
+      <c r="AM9" s="7">
         <v>626.92742999999996</v>
       </c>
-      <c r="AF9" s="7">
+      <c r="AN9" s="7">
         <v>428.018866</v>
       </c>
-      <c r="AG9" s="7">
+      <c r="AO9" s="7">
         <v>501.78028</v>
       </c>
-      <c r="AH9" s="8">
-        <f t="shared" si="3"/>
+      <c r="AP9" s="8">
+        <f t="shared" si="4"/>
         <v>10.755708065968818</v>
       </c>
-      <c r="AI9" s="9">
+      <c r="AQ9" s="9">
         <v>626.92881299999999</v>
       </c>
-      <c r="AJ9" s="9">
+      <c r="AR9" s="9">
         <v>428.02152999999998</v>
       </c>
-      <c r="AK9" s="9">
+      <c r="AS9" s="9">
         <v>501.78445399999998</v>
       </c>
-      <c r="AL9" s="10">
-        <f t="shared" si="4"/>
+      <c r="AT9" s="10">
+        <f t="shared" si="5"/>
         <v>14.57484082245554</v>
       </c>
-      <c r="AM9" s="7">
+      <c r="AU9" s="7">
         <v>626.93456389999994</v>
       </c>
-      <c r="AN9" s="7">
+      <c r="AV9" s="7">
         <v>428.02024</v>
       </c>
-      <c r="AO9" s="7">
+      <c r="AW9" s="7">
         <v>501.75959</v>
       </c>
-      <c r="AP9" s="8">
-        <f t="shared" si="5"/>
+      <c r="AX9" s="8">
+        <f t="shared" si="6"/>
         <v>12.987620382824526</v>
       </c>
-      <c r="AT9" s="13">
+      <c r="AY9" s="9">
+        <v>626.92964800000004</v>
+      </c>
+      <c r="AZ9" s="9">
+        <v>428.02079199999997</v>
+      </c>
+      <c r="BA9" s="9">
+        <v>501.77973400000002</v>
+      </c>
+      <c r="BB9" s="10">
+        <f t="shared" si="7"/>
+        <v>10.159819092921303</v>
+      </c>
+      <c r="BC9" s="7">
+        <v>626.92577896</v>
+      </c>
+      <c r="BD9" s="7">
+        <v>428.02276799999999</v>
+      </c>
+      <c r="BE9" s="7">
+        <v>501.76514800000001</v>
+      </c>
+      <c r="BF9" s="8">
+        <f t="shared" si="8"/>
+        <v>5.0618837087942081</v>
+      </c>
+      <c r="BJ9" s="13">
         <v>2</v>
       </c>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="15">
-        <f t="shared" ref="AV9:AV19" si="9">I9</f>
+      <c r="BK9" s="52"/>
+      <c r="BL9" s="15">
+        <f t="shared" ref="BL9:BL19" si="13">I9</f>
         <v>7.5532746540863549</v>
       </c>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="15">
-        <f t="shared" ref="AX9:AX19" si="10">N9</f>
+      <c r="BM9" s="52"/>
+      <c r="BN9" s="15">
+        <f t="shared" ref="BN9:BN19" si="14">N9</f>
         <v>17.552557448942494</v>
       </c>
-      <c r="AY9" s="47"/>
-      <c r="AZ9" s="15">
-        <f t="shared" ref="AZ9:AZ19" si="11">R9</f>
+      <c r="BO9" s="55"/>
+      <c r="BP9" s="15">
+        <f t="shared" ref="BP9:BP19" si="15">R9</f>
         <v>8.2232736181673314</v>
       </c>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="15">
-        <f t="shared" ref="BB9:BB19" si="12">V9</f>
+      <c r="BQ9" s="52"/>
+      <c r="BR9" s="15">
+        <f t="shared" ref="BR9:BR19" si="16">Z9</f>
         <v>6.392926794497038</v>
       </c>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="15">
-        <f t="shared" ref="BD9:BD19" si="13">Z9</f>
+      <c r="BS9" s="52"/>
+      <c r="BT9" s="15">
+        <f t="shared" ref="BT9:BT19" si="17">AD9</f>
         <v>2.0416721088637151</v>
       </c>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="15">
-        <f t="shared" ref="BF9:BF19" si="14">AD9</f>
+      <c r="BU9" s="52"/>
+      <c r="BV9" s="15">
+        <f t="shared" ref="BV9:BV19" si="18">AH9</f>
         <v>13.601285874467283</v>
       </c>
     </row>
-    <row r="10" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -1755,7 +1969,7 @@
         <v>499.82452899999998</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16.151616946983687</v>
       </c>
       <c r="J10" s="7">
@@ -1771,7 +1985,7 @@
         <v>499.84338000000002</v>
       </c>
       <c r="N10" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>19.83418818612358</v>
       </c>
       <c r="O10" s="9">
@@ -1784,122 +1998,174 @@
         <v>499.83195999999998</v>
       </c>
       <c r="R10" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>12.385548029956054</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="9">
+        <v>626.05773899999997</v>
+      </c>
+      <c r="T10" s="9">
+        <v>427.830536</v>
+      </c>
+      <c r="U10" s="9">
+        <v>499.834564</v>
+      </c>
+      <c r="V10" s="10">
+        <f t="shared" si="12"/>
+        <v>23.796586162748344</v>
+      </c>
+      <c r="W10" s="7">
         <v>626.04602699999998</v>
       </c>
-      <c r="T10" s="7">
+      <c r="X10" s="7">
         <v>427.81730199999998</v>
       </c>
-      <c r="U10" s="7">
+      <c r="Y10" s="7">
         <v>499.83649100000002</v>
       </c>
-      <c r="V10" s="8">
+      <c r="Z10" s="8">
         <f t="shared" si="0"/>
         <v>12.835303424595075</v>
       </c>
-      <c r="W10" s="9">
+      <c r="AA10" s="9">
         <v>626.0326</v>
       </c>
-      <c r="X10" s="9">
+      <c r="AB10" s="9">
         <v>427.82389999999998</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="AC10" s="9">
         <v>499.8329</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="AD10" s="10">
         <f t="shared" si="1"/>
         <v>4.8559242168291092</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AE10" s="7">
         <v>626.05251999999996</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AF10" s="7">
         <v>427.8254</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AG10" s="7">
         <v>499.82700999999997</v>
       </c>
-      <c r="AD10" s="8">
+      <c r="AH10" s="8">
         <f t="shared" si="2"/>
         <v>17.129229404749246</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AI10" s="9">
+        <v>626.04066999999998</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>427.82769000000002</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>499.83434899999997</v>
+      </c>
+      <c r="AL10" s="10">
+        <f t="shared" si="3"/>
+        <v>8.5497836814975265</v>
+      </c>
+      <c r="AM10" s="7">
         <v>626.045704</v>
       </c>
-      <c r="AF10" s="7">
+      <c r="AN10" s="7">
         <v>427.823036</v>
       </c>
-      <c r="AG10" s="7">
+      <c r="AO10" s="7">
         <v>499.83800000000002</v>
       </c>
-      <c r="AH10" s="8">
-        <f t="shared" si="3"/>
+      <c r="AP10" s="8">
+        <f t="shared" si="4"/>
         <v>12.619069379383665</v>
       </c>
-      <c r="AI10" s="9">
+      <c r="AQ10" s="9">
         <v>626.03128900000002</v>
       </c>
-      <c r="AJ10" s="9">
+      <c r="AR10" s="9">
         <v>427.81797999999998</v>
       </c>
-      <c r="AK10" s="9">
+      <c r="AS10" s="9">
         <v>499.84391499999998</v>
       </c>
-      <c r="AL10" s="10">
-        <f t="shared" si="4"/>
+      <c r="AT10" s="10">
+        <f t="shared" si="5"/>
         <v>15.230927286264009</v>
       </c>
-      <c r="AM10" s="7">
+      <c r="AU10" s="7">
         <v>626.04390000000001</v>
       </c>
-      <c r="AN10" s="7">
+      <c r="AV10" s="7">
         <v>427.82772</v>
       </c>
-      <c r="AO10" s="7">
+      <c r="AW10" s="7">
         <v>499.83424000000002</v>
       </c>
-      <c r="AP10" s="8">
-        <f t="shared" si="5"/>
+      <c r="AX10" s="8">
+        <f t="shared" si="6"/>
         <v>10.635130464704577</v>
       </c>
-      <c r="AT10" s="13">
+      <c r="AY10" s="9">
+        <v>626.04603999999995</v>
+      </c>
+      <c r="AZ10" s="9">
+        <v>427.82400000000001</v>
+      </c>
+      <c r="BA10" s="9">
+        <v>499.84075999999999</v>
+      </c>
+      <c r="BB10" s="10">
+        <f t="shared" si="7"/>
+        <v>14.851908968217286</v>
+      </c>
+      <c r="BC10" s="7">
+        <v>626.04027801999996</v>
+      </c>
+      <c r="BD10" s="7">
+        <v>427.82931869999999</v>
+      </c>
+      <c r="BE10" s="7">
+        <v>499.83692184</v>
+      </c>
+      <c r="BF10" s="8">
+        <f t="shared" si="8"/>
+        <v>10.944253916835038</v>
+      </c>
+      <c r="BJ10" s="13">
         <v>3</v>
       </c>
-      <c r="AU10" s="35"/>
-      <c r="AV10" s="15">
-        <f t="shared" si="9"/>
+      <c r="BK10" s="52"/>
+      <c r="BL10" s="15">
+        <f t="shared" si="13"/>
         <v>16.151616946983687</v>
       </c>
-      <c r="AW10" s="35"/>
-      <c r="AX10" s="15">
-        <f t="shared" si="10"/>
+      <c r="BM10" s="52"/>
+      <c r="BN10" s="15">
+        <f t="shared" si="14"/>
         <v>19.83418818612358</v>
       </c>
-      <c r="AY10" s="47"/>
-      <c r="AZ10" s="15">
-        <f t="shared" si="11"/>
+      <c r="BO10" s="55"/>
+      <c r="BP10" s="15">
+        <f t="shared" si="15"/>
         <v>12.385548029956054</v>
       </c>
-      <c r="BA10" s="35"/>
-      <c r="BB10" s="15">
-        <f t="shared" si="12"/>
+      <c r="BQ10" s="52"/>
+      <c r="BR10" s="15">
+        <f t="shared" si="16"/>
         <v>12.835303424595075</v>
       </c>
-      <c r="BC10" s="35"/>
-      <c r="BD10" s="15">
-        <f t="shared" si="13"/>
+      <c r="BS10" s="52"/>
+      <c r="BT10" s="15">
+        <f t="shared" si="17"/>
         <v>4.8559242168291092</v>
       </c>
-      <c r="BE10" s="35"/>
-      <c r="BF10" s="15">
-        <f t="shared" si="14"/>
+      <c r="BU10" s="52"/>
+      <c r="BV10" s="15">
+        <f t="shared" si="18"/>
         <v>17.129229404749246</v>
       </c>
     </row>
-    <row r="11" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -1922,7 +2188,7 @@
         <v>499.83233899999999</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.364618163395027</v>
       </c>
       <c r="J11" s="7">
@@ -1938,7 +2204,7 @@
         <v>499.87097599999998</v>
       </c>
       <c r="N11" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>30.096041733069814</v>
       </c>
       <c r="O11" s="9">
@@ -1951,122 +2217,174 @@
         <v>499.83390000000003</v>
       </c>
       <c r="R11" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10.590769613215583</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="9">
+        <v>626.93780500000003</v>
+      </c>
+      <c r="T11" s="9">
+        <v>428.03170799999998</v>
+      </c>
+      <c r="U11" s="9">
+        <v>499.842804</v>
+      </c>
+      <c r="V11" s="10">
+        <f t="shared" si="12"/>
+        <v>13.394614776086861</v>
+      </c>
+      <c r="W11" s="7">
         <v>626.92441799999995</v>
       </c>
-      <c r="T11" s="7">
+      <c r="X11" s="7">
         <v>428.030981</v>
       </c>
-      <c r="U11" s="7">
+      <c r="Y11" s="7">
         <v>499.84141299999999</v>
       </c>
-      <c r="V11" s="8">
+      <c r="Z11" s="8">
         <f t="shared" si="0"/>
         <v>7.4546397632827741</v>
       </c>
-      <c r="W11" s="9">
+      <c r="AA11" s="9">
         <v>626.9289</v>
       </c>
-      <c r="X11" s="9">
+      <c r="AB11" s="9">
         <v>428.02789999999999</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="AC11" s="9">
         <v>499.84039999999999</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="AD11" s="10">
         <f t="shared" si="1"/>
         <v>4.3794976880734806</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AE11" s="7">
         <v>626.93062999999995</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AF11" s="7">
         <v>428.024877</v>
       </c>
-      <c r="AC11" s="7">
+      <c r="AG11" s="7">
         <v>499.827</v>
       </c>
-      <c r="AD11" s="8">
+      <c r="AH11" s="8">
         <f t="shared" si="2"/>
         <v>14.489514450104156</v>
       </c>
-      <c r="AE11" s="7">
+      <c r="AI11" s="9">
+        <v>626.92282</v>
+      </c>
+      <c r="AJ11" s="9">
+        <v>428.02341999999999</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>499.83580899999998</v>
+      </c>
+      <c r="AL11" s="10">
+        <f t="shared" si="3"/>
+        <v>6.6899387889901858</v>
+      </c>
+      <c r="AM11" s="7">
         <v>626.92529999999999</v>
       </c>
-      <c r="AF11" s="7">
+      <c r="AN11" s="7">
         <v>428.02621399999998</v>
       </c>
-      <c r="AG11" s="7">
+      <c r="AO11" s="7">
         <v>499.84698800000001</v>
       </c>
-      <c r="AH11" s="8">
-        <f t="shared" si="3"/>
+      <c r="AP11" s="8">
+        <f t="shared" si="4"/>
         <v>6.6066587621910369</v>
       </c>
-      <c r="AI11" s="9">
+      <c r="AQ11" s="9">
         <v>626.92773999999997</v>
       </c>
-      <c r="AJ11" s="9">
+      <c r="AR11" s="9">
         <v>428.02671299999997</v>
       </c>
-      <c r="AK11" s="9">
+      <c r="AS11" s="9">
         <v>499.84242</v>
       </c>
-      <c r="AL11" s="10">
-        <f t="shared" si="4"/>
+      <c r="AT11" s="10">
+        <f t="shared" si="5"/>
         <v>3.1502966526600589</v>
       </c>
-      <c r="AM11" s="7">
+      <c r="AU11" s="7">
         <v>626.93515000000002</v>
       </c>
-      <c r="AN11">
+      <c r="AV11">
         <v>428.02573000000001</v>
       </c>
-      <c r="AO11" s="7">
+      <c r="AW11" s="7">
         <v>499.83749999999998</v>
       </c>
-      <c r="AP11" s="8">
-        <f t="shared" si="5"/>
+      <c r="AX11" s="8">
+        <f t="shared" si="6"/>
         <v>9.0368910583373143</v>
       </c>
-      <c r="AT11" s="13">
+      <c r="AY11" s="9">
+        <v>626.92541500000004</v>
+      </c>
+      <c r="AZ11" s="9">
+        <v>428.02255400000001</v>
+      </c>
+      <c r="BA11" s="9">
+        <v>499.84551199999999</v>
+      </c>
+      <c r="BB11" s="10">
+        <f t="shared" si="7"/>
+        <v>4.9961269999553872</v>
+      </c>
+      <c r="BC11" s="7">
+        <v>626.92558150000002</v>
+      </c>
+      <c r="BD11" s="33">
+        <v>428.02365900000001</v>
+      </c>
+      <c r="BE11" s="7">
+        <v>499.84131866000001</v>
+      </c>
+      <c r="BF11" s="8">
+        <f t="shared" si="8"/>
+        <v>1.4933075522466277</v>
+      </c>
+      <c r="BJ11" s="13">
         <v>4</v>
       </c>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="15">
-        <f t="shared" si="9"/>
+      <c r="BK11" s="52"/>
+      <c r="BL11" s="15">
+        <f t="shared" si="13"/>
         <v>11.364618163395027</v>
       </c>
-      <c r="AW11" s="35"/>
-      <c r="AX11" s="15">
-        <f t="shared" si="10"/>
+      <c r="BM11" s="52"/>
+      <c r="BN11" s="15">
+        <f t="shared" si="14"/>
         <v>30.096041733069814</v>
       </c>
-      <c r="AY11" s="47"/>
-      <c r="AZ11" s="15">
-        <f t="shared" si="11"/>
+      <c r="BO11" s="55"/>
+      <c r="BP11" s="15">
+        <f t="shared" si="15"/>
         <v>10.590769613215583</v>
       </c>
-      <c r="BA11" s="35"/>
-      <c r="BB11" s="15">
-        <f t="shared" si="12"/>
+      <c r="BQ11" s="52"/>
+      <c r="BR11" s="15">
+        <f t="shared" si="16"/>
         <v>7.4546397632827741</v>
       </c>
-      <c r="BC11" s="35"/>
-      <c r="BD11" s="15">
-        <f t="shared" si="13"/>
+      <c r="BS11" s="52"/>
+      <c r="BT11" s="15">
+        <f t="shared" si="17"/>
         <v>4.3794976880734806</v>
       </c>
-      <c r="BE11" s="35"/>
-      <c r="BF11" s="15">
-        <f t="shared" si="14"/>
+      <c r="BU11" s="52"/>
+      <c r="BV11" s="15">
+        <f t="shared" si="18"/>
         <v>14.489514450104156</v>
       </c>
     </row>
-    <row r="12" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -2089,7 +2407,7 @@
         <v>501.8603</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.6400231480582281</v>
       </c>
       <c r="J12" s="7">
@@ -2105,7 +2423,7 @@
         <v>501.867189</v>
       </c>
       <c r="N12" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>28.568109650434234</v>
       </c>
       <c r="O12" s="9">
@@ -2118,122 +2436,174 @@
         <v>501.86070000000001</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.9349987921550174</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="9">
+        <v>629.10803199999998</v>
+      </c>
+      <c r="T12" s="9">
+        <v>428.65886999999998</v>
+      </c>
+      <c r="U12" s="9">
+        <v>501.859375</v>
+      </c>
+      <c r="V12" s="10">
+        <f t="shared" si="12"/>
+        <v>17.145744340770086</v>
+      </c>
+      <c r="W12" s="7">
         <v>629.08939999999996</v>
       </c>
-      <c r="T12" s="7">
+      <c r="X12" s="7">
         <v>428.65727500000003</v>
       </c>
-      <c r="U12" s="7">
+      <c r="Y12" s="7">
         <v>501.85871800000001</v>
       </c>
-      <c r="V12" s="8">
-        <f t="shared" ref="V12:V15" si="15">SQRT(($C12-S12)^2+($D12-T12)^2+($E12-U12)^2)*1000</f>
+      <c r="Z12" s="8">
+        <f t="shared" si="0"/>
         <v>2.0686104031941541</v>
       </c>
-      <c r="W12" s="9">
+      <c r="AA12" s="9">
         <v>629.08399999999995</v>
       </c>
-      <c r="X12" s="9">
+      <c r="AB12" s="9">
         <v>428.65598</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="AC12" s="9">
         <v>501.86309999999997</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="AD12" s="10">
         <f t="shared" si="1"/>
         <v>7.7233671413825409</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AE12" s="7">
         <v>629.08825000000002</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AF12" s="7">
         <v>428.67101000000002</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AG12" s="7">
         <v>501.84202140000002</v>
       </c>
-      <c r="AD12" s="8">
+      <c r="AH12" s="8">
         <f t="shared" si="2"/>
         <v>22.958063027198957</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AI12" s="9">
+        <v>629.09082899999999</v>
+      </c>
+      <c r="AJ12" s="9">
+        <v>428.65629999999999</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>501.863159</v>
+      </c>
+      <c r="AL12" s="10">
+        <f t="shared" si="3"/>
+        <v>3.2401422808094757</v>
+      </c>
+      <c r="AM12" s="7">
         <v>629.09379999999999</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AN12" s="7">
         <v>428.65730000000002</v>
       </c>
-      <c r="AG12" s="7">
+      <c r="AO12" s="7">
         <v>501.86754300000001</v>
       </c>
-      <c r="AH12" s="8">
-        <f t="shared" si="3"/>
+      <c r="AP12" s="8">
+        <f t="shared" si="4"/>
         <v>8.0515122182035626</v>
       </c>
-      <c r="AI12" s="9">
+      <c r="AQ12" s="9">
         <v>629.08753899999999</v>
       </c>
-      <c r="AJ12" s="9">
+      <c r="AR12" s="9">
         <v>428.65980999999999</v>
       </c>
-      <c r="AK12" s="9">
+      <c r="AS12" s="9">
         <v>501.87130000000002</v>
       </c>
-      <c r="AL12" s="10">
-        <f t="shared" si="4"/>
+      <c r="AT12" s="10">
+        <f t="shared" si="5"/>
         <v>12.147617914648828</v>
       </c>
-      <c r="AM12" s="7">
+      <c r="AU12" s="7">
         <v>629.09034999999994</v>
       </c>
-      <c r="AN12" s="7">
+      <c r="AV12" s="7">
         <v>428.67863999999997</v>
       </c>
-      <c r="AO12" s="7">
+      <c r="AW12" s="7">
         <v>501.84704299999999</v>
       </c>
-      <c r="AP12" s="8">
-        <f t="shared" si="5"/>
+      <c r="AX12" s="8">
+        <f t="shared" si="6"/>
         <v>25.230853116777951</v>
       </c>
-      <c r="AT12" s="13">
+      <c r="AY12" s="9">
+        <v>629.08987000000002</v>
+      </c>
+      <c r="AZ12" s="9">
+        <v>428.65595000000002</v>
+      </c>
+      <c r="BA12" s="9">
+        <v>501.87025999999997</v>
+      </c>
+      <c r="BB12" s="10">
+        <f t="shared" si="7"/>
+        <v>10.375307224322254</v>
+      </c>
+      <c r="BC12" s="7">
+        <v>629.08783319999998</v>
+      </c>
+      <c r="BD12" s="7">
+        <v>428.6553634</v>
+      </c>
+      <c r="BE12" s="7">
+        <v>501.85692779999999</v>
+      </c>
+      <c r="BF12" s="8">
+        <f t="shared" si="8"/>
+        <v>4.7058999819654064</v>
+      </c>
+      <c r="BJ12" s="13">
         <v>5</v>
       </c>
-      <c r="AU12" s="35"/>
-      <c r="AV12" s="15">
-        <f t="shared" si="9"/>
+      <c r="BK12" s="52"/>
+      <c r="BL12" s="15">
+        <f t="shared" si="13"/>
         <v>8.6400231480582281</v>
       </c>
-      <c r="AW12" s="35"/>
-      <c r="AX12" s="15">
-        <f t="shared" si="10"/>
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="15">
+        <f t="shared" si="14"/>
         <v>28.568109650434234</v>
       </c>
-      <c r="AY12" s="47"/>
-      <c r="AZ12" s="15">
-        <f t="shared" si="11"/>
+      <c r="BO12" s="55"/>
+      <c r="BP12" s="15">
+        <f t="shared" si="15"/>
         <v>9.9349987921550174</v>
       </c>
-      <c r="BA12" s="35"/>
-      <c r="BB12" s="15">
-        <f t="shared" si="12"/>
+      <c r="BQ12" s="52"/>
+      <c r="BR12" s="15">
+        <f t="shared" si="16"/>
         <v>2.0686104031941541</v>
       </c>
-      <c r="BC12" s="35"/>
-      <c r="BD12" s="15">
-        <f t="shared" si="13"/>
+      <c r="BS12" s="52"/>
+      <c r="BT12" s="15">
+        <f t="shared" si="17"/>
         <v>7.7233671413825409</v>
       </c>
-      <c r="BE12" s="35"/>
-      <c r="BF12" s="15">
-        <f t="shared" si="14"/>
+      <c r="BU12" s="52"/>
+      <c r="BV12" s="15">
+        <f t="shared" si="18"/>
         <v>22.958063027198957</v>
       </c>
     </row>
-    <row r="13" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>6</v>
       </c>
@@ -2256,7 +2626,7 @@
         <v>501.85070000000002</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.589117562156698</v>
       </c>
       <c r="J13" s="7">
@@ -2272,7 +2642,7 @@
         <v>501.85258599999997</v>
       </c>
       <c r="N13" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25.125835866723072</v>
       </c>
       <c r="O13" s="9">
@@ -2285,122 +2655,174 @@
         <v>501.850662</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.4290793625419944</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="9">
+        <v>629.97546399999999</v>
+      </c>
+      <c r="T13" s="9">
+        <v>428.89501999999999</v>
+      </c>
+      <c r="U13" s="9">
+        <v>501.85382099999998</v>
+      </c>
+      <c r="V13" s="10">
+        <f t="shared" si="12"/>
+        <v>7.7856108944006186</v>
+      </c>
+      <c r="W13" s="7">
         <v>629.97190000000001</v>
       </c>
-      <c r="T13" s="7">
+      <c r="X13" s="7">
         <v>428.889837</v>
       </c>
-      <c r="U13" s="7">
+      <c r="Y13" s="7">
         <v>501.84818799999999</v>
       </c>
-      <c r="V13" s="8">
-        <f t="shared" si="15"/>
+      <c r="Z13" s="8">
+        <f t="shared" si="0"/>
         <v>2.8715697797664488</v>
       </c>
-      <c r="W13" s="9">
+      <c r="AA13" s="9">
         <v>629.97776999999996</v>
       </c>
-      <c r="X13" s="9">
+      <c r="AB13" s="9">
         <v>428.89147500000001</v>
       </c>
-      <c r="Y13" s="9">
+      <c r="AC13" s="9">
         <v>501.85250000000002</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="AD13" s="10">
         <f t="shared" si="1"/>
         <v>8.1760947278637115</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AE13" s="7">
         <v>629.97909000000004</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AF13" s="7">
         <v>428.89138200000002</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AG13" s="7">
         <v>501.84160000000003</v>
       </c>
-      <c r="AD13" s="8">
+      <c r="AH13" s="8">
         <f t="shared" si="2"/>
         <v>12.382811635496138</v>
       </c>
-      <c r="AE13" s="7">
+      <c r="AI13" s="9">
+        <v>629.9692</v>
+      </c>
+      <c r="AJ13" s="9">
+        <v>428.88945999999999</v>
+      </c>
+      <c r="AK13" s="9">
+        <v>501.84752900000001</v>
+      </c>
+      <c r="AL13" s="10">
+        <f t="shared" si="3"/>
+        <v>3.0195100596317133</v>
+      </c>
+      <c r="AM13" s="7">
         <v>629.97074999999995</v>
       </c>
-      <c r="AF13" s="7">
+      <c r="AN13" s="7">
         <v>428.88931200000002</v>
       </c>
-      <c r="AG13" s="7">
+      <c r="AO13" s="7">
         <v>501.85661399999998</v>
       </c>
-      <c r="AH13" s="8">
-        <f t="shared" si="3"/>
+      <c r="AP13" s="8">
+        <f t="shared" si="4"/>
         <v>6.8670838060501369</v>
       </c>
-      <c r="AI13" s="9">
+      <c r="AQ13" s="9">
         <v>629.97082999999998</v>
       </c>
-      <c r="AJ13" s="9">
+      <c r="AR13" s="9">
         <v>428.89226000000002</v>
       </c>
-      <c r="AK13" s="9">
+      <c r="AS13" s="9">
         <v>501.85980000000001</v>
       </c>
-      <c r="AL13" s="10">
-        <f t="shared" si="4"/>
+      <c r="AT13" s="10">
+        <f t="shared" si="5"/>
         <v>9.9154677146171526</v>
       </c>
-      <c r="AM13" s="7">
+      <c r="AU13" s="7">
         <v>629.97230000000002</v>
       </c>
-      <c r="AN13" s="7">
+      <c r="AV13" s="7">
         <v>428.89299999999997</v>
       </c>
-      <c r="AO13" s="7">
+      <c r="AW13" s="7">
         <v>501.84996000000001</v>
       </c>
-      <c r="AP13" s="8">
-        <f t="shared" si="5"/>
+      <c r="AX13" s="8">
+        <f t="shared" si="6"/>
         <v>3.0482125909737401</v>
       </c>
-      <c r="AT13" s="13">
+      <c r="AY13" s="9">
+        <v>629.96988999999996</v>
+      </c>
+      <c r="AZ13" s="9">
+        <v>428.88848999999999</v>
+      </c>
+      <c r="BA13" s="9">
+        <v>501.85516000000001</v>
+      </c>
+      <c r="BB13" s="10">
+        <f t="shared" si="7"/>
+        <v>5.7391462779800007</v>
+      </c>
+      <c r="BC13" s="7">
+        <v>629.96921599999996</v>
+      </c>
+      <c r="BD13" s="7">
+        <v>428.88954799999999</v>
+      </c>
+      <c r="BE13" s="7">
+        <v>501.8471548</v>
+      </c>
+      <c r="BF13" s="8">
+        <f t="shared" si="8"/>
+        <v>3.2890915220357049</v>
+      </c>
+      <c r="BJ13" s="13">
         <v>6</v>
       </c>
-      <c r="AU13" s="35"/>
-      <c r="AV13" s="15">
-        <f t="shared" si="9"/>
+      <c r="BK13" s="52"/>
+      <c r="BL13" s="15">
+        <f t="shared" si="13"/>
         <v>4.589117562156698</v>
       </c>
-      <c r="AW13" s="35"/>
-      <c r="AX13" s="15">
-        <f t="shared" si="10"/>
+      <c r="BM13" s="52"/>
+      <c r="BN13" s="15">
+        <f t="shared" si="14"/>
         <v>25.125835866723072</v>
       </c>
-      <c r="AY13" s="47"/>
-      <c r="AZ13" s="15">
-        <f t="shared" si="11"/>
+      <c r="BO13" s="55"/>
+      <c r="BP13" s="15">
+        <f t="shared" si="15"/>
         <v>4.4290793625419944</v>
       </c>
-      <c r="BA13" s="35"/>
-      <c r="BB13" s="15">
-        <f t="shared" si="12"/>
+      <c r="BQ13" s="52"/>
+      <c r="BR13" s="15">
+        <f t="shared" si="16"/>
         <v>2.8715697797664488</v>
       </c>
-      <c r="BC13" s="35"/>
-      <c r="BD13" s="15">
-        <f t="shared" si="13"/>
+      <c r="BS13" s="52"/>
+      <c r="BT13" s="15">
+        <f t="shared" si="17"/>
         <v>8.1760947278637115</v>
       </c>
-      <c r="BE13" s="35"/>
-      <c r="BF13" s="15">
-        <f t="shared" si="14"/>
+      <c r="BU13" s="52"/>
+      <c r="BV13" s="15">
+        <f t="shared" si="18"/>
         <v>12.382811635496138</v>
       </c>
     </row>
-    <row r="14" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>7</v>
       </c>
@@ -2423,7 +2845,7 @@
         <v>500.34370000000001</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.277159140538977</v>
       </c>
       <c r="J14" s="7">
@@ -2439,7 +2861,7 @@
         <v>500.35679499999998</v>
       </c>
       <c r="N14" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>19.908560093548459</v>
       </c>
       <c r="O14" s="9">
@@ -2452,122 +2874,174 @@
         <v>500.33929999999998</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>15.282870450588049</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="9">
+        <v>629.09912099999997</v>
+      </c>
+      <c r="T14" s="9">
+        <v>428.67129499999999</v>
+      </c>
+      <c r="U14" s="9">
+        <v>500.348389</v>
+      </c>
+      <c r="V14" s="10">
+        <f t="shared" si="12"/>
+        <v>9.760993135888695</v>
+      </c>
+      <c r="W14" s="7">
         <v>629.08604800000001</v>
       </c>
-      <c r="T14" s="7">
+      <c r="X14" s="7">
         <v>428.66262799999998</v>
       </c>
-      <c r="U14" s="7">
+      <c r="Y14" s="7">
         <v>500.34768000000003</v>
       </c>
-      <c r="V14" s="8">
-        <f t="shared" si="15"/>
+      <c r="Z14" s="8">
+        <f t="shared" si="0"/>
         <v>8.2001882905225187</v>
       </c>
-      <c r="W14" s="57">
+      <c r="AA14" s="30">
         <v>629.07469000000003</v>
       </c>
-      <c r="X14" s="57">
+      <c r="AB14" s="30">
         <v>428.65976999999998</v>
       </c>
-      <c r="Y14" s="57">
+      <c r="AC14" s="30">
         <v>500.33168000000001</v>
       </c>
-      <c r="Z14" s="58">
-        <f>SQRT(($C14-W14)^2+($D14-X14)^2+($E14-Y14)^2)*1000</f>
+      <c r="AD14" s="31">
+        <f>SQRT(($C14-AA14)^2+($D14-AB14)^2+($E14-AC14)^2)*1000</f>
         <v>26.322070587242361</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AE14" s="7">
         <v>629.12275</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AF14" s="7">
         <v>428.67169999999999</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AG14" s="7">
         <v>500.33127999999999</v>
       </c>
-      <c r="AD14" s="8">
-        <f>SQRT(($C14-AA14)^2+($D14-AB14)^2+($E14-AC14)^2)*1000</f>
+      <c r="AH14" s="8">
+        <f t="shared" ref="AH14:AH19" si="19">SQRT(($C14-AE14)^2+($D14-AF14)^2+($E14-AG14)^2)*1000</f>
         <v>38.324025101729092</v>
       </c>
-      <c r="AE14" s="7">
-        <v>629.09091000000001</v>
-      </c>
-      <c r="AF14" s="7">
-        <v>428.66386</v>
-      </c>
-      <c r="AG14" s="7">
-        <v>500.35211800000002</v>
-      </c>
-      <c r="AH14" s="8">
-        <f t="shared" si="3"/>
-        <v>5.3383165885722823</v>
-      </c>
       <c r="AI14" s="9">
-        <v>629.08416099999999</v>
+        <v>629.08962399999996</v>
       </c>
       <c r="AJ14" s="9">
-        <v>428.67023999999998</v>
+        <v>428.66914000000003</v>
       </c>
       <c r="AK14" s="9">
-        <v>500.346653</v>
+        <v>500.34312999999997</v>
       </c>
       <c r="AL14" s="10">
         <f>SQRT(($C14-AI14)^2+($D14-AJ14)^2+($E14-AK14)^2)*1000</f>
+        <v>7.8802205553186839</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>629.09091000000001</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>428.66386</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>500.35211800000002</v>
+      </c>
+      <c r="AP14" s="8">
+        <f t="shared" si="4"/>
+        <v>5.3383165885722823</v>
+      </c>
+      <c r="AQ14" s="9">
+        <v>629.08416099999999</v>
+      </c>
+      <c r="AR14" s="9">
+        <v>428.67023999999998</v>
+      </c>
+      <c r="AS14" s="9">
+        <v>500.346653</v>
+      </c>
+      <c r="AT14" s="10">
+        <f t="shared" ref="AT14:AT19" si="20">SQRT(($C14-AQ14)^2+($D14-AR14)^2+($E14-AS14)^2)*1000</f>
         <v>7.3843029461409806</v>
       </c>
-      <c r="AM14" s="7">
+      <c r="AU14" s="7">
         <v>629.09425999999996</v>
       </c>
-      <c r="AN14" s="7">
+      <c r="AV14" s="7">
         <v>428.66617000000002</v>
       </c>
-      <c r="AO14" s="7">
+      <c r="AW14" s="7">
         <v>500.32159999999999</v>
       </c>
-      <c r="AP14" s="8">
-        <f>SQRT(($C14-AM14)^2+($D14-AN14)^2+($E14-AO14)^2)*1000</f>
+      <c r="AX14" s="8">
+        <f t="shared" ref="AX14:AX19" si="21">SQRT(($C14-AU14)^2+($D14-AV14)^2+($E14-AW14)^2)*1000</f>
         <v>29.841523084449886</v>
       </c>
-      <c r="AT14" s="13">
+      <c r="AY14" s="9">
+        <v>629.08918000000006</v>
+      </c>
+      <c r="AZ14" s="9">
+        <v>428.66893800000003</v>
+      </c>
+      <c r="BA14" s="9">
+        <v>500.34561400000001</v>
+      </c>
+      <c r="BB14" s="10">
+        <f t="shared" si="7"/>
+        <v>5.4484162836385694</v>
+      </c>
+      <c r="BC14" s="7">
+        <v>629.08966559999999</v>
+      </c>
+      <c r="BD14" s="7">
+        <v>428.66887000000003</v>
+      </c>
+      <c r="BE14" s="7">
+        <v>500.34276</v>
+      </c>
+      <c r="BF14" s="8">
+        <f t="shared" ref="BF14:BF19" si="22">SQRT(($C14-BC14)^2+($D14-BD14)^2+($E14-BE14)^2)*1000</f>
+        <v>8.2478071849448789</v>
+      </c>
+      <c r="BJ14" s="13">
         <v>7</v>
       </c>
-      <c r="AU14" s="35"/>
-      <c r="AV14" s="15">
-        <f t="shared" si="9"/>
+      <c r="BK14" s="52"/>
+      <c r="BL14" s="15">
+        <f t="shared" si="13"/>
         <v>10.277159140538977</v>
       </c>
-      <c r="AW14" s="35"/>
-      <c r="AX14" s="15">
-        <f t="shared" si="10"/>
+      <c r="BM14" s="52"/>
+      <c r="BN14" s="15">
+        <f t="shared" si="14"/>
         <v>19.908560093548459</v>
       </c>
-      <c r="AY14" s="47"/>
-      <c r="AZ14" s="15">
-        <f t="shared" si="11"/>
+      <c r="BO14" s="55"/>
+      <c r="BP14" s="15">
+        <f t="shared" si="15"/>
         <v>15.282870450588049</v>
       </c>
-      <c r="BA14" s="35"/>
-      <c r="BB14" s="15">
-        <f t="shared" si="12"/>
+      <c r="BQ14" s="52"/>
+      <c r="BR14" s="15">
+        <f t="shared" si="16"/>
         <v>8.2001882905225187</v>
       </c>
-      <c r="BC14" s="35"/>
-      <c r="BD14" s="59">
-        <f t="shared" si="13"/>
+      <c r="BS14" s="52"/>
+      <c r="BT14" s="32">
+        <f t="shared" si="17"/>
         <v>26.322070587242361</v>
       </c>
-      <c r="BE14" s="35"/>
-      <c r="BF14" s="15">
-        <f t="shared" si="14"/>
+      <c r="BU14" s="52"/>
+      <c r="BV14" s="15">
+        <f t="shared" si="18"/>
         <v>38.324025101729092</v>
       </c>
     </row>
-    <row r="15" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>8</v>
       </c>
@@ -2590,7 +3064,7 @@
         <v>500.33670000000001</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.1204574992190937</v>
       </c>
       <c r="J15" s="7">
@@ -2606,7 +3080,7 @@
         <v>500.37288999999998</v>
       </c>
       <c r="N15" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41.986973360809607</v>
       </c>
       <c r="O15" s="9">
@@ -2619,122 +3093,174 @@
         <v>500.33482400000003</v>
       </c>
       <c r="R15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10.28658718913784</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="9">
+        <v>629.97882100000004</v>
+      </c>
+      <c r="T15" s="9">
+        <v>428.905304</v>
+      </c>
+      <c r="U15" s="9">
+        <v>500.34188799999998</v>
+      </c>
+      <c r="V15" s="10">
+        <f t="shared" si="12"/>
+        <v>14.756049640735718</v>
+      </c>
+      <c r="W15" s="7">
         <v>629.96902299999999</v>
       </c>
-      <c r="T15" s="7">
+      <c r="X15" s="7">
         <v>428.89531799999997</v>
       </c>
-      <c r="U15" s="7">
+      <c r="Y15" s="7">
         <v>500.33657399999998</v>
       </c>
-      <c r="V15" s="8">
-        <f t="shared" si="15"/>
+      <c r="Z15" s="8">
+        <f t="shared" si="0"/>
         <v>1.4612080618790346</v>
       </c>
-      <c r="W15" s="9">
+      <c r="AA15" s="9">
         <v>629.97199999999998</v>
       </c>
-      <c r="X15" s="9">
+      <c r="AB15" s="9">
         <v>428.89620000000002</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="AC15" s="9">
         <v>500.32990000000001</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="AD15" s="10">
         <f t="shared" si="1"/>
         <v>8.7206651122424201</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AE15" s="7">
         <v>629.97040000000004</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AF15" s="7">
         <v>428.89220549999999</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AG15" s="7">
         <v>500.32994000000002</v>
       </c>
-      <c r="AD15" s="8">
-        <f t="shared" ref="AD15:AD17" si="16">SQRT(($C15-AA15)^2+($D15-AB15)^2+($E15-AC15)^2)*1000</f>
+      <c r="AH15" s="8">
+        <f t="shared" si="19"/>
         <v>8.6448152235857023</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AI15" s="9">
+        <v>629.96729000000005</v>
+      </c>
+      <c r="AJ15" s="9">
+        <v>428.89183800000001</v>
+      </c>
+      <c r="AK15" s="9">
+        <v>500.333369</v>
+      </c>
+      <c r="AL15" s="10">
+        <f t="shared" si="3"/>
+        <v>5.862465778152826</v>
+      </c>
+      <c r="AM15" s="7">
         <v>629.96661900000004</v>
       </c>
-      <c r="AF15" s="7">
+      <c r="AN15" s="7">
         <v>428.8931</v>
       </c>
-      <c r="AG15" s="7">
+      <c r="AO15" s="7">
         <v>500.34059000000002</v>
       </c>
-      <c r="AH15" s="8">
-        <f t="shared" si="3"/>
+      <c r="AP15" s="8">
+        <f t="shared" si="4"/>
         <v>3.9984073079128772</v>
       </c>
-      <c r="AI15" s="9">
+      <c r="AQ15" s="9">
         <v>629.96614999999997</v>
       </c>
-      <c r="AJ15" s="9">
+      <c r="AR15" s="9">
         <v>428.90235799999999</v>
       </c>
-      <c r="AK15" s="9">
+      <c r="AS15" s="9">
         <v>500.33339999999998</v>
       </c>
-      <c r="AL15" s="10">
-        <f t="shared" ref="AL15:AL24" si="17">SQRT(($C15-AI15)^2+($D15-AJ15)^2+($E15-AK15)^2)*1000</f>
+      <c r="AT15" s="10">
+        <f t="shared" si="20"/>
         <v>9.1336008233868924</v>
       </c>
-      <c r="AM15" s="7">
+      <c r="AU15" s="7">
         <v>629.97801900000002</v>
       </c>
-      <c r="AN15" s="7">
+      <c r="AV15" s="7">
         <v>428.8922</v>
       </c>
-      <c r="AO15" s="7">
+      <c r="AW15" s="7">
         <v>500.32578000000001</v>
       </c>
-      <c r="AP15" s="8">
-        <f t="shared" ref="AP15:AP17" si="18">SQRT(($C15-AM15)^2+($D15-AN15)^2+($E15-AO15)^2)*1000</f>
+      <c r="AX15" s="8">
+        <f t="shared" si="21"/>
         <v>15.443793607776866</v>
       </c>
-      <c r="AT15" s="13">
+      <c r="AY15" s="9">
+        <v>629.96824000000004</v>
+      </c>
+      <c r="AZ15" s="9">
+        <v>428.89084000000003</v>
+      </c>
+      <c r="BA15" s="9">
+        <v>500.33353899999997</v>
+      </c>
+      <c r="BB15" s="10">
+        <f t="shared" si="7"/>
+        <v>6.1468464272416066</v>
+      </c>
+      <c r="BC15" s="7">
+        <v>629.96708060000003</v>
+      </c>
+      <c r="BD15" s="7">
+        <v>428.89115099999998</v>
+      </c>
+      <c r="BE15" s="7">
+        <v>500.32957399999998</v>
+      </c>
+      <c r="BF15" s="8">
+        <f t="shared" si="22"/>
+        <v>9.4602522884336366</v>
+      </c>
+      <c r="BJ15" s="13">
         <v>8</v>
       </c>
-      <c r="AU15" s="35"/>
-      <c r="AV15" s="15">
-        <f t="shared" si="9"/>
+      <c r="BK15" s="52"/>
+      <c r="BL15" s="15">
+        <f t="shared" si="13"/>
         <v>6.1204574992190937</v>
       </c>
-      <c r="AW15" s="35"/>
-      <c r="AX15" s="15">
-        <f t="shared" si="10"/>
+      <c r="BM15" s="52"/>
+      <c r="BN15" s="15">
+        <f t="shared" si="14"/>
         <v>41.986973360809607</v>
       </c>
-      <c r="AY15" s="47"/>
-      <c r="AZ15" s="15">
-        <f t="shared" si="11"/>
+      <c r="BO15" s="55"/>
+      <c r="BP15" s="15">
+        <f t="shared" si="15"/>
         <v>10.28658718913784</v>
       </c>
-      <c r="BA15" s="35"/>
-      <c r="BB15" s="15">
-        <f t="shared" si="12"/>
+      <c r="BQ15" s="52"/>
+      <c r="BR15" s="15">
+        <f t="shared" si="16"/>
         <v>1.4612080618790346</v>
       </c>
-      <c r="BC15" s="35"/>
-      <c r="BD15" s="15">
-        <f t="shared" si="13"/>
+      <c r="BS15" s="52"/>
+      <c r="BT15" s="15">
+        <f t="shared" si="17"/>
         <v>8.7206651122424201</v>
       </c>
-      <c r="BE15" s="35"/>
-      <c r="BF15" s="15">
-        <f t="shared" si="14"/>
+      <c r="BU15" s="52"/>
+      <c r="BV15" s="15">
+        <f t="shared" si="18"/>
         <v>8.6448152235857023</v>
       </c>
     </row>
-    <row r="16" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>9</v>
       </c>
@@ -2757,7 +3283,7 @@
         <v>504.17489999999998</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.4504437752952519</v>
       </c>
       <c r="J16" s="7">
@@ -2773,7 +3299,7 @@
         <v>504.16949899999997</v>
       </c>
       <c r="N16" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.505813717706447</v>
       </c>
       <c r="O16" s="9">
@@ -2786,122 +3312,174 @@
         <v>504.16896000000003</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>11.230424791552709</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="9">
+        <v>633.86395300000004</v>
+      </c>
+      <c r="T16" s="9">
+        <v>429.88372800000002</v>
+      </c>
+      <c r="U16" s="9">
+        <v>504.16372699999999</v>
+      </c>
+      <c r="V16" s="10">
+        <f t="shared" si="12"/>
+        <v>17.287068056779045</v>
+      </c>
+      <c r="W16" s="7">
         <v>633.853433</v>
       </c>
-      <c r="T16" s="7">
+      <c r="X16" s="7">
         <v>429.87856699999998</v>
       </c>
-      <c r="U16" s="7">
+      <c r="Y16" s="7">
         <v>504.17316699999998</v>
       </c>
-      <c r="V16" s="8">
-        <f t="shared" ref="V16:V17" si="19">SQRT(($C16-S16)^2+($D16-T16)^2+($E16-U16)^2)*1000</f>
+      <c r="Z16" s="8">
+        <f t="shared" si="0"/>
         <v>4.9532683149133669</v>
       </c>
-      <c r="W16" s="9">
+      <c r="AA16" s="9">
         <v>633.84979999999996</v>
       </c>
-      <c r="X16" s="9">
+      <c r="AB16" s="9">
         <v>429.87765400000001</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="AC16" s="9">
         <v>504.17618599999997</v>
       </c>
-      <c r="Z16" s="10">
+      <c r="AD16" s="10">
         <f t="shared" si="1"/>
         <v>5.4172236431305274</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AE16" s="7">
         <v>633.85029999999995</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AF16" s="7">
         <v>429.90165000000002</v>
       </c>
-      <c r="AC16" s="24">
+      <c r="AG16" s="24">
         <v>504.15892000000002</v>
       </c>
-      <c r="AD16" s="8">
+      <c r="AH16" s="8">
+        <f t="shared" si="19"/>
+        <v>25.702896723889626</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>633.852621</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>429.88034099999999</v>
+      </c>
+      <c r="AK16" s="9">
+        <v>504.17063999999999</v>
+      </c>
+      <c r="AL16" s="10">
+        <f t="shared" si="3"/>
+        <v>3.8780822579688721</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>633.85830599999997</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>429.87921999999998</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>504.180542</v>
+      </c>
+      <c r="AP16" s="8">
+        <f t="shared" si="4"/>
+        <v>13.330408845896887</v>
+      </c>
+      <c r="AQ16" s="9">
+        <v>633.86312999999996</v>
+      </c>
+      <c r="AR16" s="9">
+        <v>429.88057400000002</v>
+      </c>
+      <c r="AS16" s="9">
+        <v>504.18349999999998</v>
+      </c>
+      <c r="AT16" s="10">
+        <f t="shared" si="20"/>
+        <v>18.931042654781713</v>
+      </c>
+      <c r="AU16" s="7">
+        <v>633.85332000000005</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>429.87718799999999</v>
+      </c>
+      <c r="AW16" s="24">
+        <v>504.16176999999999</v>
+      </c>
+      <c r="AX16" s="8">
+        <f t="shared" si="21"/>
+        <v>10.350779874009948</v>
+      </c>
+      <c r="AY16" s="9">
+        <v>633.85629200000005</v>
+      </c>
+      <c r="AZ16" s="9">
+        <v>429.88225</v>
+      </c>
+      <c r="BA16" s="9">
+        <v>504.17674399999999</v>
+      </c>
+      <c r="BB16" s="10">
+        <f t="shared" si="7"/>
+        <v>9.8351054900232899</v>
+      </c>
+      <c r="BC16" s="7">
+        <v>633.84563521999996</v>
+      </c>
+      <c r="BD16" s="7">
+        <v>429.87670409999998</v>
+      </c>
+      <c r="BE16" s="7">
+        <v>504.16893220999998</v>
+      </c>
+      <c r="BF16" s="8">
+        <f t="shared" si="22"/>
+        <v>4.5682224927510404</v>
+      </c>
+      <c r="BJ16" s="13">
+        <v>9</v>
+      </c>
+      <c r="BK16" s="52"/>
+      <c r="BL16" s="15">
+        <f t="shared" si="13"/>
+        <v>8.4504437752952519</v>
+      </c>
+      <c r="BM16" s="52"/>
+      <c r="BN16" s="15">
+        <f t="shared" si="14"/>
+        <v>8.505813717706447</v>
+      </c>
+      <c r="BO16" s="55"/>
+      <c r="BP16" s="15">
+        <f t="shared" si="15"/>
+        <v>11.230424791552709</v>
+      </c>
+      <c r="BQ16" s="52"/>
+      <c r="BR16" s="15">
         <f t="shared" si="16"/>
+        <v>4.9532683149133669</v>
+      </c>
+      <c r="BS16" s="52"/>
+      <c r="BT16" s="15">
+        <f t="shared" si="17"/>
+        <v>5.4172236431305274</v>
+      </c>
+      <c r="BU16" s="52"/>
+      <c r="BV16" s="15">
+        <f t="shared" si="18"/>
         <v>25.702896723889626</v>
       </c>
-      <c r="AE16" s="7">
-        <v>633.85830599999997</v>
-      </c>
-      <c r="AF16" s="7">
-        <v>429.87921999999998</v>
-      </c>
-      <c r="AG16" s="7">
-        <v>504.180542</v>
-      </c>
-      <c r="AH16" s="8">
-        <f t="shared" si="3"/>
-        <v>13.330408845896887</v>
-      </c>
-      <c r="AI16" s="9">
-        <v>633.86312999999996</v>
-      </c>
-      <c r="AJ16" s="9">
-        <v>429.88057400000002</v>
-      </c>
-      <c r="AK16" s="9">
-        <v>504.18349999999998</v>
-      </c>
-      <c r="AL16" s="10">
-        <f t="shared" si="17"/>
-        <v>18.931042654781713</v>
-      </c>
-      <c r="AM16" s="7">
-        <v>633.85332000000005</v>
-      </c>
-      <c r="AN16" s="7">
-        <v>429.87718799999999</v>
-      </c>
-      <c r="AO16" s="24">
-        <v>504.16176999999999</v>
-      </c>
-      <c r="AP16" s="8">
-        <f t="shared" si="18"/>
-        <v>10.350779874009948</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>9</v>
-      </c>
-      <c r="AU16" s="35"/>
-      <c r="AV16" s="15">
-        <f t="shared" si="9"/>
-        <v>8.4504437752952519</v>
-      </c>
-      <c r="AW16" s="35"/>
-      <c r="AX16" s="15">
-        <f t="shared" si="10"/>
-        <v>8.505813717706447</v>
-      </c>
-      <c r="AY16" s="47"/>
-      <c r="AZ16" s="15">
-        <f t="shared" si="11"/>
-        <v>11.230424791552709</v>
-      </c>
-      <c r="BA16" s="35"/>
-      <c r="BB16" s="15">
-        <f t="shared" si="12"/>
-        <v>4.9532683149133669</v>
-      </c>
-      <c r="BC16" s="35"/>
-      <c r="BD16" s="15">
-        <f t="shared" si="13"/>
-        <v>5.4172236431305274</v>
-      </c>
-      <c r="BE16" s="35"/>
-      <c r="BF16" s="15">
-        <f t="shared" si="14"/>
-        <v>25.702896723889626</v>
-      </c>
-    </row>
-    <row r="17" spans="2:62" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>10</v>
       </c>
@@ -2924,7 +3502,7 @@
         <v>504.16269999999997</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.0024992192173876</v>
       </c>
       <c r="J17" s="7">
@@ -2940,7 +3518,7 @@
         <v>504.15605399999998</v>
       </c>
       <c r="N17" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11.894943715682208</v>
       </c>
       <c r="O17" s="9">
@@ -2953,122 +3531,174 @@
         <v>504.16448800000001</v>
       </c>
       <c r="R17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.0916248879860948</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="9">
+        <v>634.69891399999995</v>
+      </c>
+      <c r="T17" s="9">
+        <v>430.11322000000001</v>
+      </c>
+      <c r="U17" s="9">
+        <v>504.15408300000001</v>
+      </c>
+      <c r="V17" s="10">
+        <f t="shared" si="12"/>
+        <v>11.333432180945591</v>
+      </c>
+      <c r="W17" s="7">
         <v>634.69972900000005</v>
       </c>
-      <c r="T17" s="7">
+      <c r="X17" s="7">
         <v>430.10150299999998</v>
       </c>
-      <c r="U17" s="7">
+      <c r="Y17" s="7">
         <v>504.16352699999999</v>
       </c>
-      <c r="V17" s="8">
-        <f t="shared" si="19"/>
+      <c r="Z17" s="8">
+        <f t="shared" si="0"/>
         <v>6.5505861569160908</v>
       </c>
-      <c r="W17" s="9">
+      <c r="AA17" s="9">
         <v>634.69910000000004</v>
       </c>
-      <c r="X17" s="9">
+      <c r="AB17" s="9">
         <v>430.10149999999999</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="AC17" s="9">
         <v>504.16206799999998</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="AD17" s="10">
         <f t="shared" si="1"/>
         <v>6.3668378335798206</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AE17" s="7">
         <v>634.71515099999999</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AF17" s="7">
         <v>430.10570000000001</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AG17" s="7">
         <v>504.15269999999998</v>
       </c>
-      <c r="AD17" s="8">
+      <c r="AH17" s="8">
+        <f t="shared" si="19"/>
+        <v>13.346340359871515</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>634.69977800000004</v>
+      </c>
+      <c r="AJ17" s="9">
+        <v>430.10319700000002</v>
+      </c>
+      <c r="AK17" s="9">
+        <v>504.162959</v>
+      </c>
+      <c r="AL17" s="10">
+        <f t="shared" si="3"/>
+        <v>5.4618471233739134</v>
+      </c>
+      <c r="AM17" s="7">
+        <v>634.69953999999996</v>
+      </c>
+      <c r="AN17" s="7">
+        <v>430.10093999999998</v>
+      </c>
+      <c r="AO17" s="7">
+        <v>504.16833800000001</v>
+      </c>
+      <c r="AP17" s="8">
+        <f t="shared" si="4"/>
+        <v>10.290648376071282</v>
+      </c>
+      <c r="AQ17" s="9">
+        <v>634.70552999999995</v>
+      </c>
+      <c r="AR17" s="9">
+        <v>430.10261000000003</v>
+      </c>
+      <c r="AS17" s="9">
+        <v>504.17169999999999</v>
+      </c>
+      <c r="AT17" s="10">
+        <f t="shared" si="20"/>
+        <v>12.039227549933516</v>
+      </c>
+      <c r="AU17" s="7">
+        <v>634.71085500000004</v>
+      </c>
+      <c r="AV17" s="7">
+        <v>430.10120000000001</v>
+      </c>
+      <c r="AW17" s="7">
+        <v>504.14715999999999</v>
+      </c>
+      <c r="AX17" s="8">
+        <f t="shared" si="21"/>
+        <v>15.043158744170237</v>
+      </c>
+      <c r="AY17" s="9">
+        <v>634.70171200000004</v>
+      </c>
+      <c r="AZ17" s="9">
+        <v>430.10367100000002</v>
+      </c>
+      <c r="BA17" s="9">
+        <v>504.166943</v>
+      </c>
+      <c r="BB17" s="10">
+        <f t="shared" si="7"/>
+        <v>7.4301032293820182</v>
+      </c>
+      <c r="BC17" s="7">
+        <v>634.70037200000002</v>
+      </c>
+      <c r="BD17" s="7">
+        <v>430.10506479999998</v>
+      </c>
+      <c r="BE17" s="7">
+        <v>504.15866890000001</v>
+      </c>
+      <c r="BF17" s="8">
+        <f t="shared" si="22"/>
+        <v>3.865023964940753</v>
+      </c>
+      <c r="BJ17" s="13">
+        <v>10</v>
+      </c>
+      <c r="BK17" s="52"/>
+      <c r="BL17" s="15">
+        <f t="shared" si="13"/>
+        <v>4.0024992192173876</v>
+      </c>
+      <c r="BM17" s="52"/>
+      <c r="BN17" s="15">
+        <f t="shared" si="14"/>
+        <v>11.894943715682208</v>
+      </c>
+      <c r="BO17" s="55"/>
+      <c r="BP17" s="15">
+        <f t="shared" si="15"/>
+        <v>5.0916248879860948</v>
+      </c>
+      <c r="BQ17" s="52"/>
+      <c r="BR17" s="15">
         <f t="shared" si="16"/>
+        <v>6.5505861569160908</v>
+      </c>
+      <c r="BS17" s="52"/>
+      <c r="BT17" s="15">
+        <f t="shared" si="17"/>
+        <v>6.3668378335798206</v>
+      </c>
+      <c r="BU17" s="52"/>
+      <c r="BV17" s="15">
+        <f t="shared" si="18"/>
         <v>13.346340359871515</v>
       </c>
-      <c r="AE17" s="7">
-        <v>634.69953999999996</v>
-      </c>
-      <c r="AF17" s="7">
-        <v>430.10093999999998</v>
-      </c>
-      <c r="AG17" s="7">
-        <v>504.16833800000001</v>
-      </c>
-      <c r="AH17" s="8">
-        <f t="shared" si="3"/>
-        <v>10.290648376071282</v>
-      </c>
-      <c r="AI17" s="9">
-        <v>634.70552999999995</v>
-      </c>
-      <c r="AJ17" s="9">
-        <v>430.10261000000003</v>
-      </c>
-      <c r="AK17" s="9">
-        <v>504.17169999999999</v>
-      </c>
-      <c r="AL17" s="10">
-        <f t="shared" si="17"/>
-        <v>12.039227549933516</v>
-      </c>
-      <c r="AM17" s="7">
-        <v>634.71085500000004</v>
-      </c>
-      <c r="AN17" s="7">
-        <v>430.10120000000001</v>
-      </c>
-      <c r="AO17" s="7">
-        <v>504.14715999999999</v>
-      </c>
-      <c r="AP17" s="8">
-        <f t="shared" si="18"/>
-        <v>15.043158744170237</v>
-      </c>
-      <c r="AT17" s="13">
-        <v>10</v>
-      </c>
-      <c r="AU17" s="35"/>
-      <c r="AV17" s="15">
-        <f t="shared" si="9"/>
-        <v>4.0024992192173876</v>
-      </c>
-      <c r="AW17" s="35"/>
-      <c r="AX17" s="15">
-        <f t="shared" si="10"/>
-        <v>11.894943715682208</v>
-      </c>
-      <c r="AY17" s="47"/>
-      <c r="AZ17" s="15">
-        <f t="shared" si="11"/>
-        <v>5.0916248879860948</v>
-      </c>
-      <c r="BA17" s="35"/>
-      <c r="BB17" s="15">
-        <f t="shared" si="12"/>
-        <v>6.5505861569160908</v>
-      </c>
-      <c r="BC17" s="35"/>
-      <c r="BD17" s="15">
-        <f t="shared" si="13"/>
-        <v>6.3668378335798206</v>
-      </c>
-      <c r="BE17" s="35"/>
-      <c r="BF17" s="15">
-        <f t="shared" si="14"/>
-        <v>13.346340359871515</v>
-      </c>
-    </row>
-    <row r="18" spans="2:62" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>11</v>
       </c>
@@ -3091,7 +3721,7 @@
         <v>503.01740000000001</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.7802877548683496</v>
       </c>
       <c r="J18" s="7">
@@ -3107,7 +3737,7 @@
         <v>503.01790299999999</v>
       </c>
       <c r="N18" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.0350936907398189</v>
       </c>
       <c r="O18" s="9">
@@ -3120,122 +3750,174 @@
         <v>503.018799</v>
       </c>
       <c r="R18" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.9509200579865666</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="9">
+        <v>633.85742200000004</v>
+      </c>
+      <c r="T18" s="9">
+        <v>429.87600700000002</v>
+      </c>
+      <c r="U18" s="9">
+        <v>503.01767000000001</v>
+      </c>
+      <c r="V18" s="10">
+        <f t="shared" si="12"/>
+        <v>4.8368412212771652</v>
+      </c>
+      <c r="W18" s="7">
         <v>633.85336400000006</v>
       </c>
-      <c r="T18" s="7">
+      <c r="X18" s="7">
         <v>429.87858799999998</v>
       </c>
-      <c r="U18" s="7">
+      <c r="Y18" s="7">
         <v>503.01317499999999</v>
       </c>
-      <c r="V18" s="8">
-        <f>SQRT(($C18-S18)^2+($D18-T18)^2+($E18-U18)^2)*1000</f>
+      <c r="Z18" s="8">
+        <f t="shared" si="0"/>
         <v>7.4513666531458416</v>
       </c>
-      <c r="W18" s="9">
+      <c r="AA18" s="9">
         <v>633.85429999999997</v>
       </c>
-      <c r="X18" s="9">
+      <c r="AB18" s="9">
         <v>429.87887499999999</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="AC18" s="9">
         <v>503.01100000000002</v>
       </c>
-      <c r="Z18" s="10">
-        <f>SQRT(($C18-W18)^2+($D18-X18)^2+($E18-Y18)^2)*1000</f>
+      <c r="AD18" s="10">
+        <f>SQRT(($C18-AA18)^2+($D18-AB18)^2+($E18-AC18)^2)*1000</f>
         <v>9.2279805482748003</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AE18" s="7">
         <v>633.86668999999995</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AF18" s="7">
         <v>429.90240740000002</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AG18" s="7">
         <v>503.01829140000001</v>
       </c>
-      <c r="AD18" s="8">
-        <f>SQRT(($C18-AA18)^2+($D18-AB18)^2+($E18-AC18)^2)*1000</f>
+      <c r="AH18" s="8">
+        <f t="shared" si="19"/>
         <v>24.88547746618142</v>
       </c>
-      <c r="AE18" s="7">
-        <v>633.86156900000003</v>
-      </c>
-      <c r="AF18" s="7">
-        <v>429.879842</v>
-      </c>
-      <c r="AG18" s="7">
-        <v>503.01388700000001</v>
-      </c>
-      <c r="AH18" s="8">
-        <f>SQRT(($C18-AE18)^2+($D18-AF18)^2+($E18-AG18)^2)*1000</f>
-        <v>8.2708822987666561</v>
-      </c>
       <c r="AI18" s="9">
-        <v>633.84776999999997</v>
+        <v>633.85847799999999</v>
       </c>
       <c r="AJ18" s="9">
-        <v>429.87628000000001</v>
+        <v>429.88148200000001</v>
       </c>
       <c r="AK18" s="9">
-        <v>503.01195000000001</v>
+        <v>503.01341100000002</v>
       </c>
       <c r="AL18" s="10">
         <f>SQRT(($C18-AI18)^2+($D18-AJ18)^2+($E18-AK18)^2)*1000</f>
-        <v>12.098504039749232</v>
+        <v>7.1938674577392447</v>
       </c>
       <c r="AM18" s="7">
-        <v>633.85667000000001</v>
+        <v>633.86156900000003</v>
       </c>
       <c r="AN18" s="7">
-        <v>429.87759999999997</v>
+        <v>429.879842</v>
       </c>
       <c r="AO18" s="7">
-        <v>503.00685499999997</v>
+        <v>503.01388700000001</v>
       </c>
       <c r="AP18" s="8">
         <f>SQRT(($C18-AM18)^2+($D18-AN18)^2+($E18-AO18)^2)*1000</f>
+        <v>8.2708822987666561</v>
+      </c>
+      <c r="AQ18" s="9">
+        <v>633.84776999999997</v>
+      </c>
+      <c r="AR18" s="9">
+        <v>429.87628000000001</v>
+      </c>
+      <c r="AS18" s="9">
+        <v>503.01195000000001</v>
+      </c>
+      <c r="AT18" s="10">
+        <f t="shared" si="20"/>
+        <v>12.098504039749232</v>
+      </c>
+      <c r="AU18" s="7">
+        <v>633.85667000000001</v>
+      </c>
+      <c r="AV18" s="7">
+        <v>429.87759999999997</v>
+      </c>
+      <c r="AW18" s="7">
+        <v>503.00685499999997</v>
+      </c>
+      <c r="AX18" s="8">
+        <f t="shared" si="21"/>
         <v>13.379085357391013</v>
       </c>
-      <c r="AT18" s="13">
+      <c r="AY18" s="9">
+        <v>633.85281499999996</v>
+      </c>
+      <c r="AZ18" s="9">
+        <v>429.87801999999999</v>
+      </c>
+      <c r="BA18" s="9">
+        <v>503.01362</v>
+      </c>
+      <c r="BB18" s="10">
+        <f>SQRT(($C18-AY18)^2+($D18-AZ18)^2+($E18-BA18)^2)*1000</f>
+        <v>7.4006097721697959</v>
+      </c>
+      <c r="BC18" s="7">
+        <v>633.85212290000004</v>
+      </c>
+      <c r="BD18" s="7">
+        <v>429.87933020000003</v>
+      </c>
+      <c r="BE18" s="7">
+        <v>503.0097518</v>
+      </c>
+      <c r="BF18" s="8">
+        <f t="shared" si="22"/>
+        <v>10.977528851665831</v>
+      </c>
+      <c r="BJ18" s="13">
         <v>11</v>
       </c>
-      <c r="AU18" s="35"/>
-      <c r="AV18" s="15">
-        <f t="shared" si="9"/>
+      <c r="BK18" s="52"/>
+      <c r="BL18" s="15">
+        <f t="shared" si="13"/>
         <v>2.7802877548683496</v>
       </c>
-      <c r="AW18" s="35"/>
-      <c r="AX18" s="15">
-        <f t="shared" si="10"/>
+      <c r="BM18" s="52"/>
+      <c r="BN18" s="15">
+        <f t="shared" si="14"/>
         <v>9.0350936907398189</v>
       </c>
-      <c r="AY18" s="47"/>
-      <c r="AZ18" s="15">
-        <f t="shared" si="11"/>
+      <c r="BO18" s="55"/>
+      <c r="BP18" s="15">
+        <f t="shared" si="15"/>
         <v>9.9509200579865666</v>
       </c>
-      <c r="BA18" s="35"/>
-      <c r="BB18" s="15">
-        <f t="shared" si="12"/>
+      <c r="BQ18" s="52"/>
+      <c r="BR18" s="15">
+        <f t="shared" si="16"/>
         <v>7.4513666531458416</v>
       </c>
-      <c r="BC18" s="35"/>
-      <c r="BD18" s="15">
-        <f t="shared" si="13"/>
+      <c r="BS18" s="52"/>
+      <c r="BT18" s="15">
+        <f t="shared" si="17"/>
         <v>9.2279805482748003</v>
       </c>
-      <c r="BE18" s="35"/>
-      <c r="BF18" s="15">
-        <f t="shared" si="14"/>
+      <c r="BU18" s="52"/>
+      <c r="BV18" s="15">
+        <f t="shared" si="18"/>
         <v>24.88547746618142</v>
       </c>
     </row>
-    <row r="19" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>12</v>
       </c>
@@ -3258,7 +3940,7 @@
         <v>503.02539999999999</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.5221676217989479</v>
       </c>
       <c r="J19" s="7">
@@ -3274,7 +3956,7 @@
         <v>503.01370200000002</v>
       </c>
       <c r="N19" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15.685848303520482</v>
       </c>
       <c r="O19" s="9">
@@ -3287,869 +3969,965 @@
         <v>503.02350000000001</v>
       </c>
       <c r="R19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.2634654943967965</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="9">
+        <v>634.70263699999998</v>
+      </c>
+      <c r="T19" s="9">
+        <v>430.10079999999999</v>
+      </c>
+      <c r="U19" s="9">
+        <v>503.02255200000002</v>
+      </c>
+      <c r="V19" s="10">
+        <f t="shared" si="12"/>
+        <v>6.7000352983668217</v>
+      </c>
+      <c r="W19" s="7">
         <v>634.69702900000004</v>
       </c>
-      <c r="T19" s="7">
+      <c r="X19" s="7">
         <v>430.10082999999997</v>
       </c>
-      <c r="U19" s="7">
+      <c r="Y19" s="7">
         <v>503.01317499999999</v>
       </c>
-      <c r="V19" s="8">
-        <f>SQRT(($C19-S19)^2+($D19-T19)^2+($E19-U19)^2)*1000</f>
+      <c r="Z19" s="8">
+        <f t="shared" si="0"/>
         <v>9.9135445729888882</v>
       </c>
-      <c r="W19" s="9">
+      <c r="AA19" s="9">
         <v>634.69771900000001</v>
       </c>
-      <c r="X19" s="9">
+      <c r="AB19" s="9">
         <v>430.101156</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="AC19" s="9">
         <v>503.01690000000002</v>
       </c>
-      <c r="Z19" s="10">
-        <f>SQRT(($C19-W19)^2+($D19-X19)^2+($E19-Y19)^2)*1000</f>
+      <c r="AD19" s="10">
+        <f>SQRT(($C19-AA19)^2+($D19-AB19)^2+($E19-AC19)^2)*1000</f>
         <v>6.4421500292937397</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="AE19" s="7">
         <v>634.70941600000003</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AF19" s="7">
         <v>430.10294900000002</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AG19" s="7">
         <v>503.013058</v>
       </c>
-      <c r="AD19" s="8">
-        <f>SQRT(($C19-AA19)^2+($D19-AB19)^2+($E19-AC19)^2)*1000</f>
+      <c r="AH19" s="8">
+        <f t="shared" si="19"/>
         <v>16.956680718839149</v>
       </c>
-      <c r="AE19" s="7">
-        <v>634.69658000000004</v>
-      </c>
-      <c r="AF19" s="7">
-        <v>430.09992699999998</v>
-      </c>
-      <c r="AG19" s="7">
-        <v>503.02121099999999</v>
-      </c>
-      <c r="AH19" s="8">
-        <f>SQRT(($C19-AE19)^2+($D19-AF19)^2+($E19-AG19)^2)*1000</f>
-        <v>1.8820866080315783</v>
-      </c>
       <c r="AI19" s="9">
-        <v>634.69572000000005</v>
+        <v>634.69761000000005</v>
       </c>
       <c r="AJ19" s="9">
-        <v>430.09978000000001</v>
+        <v>430.09879599999999</v>
       </c>
       <c r="AK19" s="9">
-        <v>503.01831499999997</v>
+        <v>503.01207900000003</v>
       </c>
       <c r="AL19" s="10">
         <f>SQRT(($C19-AI19)^2+($D19-AJ19)^2+($E19-AK19)^2)*1000</f>
-        <v>4.6985130627121876</v>
+        <v>11.104501654737954</v>
       </c>
       <c r="AM19" s="7">
-        <v>634.70231000000001</v>
+        <v>634.69658000000004</v>
       </c>
       <c r="AN19" s="7">
-        <v>430.09800000000001</v>
+        <v>430.09992699999998</v>
       </c>
       <c r="AO19" s="7">
-        <v>503.01875000000001</v>
+        <v>503.02121099999999</v>
       </c>
       <c r="AP19" s="8">
         <f>SQRT(($C19-AM19)^2+($D19-AN19)^2+($E19-AO19)^2)*1000</f>
+        <v>1.8820866080315783</v>
+      </c>
+      <c r="AQ19" s="9">
+        <v>634.69572000000005</v>
+      </c>
+      <c r="AR19" s="9">
+        <v>430.09978000000001</v>
+      </c>
+      <c r="AS19" s="9">
+        <v>503.01831499999997</v>
+      </c>
+      <c r="AT19" s="10">
+        <f t="shared" si="20"/>
+        <v>4.6985130627121876</v>
+      </c>
+      <c r="AU19" s="7">
+        <v>634.70231000000001</v>
+      </c>
+      <c r="AV19" s="7">
+        <v>430.09800000000001</v>
+      </c>
+      <c r="AW19" s="7">
+        <v>503.01875000000001</v>
+      </c>
+      <c r="AX19" s="8">
+        <f t="shared" si="21"/>
         <v>7.8662951889666726</v>
       </c>
-      <c r="AT19" s="14">
+      <c r="AY19" s="9">
+        <v>634.69297900000004</v>
+      </c>
+      <c r="AZ19" s="9">
+        <v>430.09980999999999</v>
+      </c>
+      <c r="BA19" s="9">
+        <v>503.02536199999997</v>
+      </c>
+      <c r="BB19" s="10">
+        <f>SQRT(($C19-AY19)^2+($D19-AZ19)^2+($E19-BA19)^2)*1000</f>
+        <v>3.8394771779117955</v>
+      </c>
+      <c r="BC19" s="7">
+        <v>634.69775609999999</v>
+      </c>
+      <c r="BD19" s="7">
+        <v>430.09956</v>
+      </c>
+      <c r="BE19" s="7">
+        <v>503.01951000000003</v>
+      </c>
+      <c r="BF19" s="8">
+        <f t="shared" si="22"/>
+        <v>3.9316138174925812</v>
+      </c>
+      <c r="BJ19" s="14">
         <v>12</v>
       </c>
-      <c r="AU19" s="35"/>
-      <c r="AV19" s="16">
-        <f t="shared" si="9"/>
+      <c r="BK19" s="52"/>
+      <c r="BL19" s="16">
+        <f t="shared" si="13"/>
         <v>4.5221676217989479</v>
       </c>
-      <c r="AW19" s="35"/>
-      <c r="AX19" s="16">
-        <f t="shared" si="10"/>
+      <c r="BM19" s="52"/>
+      <c r="BN19" s="16">
+        <f t="shared" si="14"/>
         <v>15.685848303520482</v>
       </c>
-      <c r="AY19" s="47"/>
-      <c r="AZ19" s="16">
-        <f t="shared" si="11"/>
+      <c r="BO19" s="55"/>
+      <c r="BP19" s="16">
+        <f t="shared" si="15"/>
         <v>6.2634654943967965</v>
       </c>
-      <c r="BA19" s="35"/>
-      <c r="BB19" s="16">
-        <f t="shared" si="12"/>
+      <c r="BQ19" s="52"/>
+      <c r="BR19" s="16">
+        <f t="shared" si="16"/>
         <v>9.9135445729888882</v>
       </c>
-      <c r="BC19" s="35"/>
-      <c r="BD19" s="16">
-        <f t="shared" si="13"/>
+      <c r="BS19" s="52"/>
+      <c r="BT19" s="16">
+        <f t="shared" si="17"/>
         <v>6.4421500292937397</v>
       </c>
-      <c r="BE19" s="35"/>
-      <c r="BF19" s="16">
-        <f t="shared" si="14"/>
+      <c r="BU19" s="52"/>
+      <c r="BV19" s="16">
+        <f t="shared" si="18"/>
         <v>16.956680718839149</v>
       </c>
     </row>
-    <row r="20" spans="2:62" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:78" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="11">
         <f>AVERAGE(I8:I19)</f>
         <v>8.0640096116146758</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="37"/>
       <c r="N20" s="11">
         <f>AVERAGE(N8:N19)</f>
         <v>20.867804194037934</v>
       </c>
-      <c r="O20" s="50"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="52"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
       <c r="R20" s="12">
         <f>AVERAGE(R8:R19)</f>
         <v>9.5326567128164168</v>
       </c>
-      <c r="S20" s="31"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="11">
+      <c r="S20" s="39"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="12">
         <f>AVERAGE(V8:V19)</f>
+        <v>12.235518039379158</v>
+      </c>
+      <c r="W20" s="35"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="11">
+        <f>AVERAGE(Z8:Z19)</f>
         <v>6.3640836498666902</v>
       </c>
-      <c r="W20" s="50"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="12">
-        <f>AVERAGE(Z8:Z13,Z15:Z19)</f>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="12">
+        <f>AVERAGE(AD8:AD13,AD15:AD19)</f>
         <v>6.645200637646874</v>
       </c>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="11">
-        <f>AVERAGE(AD8:AD19)</f>
-        <v>17.978915387275347</v>
-      </c>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="33"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="37"/>
       <c r="AH20" s="11">
         <f>AVERAGE(AH8:AH19)</f>
-        <v>7.9464501006021679</v>
-      </c>
-      <c r="AI20" s="50"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="52"/>
+        <v>17.978915387275347</v>
+      </c>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="41"/>
       <c r="AL20" s="12">
         <f>AVERAGE(AL8:AL19)</f>
-        <v>11.37451732749021</v>
-      </c>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="33"/>
+        <v>5.7389381533311665</v>
+      </c>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="37"/>
       <c r="AP20" s="11">
         <f>AVERAGE(AP8:AP19)</f>
+        <v>7.9464501006021679</v>
+      </c>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="12">
+        <f>AVERAGE(AT8:AT19)</f>
+        <v>11.37451732749021</v>
+      </c>
+      <c r="AU20" s="35"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="37"/>
+      <c r="AX20" s="11">
+        <f>AVERAGE(AX8:AX19)</f>
         <v>13.580247681367959</v>
       </c>
-      <c r="AT20" s="17" t="s">
+      <c r="AY20" s="39"/>
+      <c r="AZ20" s="40"/>
+      <c r="BA20" s="41"/>
+      <c r="BB20" s="12">
+        <f>AVERAGE(BB8:BB19)</f>
+        <v>8.2107183696253614</v>
+      </c>
+      <c r="BC20" s="35"/>
+      <c r="BD20" s="36"/>
+      <c r="BE20" s="37"/>
+      <c r="BF20" s="11">
+        <f>AVERAGE(BF8:BF19)</f>
+        <v>5.9513133807946446</v>
+      </c>
+      <c r="BJ20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AU20" s="36"/>
-      <c r="AV20" s="18">
-        <f>AVERAGE(AV8:AV19)</f>
+      <c r="BK20" s="53"/>
+      <c r="BL20" s="18">
+        <f>AVERAGE(BL8:BL19)</f>
         <v>8.0640096116146758</v>
       </c>
-      <c r="AW20" s="36"/>
-      <c r="AX20" s="18">
-        <f>AVERAGE(AX8:AX19)</f>
+      <c r="BM20" s="53"/>
+      <c r="BN20" s="18">
+        <f>AVERAGE(BN8:BN19)</f>
         <v>20.867804194037934</v>
       </c>
-      <c r="AY20" s="48"/>
-      <c r="AZ20" s="18">
-        <f>AVERAGE(AZ8:AZ19)</f>
+      <c r="BO20" s="56"/>
+      <c r="BP20" s="18">
+        <f>AVERAGE(BP8:BP19)</f>
         <v>9.5326567128164168</v>
       </c>
-      <c r="BA20" s="36"/>
-      <c r="BB20" s="18">
-        <f>AVERAGE(BB8:BB19)</f>
+      <c r="BQ20" s="53"/>
+      <c r="BR20" s="18">
+        <f>AVERAGE(BR8:BR19)</f>
         <v>6.3640836498666902</v>
       </c>
-      <c r="BC20" s="36"/>
-      <c r="BD20" s="18">
-        <f>AVERAGE(BD8:BD13,BD15:BD19)</f>
+      <c r="BS20" s="53"/>
+      <c r="BT20" s="18">
+        <f>AVERAGE(BT8:BT13,BT15:BT19)</f>
         <v>6.645200637646874</v>
       </c>
-      <c r="BE20" s="36"/>
-      <c r="BF20" s="18">
-        <f>AVERAGE(BF8:BF19)</f>
+      <c r="BU20" s="53"/>
+      <c r="BV20" s="18">
+        <f>AVERAGE(BV8:BV19)</f>
         <v>17.978915387275347</v>
       </c>
     </row>
-    <row r="28" spans="2:62" ht="30" x14ac:dyDescent="0.25">
-      <c r="BI28" s="1" t="s">
+    <row r="28" spans="2:78" ht="30" x14ac:dyDescent="0.25">
+      <c r="BY28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BJ28" s="28" t="s">
+      <c r="BZ28" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="BI29" s="27" t="s">
+    <row r="29" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="BY29" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="BJ29" s="29" t="s">
+      <c r="BZ29" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="BI30" s="27" t="s">
+    <row r="30" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="BY30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="BJ30" s="29" t="s">
+      <c r="BZ30" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="BI31" s="27" t="s">
+    <row r="31" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="BY31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="BJ31" s="29" t="s">
+      <c r="BZ31" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="BI32" s="27" t="s">
+    <row r="32" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="BY32" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="BJ32" s="29" t="s">
+      <c r="BZ32" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="46:62" x14ac:dyDescent="0.25">
-      <c r="BI33" s="27" t="s">
+    <row r="33" spans="62:78" x14ac:dyDescent="0.25">
+      <c r="BY33" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="BJ33" s="29" t="s">
+      <c r="BZ33" s="29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="46:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="46:62" x14ac:dyDescent="0.25">
-      <c r="AT37" s="37" t="s">
+    <row r="34" spans="62:78" x14ac:dyDescent="0.25">
+      <c r="BY34" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="BZ34" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="62:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="62:78" x14ac:dyDescent="0.25">
+      <c r="BJ37" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="AU37" s="38"/>
-      <c r="AV37" s="38"/>
-      <c r="AW37" s="38"/>
-      <c r="AX37" s="38"/>
-      <c r="AY37" s="38"/>
-      <c r="AZ37" s="38"/>
-      <c r="BA37" s="38"/>
-      <c r="BB37" s="38"/>
-      <c r="BC37" s="38"/>
-      <c r="BD37" s="38"/>
-      <c r="BE37" s="38"/>
-      <c r="BF37" s="39"/>
-    </row>
-    <row r="38" spans="46:62" x14ac:dyDescent="0.25">
-      <c r="AT38" s="40"/>
-      <c r="AU38" s="41"/>
-      <c r="AV38" s="41"/>
-      <c r="AW38" s="41"/>
-      <c r="AX38" s="41"/>
-      <c r="AY38" s="41"/>
-      <c r="AZ38" s="41"/>
-      <c r="BA38" s="41"/>
-      <c r="BB38" s="41"/>
-      <c r="BC38" s="41"/>
-      <c r="BD38" s="41"/>
-      <c r="BE38" s="41"/>
-      <c r="BF38" s="42"/>
-    </row>
-    <row r="39" spans="46:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AT39" s="43"/>
-      <c r="AU39" s="44"/>
-      <c r="AV39" s="44"/>
-      <c r="AW39" s="44"/>
-      <c r="AX39" s="44"/>
-      <c r="AY39" s="44"/>
-      <c r="AZ39" s="44"/>
-      <c r="BA39" s="44"/>
-      <c r="BB39" s="44"/>
-      <c r="BC39" s="44"/>
-      <c r="BD39" s="44"/>
-      <c r="BE39" s="44"/>
-      <c r="BF39" s="45"/>
-    </row>
-    <row r="40" spans="46:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AT40" s="21" t="s">
+      <c r="BK37" s="43"/>
+      <c r="BL37" s="43"/>
+      <c r="BM37" s="43"/>
+      <c r="BN37" s="43"/>
+      <c r="BO37" s="43"/>
+      <c r="BP37" s="43"/>
+      <c r="BQ37" s="43"/>
+      <c r="BR37" s="43"/>
+      <c r="BS37" s="43"/>
+      <c r="BT37" s="43"/>
+      <c r="BU37" s="43"/>
+      <c r="BV37" s="44"/>
+    </row>
+    <row r="38" spans="62:78" x14ac:dyDescent="0.25">
+      <c r="BJ38" s="45"/>
+      <c r="BK38" s="46"/>
+      <c r="BL38" s="46"/>
+      <c r="BM38" s="46"/>
+      <c r="BN38" s="46"/>
+      <c r="BO38" s="46"/>
+      <c r="BP38" s="46"/>
+      <c r="BQ38" s="46"/>
+      <c r="BR38" s="46"/>
+      <c r="BS38" s="46"/>
+      <c r="BT38" s="46"/>
+      <c r="BU38" s="46"/>
+      <c r="BV38" s="47"/>
+    </row>
+    <row r="39" spans="62:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ39" s="48"/>
+      <c r="BK39" s="49"/>
+      <c r="BL39" s="49"/>
+      <c r="BM39" s="49"/>
+      <c r="BN39" s="49"/>
+      <c r="BO39" s="49"/>
+      <c r="BP39" s="49"/>
+      <c r="BQ39" s="49"/>
+      <c r="BR39" s="49"/>
+      <c r="BS39" s="49"/>
+      <c r="BT39" s="49"/>
+      <c r="BU39" s="49"/>
+      <c r="BV39" s="50"/>
+    </row>
+    <row r="40" spans="62:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ40" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AU40" s="22" t="s">
+      <c r="BK40" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AV40" s="23" t="s">
+      <c r="BL40" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AW40" s="22" t="s">
+      <c r="BM40" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AX40" s="23" t="s">
+      <c r="BN40" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AY40" s="22" t="s">
+      <c r="BO40" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AZ40" s="23" t="s">
+      <c r="BP40" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BA40" s="22" t="s">
+      <c r="BQ40" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BB40" s="23" t="s">
+      <c r="BR40" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BC40" s="22" t="s">
+      <c r="BS40" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BD40" s="23" t="s">
+      <c r="BT40" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BE40" s="22" t="s">
+      <c r="BU40" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BF40" s="23" t="s">
+      <c r="BV40" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="46:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AT41" s="19">
+    <row r="41" spans="62:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BJ41" s="19">
         <v>1</v>
       </c>
-      <c r="AU41" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV41" s="20">
-        <f>V8</f>
-        <v>6.2157915826990688</v>
-      </c>
-      <c r="AW41" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX41" s="20">
-        <f>Z8</f>
-        <v>9.7457939645817468</v>
-      </c>
-      <c r="AY41" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ41" s="20">
-        <f>AD8</f>
-        <v>7.3258446611918986</v>
-      </c>
-      <c r="BA41" s="34" t="s">
+      <c r="BK41" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL41" s="20">
+        <f>AL8</f>
+        <v>3.2895993677707787</v>
+      </c>
+      <c r="BM41" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="BB41" s="20">
-        <f>AH8</f>
+      <c r="BN41" s="20">
+        <f>AP8</f>
         <v>7.3466189501772234</v>
       </c>
-      <c r="BC41" s="34" t="s">
+      <c r="BO41" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="BD41" s="20">
-        <f>AL8</f>
+      <c r="BP41" s="20">
+        <f>AT8</f>
         <v>17.189866462532407</v>
       </c>
-      <c r="BE41" s="34" t="s">
+      <c r="BQ41" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="BF41" s="20">
-        <f>AP8</f>
+      <c r="BR41" s="20">
+        <f>AX8</f>
         <v>10.099628706032824</v>
       </c>
-    </row>
-    <row r="42" spans="46:62" x14ac:dyDescent="0.25">
-      <c r="AT42" s="13">
+      <c r="BS41" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="BT41" s="20">
+        <f>BB8</f>
+        <v>12.305753491741021</v>
+      </c>
+      <c r="BU41" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="BV41" s="20">
+        <f>BF8</f>
+        <v>4.8708752874300325</v>
+      </c>
+    </row>
+    <row r="42" spans="62:78" x14ac:dyDescent="0.25">
+      <c r="BJ42" s="13">
         <v>2</v>
       </c>
-      <c r="AU42" s="35"/>
-      <c r="AV42" s="15">
-        <f t="shared" ref="AV42:AV52" si="20">V9</f>
-        <v>6.392926794497038</v>
-      </c>
-      <c r="AW42" s="35"/>
-      <c r="AX42" s="15">
-        <f t="shared" ref="AX42:AX52" si="21">Z9</f>
-        <v>2.0416721088637151</v>
-      </c>
-      <c r="AY42" s="35"/>
-      <c r="AZ42" s="15">
-        <f t="shared" ref="AZ42:AZ52" si="22">AD9</f>
-        <v>13.601285874467283</v>
-      </c>
-      <c r="BA42" s="35"/>
-      <c r="BB42" s="15">
-        <f t="shared" ref="BB42:BB52" si="23">AH9</f>
+      <c r="BK42" s="52"/>
+      <c r="BL42" s="15">
+        <f t="shared" ref="BL42:BL52" si="23">AL9</f>
+        <v>2.697298833982829</v>
+      </c>
+      <c r="BM42" s="52"/>
+      <c r="BN42" s="15">
+        <f t="shared" ref="BN42:BN52" si="24">AP9</f>
         <v>10.755708065968818</v>
       </c>
-      <c r="BC42" s="35"/>
-      <c r="BD42" s="15">
-        <f t="shared" ref="BD42:BD52" si="24">AL9</f>
+      <c r="BO42" s="52"/>
+      <c r="BP42" s="15">
+        <f t="shared" ref="BP42:BP52" si="25">AT9</f>
         <v>14.57484082245554</v>
       </c>
-      <c r="BE42" s="35"/>
-      <c r="BF42" s="15">
-        <f t="shared" ref="BF42:BF52" si="25">AP9</f>
+      <c r="BQ42" s="52"/>
+      <c r="BR42" s="15">
+        <f t="shared" ref="BR42:BR52" si="26">AX9</f>
         <v>12.987620382824526</v>
       </c>
-    </row>
-    <row r="43" spans="46:62" x14ac:dyDescent="0.25">
-      <c r="AT43" s="13">
+      <c r="BS42" s="52"/>
+      <c r="BT42" s="15">
+        <f t="shared" ref="BT42:BT52" si="27">BB9</f>
+        <v>10.159819092921303</v>
+      </c>
+      <c r="BU42" s="52"/>
+      <c r="BV42" s="15">
+        <f t="shared" ref="BV42:BV52" si="28">BF9</f>
+        <v>5.0618837087942081</v>
+      </c>
+    </row>
+    <row r="43" spans="62:78" x14ac:dyDescent="0.25">
+      <c r="BJ43" s="13">
         <v>3</v>
       </c>
-      <c r="AU43" s="35"/>
-      <c r="AV43" s="15">
-        <f t="shared" si="20"/>
-        <v>12.835303424595075</v>
-      </c>
-      <c r="AW43" s="35"/>
-      <c r="AX43" s="15">
-        <f t="shared" si="21"/>
-        <v>4.8559242168291092</v>
-      </c>
-      <c r="AY43" s="35"/>
-      <c r="AZ43" s="15">
-        <f t="shared" si="22"/>
-        <v>17.129229404749246</v>
-      </c>
-      <c r="BA43" s="35"/>
-      <c r="BB43" s="15">
+      <c r="BK43" s="52"/>
+      <c r="BL43" s="15">
         <f t="shared" si="23"/>
+        <v>8.5497836814975265</v>
+      </c>
+      <c r="BM43" s="52"/>
+      <c r="BN43" s="15">
+        <f t="shared" si="24"/>
         <v>12.619069379383665</v>
       </c>
-      <c r="BC43" s="35"/>
-      <c r="BD43" s="15">
+      <c r="BO43" s="52"/>
+      <c r="BP43" s="15">
+        <f t="shared" si="25"/>
+        <v>15.230927286264009</v>
+      </c>
+      <c r="BQ43" s="52"/>
+      <c r="BR43" s="15">
+        <f t="shared" si="26"/>
+        <v>10.635130464704577</v>
+      </c>
+      <c r="BS43" s="52"/>
+      <c r="BT43" s="15">
+        <f t="shared" si="27"/>
+        <v>14.851908968217286</v>
+      </c>
+      <c r="BU43" s="52"/>
+      <c r="BV43" s="15">
+        <f t="shared" si="28"/>
+        <v>10.944253916835038</v>
+      </c>
+    </row>
+    <row r="44" spans="62:78" x14ac:dyDescent="0.25">
+      <c r="BJ44" s="13">
+        <v>4</v>
+      </c>
+      <c r="BK44" s="52"/>
+      <c r="BL44" s="15">
+        <f t="shared" si="23"/>
+        <v>6.6899387889901858</v>
+      </c>
+      <c r="BM44" s="52"/>
+      <c r="BN44" s="15">
         <f t="shared" si="24"/>
-        <v>15.230927286264009</v>
-      </c>
-      <c r="BE43" s="35"/>
-      <c r="BF43" s="15">
+        <v>6.6066587621910369</v>
+      </c>
+      <c r="BO44" s="52"/>
+      <c r="BP44" s="15">
         <f t="shared" si="25"/>
-        <v>10.635130464704577</v>
-      </c>
-    </row>
-    <row r="44" spans="46:62" x14ac:dyDescent="0.25">
-      <c r="AT44" s="13">
-        <v>4</v>
-      </c>
-      <c r="AU44" s="35"/>
-      <c r="AV44" s="15">
-        <f t="shared" si="20"/>
-        <v>7.4546397632827741</v>
-      </c>
-      <c r="AW44" s="35"/>
-      <c r="AX44" s="15">
-        <f t="shared" si="21"/>
-        <v>4.3794976880734806</v>
-      </c>
-      <c r="AY44" s="35"/>
-      <c r="AZ44" s="15">
-        <f t="shared" si="22"/>
-        <v>14.489514450104156</v>
-      </c>
-      <c r="BA44" s="35"/>
-      <c r="BB44" s="15">
+        <v>3.1502966526600589</v>
+      </c>
+      <c r="BQ44" s="52"/>
+      <c r="BR44" s="15">
+        <f t="shared" si="26"/>
+        <v>9.0368910583373143</v>
+      </c>
+      <c r="BS44" s="52"/>
+      <c r="BT44" s="15">
+        <f t="shared" si="27"/>
+        <v>4.9961269999553872</v>
+      </c>
+      <c r="BU44" s="52"/>
+      <c r="BV44" s="15">
+        <f t="shared" si="28"/>
+        <v>1.4933075522466277</v>
+      </c>
+    </row>
+    <row r="45" spans="62:78" x14ac:dyDescent="0.25">
+      <c r="BJ45" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK45" s="52"/>
+      <c r="BL45" s="15">
         <f t="shared" si="23"/>
-        <v>6.6066587621910369</v>
-      </c>
-      <c r="BC44" s="35"/>
-      <c r="BD44" s="15">
+        <v>3.2401422808094757</v>
+      </c>
+      <c r="BM45" s="52"/>
+      <c r="BN45" s="15">
         <f t="shared" si="24"/>
-        <v>3.1502966526600589</v>
-      </c>
-      <c r="BE44" s="35"/>
-      <c r="BF44" s="15">
+        <v>8.0515122182035626</v>
+      </c>
+      <c r="BO45" s="52"/>
+      <c r="BP45" s="15">
         <f t="shared" si="25"/>
-        <v>9.0368910583373143</v>
-      </c>
-    </row>
-    <row r="45" spans="46:62" x14ac:dyDescent="0.25">
-      <c r="AT45" s="13">
-        <v>5</v>
-      </c>
-      <c r="AU45" s="35"/>
-      <c r="AV45" s="15">
-        <f t="shared" si="20"/>
-        <v>2.0686104031941541</v>
-      </c>
-      <c r="AW45" s="35"/>
-      <c r="AX45" s="15">
-        <f t="shared" si="21"/>
-        <v>7.7233671413825409</v>
-      </c>
-      <c r="AY45" s="35"/>
-      <c r="AZ45" s="15">
-        <f t="shared" si="22"/>
-        <v>22.958063027198957</v>
-      </c>
-      <c r="BA45" s="35"/>
-      <c r="BB45" s="15">
+        <v>12.147617914648828</v>
+      </c>
+      <c r="BQ45" s="52"/>
+      <c r="BR45" s="15">
+        <f t="shared" si="26"/>
+        <v>25.230853116777951</v>
+      </c>
+      <c r="BS45" s="52"/>
+      <c r="BT45" s="15">
+        <f t="shared" si="27"/>
+        <v>10.375307224322254</v>
+      </c>
+      <c r="BU45" s="52"/>
+      <c r="BV45" s="15">
+        <f t="shared" si="28"/>
+        <v>4.7058999819654064</v>
+      </c>
+    </row>
+    <row r="46" spans="62:78" x14ac:dyDescent="0.25">
+      <c r="BJ46" s="13">
+        <v>6</v>
+      </c>
+      <c r="BK46" s="52"/>
+      <c r="BL46" s="15">
         <f t="shared" si="23"/>
-        <v>8.0515122182035626</v>
-      </c>
-      <c r="BC45" s="35"/>
-      <c r="BD45" s="15">
+        <v>3.0195100596317133</v>
+      </c>
+      <c r="BM46" s="52"/>
+      <c r="BN46" s="15">
         <f t="shared" si="24"/>
-        <v>12.147617914648828</v>
-      </c>
-      <c r="BE45" s="35"/>
-      <c r="BF45" s="15">
+        <v>6.8670838060501369</v>
+      </c>
+      <c r="BO46" s="52"/>
+      <c r="BP46" s="15">
         <f t="shared" si="25"/>
-        <v>25.230853116777951</v>
-      </c>
-    </row>
-    <row r="46" spans="46:62" x14ac:dyDescent="0.25">
-      <c r="AT46" s="13">
+        <v>9.9154677146171526</v>
+      </c>
+      <c r="BQ46" s="52"/>
+      <c r="BR46" s="15">
+        <f t="shared" si="26"/>
+        <v>3.0482125909737401</v>
+      </c>
+      <c r="BS46" s="52"/>
+      <c r="BT46" s="15">
+        <f t="shared" si="27"/>
+        <v>5.7391462779800007</v>
+      </c>
+      <c r="BU46" s="52"/>
+      <c r="BV46" s="15">
+        <f t="shared" si="28"/>
+        <v>3.2890915220357049</v>
+      </c>
+    </row>
+    <row r="47" spans="62:78" x14ac:dyDescent="0.25">
+      <c r="BJ47" s="13">
+        <v>7</v>
+      </c>
+      <c r="BK47" s="52"/>
+      <c r="BL47" s="15">
+        <f t="shared" si="23"/>
+        <v>7.8802205553186839</v>
+      </c>
+      <c r="BM47" s="52"/>
+      <c r="BN47" s="15">
+        <f t="shared" si="24"/>
+        <v>5.3383165885722823</v>
+      </c>
+      <c r="BO47" s="52"/>
+      <c r="BP47" s="15">
+        <f t="shared" si="25"/>
+        <v>7.3843029461409806</v>
+      </c>
+      <c r="BQ47" s="52"/>
+      <c r="BR47" s="15">
+        <f t="shared" si="26"/>
+        <v>29.841523084449886</v>
+      </c>
+      <c r="BS47" s="52"/>
+      <c r="BT47" s="15">
+        <f t="shared" si="27"/>
+        <v>5.4484162836385694</v>
+      </c>
+      <c r="BU47" s="52"/>
+      <c r="BV47" s="15">
+        <f t="shared" si="28"/>
+        <v>8.2478071849448789</v>
+      </c>
+    </row>
+    <row r="48" spans="62:78" x14ac:dyDescent="0.25">
+      <c r="BJ48" s="13">
+        <v>8</v>
+      </c>
+      <c r="BK48" s="52"/>
+      <c r="BL48" s="15">
+        <f t="shared" si="23"/>
+        <v>5.862465778152826</v>
+      </c>
+      <c r="BM48" s="52"/>
+      <c r="BN48" s="15">
+        <f t="shared" si="24"/>
+        <v>3.9984073079128772</v>
+      </c>
+      <c r="BO48" s="52"/>
+      <c r="BP48" s="15">
+        <f t="shared" si="25"/>
+        <v>9.1336008233868924</v>
+      </c>
+      <c r="BQ48" s="52"/>
+      <c r="BR48" s="15">
+        <f t="shared" si="26"/>
+        <v>15.443793607776866</v>
+      </c>
+      <c r="BS48" s="52"/>
+      <c r="BT48" s="15">
+        <f t="shared" si="27"/>
+        <v>6.1468464272416066</v>
+      </c>
+      <c r="BU48" s="52"/>
+      <c r="BV48" s="15">
+        <f t="shared" si="28"/>
+        <v>9.4602522884336366</v>
+      </c>
+    </row>
+    <row r="49" spans="62:74" x14ac:dyDescent="0.25">
+      <c r="BJ49" s="13">
+        <v>9</v>
+      </c>
+      <c r="BK49" s="52"/>
+      <c r="BL49" s="15">
+        <f t="shared" si="23"/>
+        <v>3.8780822579688721</v>
+      </c>
+      <c r="BM49" s="52"/>
+      <c r="BN49" s="15">
+        <f t="shared" si="24"/>
+        <v>13.330408845896887</v>
+      </c>
+      <c r="BO49" s="52"/>
+      <c r="BP49" s="15">
+        <f t="shared" si="25"/>
+        <v>18.931042654781713</v>
+      </c>
+      <c r="BQ49" s="52"/>
+      <c r="BR49" s="15">
+        <f t="shared" si="26"/>
+        <v>10.350779874009948</v>
+      </c>
+      <c r="BS49" s="52"/>
+      <c r="BT49" s="15">
+        <f t="shared" si="27"/>
+        <v>9.8351054900232899</v>
+      </c>
+      <c r="BU49" s="52"/>
+      <c r="BV49" s="15">
+        <f t="shared" si="28"/>
+        <v>4.5682224927510404</v>
+      </c>
+    </row>
+    <row r="50" spans="62:74" x14ac:dyDescent="0.25">
+      <c r="BJ50" s="13">
+        <v>10</v>
+      </c>
+      <c r="BK50" s="52"/>
+      <c r="BL50" s="15">
+        <f t="shared" si="23"/>
+        <v>5.4618471233739134</v>
+      </c>
+      <c r="BM50" s="52"/>
+      <c r="BN50" s="15">
+        <f t="shared" si="24"/>
+        <v>10.290648376071282</v>
+      </c>
+      <c r="BO50" s="52"/>
+      <c r="BP50" s="15">
+        <f t="shared" si="25"/>
+        <v>12.039227549933516</v>
+      </c>
+      <c r="BQ50" s="52"/>
+      <c r="BR50" s="15">
+        <f t="shared" si="26"/>
+        <v>15.043158744170237</v>
+      </c>
+      <c r="BS50" s="52"/>
+      <c r="BT50" s="15">
+        <f t="shared" si="27"/>
+        <v>7.4301032293820182</v>
+      </c>
+      <c r="BU50" s="52"/>
+      <c r="BV50" s="15">
+        <f t="shared" si="28"/>
+        <v>3.865023964940753</v>
+      </c>
+    </row>
+    <row r="51" spans="62:74" x14ac:dyDescent="0.25">
+      <c r="BJ51" s="13">
+        <v>11</v>
+      </c>
+      <c r="BK51" s="52"/>
+      <c r="BL51" s="15">
+        <f t="shared" si="23"/>
+        <v>7.1938674577392447</v>
+      </c>
+      <c r="BM51" s="52"/>
+      <c r="BN51" s="15">
+        <f t="shared" si="24"/>
+        <v>8.2708822987666561</v>
+      </c>
+      <c r="BO51" s="52"/>
+      <c r="BP51" s="15">
+        <f t="shared" si="25"/>
+        <v>12.098504039749232</v>
+      </c>
+      <c r="BQ51" s="52"/>
+      <c r="BR51" s="15">
+        <f t="shared" si="26"/>
+        <v>13.379085357391013</v>
+      </c>
+      <c r="BS51" s="52"/>
+      <c r="BT51" s="15">
+        <f t="shared" si="27"/>
+        <v>7.4006097721697959</v>
+      </c>
+      <c r="BU51" s="52"/>
+      <c r="BV51" s="15">
+        <f t="shared" si="28"/>
+        <v>10.977528851665831</v>
+      </c>
+    </row>
+    <row r="52" spans="62:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ52" s="14">
+        <v>12</v>
+      </c>
+      <c r="BK52" s="52"/>
+      <c r="BL52" s="16">
+        <f t="shared" si="23"/>
+        <v>11.104501654737954</v>
+      </c>
+      <c r="BM52" s="52"/>
+      <c r="BN52" s="16">
+        <f t="shared" si="24"/>
+        <v>1.8820866080315783</v>
+      </c>
+      <c r="BO52" s="52"/>
+      <c r="BP52" s="16">
+        <f t="shared" si="25"/>
+        <v>4.6985130627121876</v>
+      </c>
+      <c r="BQ52" s="52"/>
+      <c r="BR52" s="16">
+        <f t="shared" si="26"/>
+        <v>7.8662951889666726</v>
+      </c>
+      <c r="BS52" s="52"/>
+      <c r="BT52" s="16">
+        <f t="shared" si="27"/>
+        <v>3.8394771779117955</v>
+      </c>
+      <c r="BU52" s="52"/>
+      <c r="BV52" s="16">
+        <f t="shared" si="28"/>
+        <v>3.9316138174925812</v>
+      </c>
+    </row>
+    <row r="53" spans="62:74" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ53" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AU46" s="35"/>
-      <c r="AV46" s="15">
-        <f t="shared" si="20"/>
-        <v>2.8715697797664488</v>
-      </c>
-      <c r="AW46" s="35"/>
-      <c r="AX46" s="15">
-        <f t="shared" si="21"/>
-        <v>8.1760947278637115</v>
-      </c>
-      <c r="AY46" s="35"/>
-      <c r="AZ46" s="15">
-        <f t="shared" si="22"/>
-        <v>12.382811635496138</v>
-      </c>
-      <c r="BA46" s="35"/>
-      <c r="BB46" s="15">
-        <f t="shared" si="23"/>
-        <v>6.8670838060501369</v>
-      </c>
-      <c r="BC46" s="35"/>
-      <c r="BD46" s="15">
-        <f t="shared" si="24"/>
-        <v>9.9154677146171526</v>
-      </c>
-      <c r="BE46" s="35"/>
-      <c r="BF46" s="15">
-        <f t="shared" si="25"/>
-        <v>3.0482125909737401</v>
-      </c>
-    </row>
-    <row r="47" spans="46:62" x14ac:dyDescent="0.25">
-      <c r="AT47" s="13">
-        <v>7</v>
-      </c>
-      <c r="AU47" s="35"/>
-      <c r="AV47" s="15">
-        <f t="shared" si="20"/>
-        <v>8.2001882905225187</v>
-      </c>
-      <c r="AW47" s="35"/>
-      <c r="AX47" s="59">
-        <f t="shared" si="21"/>
-        <v>26.322070587242361</v>
-      </c>
-      <c r="AY47" s="35"/>
-      <c r="AZ47" s="15">
-        <f t="shared" si="22"/>
-        <v>38.324025101729092</v>
-      </c>
-      <c r="BA47" s="35"/>
-      <c r="BB47" s="15">
-        <f t="shared" si="23"/>
-        <v>5.3383165885722823</v>
-      </c>
-      <c r="BC47" s="35"/>
-      <c r="BD47" s="15">
-        <f t="shared" si="24"/>
-        <v>7.3843029461409806</v>
-      </c>
-      <c r="BE47" s="35"/>
-      <c r="BF47" s="15">
-        <f t="shared" si="25"/>
-        <v>29.841523084449886</v>
-      </c>
-    </row>
-    <row r="48" spans="46:62" x14ac:dyDescent="0.25">
-      <c r="AT48" s="13">
-        <v>8</v>
-      </c>
-      <c r="AU48" s="35"/>
-      <c r="AV48" s="15">
-        <f t="shared" si="20"/>
-        <v>1.4612080618790346</v>
-      </c>
-      <c r="AW48" s="35"/>
-      <c r="AX48" s="15">
-        <f t="shared" si="21"/>
-        <v>8.7206651122424201</v>
-      </c>
-      <c r="AY48" s="35"/>
-      <c r="AZ48" s="15">
-        <f t="shared" si="22"/>
-        <v>8.6448152235857023</v>
-      </c>
-      <c r="BA48" s="35"/>
-      <c r="BB48" s="15">
-        <f t="shared" si="23"/>
-        <v>3.9984073079128772</v>
-      </c>
-      <c r="BC48" s="35"/>
-      <c r="BD48" s="15">
-        <f t="shared" si="24"/>
-        <v>9.1336008233868924</v>
-      </c>
-      <c r="BE48" s="35"/>
-      <c r="BF48" s="15">
-        <f t="shared" si="25"/>
-        <v>15.443793607776866</v>
-      </c>
-    </row>
-    <row r="49" spans="46:58" x14ac:dyDescent="0.25">
-      <c r="AT49" s="13">
-        <v>9</v>
-      </c>
-      <c r="AU49" s="35"/>
-      <c r="AV49" s="15">
-        <f t="shared" si="20"/>
-        <v>4.9532683149133669</v>
-      </c>
-      <c r="AW49" s="35"/>
-      <c r="AX49" s="15">
-        <f t="shared" si="21"/>
-        <v>5.4172236431305274</v>
-      </c>
-      <c r="AY49" s="35"/>
-      <c r="AZ49" s="15">
-        <f t="shared" si="22"/>
-        <v>25.702896723889626</v>
-      </c>
-      <c r="BA49" s="35"/>
-      <c r="BB49" s="15">
-        <f t="shared" si="23"/>
-        <v>13.330408845896887</v>
-      </c>
-      <c r="BC49" s="35"/>
-      <c r="BD49" s="15">
-        <f t="shared" si="24"/>
-        <v>18.931042654781713</v>
-      </c>
-      <c r="BE49" s="35"/>
-      <c r="BF49" s="15">
-        <f t="shared" si="25"/>
-        <v>10.350779874009948</v>
-      </c>
-    </row>
-    <row r="50" spans="46:58" x14ac:dyDescent="0.25">
-      <c r="AT50" s="13">
-        <v>10</v>
-      </c>
-      <c r="AU50" s="35"/>
-      <c r="AV50" s="15">
-        <f t="shared" si="20"/>
-        <v>6.5505861569160908</v>
-      </c>
-      <c r="AW50" s="35"/>
-      <c r="AX50" s="15">
-        <f t="shared" si="21"/>
-        <v>6.3668378335798206</v>
-      </c>
-      <c r="AY50" s="35"/>
-      <c r="AZ50" s="15">
-        <f t="shared" si="22"/>
-        <v>13.346340359871515</v>
-      </c>
-      <c r="BA50" s="35"/>
-      <c r="BB50" s="15">
-        <f t="shared" si="23"/>
-        <v>10.290648376071282</v>
-      </c>
-      <c r="BC50" s="35"/>
-      <c r="BD50" s="15">
-        <f t="shared" si="24"/>
-        <v>12.039227549933516</v>
-      </c>
-      <c r="BE50" s="35"/>
-      <c r="BF50" s="15">
-        <f t="shared" si="25"/>
-        <v>15.043158744170237</v>
-      </c>
-    </row>
-    <row r="51" spans="46:58" x14ac:dyDescent="0.25">
-      <c r="AT51" s="13">
-        <v>11</v>
-      </c>
-      <c r="AU51" s="35"/>
-      <c r="AV51" s="15">
-        <f t="shared" si="20"/>
-        <v>7.4513666531458416</v>
-      </c>
-      <c r="AW51" s="35"/>
-      <c r="AX51" s="15">
-        <f t="shared" si="21"/>
-        <v>9.2279805482748003</v>
-      </c>
-      <c r="AY51" s="35"/>
-      <c r="AZ51" s="15">
-        <f t="shared" si="22"/>
-        <v>24.88547746618142</v>
-      </c>
-      <c r="BA51" s="35"/>
-      <c r="BB51" s="15">
-        <f t="shared" si="23"/>
-        <v>8.2708822987666561</v>
-      </c>
-      <c r="BC51" s="35"/>
-      <c r="BD51" s="15">
-        <f t="shared" si="24"/>
-        <v>12.098504039749232</v>
-      </c>
-      <c r="BE51" s="35"/>
-      <c r="BF51" s="15">
-        <f t="shared" si="25"/>
-        <v>13.379085357391013</v>
-      </c>
-    </row>
-    <row r="52" spans="46:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AT52" s="14">
-        <v>12</v>
-      </c>
-      <c r="AU52" s="35"/>
-      <c r="AV52" s="16">
-        <f t="shared" si="20"/>
-        <v>9.9135445729888882</v>
-      </c>
-      <c r="AW52" s="35"/>
-      <c r="AX52" s="16">
-        <f t="shared" si="21"/>
-        <v>6.4421500292937397</v>
-      </c>
-      <c r="AY52" s="35"/>
-      <c r="AZ52" s="16">
-        <f t="shared" si="22"/>
-        <v>16.956680718839149</v>
-      </c>
-      <c r="BA52" s="35"/>
-      <c r="BB52" s="16">
-        <f t="shared" si="23"/>
-        <v>1.8820866080315783</v>
-      </c>
-      <c r="BC52" s="35"/>
-      <c r="BD52" s="16">
-        <f t="shared" si="24"/>
-        <v>4.6985130627121876</v>
-      </c>
-      <c r="BE52" s="35"/>
-      <c r="BF52" s="16">
-        <f t="shared" si="25"/>
-        <v>7.8662951889666726</v>
-      </c>
-    </row>
-    <row r="53" spans="46:58" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AT53" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU53" s="36"/>
-      <c r="AV53" s="18">
-        <f>AVERAGE(AV41:AV52)</f>
-        <v>6.3640836498666902</v>
-      </c>
-      <c r="AW53" s="36"/>
-      <c r="AX53" s="18">
-        <f>AVERAGE(AX41:AX46,AX48:AX52)</f>
-        <v>6.645200637646874</v>
-      </c>
-      <c r="AY53" s="36"/>
-      <c r="AZ53" s="18">
-        <f>AVERAGE(AZ41:AZ52)</f>
-        <v>17.978915387275347</v>
-      </c>
-      <c r="BA53" s="36"/>
-      <c r="BB53" s="18">
-        <f>AVERAGE(BB41:BB52)</f>
-        <v>7.9464501006021679</v>
-      </c>
-      <c r="BC53" s="36"/>
-      <c r="BD53" s="18">
-        <f>AVERAGE(BD41:BD52)</f>
+      <c r="BK53" s="53"/>
+      <c r="BL53" s="18">
+        <f>AVERAGE(BL41:BL52)</f>
+        <v>5.7389381533311665</v>
+      </c>
+      <c r="BM53" s="53"/>
+      <c r="BN53" s="18">
+        <f>AVERAGE(BN41:BN46,BN48:BN52)</f>
+        <v>8.183553147150338</v>
+      </c>
+      <c r="BO53" s="53"/>
+      <c r="BP53" s="18">
+        <f>AVERAGE(BP41:BP52)</f>
         <v>11.37451732749021</v>
       </c>
-      <c r="BE53" s="36"/>
-      <c r="BF53" s="18">
-        <f>AVERAGE(BF41:BF52)</f>
+      <c r="BQ53" s="53"/>
+      <c r="BR53" s="18">
+        <f>AVERAGE(BR41:BR52)</f>
         <v>13.580247681367959</v>
+      </c>
+      <c r="BS53" s="53"/>
+      <c r="BT53" s="18">
+        <f>AVERAGE(BT41:BT52)</f>
+        <v>8.2107183696253614</v>
+      </c>
+      <c r="BU53" s="53"/>
+      <c r="BV53" s="18">
+        <f>AVERAGE(BV41:BV52)</f>
+        <v>5.9513133807946446</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B8:N23">
     <sortCondition ref="B8"/>
   </sortState>
-  <mergeCells count="34">
-    <mergeCell ref="BE41:BE53"/>
-    <mergeCell ref="AU41:AU53"/>
-    <mergeCell ref="AW41:AW53"/>
-    <mergeCell ref="AY41:AY53"/>
-    <mergeCell ref="BA41:BA53"/>
-    <mergeCell ref="BC41:BC53"/>
-    <mergeCell ref="AT37:BF39"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="W20:Y20"/>
+  <mergeCells count="42">
+    <mergeCell ref="BU41:BU53"/>
+    <mergeCell ref="BK41:BK53"/>
+    <mergeCell ref="BM41:BM53"/>
+    <mergeCell ref="BO41:BO53"/>
+    <mergeCell ref="BQ41:BQ53"/>
+    <mergeCell ref="BS41:BS53"/>
+    <mergeCell ref="BJ37:BV39"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="AA20:AC20"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="W20:Y20"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="F6:J6"/>
-    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="BE8:BE20"/>
-    <mergeCell ref="AT4:BF6"/>
-    <mergeCell ref="AU8:AU20"/>
-    <mergeCell ref="AY8:AY20"/>
-    <mergeCell ref="BA8:BA20"/>
-    <mergeCell ref="BC8:BC20"/>
-    <mergeCell ref="AW8:AW20"/>
     <mergeCell ref="AE6:AH6"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="BU8:BU20"/>
+    <mergeCell ref="BJ4:BV6"/>
+    <mergeCell ref="BK8:BK20"/>
+    <mergeCell ref="BO8:BO20"/>
+    <mergeCell ref="BQ8:BQ20"/>
+    <mergeCell ref="BS8:BS20"/>
+    <mergeCell ref="BM8:BM20"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="AM6:AP6"/>
+    <mergeCell ref="AQ6:AT6"/>
+    <mergeCell ref="AU6:AX6"/>
+    <mergeCell ref="AM20:AO20"/>
+    <mergeCell ref="AQ20:AS20"/>
+    <mergeCell ref="AU20:AW20"/>
+    <mergeCell ref="BC6:BF6"/>
+    <mergeCell ref="BC20:BE20"/>
     <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="AM6:AP6"/>
-    <mergeCell ref="AE20:AG20"/>
     <mergeCell ref="AI20:AK20"/>
-    <mergeCell ref="AM20:AO20"/>
+    <mergeCell ref="AY6:BB6"/>
+    <mergeCell ref="AY20:BA20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4169,27 +4947,27 @@
   <sheetData>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="M4" s="37" t="s">
+      <c r="G4" s="60"/>
+      <c r="M4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -4210,13 +4988,13 @@
       <c r="G5">
         <v>426.23431399999998</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
     </row>
     <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6">
@@ -4237,13 +5015,13 @@
       <c r="G6">
         <v>428.14597700000002</v>
       </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -4308,21 +5086,21 @@
       <c r="M8" s="19">
         <v>1</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="51" t="s">
         <v>20</v>
       </c>
       <c r="O8" s="20">
         <f>SQRT(($B36-D36)^2+($C36-E36)^2)*1000</f>
         <v>10.498248484307</v>
       </c>
-      <c r="P8" s="46" t="s">
+      <c r="P8" s="54" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="20">
         <f>SQRT(($B36-F36)^2+($C36-G36)^2)*1000</f>
         <v>3.4044954400089718</v>
       </c>
-      <c r="R8" s="34" t="s">
+      <c r="R8" s="51" t="s">
         <v>22</v>
       </c>
       <c r="S8" s="20">
@@ -4352,17 +5130,17 @@
       <c r="M9" s="13">
         <v>2</v>
       </c>
-      <c r="N9" s="35"/>
+      <c r="N9" s="52"/>
       <c r="O9" s="15">
         <f t="shared" ref="O9:O19" si="0">SQRT(($B37-D37)^2+($C37-E37)^2)*1000</f>
         <v>4.7318884606702278</v>
       </c>
-      <c r="P9" s="47"/>
+      <c r="P9" s="55"/>
       <c r="Q9" s="15">
         <f t="shared" ref="Q9:Q19" si="1">SQRT(($B37-F37)^2+($C37-G37)^2)*1000</f>
         <v>2.3194347445537233</v>
       </c>
-      <c r="R9" s="35"/>
+      <c r="R9" s="52"/>
       <c r="S9" s="15">
         <f t="shared" ref="S9:S19" si="2">SQRT(($B37-H37)^2+($C37-I37)^2)*1000</f>
         <v>2.495176168321751</v>
@@ -4390,17 +5168,17 @@
       <c r="M10" s="13">
         <v>3</v>
       </c>
-      <c r="N10" s="35"/>
+      <c r="N10" s="52"/>
       <c r="O10" s="15">
         <f t="shared" si="0"/>
         <v>7.4215967779334457</v>
       </c>
-      <c r="P10" s="47"/>
+      <c r="P10" s="55"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
         <v>5.7784964913816053</v>
       </c>
-      <c r="R10" s="35"/>
+      <c r="R10" s="52"/>
       <c r="S10" s="15">
         <f t="shared" si="2"/>
         <v>5.6784069459892166</v>
@@ -4428,17 +5206,17 @@
       <c r="M11" s="13">
         <v>4</v>
       </c>
-      <c r="N11" s="35"/>
+      <c r="N11" s="52"/>
       <c r="O11" s="15">
         <f t="shared" si="0"/>
         <v>3.5862501636508748</v>
       </c>
-      <c r="P11" s="47"/>
+      <c r="P11" s="55"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
         <v>2.0195317199966012</v>
       </c>
-      <c r="R11" s="35"/>
+      <c r="R11" s="52"/>
       <c r="S11" s="15">
         <f t="shared" si="2"/>
         <v>5.868727895450518</v>
@@ -4466,17 +5244,17 @@
       <c r="M12" s="13">
         <v>5</v>
       </c>
-      <c r="N12" s="35"/>
+      <c r="N12" s="52"/>
       <c r="O12" s="15">
         <f t="shared" si="0"/>
         <v>8.0467925746322759</v>
       </c>
-      <c r="P12" s="47"/>
+      <c r="P12" s="55"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
         <v>6.7245607689675992</v>
       </c>
-      <c r="R12" s="35"/>
+      <c r="R12" s="52"/>
       <c r="S12" s="15">
         <f t="shared" si="2"/>
         <v>2.4369476353910886</v>
@@ -4504,17 +5282,17 @@
       <c r="M13" s="13">
         <v>6</v>
       </c>
-      <c r="N13" s="35"/>
+      <c r="N13" s="52"/>
       <c r="O13" s="15">
         <f t="shared" si="0"/>
         <v>9.212471333510921</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="55"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
         <v>10.048059507630962</v>
       </c>
-      <c r="R13" s="35"/>
+      <c r="R13" s="52"/>
       <c r="S13" s="15">
         <f t="shared" si="2"/>
         <v>2.8408114059972918</v>
@@ -4542,17 +5320,17 @@
       <c r="M14" s="13">
         <v>7</v>
       </c>
-      <c r="N14" s="35"/>
+      <c r="N14" s="52"/>
       <c r="O14" s="15">
         <f t="shared" si="0"/>
         <v>9.1770905375313809</v>
       </c>
-      <c r="P14" s="47"/>
+      <c r="P14" s="55"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
         <v>10.40894637003726</v>
       </c>
-      <c r="R14" s="35"/>
+      <c r="R14" s="52"/>
       <c r="S14" s="15">
         <f t="shared" si="2"/>
         <v>7.9818093882837635</v>
@@ -4580,17 +5358,17 @@
       <c r="M15" s="13">
         <v>8</v>
       </c>
-      <c r="N15" s="35"/>
+      <c r="N15" s="52"/>
       <c r="O15" s="15">
         <f t="shared" si="0"/>
         <v>7.3529851126477395</v>
       </c>
-      <c r="P15" s="47"/>
+      <c r="P15" s="55"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
         <v>1.4825614213427625</v>
       </c>
-      <c r="R15" s="35"/>
+      <c r="R15" s="52"/>
       <c r="S15" s="15">
         <f t="shared" si="2"/>
         <v>1.7489418070677214</v>
@@ -4618,17 +5396,17 @@
       <c r="M16" s="13">
         <v>9</v>
       </c>
-      <c r="N16" s="35"/>
+      <c r="N16" s="52"/>
       <c r="O16" s="15">
         <f t="shared" si="0"/>
         <v>7.0168114128968693</v>
       </c>
-      <c r="P16" s="47"/>
+      <c r="P16" s="55"/>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
         <v>10.063630435148001</v>
       </c>
-      <c r="R16" s="35"/>
+      <c r="R16" s="52"/>
       <c r="S16" s="15">
         <f t="shared" si="2"/>
         <v>3.9814333823499592</v>
@@ -4638,53 +5416,53 @@
       <c r="M17" s="13">
         <v>10</v>
       </c>
-      <c r="N17" s="35"/>
+      <c r="N17" s="52"/>
       <c r="O17" s="15">
         <f t="shared" si="0"/>
         <v>6.2833183567095876</v>
       </c>
-      <c r="P17" s="47"/>
+      <c r="P17" s="55"/>
       <c r="Q17" s="15">
         <f t="shared" si="1"/>
         <v>8.2871469780187876</v>
       </c>
-      <c r="R17" s="35"/>
+      <c r="R17" s="52"/>
       <c r="S17" s="15">
         <f t="shared" si="2"/>
         <v>8.3228768530904098</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56" t="s">
+      <c r="E18" s="60"/>
+      <c r="F18" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56" t="s">
+      <c r="G18" s="60"/>
+      <c r="H18" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="56"/>
+      <c r="I18" s="60"/>
       <c r="M18" s="13">
         <v>11</v>
       </c>
-      <c r="N18" s="35"/>
+      <c r="N18" s="52"/>
       <c r="O18" s="15">
         <f t="shared" si="0"/>
         <v>7.4279606151748352</v>
       </c>
-      <c r="P18" s="47"/>
+      <c r="P18" s="55"/>
       <c r="Q18" s="15">
         <f t="shared" si="1"/>
         <v>15.615454706761716</v>
       </c>
-      <c r="R18" s="35"/>
+      <c r="R18" s="52"/>
       <c r="S18" s="15">
         <f t="shared" si="2"/>
         <v>1.4009162873900554</v>
@@ -4727,17 +5505,17 @@
       <c r="M19" s="14">
         <v>12</v>
       </c>
-      <c r="N19" s="35"/>
+      <c r="N19" s="52"/>
       <c r="O19" s="16">
         <f t="shared" si="0"/>
         <v>5.0017536992883951</v>
       </c>
-      <c r="P19" s="47"/>
+      <c r="P19" s="55"/>
       <c r="Q19" s="16">
         <f t="shared" si="1"/>
         <v>3.0953428245615253</v>
       </c>
-      <c r="R19" s="35"/>
+      <c r="R19" s="52"/>
       <c r="S19" s="16">
         <f t="shared" si="2"/>
         <v>2.0201086054186828</v>
@@ -4780,17 +5558,17 @@
       <c r="M20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="N20" s="36"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="18">
         <f>AVERAGE(O8:O19)</f>
         <v>7.1464306274127951</v>
       </c>
-      <c r="P20" s="48"/>
+      <c r="P20" s="56"/>
       <c r="Q20" s="18">
         <f>AVERAGE(Q8:Q19)</f>
         <v>6.6039717840341261</v>
       </c>
-      <c r="R20" s="36"/>
+      <c r="R20" s="53"/>
       <c r="S20" s="18">
         <f>AVERAGE(S8:S19)</f>
         <v>3.9469215659162269</v>
@@ -5175,11 +5953,11 @@
         <v>428.22633324999998</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:I31" si="7">AVERAGE(H19:H30)</f>
+        <f>AVERAGE(H19:H30)</f>
         <v>12.801749999999998</v>
       </c>
       <c r="I31">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(I19:I30)</f>
         <v>15.961158333333335</v>
       </c>
     </row>
@@ -5188,69 +5966,69 @@
         <v>23</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:G32" si="8">B31-100</f>
+        <f t="shared" ref="B32:G32" si="7">B31-100</f>
         <v>530.04484833333333</v>
       </c>
       <c r="C32">
+        <f t="shared" si="7"/>
+        <v>328.90086133333335</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>530.04431258333341</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="7"/>
+        <v>328.89910424999988</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>530.26570749999996</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="7"/>
+        <v>328.22633324999998</v>
+      </c>
+      <c r="H32">
+        <f>H31-100</f>
+        <v>-87.198250000000002</v>
+      </c>
+      <c r="I32">
+        <f>I31-100</f>
+        <v>-84.03884166666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="25">
+        <f t="shared" ref="B34:I34" si="8">B19-B36</f>
+        <v>530.04484833333333</v>
+      </c>
+      <c r="C34" s="25">
         <f t="shared" si="8"/>
         <v>328.90086133333335</v>
       </c>
-      <c r="D32">
+      <c r="D34" s="25">
         <f t="shared" si="8"/>
         <v>530.04431258333341</v>
       </c>
-      <c r="E32">
+      <c r="E34" s="25">
         <f t="shared" si="8"/>
         <v>328.89910424999988</v>
       </c>
-      <c r="F32">
+      <c r="F34" s="25">
         <f t="shared" si="8"/>
         <v>530.26570749999996</v>
       </c>
-      <c r="G32">
+      <c r="G34" s="25">
         <f t="shared" si="8"/>
         <v>328.22633324999998</v>
       </c>
-      <c r="H32">
-        <f t="shared" ref="H32:I32" si="9">H31-100</f>
+      <c r="H34" s="25">
+        <f t="shared" si="8"/>
         <v>-87.198250000000002</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="9"/>
-        <v>-84.03884166666667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="25">
-        <f>B19-B36</f>
-        <v>530.04484833333333</v>
-      </c>
-      <c r="C34" s="25">
-        <f t="shared" ref="C34:G34" si="10">C19-C36</f>
-        <v>328.90086133333335</v>
-      </c>
-      <c r="D34" s="25">
-        <f t="shared" si="10"/>
-        <v>530.04431258333341</v>
-      </c>
-      <c r="E34" s="25">
-        <f t="shared" si="10"/>
-        <v>328.89910424999988</v>
-      </c>
-      <c r="F34" s="25">
-        <f t="shared" si="10"/>
-        <v>530.26570749999996</v>
-      </c>
-      <c r="G34" s="25">
-        <f t="shared" si="10"/>
-        <v>328.22633324999998</v>
-      </c>
-      <c r="H34" s="25">
-        <f t="shared" ref="H34:I34" si="11">H19-H36</f>
-        <v>-87.198250000000002</v>
-      </c>
       <c r="I34" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-84.03884166666667</v>
       </c>
     </row>
@@ -5259,35 +6037,35 @@
         <v>18</v>
       </c>
       <c r="B35">
-        <f>B32</f>
+        <f t="shared" ref="B35:I35" si="9">B32</f>
         <v>530.04484833333333</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:G35" si="12">C32</f>
+        <f t="shared" si="9"/>
         <v>328.90086133333335</v>
       </c>
       <c r="D35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>530.04431258333341</v>
       </c>
       <c r="E35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>328.89910424999988</v>
       </c>
       <c r="F35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>530.26570749999996</v>
       </c>
       <c r="G35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>328.22633324999998</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:I35" si="13">H32</f>
+        <f t="shared" si="9"/>
         <v>-87.198250000000002</v>
       </c>
       <c r="I35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-84.03884166666667</v>
       </c>
     </row>
@@ -5296,35 +6074,35 @@
         <v>1</v>
       </c>
       <c r="B36" s="25">
-        <f t="shared" ref="B36:B47" si="14">B19-B$35</f>
+        <f t="shared" ref="B36:B47" si="10">B19-B$35</f>
         <v>95.808588666666651</v>
       </c>
       <c r="C36" s="25">
-        <f t="shared" ref="C36:G36" si="15">C19-C$35</f>
+        <f t="shared" ref="C36:I36" si="11">C19-C$35</f>
         <v>99.917778666666663</v>
       </c>
       <c r="D36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>95.802896416666613</v>
       </c>
       <c r="E36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>99.926599750000094</v>
       </c>
       <c r="F36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>95.80574050000007</v>
       </c>
       <c r="G36" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>99.919643750000034</v>
       </c>
       <c r="H36" s="25">
-        <f t="shared" ref="H36:I36" si="16">H19-H$35</f>
+        <f t="shared" si="11"/>
         <v>95.810649999999995</v>
       </c>
       <c r="I36" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>99.919341666666668</v>
       </c>
     </row>
@@ -5333,35 +6111,35 @@
         <v>2</v>
       </c>
       <c r="B37" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>96.712279666666632</v>
       </c>
       <c r="C37" s="25">
-        <f t="shared" ref="C37:G47" si="17">C20-C$35</f>
+        <f t="shared" ref="C37:G47" si="12">C20-C$35</f>
         <v>99.938773666666634</v>
       </c>
       <c r="D37" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>96.711023416666649</v>
       </c>
       <c r="E37" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>99.943335750000131</v>
       </c>
       <c r="F37" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>96.709963500000072</v>
       </c>
       <c r="G37" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>99.938896750000026</v>
       </c>
       <c r="H37" s="25">
-        <f t="shared" ref="H37:I37" si="18">H20-H$35</f>
+        <f t="shared" ref="H37:I47" si="13">H20-H$35</f>
         <v>96.709850000000003</v>
       </c>
       <c r="I37" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>99.939341666666664</v>
       </c>
     </row>
@@ -5370,35 +6148,35 @@
         <v>3</v>
       </c>
       <c r="B38" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>95.802810666666687</v>
       </c>
       <c r="C38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.012706666666645</v>
       </c>
       <c r="D38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>95.803415416666553</v>
       </c>
       <c r="E38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.005309750000094</v>
       </c>
       <c r="F38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>95.79948550000006</v>
       </c>
       <c r="G38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.007980750000002</v>
       </c>
       <c r="H38" s="25">
-        <f t="shared" ref="H38:I38" si="19">H21-H$35</f>
+        <f t="shared" si="13"/>
         <v>95.808450000000008</v>
       </c>
       <c r="I38" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>98.012041666666676</v>
       </c>
     </row>
@@ -5407,35 +6185,35 @@
         <v>4</v>
       </c>
       <c r="B39" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>96.712766666666653</v>
       </c>
       <c r="C39" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.009775666666656</v>
       </c>
       <c r="D39" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>96.716159416666642</v>
       </c>
       <c r="E39" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.010937750000096</v>
       </c>
       <c r="F39" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>96.71199450000006</v>
       </c>
       <c r="G39" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.011641750000024</v>
       </c>
       <c r="H39" s="25">
-        <f t="shared" ref="H39:I39" si="20">H22-H$35</f>
+        <f t="shared" si="13"/>
         <v>96.710549999999998</v>
       </c>
       <c r="I39" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>98.004341666666676</v>
       </c>
     </row>
@@ -5444,35 +6222,35 @@
         <v>5</v>
       </c>
       <c r="B40" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>98.965806666666708</v>
       </c>
       <c r="C40" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>100.02854766666667</v>
       </c>
       <c r="D40" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.959435416666565</v>
       </c>
       <c r="E40" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>100.03346275000013</v>
       </c>
       <c r="F40" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.970764500000087</v>
       </c>
       <c r="G40" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>100.03309075000004</v>
       </c>
       <c r="H40" s="25">
-        <f t="shared" ref="H40:I40" si="21">H23-H$35</f>
+        <f t="shared" si="13"/>
         <v>98.967650000000006</v>
       </c>
       <c r="I40" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>100.03014166666667</v>
       </c>
     </row>
@@ -5481,35 +6259,35 @@
         <v>6</v>
       </c>
       <c r="B41" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>99.87533366666662</v>
       </c>
       <c r="C41" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>100.01851566666664</v>
       </c>
       <c r="D41" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>99.883489416666634</v>
       </c>
       <c r="E41" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>100.0227997500001</v>
       </c>
       <c r="F41" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>99.874449500000082</v>
       </c>
       <c r="G41" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>100.02852475000003</v>
       </c>
       <c r="H41" s="25">
-        <f t="shared" ref="H41:I41" si="22">H24-H$35</f>
+        <f t="shared" si="13"/>
         <v>99.874250000000004</v>
       </c>
       <c r="I41" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>100.02114166666667</v>
       </c>
     </row>
@@ -5518,35 +6296,35 @@
         <v>7</v>
       </c>
       <c r="B42" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>98.967763666666656</v>
       </c>
       <c r="C42" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.51952266666666</v>
       </c>
       <c r="D42" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.968040416666554</v>
       </c>
       <c r="E42" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.510349750000103</v>
       </c>
       <c r="F42" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.968220500000029</v>
       </c>
       <c r="G42" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.509123750000015</v>
       </c>
       <c r="H42" s="25">
-        <f t="shared" ref="H42:I42" si="23">H25-H$35</f>
+        <f t="shared" si="13"/>
         <v>98.967650000000006</v>
       </c>
       <c r="I42" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>98.511541666666673</v>
       </c>
     </row>
@@ -5555,35 +6333,35 @@
         <v>8</v>
       </c>
       <c r="B43" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>99.875339666666719</v>
       </c>
       <c r="C43" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.506509666666659</v>
       </c>
       <c r="D43" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>99.879111416666547</v>
       </c>
       <c r="E43" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.500197750000098</v>
       </c>
       <c r="F43" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>99.876805500000046</v>
       </c>
       <c r="G43" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>98.506731750000029</v>
       </c>
       <c r="H43" s="25">
-        <f t="shared" ref="H43:I43" si="24">H26-H$35</f>
+        <f t="shared" si="13"/>
         <v>99.874250000000004</v>
       </c>
       <c r="I43" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>98.505141666666674</v>
       </c>
     </row>
@@ -5592,35 +6370,35 @@
         <v>9</v>
       </c>
       <c r="B44" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>103.87816366666664</v>
       </c>
       <c r="C44" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>102.33947666666666</v>
       </c>
       <c r="D44" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>103.87915041666656</v>
       </c>
       <c r="E44" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>102.3464237500001</v>
       </c>
       <c r="F44" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>103.88506649999999</v>
       </c>
       <c r="G44" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>102.34679975</v>
       </c>
       <c r="H44" s="25">
-        <f t="shared" ref="H44:I44" si="25">H27-H$35</f>
+        <f t="shared" si="13"/>
         <v>103.88205000000001</v>
       </c>
       <c r="I44" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="13"/>
         <v>102.34034166666667</v>
       </c>
     </row>
@@ -5629,35 +6407,35 @@
         <v>10</v>
       </c>
       <c r="B45" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>104.76246466666669</v>
       </c>
       <c r="C45" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>102.32844966666664</v>
       </c>
       <c r="D45" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>104.75748441666656</v>
       </c>
       <c r="E45" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>102.33228075000011</v>
       </c>
       <c r="F45" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>104.75853849999999</v>
       </c>
       <c r="G45" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>102.33574775</v>
       </c>
       <c r="H45" s="25">
-        <f t="shared" ref="H45:I45" si="26">H28-H$35</f>
+        <f t="shared" si="13"/>
         <v>104.75794999999999</v>
       </c>
       <c r="I45" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>102.33544166666667</v>
       </c>
     </row>
@@ -5666,35 +6444,35 @@
         <v>11</v>
       </c>
       <c r="B46" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>103.88519566666662</v>
       </c>
       <c r="C46" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>101.18848266666663</v>
       </c>
       <c r="D46" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>103.88382241666659</v>
       </c>
       <c r="E46" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>101.18118275000012</v>
       </c>
       <c r="F46" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>103.88376650000009</v>
       </c>
       <c r="G46" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>101.17293275000003</v>
       </c>
       <c r="H46" s="25">
-        <f t="shared" ref="H46:I46" si="27">H29-H$35</f>
+        <f t="shared" si="13"/>
         <v>103.88395</v>
       </c>
       <c r="I46" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>101.18784166666667</v>
       </c>
     </row>
@@ -5703,35 +6481,35 @@
         <v>12</v>
       </c>
       <c r="B47" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>104.75348666666662</v>
       </c>
       <c r="C47" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>101.19146066666667</v>
       </c>
       <c r="D47" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>104.75597141666663</v>
       </c>
       <c r="E47" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>101.18711975000014</v>
       </c>
       <c r="F47" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>104.75520449999999</v>
       </c>
       <c r="G47" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>101.18888575</v>
       </c>
       <c r="H47" s="25">
-        <f t="shared" ref="H47:I47" si="28">H30-H$35</f>
+        <f t="shared" si="13"/>
         <v>104.75275000000001</v>
       </c>
       <c r="I47" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>101.19334166666667</v>
       </c>
     </row>
